--- a/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
@@ -1378,28 +1378,28 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1.000672341139076</v>
+        <v>1.000672339660433</v>
       </c>
       <c r="D2">
-        <v>330.2555899271149</v>
+        <v>330.255590415117</v>
       </c>
       <c r="E2">
         <v>1453.824137714816</v>
       </c>
       <c r="F2">
-        <v>1123.568547787701</v>
+        <v>1123.568547299699</v>
       </c>
       <c r="G2">
         <v>21207.72021478431</v>
       </c>
       <c r="H2">
-        <v>1446.814895226042</v>
+        <v>1446.817859341855</v>
       </c>
       <c r="I2">
         <v>41.66655271648441</v>
       </c>
       <c r="J2">
-        <v>6.13672582002035</v>
+        <v>6.136669127862317</v>
       </c>
       <c r="K2">
         <v>0.6203285339049449</v>
@@ -1411,13 +1411,13 @@
         <v>0.3738985059721814</v>
       </c>
       <c r="O2">
-        <v>0.6289771011143301</v>
+        <v>0.628988018990431</v>
       </c>
       <c r="R2">
-        <v>0.407680087411411</v>
+        <v>0.4076608316356126</v>
       </c>
       <c r="U2">
-        <v>47.80327853650476</v>
+        <v>47.80322184434673</v>
       </c>
       <c r="V2" t="s">
         <v>110</v>
@@ -1464,28 +1464,28 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>1.000616591555964</v>
+        <v>1.000616587169185</v>
       </c>
       <c r="D3">
-        <v>330.2739901931252</v>
+        <v>330.2739916410715</v>
       </c>
       <c r="E3">
         <v>1453.828523171554</v>
       </c>
       <c r="F3">
-        <v>1123.554532978428</v>
+        <v>1123.554531530482</v>
       </c>
       <c r="G3">
         <v>21691.26884916821</v>
       </c>
       <c r="H3">
-        <v>1328.306884272581</v>
+        <v>1328.319899319157</v>
       </c>
       <c r="I3">
         <v>42.80647971611094</v>
       </c>
       <c r="J3">
-        <v>5.33545365352766</v>
+        <v>5.335542977706218</v>
       </c>
       <c r="K3">
         <v>0.61843636393068</v>
@@ -1497,13 +1497,13 @@
         <v>0.3660781948380815</v>
       </c>
       <c r="O3">
-        <v>0.6486933413875037</v>
+        <v>0.6486929112023514</v>
       </c>
       <c r="R3">
-        <v>0.4087679679214551</v>
+        <v>0.4087929479256287</v>
       </c>
       <c r="U3">
-        <v>48.1419333696386</v>
+        <v>48.14202269381716</v>
       </c>
       <c r="V3" t="s">
         <v>111</v>
@@ -1550,28 +1550,28 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>1.000594812758474</v>
+        <v>1.000594816067742</v>
       </c>
       <c r="D4">
-        <v>330.2811788875467</v>
+        <v>330.2811777952077</v>
       </c>
       <c r="E4">
         <v>1453.82232508809</v>
       </c>
       <c r="F4">
-        <v>1123.541146200543</v>
+        <v>1123.541147292882</v>
       </c>
       <c r="G4">
         <v>20320.58024531272</v>
       </c>
       <c r="H4">
-        <v>1618.787593186444</v>
+        <v>1618.779528596682</v>
       </c>
       <c r="I4">
         <v>38.41164138306906</v>
       </c>
       <c r="J4">
-        <v>6.845346686930621</v>
+        <v>6.845233115646338</v>
       </c>
       <c r="K4">
         <v>0.6228620545919288</v>
@@ -1583,13 +1583,13 @@
         <v>0.3663539501751377</v>
       </c>
       <c r="O4">
-        <v>0.6397488129682439</v>
+        <v>0.6397509712382312</v>
       </c>
       <c r="R4">
-        <v>0.4180314224779178</v>
+        <v>0.4180140328085212</v>
       </c>
       <c r="U4">
-        <v>45.25698806999968</v>
+        <v>45.2568744987154</v>
       </c>
       <c r="V4" t="s">
         <v>112</v>
@@ -1636,28 +1636,28 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>1.000641965717805</v>
+        <v>1.000641950420278</v>
       </c>
       <c r="D5">
-        <v>330.2656151439405</v>
+        <v>330.2656201929467</v>
       </c>
       <c r="E5">
         <v>1453.816835429267</v>
       </c>
       <c r="F5">
-        <v>1123.551220285326</v>
+        <v>1123.55121523632</v>
       </c>
       <c r="G5">
         <v>19843.74687413721</v>
       </c>
       <c r="H5">
-        <v>1499.88906715851</v>
+        <v>1499.932065583676</v>
       </c>
       <c r="I5">
         <v>41.20599166488984</v>
       </c>
       <c r="J5">
-        <v>5.937953047832835</v>
+        <v>5.938521812090877</v>
       </c>
       <c r="K5">
         <v>0.6197854340411275</v>
@@ -1669,13 +1669,13 @@
         <v>0.3851316134418831</v>
       </c>
       <c r="O5">
-        <v>0.6364212484747924</v>
+        <v>0.6364128579449773</v>
       </c>
       <c r="R5">
-        <v>0.448113978474632</v>
+        <v>0.4482037714715404</v>
       </c>
       <c r="U5">
-        <v>47.14394471272267</v>
+        <v>47.14451347698071</v>
       </c>
       <c r="V5" t="s">
         <v>113</v>
@@ -1722,28 +1722,28 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>1.000614034815864</v>
+        <v>1.000614031335007</v>
       </c>
       <c r="D6">
-        <v>330.274834099692</v>
+        <v>330.2748352486258</v>
       </c>
       <c r="E6">
         <v>1453.817174057574</v>
       </c>
       <c r="F6">
-        <v>1123.542339957882</v>
+        <v>1123.542338808948</v>
       </c>
       <c r="G6">
         <v>20547.57647772583</v>
       </c>
       <c r="H6">
-        <v>1460.787562120133</v>
+        <v>1460.7964430287</v>
       </c>
       <c r="I6">
         <v>43.86642492125705</v>
       </c>
       <c r="J6">
-        <v>6.587570567940721</v>
+        <v>6.587840949083333</v>
       </c>
       <c r="K6">
         <v>0.6222773537309388</v>
@@ -1755,13 +1755,13 @@
         <v>0.3797557088542522</v>
       </c>
       <c r="O6">
-        <v>0.6439104430748237</v>
+        <v>0.6439098086085211</v>
       </c>
       <c r="R6">
-        <v>0.3995344166833444</v>
+        <v>0.3995508127181722</v>
       </c>
       <c r="U6">
-        <v>50.45399548919777</v>
+        <v>50.45426587034038</v>
       </c>
       <c r="V6" t="s">
         <v>114</v>
@@ -1808,28 +1808,28 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>1.000632691426213</v>
+        <v>1.000632723334459</v>
       </c>
       <c r="D7">
-        <v>330.2686761868626</v>
+        <v>330.2686656552323</v>
       </c>
       <c r="E7">
         <v>1453.81464777805</v>
       </c>
       <c r="F7">
-        <v>1123.545971591188</v>
+        <v>1123.545982122818</v>
       </c>
       <c r="G7">
         <v>20645.55513732425</v>
       </c>
       <c r="H7">
-        <v>1526.529611717551</v>
+        <v>1526.416964746067</v>
       </c>
       <c r="I7">
         <v>40.35810681807515</v>
       </c>
       <c r="J7">
-        <v>5.707204882251992</v>
+        <v>5.706012603111299</v>
       </c>
       <c r="K7">
         <v>0.6258569407193386</v>
@@ -1841,13 +1841,13 @@
         <v>0.3762981485684497</v>
       </c>
       <c r="O7">
-        <v>0.6179864765529425</v>
+        <v>0.617991466268717</v>
       </c>
       <c r="R7">
-        <v>0.4370681548091611</v>
+        <v>0.4368779819242287</v>
       </c>
       <c r="U7">
-        <v>46.06531170032714</v>
+        <v>46.06411942118645</v>
       </c>
       <c r="V7" t="s">
         <v>115</v>
@@ -1894,28 +1894,28 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>1.000604547749427</v>
+        <v>1.000604535751257</v>
       </c>
       <c r="D8">
-        <v>330.2779655458769</v>
+        <v>330.2779695062136</v>
       </c>
       <c r="E8">
         <v>1453.806151710498</v>
       </c>
       <c r="F8">
-        <v>1123.528186164621</v>
+        <v>1123.528182204285</v>
       </c>
       <c r="G8">
         <v>20375.29387089088</v>
       </c>
       <c r="H8">
-        <v>1502.999477098808</v>
+        <v>1503.036020548312</v>
       </c>
       <c r="I8">
         <v>43.5380453818754</v>
       </c>
       <c r="J8">
-        <v>6.766591442821113</v>
+        <v>6.767571866470631</v>
       </c>
       <c r="K8">
         <v>0.6247820811480714</v>
@@ -1927,13 +1927,13 @@
         <v>0.3789471321543898</v>
       </c>
       <c r="O8">
-        <v>0.6318378993561191</v>
+        <v>0.6318365202061471</v>
       </c>
       <c r="R8">
-        <v>0.4564325992897703</v>
+        <v>0.4564935926092168</v>
       </c>
       <c r="U8">
-        <v>50.30463682469652</v>
+        <v>50.30561724834603</v>
       </c>
       <c r="V8" t="s">
         <v>116</v>
@@ -1980,28 +1980,28 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>1.000596045146987</v>
+        <v>1.000596058747376</v>
       </c>
       <c r="D9">
-        <v>330.2807720952824</v>
+        <v>330.2807676060113</v>
       </c>
       <c r="E9">
         <v>1453.806207175838</v>
       </c>
       <c r="F9">
-        <v>1123.525435080556</v>
+        <v>1123.525439569827</v>
       </c>
       <c r="G9">
         <v>20097.25090333418</v>
       </c>
       <c r="H9">
-        <v>1555.39825861347</v>
+        <v>1555.353723840071</v>
       </c>
       <c r="I9">
         <v>41.31030635155285</v>
       </c>
       <c r="J9">
-        <v>6.70957327780873</v>
+        <v>6.709336144489693</v>
       </c>
       <c r="K9">
         <v>0.6263521802234405</v>
@@ -2013,13 +2013,13 @@
         <v>0.3707416866545901</v>
       </c>
       <c r="O9">
-        <v>0.6275227749175499</v>
+        <v>0.6275257591769003</v>
       </c>
       <c r="R9">
-        <v>0.468667839678608</v>
+        <v>0.4685928679873102</v>
       </c>
       <c r="U9">
-        <v>48.01987962936158</v>
+        <v>48.01964249604254</v>
       </c>
       <c r="V9" t="s">
         <v>117</v>
@@ -2066,28 +2066,28 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>1.000585986454708</v>
+        <v>1.000585982535085</v>
       </c>
       <c r="D10">
-        <v>330.2840923423146</v>
+        <v>330.2840936361456</v>
       </c>
       <c r="E10">
         <v>1453.772211006492</v>
       </c>
       <c r="F10">
-        <v>1123.488118664177</v>
+        <v>1123.488117370346</v>
       </c>
       <c r="G10">
         <v>21259.41648165957</v>
       </c>
       <c r="H10">
-        <v>1618.965162678575</v>
+        <v>1618.974327850979</v>
       </c>
       <c r="I10">
         <v>43.37880904129673</v>
       </c>
       <c r="J10">
-        <v>6.916559647688471</v>
+        <v>6.917289847987602</v>
       </c>
       <c r="K10">
         <v>0.6287112020199872</v>
@@ -2099,13 +2099,13 @@
         <v>0.3587663354259155</v>
       </c>
       <c r="O10">
-        <v>0.6316029148854001</v>
+        <v>0.6316051762548753</v>
       </c>
       <c r="R10">
-        <v>0.484900352858616</v>
+        <v>0.4849082476430032</v>
       </c>
       <c r="U10">
-        <v>50.2953686889852</v>
+        <v>50.29609888928433</v>
       </c>
       <c r="V10" t="s">
         <v>118</v>
@@ -2238,28 +2238,28 @@
         <v>43</v>
       </c>
       <c r="C12">
-        <v>1.000607525383933</v>
+        <v>1.000607526263597</v>
       </c>
       <c r="D12">
-        <v>330.2769826959161</v>
+        <v>330.2769824055599</v>
       </c>
       <c r="E12">
         <v>1453.760640616532</v>
       </c>
       <c r="F12">
-        <v>1123.483657920616</v>
+        <v>1123.483658210972</v>
       </c>
       <c r="G12">
         <v>20116.48240334301</v>
       </c>
       <c r="H12">
-        <v>1621.751332245012</v>
+        <v>1621.746067772069</v>
       </c>
       <c r="I12">
         <v>41.00097667765822</v>
       </c>
       <c r="J12">
-        <v>5.842952652437667</v>
+        <v>5.84294958569692</v>
       </c>
       <c r="K12">
         <v>0.6295395681675494</v>
@@ -2271,13 +2271,13 @@
         <v>0.3688529625782946</v>
       </c>
       <c r="O12">
-        <v>0.6328115631518376</v>
+        <v>0.6328127712242657</v>
       </c>
       <c r="R12">
-        <v>0.4086171005221049</v>
+        <v>0.4086063608837576</v>
       </c>
       <c r="U12">
-        <v>46.84392933009589</v>
+        <v>46.84392626335514</v>
       </c>
       <c r="V12" t="s">
         <v>120</v>
@@ -2324,28 +2324,28 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <v>1.000622678582973</v>
+        <v>1.000622688880072</v>
       </c>
       <c r="D13">
-        <v>330.2719810574724</v>
+        <v>330.2719776587453</v>
       </c>
       <c r="E13">
         <v>1453.772985343938</v>
       </c>
       <c r="F13">
-        <v>1123.501004286465</v>
+        <v>1123.501007685192</v>
       </c>
       <c r="G13">
         <v>19064.19294519749</v>
       </c>
       <c r="H13">
-        <v>1465.369374660223</v>
+        <v>1465.33406726336</v>
       </c>
       <c r="I13">
         <v>34.8663489717361</v>
       </c>
       <c r="J13">
-        <v>5.799699552909318</v>
+        <v>5.799425591499896</v>
       </c>
       <c r="K13">
         <v>0.6357654591239388</v>
@@ -2357,13 +2357,13 @@
         <v>0.3548555788575822</v>
       </c>
       <c r="O13">
-        <v>0.637743005123617</v>
+        <v>0.6377464509691891</v>
       </c>
       <c r="R13">
-        <v>0.4172749688708615</v>
+        <v>0.4172080818437585</v>
       </c>
       <c r="U13">
-        <v>40.66604852464542</v>
+        <v>40.665774563236</v>
       </c>
       <c r="V13" t="s">
         <v>121</v>
@@ -2410,28 +2410,28 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>1.000578880947151</v>
+        <v>1.000578883662281</v>
       </c>
       <c r="D14">
-        <v>330.2864378206759</v>
+        <v>330.2864369244242</v>
       </c>
       <c r="E14">
         <v>1453.78104391501</v>
       </c>
       <c r="F14">
-        <v>1123.494606094334</v>
+        <v>1123.494606990586</v>
       </c>
       <c r="G14">
         <v>18754.56856891526</v>
       </c>
       <c r="H14">
-        <v>1478.965225045436</v>
+        <v>1478.954694234129</v>
       </c>
       <c r="I14">
         <v>35.58847536670353</v>
       </c>
       <c r="J14">
-        <v>5.975829979263666</v>
+        <v>5.975752421123002</v>
       </c>
       <c r="K14">
         <v>0.6314793946109969</v>
@@ -2443,13 +2443,13 @@
         <v>0.3678899026864748</v>
       </c>
       <c r="O14">
-        <v>0.6331054541474053</v>
+        <v>0.6331074597788311</v>
       </c>
       <c r="R14">
-        <v>0.4670245868776213</v>
+        <v>0.4670030897747079</v>
       </c>
       <c r="U14">
-        <v>41.5643053459672</v>
+        <v>41.56422778782654</v>
       </c>
       <c r="V14" t="s">
         <v>122</v>
@@ -2496,46 +2496,46 @@
         <v>46</v>
       </c>
       <c r="C15">
-        <v>1.000579602936576</v>
+        <v>1.000579605540272</v>
       </c>
       <c r="D15">
-        <v>330.2861994954947</v>
+        <v>330.2861986360281</v>
       </c>
       <c r="E15">
-        <v>1453.78149129262</v>
+        <v>1453.78149127593</v>
       </c>
       <c r="F15">
-        <v>1123.495291797125</v>
+        <v>1123.495292639902</v>
       </c>
       <c r="G15">
-        <v>18682.1332981365</v>
+        <v>18682.13161729148</v>
       </c>
       <c r="H15">
-        <v>1417.792738076514</v>
+        <v>1417.782963109459</v>
       </c>
       <c r="I15">
-        <v>34.85916766666433</v>
+        <v>34.85916630373707</v>
       </c>
       <c r="J15">
-        <v>5.814719656851782</v>
+        <v>5.814535347178055</v>
       </c>
       <c r="K15">
-        <v>0.6347514478063032</v>
+        <v>0.6347515525637155</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.3554954333121206</v>
+        <v>0.355494951558606</v>
       </c>
       <c r="O15">
-        <v>0.6426253205236804</v>
+        <v>0.6426272327709921</v>
       </c>
       <c r="R15">
-        <v>0.4323961891388208</v>
+        <v>0.4323751188736774</v>
       </c>
       <c r="U15">
-        <v>40.67388732351611</v>
+        <v>40.67370165091512</v>
       </c>
       <c r="V15" t="s">
         <v>123</v>
@@ -2582,28 +2582,28 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>1.000550677200498</v>
+        <v>1.000550682465539</v>
       </c>
       <c r="D16">
-        <v>330.295748008783</v>
+        <v>330.2957462707193</v>
       </c>
       <c r="E16">
         <v>1453.783114557011</v>
       </c>
       <c r="F16">
-        <v>1123.487366548228</v>
+        <v>1123.487368286291</v>
       </c>
       <c r="G16">
         <v>18883.54168724222</v>
       </c>
       <c r="H16">
-        <v>1430.790624950198</v>
+        <v>1430.772035916294</v>
       </c>
       <c r="I16">
         <v>36.927123792199</v>
       </c>
       <c r="J16">
-        <v>6.849827499972885</v>
+        <v>6.849669070200894</v>
       </c>
       <c r="K16">
         <v>0.6287939079785784</v>
@@ -2615,13 +2615,13 @@
         <v>0.3672059826854112</v>
       </c>
       <c r="O16">
-        <v>0.6414941937218998</v>
+        <v>0.6414984651628087</v>
       </c>
       <c r="R16">
-        <v>0.4280765619279186</v>
+        <v>0.4280352947159096</v>
       </c>
       <c r="U16">
-        <v>43.77695129217188</v>
+        <v>43.77679286239989</v>
       </c>
       <c r="V16" t="s">
         <v>124</v>
@@ -2668,46 +2668,46 @@
         <v>48</v>
       </c>
       <c r="C17">
-        <v>1.000553277800882</v>
+        <v>1.000553283055651</v>
       </c>
       <c r="D17">
-        <v>330.2948895165187</v>
+        <v>330.2948877818549</v>
       </c>
       <c r="E17">
-        <v>1453.786988785364</v>
+        <v>1453.786988780687</v>
       </c>
       <c r="F17">
-        <v>1123.492099268845</v>
+        <v>1123.492100998832</v>
       </c>
       <c r="G17">
-        <v>18861.8904308645</v>
+        <v>18861.89023809195</v>
       </c>
       <c r="H17">
-        <v>1439.16396003048</v>
+        <v>1439.148197957606</v>
       </c>
       <c r="I17">
-        <v>36.59237857041573</v>
+        <v>36.59236802667134</v>
       </c>
       <c r="J17">
-        <v>5.801818176588867</v>
+        <v>5.801499475012745</v>
       </c>
       <c r="K17">
-        <v>0.630146115570549</v>
+        <v>0.6301460956089393</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0.3616002428793426</v>
+        <v>0.3616002577684834</v>
       </c>
       <c r="O17">
-        <v>0.6362371158210949</v>
+        <v>0.6362395932418288</v>
       </c>
       <c r="R17">
-        <v>0.4640366735723251</v>
+        <v>0.4640049035877137</v>
       </c>
       <c r="U17">
-        <v>42.3941967470046</v>
+        <v>42.39386750168409</v>
       </c>
       <c r="V17" t="s">
         <v>125</v>
@@ -2754,46 +2754,46 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>1.000600439030479</v>
+        <v>1.000600456485928</v>
       </c>
       <c r="D18">
-        <v>330.2793217508934</v>
+        <v>330.2793159891794</v>
       </c>
       <c r="E18">
-        <v>1453.783750099728</v>
+        <v>1453.783750121359</v>
       </c>
       <c r="F18">
-        <v>1123.504428348834</v>
+        <v>1123.50443413218</v>
       </c>
       <c r="G18">
-        <v>18630.31612127609</v>
+        <v>18630.31779071511</v>
       </c>
       <c r="H18">
-        <v>1561.315936096431</v>
+        <v>1561.267093623361</v>
       </c>
       <c r="I18">
-        <v>36.88249855422497</v>
+        <v>36.88248316153879</v>
       </c>
       <c r="J18">
-        <v>5.875563660297731</v>
+        <v>5.874880537998654</v>
       </c>
       <c r="K18">
-        <v>0.6334541831647971</v>
+        <v>0.6334540078667956</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0.3598001655594433</v>
+        <v>0.3598008068612976</v>
       </c>
       <c r="O18">
-        <v>0.6256106603953535</v>
+        <v>0.6256081093608953</v>
       </c>
       <c r="R18">
-        <v>0.4380510121527733</v>
+        <v>0.4379844173226976</v>
       </c>
       <c r="U18">
-        <v>42.7580622145227</v>
+        <v>42.75736369953744</v>
       </c>
       <c r="V18" t="s">
         <v>126</v>
@@ -2840,28 +2840,28 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>1.000616934706076</v>
+        <v>1.000616940404455</v>
       </c>
       <c r="D19">
-        <v>330.2738769294449</v>
+        <v>330.2738750485794</v>
       </c>
       <c r="E19">
         <v>1453.781309053594</v>
       </c>
       <c r="F19">
-        <v>1123.507432124149</v>
+        <v>1123.507434005014</v>
       </c>
       <c r="G19">
         <v>18572.52277146685</v>
       </c>
       <c r="H19">
-        <v>1606.734010838099</v>
+        <v>1606.71413804754</v>
       </c>
       <c r="I19">
         <v>36.95477865689188</v>
       </c>
       <c r="J19">
-        <v>6.093322336403418</v>
+        <v>6.093317601813032</v>
       </c>
       <c r="K19">
         <v>0.6302961755045813</v>
@@ -2873,13 +2873,13 @@
         <v>0.3662549422310952</v>
       </c>
       <c r="O19">
-        <v>0.636291248476627</v>
+        <v>0.6362931074943889</v>
       </c>
       <c r="R19">
-        <v>0.4009352301504068</v>
+        <v>0.400900548319618</v>
       </c>
       <c r="U19">
-        <v>43.04810099329529</v>
+        <v>43.04809625870491</v>
       </c>
       <c r="V19" t="s">
         <v>127</v>
@@ -2926,28 +2926,28 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>1.000574219054766</v>
+        <v>1.000574237249096</v>
       </c>
       <c r="D20">
-        <v>330.2879766968535</v>
+        <v>330.2879706909339</v>
       </c>
       <c r="E20">
         <v>1453.776775249614</v>
       </c>
       <c r="F20">
-        <v>1123.48879855276</v>
+        <v>1123.48880455868</v>
       </c>
       <c r="G20">
         <v>18452.45785890206</v>
       </c>
       <c r="H20">
-        <v>1590.056558176669</v>
+        <v>1590.00704024247</v>
       </c>
       <c r="I20">
         <v>36.43537608390672</v>
       </c>
       <c r="J20">
-        <v>6.733926402628029</v>
+        <v>6.733934708209089</v>
       </c>
       <c r="K20">
         <v>0.6332241581317302</v>
@@ -2959,13 +2959,13 @@
         <v>0.3644046253757366</v>
       </c>
       <c r="O20">
-        <v>0.6498558892043927</v>
+        <v>0.6498539384077535</v>
       </c>
       <c r="R20">
-        <v>0.4446058257279852</v>
+        <v>0.4445380502359733</v>
       </c>
       <c r="U20">
-        <v>43.16930248653475</v>
+        <v>43.16931079211581</v>
       </c>
       <c r="V20" t="s">
         <v>128</v>
@@ -3012,28 +3012,28 @@
         <v>52</v>
       </c>
       <c r="C21">
-        <v>1.000607036011607</v>
+        <v>1.00060704061775</v>
       </c>
       <c r="D21">
-        <v>330.2771442262767</v>
+        <v>330.277142705896</v>
       </c>
       <c r="E21">
         <v>1453.73775107745</v>
       </c>
       <c r="F21">
-        <v>1123.460606851173</v>
+        <v>1123.460608371554</v>
       </c>
       <c r="G21">
         <v>18697.03747937848</v>
       </c>
       <c r="H21">
-        <v>1655.946648265945</v>
+        <v>1655.927972321408</v>
       </c>
       <c r="I21">
         <v>37.54920078485752</v>
       </c>
       <c r="J21">
-        <v>6.93825976585674</v>
+        <v>6.938142890140845</v>
       </c>
       <c r="K21">
         <v>0.6357059797938975</v>
@@ -3045,13 +3045,13 @@
         <v>0.3635559702736475</v>
       </c>
       <c r="O21">
-        <v>0.6380152528049047</v>
+        <v>0.6380179271825408</v>
       </c>
       <c r="R21">
-        <v>0.434212293020408</v>
+        <v>0.4341787802711042</v>
       </c>
       <c r="U21">
-        <v>44.48746055071426</v>
+        <v>44.48734367499836</v>
       </c>
       <c r="V21" t="s">
         <v>129</v>
@@ -3098,28 +3098,28 @@
         <v>53</v>
       </c>
       <c r="C22">
-        <v>1.000606761191817</v>
+        <v>1.000606775455659</v>
       </c>
       <c r="D22">
-        <v>330.277234937932</v>
+        <v>330.2772302297665</v>
       </c>
       <c r="E22">
         <v>1453.739376453452</v>
       </c>
       <c r="F22">
-        <v>1123.46214151552</v>
+        <v>1123.462146223685</v>
       </c>
       <c r="G22">
         <v>18288.45846411305</v>
       </c>
       <c r="H22">
-        <v>1676.167619807982</v>
+        <v>1676.114676716752</v>
       </c>
       <c r="I22">
         <v>37.93855703784446</v>
       </c>
       <c r="J22">
-        <v>6.329400347994989</v>
+        <v>6.329137695172424</v>
       </c>
       <c r="K22">
         <v>0.637840462111642</v>
@@ -3131,13 +3131,13 @@
         <v>0.3750931834641644</v>
       </c>
       <c r="O22">
-        <v>0.642776434633223</v>
+        <v>0.6427764704225847</v>
       </c>
       <c r="R22">
-        <v>0.4329900353937752</v>
+        <v>0.4329142754595372</v>
       </c>
       <c r="U22">
-        <v>44.26795738583945</v>
+        <v>44.26769473301688</v>
       </c>
       <c r="V22" t="s">
         <v>130</v>
@@ -3184,28 +3184,28 @@
         <v>54</v>
       </c>
       <c r="C23">
-        <v>1.000597686304057</v>
+        <v>1.000597694189903</v>
       </c>
       <c r="D23">
-        <v>330.2802303764361</v>
+        <v>330.2802277734529</v>
       </c>
       <c r="E23">
         <v>1453.738655311244</v>
       </c>
       <c r="F23">
-        <v>1123.458424934808</v>
+        <v>1123.458427537792</v>
       </c>
       <c r="G23">
         <v>18569.11394470322</v>
       </c>
       <c r="H23">
-        <v>1645.999338161761</v>
+        <v>1645.968452041994</v>
       </c>
       <c r="I23">
         <v>36.50159434320183</v>
       </c>
       <c r="J23">
-        <v>6.763724902213125</v>
+        <v>6.763121674263877</v>
       </c>
       <c r="K23">
         <v>0.6390365750511405</v>
@@ -3217,13 +3217,13 @@
         <v>0.3621410309202135</v>
       </c>
       <c r="O23">
-        <v>0.63861800298427</v>
+        <v>0.6386204716457219</v>
       </c>
       <c r="R23">
-        <v>0.4079594547676894</v>
+        <v>0.4079083102143485</v>
       </c>
       <c r="U23">
-        <v>43.26531924541496</v>
+        <v>43.26471601746571</v>
       </c>
       <c r="V23" t="s">
         <v>131</v>
@@ -3270,28 +3270,28 @@
         <v>55</v>
       </c>
       <c r="C24">
-        <v>1.000601819292883</v>
+        <v>1.000601838176315</v>
       </c>
       <c r="D24">
-        <v>330.2788661529505</v>
+        <v>330.2788599199032</v>
       </c>
       <c r="E24">
         <v>1453.740553645425</v>
       </c>
       <c r="F24">
-        <v>1123.461687492475</v>
+        <v>1123.461693725522</v>
       </c>
       <c r="G24">
         <v>18495.4351100628</v>
       </c>
       <c r="H24">
-        <v>1626.880842077587</v>
+        <v>1626.824327626523</v>
       </c>
       <c r="I24">
         <v>34.44429681160523</v>
       </c>
       <c r="J24">
-        <v>5.432832342046397</v>
+        <v>5.432677392572165</v>
       </c>
       <c r="K24">
         <v>0.6403016130609793</v>
@@ -3303,13 +3303,13 @@
         <v>0.3561850064184325</v>
       </c>
       <c r="O24">
-        <v>0.6523112097457038</v>
+        <v>0.6523089743799052</v>
       </c>
       <c r="R24">
-        <v>0.3813640164162502</v>
+        <v>0.3812859602103207</v>
       </c>
       <c r="U24">
-        <v>39.87712915365163</v>
+        <v>39.8769742041774</v>
       </c>
       <c r="V24" t="s">
         <v>132</v>
@@ -3356,28 +3356,28 @@
         <v>56</v>
       </c>
       <c r="C25">
-        <v>1.000598579430149</v>
+        <v>1.000598589711721</v>
       </c>
       <c r="D25">
-        <v>330.2799355710092</v>
+        <v>330.2799321772436</v>
       </c>
       <c r="E25">
         <v>1453.73866037546</v>
       </c>
       <c r="F25">
-        <v>1123.458724804451</v>
+        <v>1123.458728198216</v>
       </c>
       <c r="G25">
         <v>18684.9674010454</v>
       </c>
       <c r="H25">
-        <v>1644.386506427853</v>
+        <v>1644.341640980849</v>
       </c>
       <c r="I25">
         <v>36.44584162027105</v>
       </c>
       <c r="J25">
-        <v>6.507932394973195</v>
+        <v>6.507644964142598</v>
       </c>
       <c r="K25">
         <v>0.6411997645734314</v>
@@ -3389,13 +3389,13 @@
         <v>0.3563308765171355</v>
       </c>
       <c r="O25">
-        <v>0.6362971947602367</v>
+        <v>0.6362990959306534</v>
       </c>
       <c r="R25">
-        <v>0.3993079624911315</v>
+        <v>0.3992369222846266</v>
       </c>
       <c r="U25">
-        <v>42.95377401524425</v>
+        <v>42.95348658441365</v>
       </c>
       <c r="V25" t="s">
         <v>133</v>
@@ -3442,28 +3442,28 @@
         <v>57</v>
       </c>
       <c r="C26">
-        <v>1.000612518727987</v>
+        <v>1.000612518782188</v>
       </c>
       <c r="D26">
-        <v>330.2753345188478</v>
+        <v>330.2753345009576</v>
       </c>
       <c r="E26">
         <v>1453.737002665839</v>
       </c>
       <c r="F26">
-        <v>1123.461668146991</v>
+        <v>1123.461668164881</v>
       </c>
       <c r="G26">
         <v>18494.64016552515</v>
       </c>
       <c r="H26">
-        <v>1659.576844761835</v>
+        <v>1659.576837003874</v>
       </c>
       <c r="I26">
         <v>35.44108812869199</v>
       </c>
       <c r="J26">
-        <v>5.520034902242132</v>
+        <v>5.520036557767396</v>
       </c>
       <c r="K26">
         <v>0.6427367505953204</v>
@@ -3475,13 +3475,13 @@
         <v>0.3553570705522187</v>
       </c>
       <c r="O26">
-        <v>0.6375499420621628</v>
+        <v>0.6375499758055168</v>
       </c>
       <c r="R26">
-        <v>0.4247203726327782</v>
+        <v>0.4247202868877875</v>
       </c>
       <c r="U26">
-        <v>40.96112303093413</v>
+        <v>40.96112468645939</v>
       </c>
       <c r="V26" t="s">
         <v>134</v>
@@ -3528,28 +3528,28 @@
         <v>58</v>
       </c>
       <c r="C27">
-        <v>1.000580617719203</v>
+        <v>1.000580642330764</v>
       </c>
       <c r="D27">
-        <v>330.2858645212896</v>
+        <v>330.2858563971561</v>
       </c>
       <c r="E27">
         <v>1453.740852721056</v>
       </c>
       <c r="F27">
-        <v>1123.454988199766</v>
+        <v>1123.4549963239</v>
       </c>
       <c r="G27">
         <v>19150.70685184481</v>
       </c>
       <c r="H27">
-        <v>1688.380429190626</v>
+        <v>1688.279416337727</v>
       </c>
       <c r="I27">
         <v>39.06555438349822</v>
       </c>
       <c r="J27">
-        <v>7.00402691419991</v>
+        <v>7.003441710330684</v>
       </c>
       <c r="K27">
         <v>0.636034061575981</v>
@@ -3561,13 +3561,13 @@
         <v>0.3716730784980711</v>
       </c>
       <c r="O27">
-        <v>0.6360760773305439</v>
+        <v>0.6360843746016598</v>
       </c>
       <c r="R27">
-        <v>0.437322948731847</v>
+        <v>0.4371597700726366</v>
       </c>
       <c r="U27">
-        <v>46.06958129769814</v>
+        <v>46.06899609382891</v>
       </c>
       <c r="V27" t="s">
         <v>135</v>
@@ -3614,46 +3614,46 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>1.00057798864429</v>
+        <v>1.000577988965894</v>
       </c>
       <c r="D28">
-        <v>330.2867323659657</v>
+        <v>330.2867322598054</v>
       </c>
       <c r="E28">
-        <v>1453.745460296296</v>
+        <v>1453.745460312116</v>
       </c>
       <c r="F28">
-        <v>1123.45872793033</v>
+        <v>1123.45872805231</v>
       </c>
       <c r="G28">
-        <v>20158.79496347053</v>
+        <v>20158.79540524173</v>
       </c>
       <c r="H28">
-        <v>1675.412061299034</v>
+        <v>1675.410323742452</v>
       </c>
       <c r="I28">
-        <v>39.05500593174397</v>
+        <v>39.05499408868409</v>
       </c>
       <c r="J28">
-        <v>5.652987203490246</v>
+        <v>5.652977925625295</v>
       </c>
       <c r="K28">
-        <v>0.6403939625062497</v>
+        <v>0.6403938264587846</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.3518244171784917</v>
+        <v>0.3518248224896304</v>
       </c>
       <c r="O28">
-        <v>0.649885093598368</v>
+        <v>0.6498853693344372</v>
       </c>
       <c r="R28">
-        <v>0.4013456684829963</v>
+        <v>0.4013424782609165</v>
       </c>
       <c r="U28">
-        <v>44.70799313523422</v>
+        <v>44.70797201430938</v>
       </c>
       <c r="V28" t="s">
         <v>136</v>
@@ -3700,46 +3700,46 @@
         <v>60</v>
       </c>
       <c r="C29">
-        <v>1.000553526514385</v>
+        <v>1.000553526353131</v>
       </c>
       <c r="D29">
-        <v>330.2948074131659</v>
+        <v>330.2948074663977</v>
       </c>
       <c r="E29">
-        <v>1453.742003190631</v>
+        <v>1453.742003208602</v>
       </c>
       <c r="F29">
-        <v>1123.447195777465</v>
+        <v>1123.447195742204</v>
       </c>
       <c r="G29">
-        <v>19418.47734309192</v>
+        <v>19418.47914274523</v>
       </c>
       <c r="H29">
-        <v>1690.207276342964</v>
+        <v>1690.207524887933</v>
       </c>
       <c r="I29">
-        <v>38.27660230814617</v>
+        <v>38.27660270927796</v>
       </c>
       <c r="J29">
-        <v>8.366725986763655</v>
+        <v>8.366729011947246</v>
       </c>
       <c r="K29">
-        <v>0.6387030297250376</v>
+        <v>0.6387028846456402</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.3641970558611853</v>
+        <v>0.3641976383552364</v>
       </c>
       <c r="O29">
-        <v>0.6381549481990811</v>
+        <v>0.638154931481606</v>
       </c>
       <c r="R29">
-        <v>0.3843214811472281</v>
+        <v>0.3843218877936574</v>
       </c>
       <c r="U29">
-        <v>46.64332829490982</v>
+        <v>46.64333172122521</v>
       </c>
       <c r="V29" t="s">
         <v>137</v>
@@ -3786,46 +3786,46 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>1.000620779308822</v>
+        <v>1.000620783231715</v>
       </c>
       <c r="D30">
-        <v>330.2726079453498</v>
+        <v>330.2726066505295</v>
       </c>
       <c r="E30">
-        <v>1453.743555860909</v>
+        <v>1453.743555867319</v>
       </c>
       <c r="F30">
-        <v>1123.470947915559</v>
+        <v>1123.470949216789</v>
       </c>
       <c r="G30">
-        <v>20886.2704388602</v>
+        <v>20886.27370424757</v>
       </c>
       <c r="H30">
-        <v>1688.33430634484</v>
+        <v>1688.320882302312</v>
       </c>
       <c r="I30">
-        <v>40.87737156824303</v>
+        <v>40.87740171336872</v>
       </c>
       <c r="J30">
-        <v>5.459039059545483</v>
+        <v>5.459011816063416</v>
       </c>
       <c r="K30">
-        <v>0.6367836192465512</v>
+        <v>0.6367834468758244</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0.3570293179268914</v>
+        <v>0.3570301188884596</v>
       </c>
       <c r="O30">
-        <v>0.6525003615373068</v>
+        <v>0.6525002725415004</v>
       </c>
       <c r="R30">
-        <v>0.3842850175686113</v>
+        <v>0.3842658543887635</v>
       </c>
       <c r="U30">
-        <v>46.33641062778852</v>
+        <v>46.33641352943214</v>
       </c>
       <c r="V30" t="s">
         <v>138</v>
@@ -3872,46 +3872,46 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>1.000600228785021</v>
+        <v>1.000600231807124</v>
       </c>
       <c r="D31">
-        <v>330.2793911489659</v>
+        <v>330.2793901514265</v>
       </c>
       <c r="E31">
-        <v>1453.737759896571</v>
+        <v>1453.737759924129</v>
       </c>
       <c r="F31">
-        <v>1123.458368747605</v>
+        <v>1123.458369772702</v>
       </c>
       <c r="G31">
-        <v>18991.16552212264</v>
+        <v>18991.16676856385</v>
       </c>
       <c r="H31">
-        <v>1761.020904559934</v>
+        <v>1761.005299598887</v>
       </c>
       <c r="I31">
-        <v>39.59707161955739</v>
+        <v>39.59706679591759</v>
       </c>
       <c r="J31">
-        <v>7.122035432543965</v>
+        <v>7.121962784497061</v>
       </c>
       <c r="K31">
-        <v>0.6415149303703758</v>
+        <v>0.6415147906780018</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.3643132612682989</v>
+        <v>0.3643137687376936</v>
       </c>
       <c r="O31">
-        <v>0.6399956843717315</v>
+        <v>0.6399983337390218</v>
       </c>
       <c r="R31">
-        <v>0.4233980926158432</v>
+        <v>0.4233703484016484</v>
       </c>
       <c r="U31">
-        <v>46.71910705210136</v>
+        <v>46.71902958041466</v>
       </c>
       <c r="V31" t="s">
         <v>139</v>
@@ -3958,46 +3958,46 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>1.000587755769021</v>
+        <v>1.000587759224809</v>
       </c>
       <c r="D32">
-        <v>330.2835083092116</v>
+        <v>330.2835071684922</v>
       </c>
       <c r="E32">
-        <v>1453.738431080018</v>
+        <v>1453.7384310952</v>
       </c>
       <c r="F32">
-        <v>1123.454922770807</v>
+        <v>1123.454923926708</v>
       </c>
       <c r="G32">
-        <v>18879.44534253461</v>
+        <v>18879.44623184956</v>
       </c>
       <c r="H32">
-        <v>1729.339257380252</v>
+        <v>1729.327741653844</v>
       </c>
       <c r="I32">
-        <v>38.7481096002211</v>
+        <v>38.74808217869276</v>
       </c>
       <c r="J32">
-        <v>5.926158362138431</v>
+        <v>5.926049276919466</v>
       </c>
       <c r="K32">
-        <v>0.6381729103320983</v>
+        <v>0.6381727556084769</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>0.3685464071306862</v>
+        <v>0.3685469186312677</v>
       </c>
       <c r="O32">
-        <v>0.6457745599015159</v>
+        <v>0.6457776405033141</v>
       </c>
       <c r="R32">
-        <v>0.3865899560942471</v>
+        <v>0.3865661975615234</v>
       </c>
       <c r="U32">
-        <v>44.67426796235953</v>
+        <v>44.67413145561223</v>
       </c>
       <c r="V32" t="s">
         <v>140</v>
@@ -4044,28 +4044,28 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>1.000622898017246</v>
+        <v>1.000622897956496</v>
       </c>
       <c r="D33">
-        <v>330.2719086295954</v>
+        <v>330.2719086496468</v>
       </c>
       <c r="E33">
         <v>1453.741318483434</v>
       </c>
       <c r="F33">
-        <v>1123.469409853838</v>
+        <v>1123.469409833787</v>
       </c>
       <c r="G33">
         <v>18223.88989500808</v>
       </c>
       <c r="H33">
-        <v>1709.479571761749</v>
+        <v>1709.47989179897</v>
       </c>
       <c r="I33">
         <v>35.54793734453314</v>
       </c>
       <c r="J33">
-        <v>6.202085034926744</v>
+        <v>6.202087791444638</v>
       </c>
       <c r="K33">
         <v>0.6404384954704703</v>
@@ -4077,13 +4077,13 @@
         <v>0.3693562173975396</v>
       </c>
       <c r="O33">
-        <v>0.6379747305292093</v>
+        <v>0.6379747146366254</v>
       </c>
       <c r="R33">
-        <v>0.3818493624541517</v>
+        <v>0.3818498575776637</v>
       </c>
       <c r="U33">
-        <v>41.75002237945989</v>
+        <v>41.75002513597778</v>
       </c>
       <c r="V33" t="s">
         <v>141</v>
@@ -4130,28 +4130,28 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>1.000586323772806</v>
+        <v>1.000586329875004</v>
       </c>
       <c r="D34">
-        <v>330.2839809967975</v>
+        <v>330.2839789825202</v>
       </c>
       <c r="E34">
         <v>1453.739610963311</v>
       </c>
       <c r="F34">
-        <v>1123.455629966514</v>
+        <v>1123.455631980791</v>
       </c>
       <c r="G34">
         <v>18629.21458136037</v>
       </c>
       <c r="H34">
-        <v>1791.763060371588</v>
+        <v>1791.765970397435</v>
       </c>
       <c r="I34">
         <v>37.22954287336463</v>
       </c>
       <c r="J34">
-        <v>6.610326948204199</v>
+        <v>6.611051259986477</v>
       </c>
       <c r="K34">
         <v>0.640564166161637</v>
@@ -4163,13 +4163,13 @@
         <v>0.3667634676023713</v>
       </c>
       <c r="O34">
-        <v>0.6335606853884286</v>
+        <v>0.6335519314209174</v>
       </c>
       <c r="R34">
-        <v>0.4881945423337679</v>
+        <v>0.4882323189883414</v>
       </c>
       <c r="U34">
-        <v>43.83986982156883</v>
+        <v>43.8405941333511</v>
       </c>
       <c r="V34" t="s">
         <v>142</v>
@@ -4216,28 +4216,28 @@
         <v>66</v>
       </c>
       <c r="C35">
-        <v>1.000604526303172</v>
+        <v>1.00060452677902</v>
       </c>
       <c r="D35">
-        <v>330.277972624823</v>
+        <v>330.2779724677555</v>
       </c>
       <c r="E35">
         <v>1453.738566803127</v>
       </c>
       <c r="F35">
-        <v>1123.460594178305</v>
+        <v>1123.460594335372</v>
       </c>
       <c r="G35">
         <v>18669.51145434423</v>
       </c>
       <c r="H35">
-        <v>1742.356359073385</v>
+        <v>1742.353090246965</v>
       </c>
       <c r="I35">
         <v>36.89039336527933</v>
       </c>
       <c r="J35">
-        <v>5.837985334613959</v>
+        <v>5.837943001319838</v>
       </c>
       <c r="K35">
         <v>0.6386673390145148</v>
@@ -4249,13 +4249,13 @@
         <v>0.3720123293482547</v>
       </c>
       <c r="O35">
-        <v>0.6501536333569539</v>
+        <v>0.650154248382381</v>
       </c>
       <c r="R35">
-        <v>0.3817484509563026</v>
+        <v>0.381742383963153</v>
       </c>
       <c r="U35">
-        <v>42.72837869989329</v>
+        <v>42.72833636659917</v>
       </c>
       <c r="V35" t="s">
         <v>143</v>
@@ -4302,28 +4302,28 @@
         <v>67</v>
       </c>
       <c r="C36">
-        <v>1.000614722582733</v>
+        <v>1.00061475020511</v>
       </c>
       <c r="D36">
-        <v>330.2746070871531</v>
+        <v>330.2745979697884</v>
       </c>
       <c r="E36">
         <v>1453.739434935158</v>
       </c>
       <c r="F36">
-        <v>1123.464827848005</v>
+        <v>1123.464836965369</v>
       </c>
       <c r="G36">
         <v>18166.7855043674</v>
       </c>
       <c r="H36">
-        <v>1725.306866571046</v>
+        <v>1725.209022692194</v>
       </c>
       <c r="I36">
         <v>36.38565257207384</v>
       </c>
       <c r="J36">
-        <v>7.592007449797196</v>
+        <v>7.590030021449476</v>
       </c>
       <c r="K36">
         <v>0.6406170837030672</v>
@@ -4335,13 +4335,13 @@
         <v>0.3695186092841876</v>
       </c>
       <c r="O36">
-        <v>0.6370507392243671</v>
+        <v>0.6370513345778643</v>
       </c>
       <c r="R36">
-        <v>0.3784720017336598</v>
+        <v>0.3783332646995457</v>
       </c>
       <c r="U36">
-        <v>43.97766002187104</v>
+        <v>43.97568259352332</v>
       </c>
       <c r="V36" t="s">
         <v>144</v>
@@ -4388,28 +4388,28 @@
         <v>68</v>
       </c>
       <c r="C37">
-        <v>1.000613774469955</v>
+        <v>1.000613774473037</v>
       </c>
       <c r="D37">
-        <v>330.2749200326505</v>
+        <v>330.274920031633</v>
       </c>
       <c r="E37">
         <v>1453.735503663641</v>
       </c>
       <c r="F37">
-        <v>1123.460583630991</v>
+        <v>1123.460583632008</v>
       </c>
       <c r="G37">
         <v>18668.96682415135</v>
       </c>
       <c r="H37">
-        <v>1762.525959372558</v>
+        <v>1762.525867904886</v>
       </c>
       <c r="I37">
         <v>36.6612944532021</v>
       </c>
       <c r="J37">
-        <v>7.51752042466079</v>
+        <v>7.51751942504564</v>
       </c>
       <c r="K37">
         <v>0.6397995200522486</v>
@@ -4421,13 +4421,13 @@
         <v>0.3651629395321497</v>
       </c>
       <c r="O37">
-        <v>0.6498657168677647</v>
+        <v>0.649865715576843</v>
       </c>
       <c r="R37">
-        <v>0.3819740708764972</v>
+        <v>0.3819739442470775</v>
       </c>
       <c r="U37">
-        <v>44.17881487786289</v>
+        <v>44.17881387824774</v>
       </c>
       <c r="V37" t="s">
         <v>145</v>
@@ -4474,28 +4474,28 @@
         <v>69</v>
       </c>
       <c r="C38">
-        <v>1.000601675562162</v>
+        <v>1.000601675577595</v>
       </c>
       <c r="D38">
-        <v>330.278913595625</v>
+        <v>330.2789135905309</v>
       </c>
       <c r="E38">
         <v>1453.736690315224</v>
       </c>
       <c r="F38">
-        <v>1123.457776719599</v>
+        <v>1123.457776724693</v>
       </c>
       <c r="G38">
         <v>18351.1610079807</v>
       </c>
       <c r="H38">
-        <v>1737.443040676707</v>
+        <v>1737.442949711738</v>
       </c>
       <c r="I38">
         <v>35.79990544913402</v>
       </c>
       <c r="J38">
-        <v>6.306363202127008</v>
+        <v>6.30636245561935</v>
       </c>
       <c r="K38">
         <v>0.6397071548246022</v>
@@ -4507,13 +4507,13 @@
         <v>0.3683431403798139</v>
       </c>
       <c r="O38">
-        <v>0.6420005138166532</v>
+        <v>0.6420005172549073</v>
       </c>
       <c r="R38">
-        <v>0.3998998518483278</v>
+        <v>0.3998997139927351</v>
       </c>
       <c r="U38">
-        <v>42.10626865126103</v>
+        <v>42.10626790475337</v>
       </c>
       <c r="V38" t="s">
         <v>146</v>
@@ -4560,28 +4560,28 @@
         <v>70</v>
       </c>
       <c r="C39">
-        <v>1.000628782368502</v>
+        <v>1.000628782423256</v>
       </c>
       <c r="D39">
-        <v>330.2699664149054</v>
+        <v>330.2699663968333</v>
       </c>
       <c r="E39">
         <v>1453.73465288152</v>
       </c>
       <c r="F39">
-        <v>1123.464686466615</v>
+        <v>1123.464686484687</v>
       </c>
       <c r="G39">
         <v>19193.81893124843</v>
       </c>
       <c r="H39">
-        <v>1752.190290718716</v>
+        <v>1752.190206635193</v>
       </c>
       <c r="I39">
         <v>39.37458405614138</v>
       </c>
       <c r="J39">
-        <v>6.174269964294757</v>
+        <v>6.174269612579018</v>
       </c>
       <c r="K39">
         <v>0.6391467819407706</v>
@@ -4593,13 +4593,13 @@
         <v>0.3589793293654308</v>
       </c>
       <c r="O39">
-        <v>0.6551581705020401</v>
+        <v>0.655158142170628</v>
       </c>
       <c r="R39">
-        <v>0.3583890031087697</v>
+        <v>0.3583889417044627</v>
       </c>
       <c r="U39">
-        <v>45.54885402043614</v>
+        <v>45.5488536687204</v>
       </c>
       <c r="V39" t="s">
         <v>147</v>
@@ -4646,28 +4646,28 @@
         <v>71</v>
       </c>
       <c r="C40">
-        <v>1.000595763244163</v>
+        <v>1.000595763355207</v>
       </c>
       <c r="D40">
-        <v>330.2808651469279</v>
+        <v>330.2808651102739</v>
       </c>
       <c r="E40">
         <v>1453.734162914384</v>
       </c>
       <c r="F40">
-        <v>1123.453297767456</v>
+        <v>1123.45329780411</v>
       </c>
       <c r="G40">
         <v>18659.54395152058</v>
       </c>
       <c r="H40">
-        <v>1728.860159360447</v>
+        <v>1728.859745717389</v>
       </c>
       <c r="I40">
         <v>38.08365266818282</v>
       </c>
       <c r="J40">
-        <v>6.585409929930505</v>
+        <v>6.585402282038345</v>
       </c>
       <c r="K40">
         <v>0.6399511821952573</v>
@@ -4679,13 +4679,13 @@
         <v>0.3746365249642707</v>
       </c>
       <c r="O40">
-        <v>0.6376817193466986</v>
+        <v>0.6376817278083863</v>
       </c>
       <c r="R40">
-        <v>0.3944199077935307</v>
+        <v>0.3944193031418295</v>
       </c>
       <c r="U40">
-        <v>44.66906259811333</v>
+        <v>44.66905495022117</v>
       </c>
       <c r="V40" t="s">
         <v>148</v>
@@ -4732,28 +4732,28 @@
         <v>72</v>
       </c>
       <c r="C41">
-        <v>1.00060731712233</v>
+        <v>1.000607316990516</v>
       </c>
       <c r="D41">
-        <v>330.2770514381818</v>
+        <v>330.2770514816905</v>
       </c>
       <c r="E41">
         <v>1453.735965947825</v>
       </c>
       <c r="F41">
-        <v>1123.458914509643</v>
+        <v>1123.458914466135</v>
       </c>
       <c r="G41">
         <v>19389.56251182578</v>
       </c>
       <c r="H41">
-        <v>1704.161274707954</v>
+        <v>1704.161502010902</v>
       </c>
       <c r="I41">
         <v>37.91549867406486</v>
       </c>
       <c r="J41">
-        <v>7.427228211319646</v>
+        <v>7.427239049224514</v>
       </c>
       <c r="K41">
         <v>0.6408093430667287</v>
@@ -4765,13 +4765,13 @@
         <v>0.3519716426080026</v>
       </c>
       <c r="O41">
-        <v>0.636687309011875</v>
+        <v>0.6366873413956154</v>
       </c>
       <c r="R41">
-        <v>0.3913462581511846</v>
+        <v>0.3913465141699031</v>
       </c>
       <c r="U41">
-        <v>45.3427268853845</v>
+        <v>45.34273772328937</v>
       </c>
       <c r="V41" t="s">
         <v>149</v>
@@ -4818,28 +4818,28 @@
         <v>73</v>
       </c>
       <c r="C42">
-        <v>1.00058032598012</v>
+        <v>1.000580325981737</v>
       </c>
       <c r="D42">
-        <v>330.2859608226984</v>
+        <v>330.2859608221647</v>
       </c>
       <c r="E42">
         <v>1453.73682507813</v>
       </c>
       <c r="F42">
-        <v>1123.450864255432</v>
+        <v>1123.450864255965</v>
       </c>
       <c r="G42">
         <v>19221.65670967811</v>
       </c>
       <c r="H42">
-        <v>1716.758713359258</v>
+        <v>1716.758650250353</v>
       </c>
       <c r="I42">
         <v>38.34948562024935</v>
       </c>
       <c r="J42">
-        <v>7.143567515748337</v>
+        <v>7.143568721920644</v>
       </c>
       <c r="K42">
         <v>0.6399960728857658</v>
@@ -4851,13 +4851,13 @@
         <v>0.3572161708215383</v>
       </c>
       <c r="O42">
-        <v>0.6419838669584762</v>
+        <v>0.641983843647699</v>
       </c>
       <c r="R42">
-        <v>0.3827250985069419</v>
+        <v>0.3827250679940348</v>
       </c>
       <c r="U42">
-        <v>45.49305313599768</v>
+        <v>45.49305434216999</v>
       </c>
       <c r="V42" t="s">
         <v>150</v>
@@ -4904,28 +4904,28 @@
         <v>74</v>
       </c>
       <c r="C43">
-        <v>1.000618960284165</v>
+        <v>1.00061895717572</v>
       </c>
       <c r="D43">
-        <v>330.2732083477417</v>
+        <v>330.2732093737429</v>
       </c>
       <c r="E43">
         <v>1453.738300668051</v>
       </c>
       <c r="F43">
-        <v>1123.465092320309</v>
+        <v>1123.465091294308</v>
       </c>
       <c r="G43">
         <v>19281.20088165096</v>
       </c>
       <c r="H43">
-        <v>1778.329306754464</v>
+        <v>1778.341694155646</v>
       </c>
       <c r="I43">
         <v>38.5805506159518</v>
       </c>
       <c r="J43">
-        <v>7.962942565551979</v>
+        <v>7.963040554180099</v>
       </c>
       <c r="K43">
         <v>0.6412339708134065</v>
@@ -4937,13 +4937,13 @@
         <v>0.3575412700871828</v>
       </c>
       <c r="O43">
-        <v>0.6455644554492332</v>
+        <v>0.6455650717923046</v>
       </c>
       <c r="R43">
-        <v>0.4248396900586177</v>
+        <v>0.4248554163122005</v>
       </c>
       <c r="U43">
-        <v>46.54349318150378</v>
+        <v>46.5435911701319</v>
       </c>
       <c r="V43" t="s">
         <v>151</v>
@@ -4990,28 +4990,28 @@
         <v>75</v>
       </c>
       <c r="C44">
-        <v>1.000647967296329</v>
+        <v>1.000647989759867</v>
       </c>
       <c r="D44">
-        <v>330.2636343124316</v>
+        <v>330.263626898346</v>
       </c>
       <c r="E44">
         <v>1453.735055346313</v>
       </c>
       <c r="F44">
-        <v>1123.471421033881</v>
+        <v>1123.471428447967</v>
       </c>
       <c r="G44">
         <v>19746.04739513003</v>
       </c>
       <c r="H44">
-        <v>1735.568345714825</v>
+        <v>1735.471222360973</v>
       </c>
       <c r="I44">
         <v>40.29858455359906</v>
       </c>
       <c r="J44">
-        <v>6.809458399559269</v>
+        <v>6.808849347687811</v>
       </c>
       <c r="K44">
         <v>0.6382556814746984</v>
@@ -5023,13 +5023,13 @@
         <v>0.3646776220993351</v>
       </c>
       <c r="O44">
-        <v>0.6467228552957404</v>
+        <v>0.6467270133592413</v>
       </c>
       <c r="R44">
-        <v>0.3478635800868016</v>
+        <v>0.3477143979415168</v>
       </c>
       <c r="U44">
-        <v>47.10804295315832</v>
+        <v>47.10743390128687</v>
       </c>
       <c r="V44" t="s">
         <v>152</v>
@@ -5076,28 +5076,28 @@
         <v>76</v>
       </c>
       <c r="C45">
-        <v>1.000618857816549</v>
+        <v>1.000618862964233</v>
       </c>
       <c r="D45">
-        <v>330.2732421691196</v>
+        <v>330.2732404700289</v>
       </c>
       <c r="E45">
         <v>1453.736723993024</v>
       </c>
       <c r="F45">
-        <v>1123.463481823904</v>
+        <v>1123.463483522995</v>
       </c>
       <c r="G45">
         <v>18510.92809619255</v>
       </c>
       <c r="H45">
-        <v>1751.185920955618</v>
+        <v>1751.163575954869</v>
       </c>
       <c r="I45">
         <v>35.18396884946028</v>
       </c>
       <c r="J45">
-        <v>7.792183835649608</v>
+        <v>7.791981900531368</v>
       </c>
       <c r="K45">
         <v>0.637972128654774</v>
@@ -5109,13 +5109,13 @@
         <v>0.3680919070692401</v>
       </c>
       <c r="O45">
-        <v>0.6332176117409947</v>
+        <v>0.63322138192633</v>
       </c>
       <c r="R45">
-        <v>0.4377921290572183</v>
+        <v>0.4377524447397785</v>
       </c>
       <c r="U45">
-        <v>42.97615268510989</v>
+        <v>42.97595074999165</v>
       </c>
       <c r="V45" t="s">
         <v>153</v>
@@ -5162,28 +5162,28 @@
         <v>77</v>
       </c>
       <c r="C46">
-        <v>1.000622385655737</v>
+        <v>1.000622388353878</v>
       </c>
       <c r="D46">
-        <v>330.2720777429552</v>
+        <v>330.2720768523889</v>
       </c>
       <c r="E46">
         <v>1453.736720676146</v>
       </c>
       <c r="F46">
-        <v>1123.46464293319</v>
+        <v>1123.464643823757</v>
       </c>
       <c r="G46">
         <v>18391.15498763144</v>
       </c>
       <c r="H46">
-        <v>1751.632509683235</v>
+        <v>1751.619134382062</v>
       </c>
       <c r="I46">
         <v>37.01498450835839</v>
       </c>
       <c r="J46">
-        <v>7.112915658045463</v>
+        <v>7.112827933920874</v>
       </c>
       <c r="K46">
         <v>0.6401879175392938</v>
@@ -5195,13 +5195,13 @@
         <v>0.3776462133311871</v>
       </c>
       <c r="O46">
-        <v>0.6324893802607054</v>
+        <v>0.6324911458581992</v>
       </c>
       <c r="R46">
-        <v>0.404621071516552</v>
+        <v>0.4045983263003529</v>
       </c>
       <c r="U46">
-        <v>44.12790016640385</v>
+        <v>44.12781244227926</v>
       </c>
       <c r="V46" t="s">
         <v>154</v>
@@ -5248,28 +5248,28 @@
         <v>78</v>
       </c>
       <c r="C47">
-        <v>1.000589095157423</v>
+        <v>1.000589095207355</v>
       </c>
       <c r="D47">
-        <v>330.2830661917603</v>
+        <v>330.2830661752785</v>
       </c>
       <c r="E47">
         <v>1453.737672635668</v>
       </c>
       <c r="F47">
-        <v>1123.454606443908</v>
+        <v>1123.45460646039</v>
       </c>
       <c r="G47">
         <v>18401.35284459989</v>
       </c>
       <c r="H47">
-        <v>1749.479830698358</v>
+        <v>1749.479620199699</v>
       </c>
       <c r="I47">
         <v>38.04140192438233</v>
       </c>
       <c r="J47">
-        <v>7.512301203808233</v>
+        <v>7.512296115253157</v>
       </c>
       <c r="K47">
         <v>0.6398270510630096</v>
@@ -5281,13 +5281,13 @@
         <v>0.3661424949401877</v>
       </c>
       <c r="O47">
-        <v>0.6413882938892823</v>
+        <v>0.6413882724055918</v>
       </c>
       <c r="R47">
-        <v>0.4158790862269062</v>
+        <v>0.415878844337195</v>
       </c>
       <c r="U47">
-        <v>45.55370312819056</v>
+        <v>45.55369803963548</v>
       </c>
       <c r="V47" t="s">
         <v>155</v>
@@ -5334,28 +5334,28 @@
         <v>79</v>
       </c>
       <c r="C48">
-        <v>1.000624371059823</v>
+        <v>1.000624373412971</v>
       </c>
       <c r="D48">
-        <v>330.2714224285817</v>
+        <v>330.2714216518891</v>
       </c>
       <c r="E48">
         <v>1453.735501169071</v>
       </c>
       <c r="F48">
-        <v>1123.46407874049</v>
+        <v>1123.464079517182</v>
       </c>
       <c r="G48">
         <v>18534.23547290455</v>
       </c>
       <c r="H48">
-        <v>1704.540102551262</v>
+        <v>1704.530949185458</v>
       </c>
       <c r="I48">
         <v>37.84454845287728</v>
       </c>
       <c r="J48">
-        <v>7.256236092066935</v>
+        <v>7.256202569982522</v>
       </c>
       <c r="K48">
         <v>0.637404518807908</v>
@@ -5367,13 +5367,13 @@
         <v>0.3743221175058636</v>
       </c>
       <c r="O48">
-        <v>0.6407818496481071</v>
+        <v>0.6407825439810206</v>
       </c>
       <c r="R48">
-        <v>0.3971430464570929</v>
+        <v>0.3971284468461557</v>
       </c>
       <c r="U48">
-        <v>45.10078454494422</v>
+        <v>45.1007510228598</v>
       </c>
       <c r="V48" t="s">
         <v>156</v>
@@ -5420,28 +5420,28 @@
         <v>80</v>
       </c>
       <c r="C49">
-        <v>1.000612359287979</v>
+        <v>1.000612361942083</v>
       </c>
       <c r="D49">
-        <v>330.2753871457232</v>
+        <v>330.2753862696745</v>
       </c>
       <c r="E49">
         <v>1453.738192522406</v>
       </c>
       <c r="F49">
-        <v>1123.462805376683</v>
+        <v>1123.462806252732</v>
       </c>
       <c r="G49">
         <v>18450.91358135488</v>
       </c>
       <c r="H49">
-        <v>1788.490110115961</v>
+        <v>1788.478778424496</v>
       </c>
       <c r="I49">
         <v>35.7115709918587</v>
       </c>
       <c r="J49">
-        <v>19.61839842206926</v>
+        <v>19.61827976324792</v>
       </c>
       <c r="K49">
         <v>0.6384859413211101</v>
@@ -5453,13 +5453,13 @@
         <v>0.3654071376132382</v>
       </c>
       <c r="O49">
-        <v>0.6304778942123817</v>
+        <v>0.630477948288777</v>
       </c>
       <c r="R49">
-        <v>0.5243120712174508</v>
+        <v>0.5242969943141075</v>
       </c>
       <c r="U49">
-        <v>55.32996941392796</v>
+        <v>55.32985075510662</v>
       </c>
       <c r="V49" t="s">
         <v>157</v>
@@ -5592,46 +5592,46 @@
         <v>82</v>
       </c>
       <c r="C51">
-        <v>1.000607644710139</v>
+        <v>1.000607630245622</v>
       </c>
       <c r="D51">
-        <v>330.2769433091503</v>
+        <v>330.2769480835454</v>
       </c>
       <c r="E51">
-        <v>1453.741502416085</v>
+        <v>1453.741502420451</v>
       </c>
       <c r="F51">
-        <v>1123.464559106935</v>
+        <v>1123.464554336905</v>
       </c>
       <c r="G51">
-        <v>18825.0883572272</v>
+        <v>18825.09054052879</v>
       </c>
       <c r="H51">
-        <v>1681.84896162239</v>
+        <v>1681.891568003326</v>
       </c>
       <c r="I51">
-        <v>36.92069350450095</v>
+        <v>36.92071169866974</v>
       </c>
       <c r="J51">
-        <v>6.636545806191129</v>
+        <v>6.636564157067165</v>
       </c>
       <c r="K51">
-        <v>0.6344539493931804</v>
+        <v>0.6344538225522609</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <v>0.3640390850860786</v>
+        <v>0.3640396797539107</v>
       </c>
       <c r="O51">
-        <v>0.648964710111689</v>
+        <v>0.6489680992869441</v>
       </c>
       <c r="R51">
-        <v>0.3971992277174212</v>
+        <v>0.397252044918967</v>
       </c>
       <c r="U51">
-        <v>43.55723931069208</v>
+        <v>43.5572758557369</v>
       </c>
       <c r="V51" t="s">
         <v>159</v>
@@ -5678,28 +5678,28 @@
         <v>83</v>
       </c>
       <c r="C52">
-        <v>1.000594015592527</v>
+        <v>1.000594017437326</v>
       </c>
       <c r="D52">
-        <v>330.2814420201507</v>
+        <v>330.2814414112095</v>
       </c>
       <c r="E52">
         <v>1453.739621466288</v>
       </c>
       <c r="F52">
-        <v>1123.458179446137</v>
+        <v>1123.458180055078</v>
       </c>
       <c r="G52">
         <v>18737.38580755598</v>
       </c>
       <c r="H52">
-        <v>1712.690814696037</v>
+        <v>1712.680142863776</v>
       </c>
       <c r="I52">
         <v>36.28825572591655</v>
       </c>
       <c r="J52">
-        <v>5.969726687550049</v>
+        <v>5.969615930099344</v>
       </c>
       <c r="K52">
         <v>0.6386027625777997</v>
@@ -5711,13 +5711,13 @@
         <v>0.3573824236867441</v>
       </c>
       <c r="O52">
-        <v>0.6330523681198936</v>
+        <v>0.63305404000135</v>
       </c>
       <c r="R52">
-        <v>0.4323806424818045</v>
+        <v>0.432361655414792</v>
       </c>
       <c r="U52">
-        <v>42.2579824134666</v>
+        <v>42.25787165601589</v>
       </c>
       <c r="V52" t="s">
         <v>160</v>
@@ -5764,28 +5764,28 @@
         <v>84</v>
       </c>
       <c r="C53">
-        <v>1.000592000561607</v>
+        <v>1.000592000628377</v>
       </c>
       <c r="D53">
-        <v>330.2821071537091</v>
+        <v>330.2821071316691</v>
       </c>
       <c r="E53">
         <v>1453.739009240468</v>
       </c>
       <c r="F53">
-        <v>1123.456902086759</v>
+        <v>1123.456902108799</v>
       </c>
       <c r="G53">
         <v>19165.87050482735</v>
       </c>
       <c r="H53">
-        <v>1767.18466581698</v>
+        <v>1767.184605497301</v>
       </c>
       <c r="I53">
         <v>36.5171746542336</v>
       </c>
       <c r="J53">
-        <v>7.592644960559123</v>
+        <v>7.592642652797989</v>
       </c>
       <c r="K53">
         <v>0.6348869545491639</v>
@@ -5797,13 +5797,13 @@
         <v>0.3573613737650015</v>
       </c>
       <c r="O53">
-        <v>0.6389816478265185</v>
+        <v>0.6389816696127241</v>
       </c>
       <c r="R53">
-        <v>0.4335388073655105</v>
+        <v>0.4335386685709615</v>
       </c>
       <c r="U53">
-        <v>44.10981961479272</v>
+        <v>44.10981730703159</v>
       </c>
       <c r="V53" t="s">
         <v>161</v>
@@ -5850,28 +5850,28 @@
         <v>85</v>
       </c>
       <c r="C54">
-        <v>1.000595123120572</v>
+        <v>1.000595123146503</v>
       </c>
       <c r="D54">
-        <v>330.281076441755</v>
+        <v>330.2810764331955</v>
       </c>
       <c r="E54">
         <v>1453.73786076628</v>
       </c>
       <c r="F54">
-        <v>1123.456784324525</v>
+        <v>1123.456784333084</v>
       </c>
       <c r="G54">
         <v>18627.07070457179</v>
       </c>
       <c r="H54">
-        <v>1735.576791592052</v>
+        <v>1735.576728379051</v>
       </c>
       <c r="I54">
         <v>36.06379449535349</v>
       </c>
       <c r="J54">
-        <v>7.216211700182853</v>
+        <v>7.216208059462053</v>
       </c>
       <c r="K54">
         <v>0.6400915700405473</v>
@@ -5883,13 +5883,13 @@
         <v>0.3639998161022251</v>
       </c>
       <c r="O54">
-        <v>0.6449507538891188</v>
+        <v>0.6449507410750639</v>
       </c>
       <c r="R54">
-        <v>0.4002015840553133</v>
+        <v>0.400201523905125</v>
       </c>
       <c r="U54">
-        <v>43.28000619553634</v>
+        <v>43.28000255481555</v>
       </c>
       <c r="V54" t="s">
         <v>162</v>
@@ -5936,28 +5936,28 @@
         <v>86</v>
       </c>
       <c r="C55">
-        <v>1.000596349217469</v>
+        <v>1.000596362956024</v>
       </c>
       <c r="D55">
-        <v>330.2806717265037</v>
+        <v>330.2806671916287</v>
       </c>
       <c r="E55">
         <v>1453.735018933479</v>
       </c>
       <c r="F55">
-        <v>1123.454347206975</v>
+        <v>1123.45435174185</v>
       </c>
       <c r="G55">
         <v>18234.15748514444</v>
       </c>
       <c r="H55">
-        <v>1715.077761180311</v>
+        <v>1715.031744954498</v>
       </c>
       <c r="I55">
         <v>33.67625672380856</v>
       </c>
       <c r="J55">
-        <v>6.121335542152485</v>
+        <v>6.120160493368344</v>
       </c>
       <c r="K55">
         <v>0.6371673586208575</v>
@@ -5969,13 +5969,13 @@
         <v>0.3661178252234975</v>
       </c>
       <c r="O55">
-        <v>0.6389345096279194</v>
+        <v>0.6389331096588288</v>
       </c>
       <c r="R55">
-        <v>0.4387154604624717</v>
+        <v>0.4386554037059407</v>
       </c>
       <c r="U55">
-        <v>39.79759226596104</v>
+        <v>39.7964172171769</v>
       </c>
       <c r="V55" t="s">
         <v>163</v>
@@ -6022,28 +6022,28 @@
         <v>87</v>
       </c>
       <c r="C56">
-        <v>1.000568470708768</v>
+        <v>1.000568491434604</v>
       </c>
       <c r="D56">
-        <v>330.2898742277318</v>
+        <v>330.2898673860873</v>
       </c>
       <c r="E56">
         <v>1453.736214694482</v>
       </c>
       <c r="F56">
-        <v>1123.44634046675</v>
+        <v>1123.446347308394</v>
       </c>
       <c r="G56">
         <v>19103.40368087279</v>
       </c>
       <c r="H56">
-        <v>1687.138793357876</v>
+        <v>1687.04482743874</v>
       </c>
       <c r="I56">
         <v>36.71460532528267</v>
       </c>
       <c r="J56">
-        <v>8.039872927657871</v>
+        <v>8.039047778578617</v>
       </c>
       <c r="K56">
         <v>0.6384984596224297</v>
@@ -6055,13 +6055,13 @@
         <v>0.3609349703989764</v>
       </c>
       <c r="O56">
-        <v>0.6259928248418958</v>
+        <v>0.6260082110927567</v>
       </c>
       <c r="R56">
-        <v>0.4817879117284113</v>
+        <v>0.4816191068648464</v>
       </c>
       <c r="U56">
-        <v>44.75447825294054</v>
+        <v>44.75365310386128</v>
       </c>
       <c r="V56" t="s">
         <v>164</v>
@@ -6108,28 +6108,28 @@
         <v>88</v>
       </c>
       <c r="C57">
-        <v>1.000597900938595</v>
+        <v>1.000597901391102</v>
       </c>
       <c r="D57">
-        <v>330.280159529251</v>
+        <v>330.2801593798863</v>
       </c>
       <c r="E57">
         <v>1453.739015389572</v>
       </c>
       <c r="F57">
-        <v>1123.458855860321</v>
+        <v>1123.458856009686</v>
       </c>
       <c r="G57">
         <v>18898.53802956064</v>
       </c>
       <c r="H57">
-        <v>1659.822059972202</v>
+        <v>1659.820368666017</v>
       </c>
       <c r="I57">
         <v>35.46455806358919</v>
       </c>
       <c r="J57">
-        <v>6.531908466511248</v>
+        <v>6.531891432710888</v>
       </c>
       <c r="K57">
         <v>0.6377946997644165</v>
@@ -6141,13 +6141,13 @@
         <v>0.3552669797966843</v>
       </c>
       <c r="O57">
-        <v>0.6475369294625752</v>
+        <v>0.6475373809419787</v>
       </c>
       <c r="R57">
-        <v>0.4048428593639734</v>
+        <v>0.4048395113984461</v>
       </c>
       <c r="U57">
-        <v>41.99646653010044</v>
+        <v>41.99644949630008</v>
       </c>
       <c r="V57" t="s">
         <v>165</v>
@@ -6194,28 +6194,28 @@
         <v>89</v>
       </c>
       <c r="C58">
-        <v>1.000585019763702</v>
+        <v>1.000585024594195</v>
       </c>
       <c r="D58">
-        <v>330.2844114382988</v>
+        <v>330.2844098437949</v>
       </c>
       <c r="E58">
         <v>1453.740862484779</v>
       </c>
       <c r="F58">
-        <v>1123.45645104648</v>
+        <v>1123.456452640984</v>
       </c>
       <c r="G58">
         <v>18948.30687737206</v>
       </c>
       <c r="H58">
-        <v>1724.515111556411</v>
+        <v>1724.496364099156</v>
       </c>
       <c r="I58">
         <v>36.58605118509112</v>
       </c>
       <c r="J58">
-        <v>4.846331424245477</v>
+        <v>4.846260751787037</v>
       </c>
       <c r="K58">
         <v>0.639969443841512</v>
@@ -6227,13 +6227,13 @@
         <v>0.3532648053787124</v>
       </c>
       <c r="O58">
-        <v>0.6364637533238682</v>
+        <v>0.636463446364959</v>
       </c>
       <c r="R58">
-        <v>0.4185700791628302</v>
+        <v>0.4185451420831351</v>
       </c>
       <c r="U58">
-        <v>41.43238260933659</v>
+        <v>41.43231193687815</v>
       </c>
       <c r="V58" t="s">
         <v>166</v>
@@ -6280,28 +6280,28 @@
         <v>90</v>
       </c>
       <c r="C59">
-        <v>1.000622940706709</v>
+        <v>1.000622940843612</v>
       </c>
       <c r="D59">
-        <v>330.2718945392426</v>
+        <v>330.2718944940552</v>
       </c>
       <c r="E59">
         <v>1453.740619818348</v>
       </c>
       <c r="F59">
-        <v>1123.468725279106</v>
+        <v>1123.468725324293</v>
       </c>
       <c r="G59">
         <v>18537.19701423655</v>
       </c>
       <c r="H59">
-        <v>1776.889134113735</v>
+        <v>1776.888888506351</v>
       </c>
       <c r="I59">
         <v>33.30605513056275</v>
       </c>
       <c r="J59">
-        <v>6.423063008670955</v>
+        <v>6.423057915662215</v>
       </c>
       <c r="K59">
         <v>0.642567810699751</v>
@@ -6313,13 +6313,13 @@
         <v>0.3458463804605866</v>
       </c>
       <c r="O59">
-        <v>0.6443438249434952</v>
+        <v>0.6443438114331155</v>
       </c>
       <c r="R59">
-        <v>0.393195613902055</v>
+        <v>0.3931953184321044</v>
       </c>
       <c r="U59">
-        <v>39.72911813923371</v>
+        <v>39.72911304622496</v>
       </c>
       <c r="V59" t="s">
         <v>167</v>
@@ -6366,46 +6366,46 @@
         <v>91</v>
       </c>
       <c r="C60">
-        <v>1.000629418993171</v>
+        <v>1.000629402902222</v>
       </c>
       <c r="D60">
-        <v>330.2697562891544</v>
+        <v>330.2697616001656</v>
       </c>
       <c r="E60">
-        <v>1453.739166517766</v>
+        <v>1453.739166518514</v>
       </c>
       <c r="F60">
-        <v>1123.469410228612</v>
+        <v>1123.469404918349</v>
       </c>
       <c r="G60">
-        <v>18439.72198700724</v>
+        <v>18439.7146653392</v>
       </c>
       <c r="H60">
-        <v>1648.786527055176</v>
+        <v>1648.833439935272</v>
       </c>
       <c r="I60">
-        <v>38.43439623047728</v>
+        <v>38.43437616384223</v>
       </c>
       <c r="J60">
-        <v>7.592937886185947</v>
+        <v>7.592922694434048</v>
       </c>
       <c r="K60">
-        <v>0.6355633472984946</v>
+        <v>0.6355632230060011</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <v>0.3773220578236004</v>
+        <v>0.3773215338587317</v>
       </c>
       <c r="O60">
-        <v>0.6352628169325497</v>
+        <v>0.635264590858363</v>
       </c>
       <c r="R60">
-        <v>0.4408331868977803</v>
+        <v>0.4408952478193706</v>
       </c>
       <c r="U60">
-        <v>46.02733411666323</v>
+        <v>46.02729885827628</v>
       </c>
       <c r="V60" t="s">
         <v>168</v>
@@ -6452,28 +6452,28 @@
         <v>92</v>
       </c>
       <c r="C61">
-        <v>1.000624057220758</v>
+        <v>1.000624078852912</v>
       </c>
       <c r="D61">
-        <v>330.2715260160119</v>
+        <v>330.2715188759832</v>
       </c>
       <c r="E61">
         <v>1453.737174649037</v>
       </c>
       <c r="F61">
-        <v>1123.465648633025</v>
+        <v>1123.465655773054</v>
       </c>
       <c r="G61">
         <v>19260.64650688229</v>
       </c>
       <c r="H61">
-        <v>1624.162260516479</v>
+        <v>1624.076728832479</v>
       </c>
       <c r="I61">
         <v>38.09695484952366</v>
       </c>
       <c r="J61">
-        <v>6.880574598977456</v>
+        <v>6.878910721276412</v>
       </c>
       <c r="K61">
         <v>0.6400524173649926</v>
@@ -6485,13 +6485,13 @@
         <v>0.3629348486410592</v>
       </c>
       <c r="O61">
-        <v>0.6329829351266812</v>
+        <v>0.6329901267070015</v>
       </c>
       <c r="R61">
-        <v>0.385112452283625</v>
+        <v>0.3849669026472403</v>
       </c>
       <c r="U61">
-        <v>44.97752944850112</v>
+        <v>44.97586557080007</v>
       </c>
       <c r="V61" t="s">
         <v>169</v>
@@ -6538,28 +6538,28 @@
         <v>93</v>
       </c>
       <c r="C62">
-        <v>1.000615570246359</v>
+        <v>1.000615570688979</v>
       </c>
       <c r="D62">
-        <v>330.2743272976122</v>
+        <v>330.274327151516</v>
       </c>
       <c r="E62">
         <v>1453.733676750572</v>
       </c>
       <c r="F62">
-        <v>1123.45934945296</v>
+        <v>1123.459349599056</v>
       </c>
       <c r="G62">
         <v>19428.7223040801</v>
       </c>
       <c r="H62">
-        <v>1646.452925573</v>
+        <v>1646.451542825847</v>
       </c>
       <c r="I62">
         <v>38.11090154771414</v>
       </c>
       <c r="J62">
-        <v>6.421157689509155</v>
+        <v>6.421152689094826</v>
       </c>
       <c r="K62">
         <v>0.6405010937456714</v>
@@ -6571,13 +6571,13 @@
         <v>0.3624027187720768</v>
       </c>
       <c r="O62">
-        <v>0.6383448858803069</v>
+        <v>0.6383449183069446</v>
       </c>
       <c r="R62">
-        <v>0.4395459371940049</v>
+        <v>0.4395438595410771</v>
       </c>
       <c r="U62">
-        <v>44.53205923722329</v>
+        <v>44.53205423680897</v>
       </c>
       <c r="V62" t="s">
         <v>170</v>
@@ -6624,28 +6624,28 @@
         <v>94</v>
       </c>
       <c r="C63">
-        <v>1.000573823966937</v>
+        <v>1.000573840890993</v>
       </c>
       <c r="D63">
-        <v>330.288107114776</v>
+        <v>330.2881015281675</v>
       </c>
       <c r="E63">
         <v>1453.736443406442</v>
       </c>
       <c r="F63">
-        <v>1123.448336291666</v>
+        <v>1123.448341878274</v>
       </c>
       <c r="G63">
         <v>19144.20442995782</v>
       </c>
       <c r="H63">
-        <v>1649.416302989384</v>
+        <v>1649.336605343899</v>
       </c>
       <c r="I63">
         <v>38.65433331897265</v>
       </c>
       <c r="J63">
-        <v>7.595564863789876</v>
+        <v>7.59495651828043</v>
       </c>
       <c r="K63">
         <v>0.6394932949625507</v>
@@ -6657,13 +6657,13 @@
         <v>0.3657164376126722</v>
       </c>
       <c r="O63">
-        <v>0.6483241260614044</v>
+        <v>0.6483360283220723</v>
       </c>
       <c r="R63">
-        <v>0.4323005759370849</v>
+        <v>0.4321552291520649</v>
       </c>
       <c r="U63">
-        <v>46.24989818276252</v>
+        <v>46.24928983725307</v>
       </c>
       <c r="V63" t="s">
         <v>171</v>
@@ -6710,28 +6710,28 @@
         <v>95</v>
       </c>
       <c r="C64">
-        <v>1.000610444034103</v>
+        <v>1.000610443986199</v>
       </c>
       <c r="D64">
-        <v>330.2760193210308</v>
+        <v>330.2760193368429</v>
       </c>
       <c r="E64">
         <v>1453.734744109124</v>
       </c>
       <c r="F64">
-        <v>1123.458724788093</v>
+        <v>1123.458724772281</v>
       </c>
       <c r="G64">
         <v>19266.94632617488</v>
       </c>
       <c r="H64">
-        <v>1705.4645756381</v>
+        <v>1705.46477185113</v>
       </c>
       <c r="I64">
         <v>34.92099091904142</v>
       </c>
       <c r="J64">
-        <v>7.371161341788202</v>
+        <v>7.371164551479535</v>
       </c>
       <c r="K64">
         <v>0.6411236468099419</v>
@@ -6743,13 +6743,13 @@
         <v>0.3535631236074057</v>
       </c>
       <c r="O64">
-        <v>0.6441129670193781</v>
+        <v>0.6441129713632689</v>
       </c>
       <c r="R64">
-        <v>0.4048558298859614</v>
+        <v>0.4048561052830845</v>
       </c>
       <c r="U64">
-        <v>42.29215226082962</v>
+        <v>42.29215547052096</v>
       </c>
       <c r="V64" t="s">
         <v>172</v>
@@ -6796,46 +6796,46 @@
         <v>96</v>
       </c>
       <c r="C65">
-        <v>1.000597381732074</v>
+        <v>1.000597381801497</v>
       </c>
       <c r="D65">
-        <v>330.2803309104836</v>
+        <v>330.2803308875682</v>
       </c>
       <c r="E65">
-        <v>1453.739008333758</v>
+        <v>1453.73900835956</v>
       </c>
       <c r="F65">
-        <v>1123.458677423274</v>
+        <v>1123.458677471992</v>
       </c>
       <c r="G65">
-        <v>18987.49107218187</v>
+        <v>18987.49240223048</v>
       </c>
       <c r="H65">
-        <v>1635.157855666117</v>
+        <v>1635.157743111992</v>
       </c>
       <c r="I65">
-        <v>39.181494184835</v>
+        <v>39.18149024823936</v>
       </c>
       <c r="J65">
-        <v>6.002649811439183</v>
+        <v>6.002643216286497</v>
       </c>
       <c r="K65">
-        <v>0.6403744081370396</v>
+        <v>0.6403742915744335</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <v>0.3622952539165722</v>
+        <v>0.3622957078223017</v>
       </c>
       <c r="O65">
-        <v>0.6514004592243711</v>
+        <v>0.6514004395236468</v>
       </c>
       <c r="R65">
-        <v>0.3808448528018576</v>
+        <v>0.3808447348146766</v>
       </c>
       <c r="U65">
-        <v>45.18414399627418</v>
+        <v>45.18413346452586</v>
       </c>
       <c r="V65" t="s">
         <v>173</v>
@@ -6882,46 +6882,46 @@
         <v>97</v>
       </c>
       <c r="C66">
-        <v>1.000584708224439</v>
+        <v>1.000584716921465</v>
       </c>
       <c r="D66">
-        <v>330.2845142747315</v>
+        <v>330.2845114039171</v>
       </c>
       <c r="E66">
-        <v>1453.739593623573</v>
+        <v>1453.739593640112</v>
       </c>
       <c r="F66">
-        <v>1123.455079348842</v>
+        <v>1123.455082236195</v>
       </c>
       <c r="G66">
-        <v>19030.55739097994</v>
+        <v>19030.55461343363</v>
       </c>
       <c r="H66">
-        <v>1679.059402063177</v>
+        <v>1679.024722867895</v>
       </c>
       <c r="I66">
-        <v>37.77805363154803</v>
+        <v>37.77801350595006</v>
       </c>
       <c r="J66">
-        <v>7.341481968014217</v>
+        <v>7.340675567962082</v>
       </c>
       <c r="K66">
-        <v>0.6381124838557671</v>
+        <v>0.638112358457252</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <v>0.3603583559622074</v>
+        <v>0.3603583700079172</v>
       </c>
       <c r="O66">
-        <v>0.6328996752894331</v>
+        <v>0.6329046810681026</v>
       </c>
       <c r="R66">
-        <v>0.4886233124917453</v>
+        <v>0.4885628279521786</v>
       </c>
       <c r="U66">
-        <v>45.11953559956224</v>
+        <v>45.11868907391214</v>
       </c>
       <c r="V66" t="s">
         <v>174</v>
@@ -6968,28 +6968,28 @@
         <v>98</v>
       </c>
       <c r="C67">
-        <v>1.000632252060839</v>
+        <v>1.000632252056216</v>
       </c>
       <c r="D67">
-        <v>330.2688212037958</v>
+        <v>330.2688212053217</v>
       </c>
       <c r="E67">
         <v>1453.732367416853</v>
       </c>
       <c r="F67">
-        <v>1123.463546213057</v>
+        <v>1123.463546211531</v>
       </c>
       <c r="G67">
         <v>19168.95636601711</v>
       </c>
       <c r="H67">
-        <v>1640.148927240743</v>
+        <v>1640.149011532312</v>
       </c>
       <c r="I67">
         <v>38.87576824486851</v>
       </c>
       <c r="J67">
-        <v>6.14747827463543</v>
+        <v>6.147478906075043</v>
       </c>
       <c r="K67">
         <v>0.6386726142676993</v>
@@ -7001,13 +7001,13 @@
         <v>0.3653429616989983</v>
       </c>
       <c r="O67">
-        <v>0.6451003885500577</v>
+        <v>0.6451003874583543</v>
       </c>
       <c r="R67">
-        <v>0.3856342585633636</v>
+        <v>0.3856343900970374</v>
       </c>
       <c r="U67">
-        <v>45.02324651950394</v>
+        <v>45.02324715094355</v>
       </c>
       <c r="V67" t="s">
         <v>175</v>
@@ -7054,46 +7054,46 @@
         <v>99</v>
       </c>
       <c r="C68">
-        <v>1.000601345559378</v>
+        <v>1.000601348499139</v>
       </c>
       <c r="D68">
-        <v>330.2790225230829</v>
+        <v>330.279021552725</v>
       </c>
       <c r="E68">
-        <v>1453.739822150763</v>
+        <v>1453.739822179914</v>
       </c>
       <c r="F68">
-        <v>1123.46079962768</v>
+        <v>1123.460800627189</v>
       </c>
       <c r="G68">
-        <v>19165.78332819425</v>
+        <v>19165.7839055456</v>
       </c>
       <c r="H68">
-        <v>1641.136634874088</v>
+        <v>1641.125406662361</v>
       </c>
       <c r="I68">
-        <v>38.61747715259807</v>
+        <v>38.61746144545604</v>
       </c>
       <c r="J68">
-        <v>6.404822280078865</v>
+        <v>6.404741601333464</v>
       </c>
       <c r="K68">
-        <v>0.6389511645467225</v>
+        <v>0.6389510078282052</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>0.3617905003620441</v>
+        <v>0.3617909738663931</v>
       </c>
       <c r="O68">
-        <v>0.6422008618947953</v>
+        <v>0.6422032202762256</v>
       </c>
       <c r="R68">
-        <v>0.4183764274432051</v>
+        <v>0.4183543076344846</v>
       </c>
       <c r="U68">
-        <v>45.02229943267694</v>
+        <v>45.02220304678951</v>
       </c>
       <c r="V68" t="s">
         <v>176</v>
@@ -7140,46 +7140,46 @@
         <v>100</v>
       </c>
       <c r="C69">
-        <v>1.000626969112924</v>
+        <v>1.000626970226831</v>
       </c>
       <c r="D69">
-        <v>330.2705649035304</v>
+        <v>330.2705645358701</v>
       </c>
       <c r="E69">
-        <v>1453.738699573467</v>
+        <v>1453.738699599209</v>
       </c>
       <c r="F69">
-        <v>1123.468134669936</v>
+        <v>1123.468135063339</v>
       </c>
       <c r="G69">
-        <v>19017.23000224803</v>
+        <v>19017.23142451724</v>
       </c>
       <c r="H69">
-        <v>1651.911986601259</v>
+        <v>1651.903772389997</v>
       </c>
       <c r="I69">
-        <v>37.96314660888233</v>
+        <v>37.96314424684039</v>
       </c>
       <c r="J69">
-        <v>5.64355317612995</v>
+        <v>5.643434847828429</v>
       </c>
       <c r="K69">
-        <v>0.6438548863572719</v>
+        <v>0.6438547617906212</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>0.3561625041898896</v>
+        <v>0.3561629906606461</v>
       </c>
       <c r="O69">
-        <v>0.6442814616017399</v>
+        <v>0.6442826494085567</v>
       </c>
       <c r="R69">
-        <v>0.3922120203665606</v>
+        <v>0.3921970447935741</v>
       </c>
       <c r="U69">
-        <v>43.60669978501228</v>
+        <v>43.60657909466882</v>
       </c>
       <c r="V69" t="s">
         <v>177</v>
@@ -7226,28 +7226,28 @@
         <v>101</v>
       </c>
       <c r="C70">
-        <v>1.000625269492404</v>
+        <v>1.000625269497543</v>
       </c>
       <c r="D70">
-        <v>330.2711258873935</v>
+        <v>330.2711258856973</v>
       </c>
       <c r="E70">
         <v>1453.732430122003</v>
       </c>
       <c r="F70">
-        <v>1123.46130423461</v>
+        <v>1123.461304236306</v>
       </c>
       <c r="G70">
         <v>19437.92495407654</v>
       </c>
       <c r="H70">
-        <v>1625.029070790457</v>
+        <v>1625.029087581866</v>
       </c>
       <c r="I70">
         <v>35.32010004904854</v>
       </c>
       <c r="J70">
-        <v>6.927277515687192</v>
+        <v>6.92727778723195</v>
       </c>
       <c r="K70">
         <v>0.6398855661652311</v>
@@ -7259,13 +7259,13 @@
         <v>0.3682567030666429</v>
       </c>
       <c r="O70">
-        <v>0.6376279007615125</v>
+        <v>0.6376278973984109</v>
       </c>
       <c r="R70">
-        <v>0.366001129293324</v>
+        <v>0.3660011605346463</v>
       </c>
       <c r="U70">
-        <v>42.24737756473574</v>
+        <v>42.24737783628049</v>
       </c>
       <c r="V70" t="s">
         <v>178</v>
@@ -7312,28 +7312,28 @@
         <v>102</v>
       </c>
       <c r="C71">
-        <v>1.000605266973223</v>
+        <v>1.000605266835161</v>
       </c>
       <c r="D71">
-        <v>330.2777281457952</v>
+        <v>330.2777281913664</v>
       </c>
       <c r="E71">
         <v>1453.734489636459</v>
       </c>
       <c r="F71">
-        <v>1123.456761490664</v>
+        <v>1123.456761445093</v>
       </c>
       <c r="G71">
         <v>19139.66213654533</v>
       </c>
       <c r="H71">
-        <v>1707.096002236742</v>
+        <v>1707.095828257574</v>
       </c>
       <c r="I71">
         <v>36.08242687012345</v>
       </c>
       <c r="J71">
-        <v>6.764932071947686</v>
+        <v>6.764929613080193</v>
       </c>
       <c r="K71">
         <v>0.6388920241497454</v>
@@ -7345,13 +7345,13 @@
         <v>0.364216172467112</v>
       </c>
       <c r="O71">
-        <v>0.639565847765476</v>
+        <v>0.6395658606442156</v>
       </c>
       <c r="R71">
-        <v>0.4484644191471296</v>
+        <v>0.4484641305944604</v>
       </c>
       <c r="U71">
-        <v>42.84735894207113</v>
+        <v>42.84735648320364</v>
       </c>
       <c r="V71" t="s">
         <v>179</v>
@@ -7398,46 +7398,46 @@
         <v>103</v>
       </c>
       <c r="C72">
-        <v>1.000616192384018</v>
+        <v>1.000616192503436</v>
       </c>
       <c r="D72">
-        <v>330.2741219480504</v>
+        <v>330.2741219086338</v>
       </c>
       <c r="E72">
-        <v>1453.736949359087</v>
+        <v>1453.736949371645</v>
       </c>
       <c r="F72">
-        <v>1123.462827411036</v>
+        <v>1123.462827463012</v>
       </c>
       <c r="G72">
-        <v>19613.01765782246</v>
+        <v>19613.01921238567</v>
       </c>
       <c r="H72">
-        <v>1723.983549129483</v>
+        <v>1723.983486865219</v>
       </c>
       <c r="I72">
-        <v>40.57082265748628</v>
+        <v>40.57080490823467</v>
       </c>
       <c r="J72">
-        <v>6.039221300033113</v>
+        <v>6.03922215495702</v>
       </c>
       <c r="K72">
-        <v>0.6387787896800146</v>
+        <v>0.6387786464555198</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <v>0.3678208752807198</v>
+        <v>0.3678214259461177</v>
       </c>
       <c r="O72">
-        <v>0.6350286561480665</v>
+        <v>0.6350286961971913</v>
       </c>
       <c r="R72">
-        <v>0.4286049298903449</v>
+        <v>0.4286047616041163</v>
       </c>
       <c r="U72">
-        <v>46.61004395751939</v>
+        <v>46.61002706319169</v>
       </c>
       <c r="V72" t="s">
         <v>180</v>
@@ -7484,28 +7484,28 @@
         <v>104</v>
       </c>
       <c r="C73">
-        <v>1.000606946886669</v>
+        <v>1.000606944965044</v>
       </c>
       <c r="D73">
-        <v>330.2771736443515</v>
+        <v>330.2771742786356</v>
       </c>
       <c r="E73">
         <v>1453.735969924104</v>
       </c>
       <c r="F73">
-        <v>1123.458796279753</v>
+        <v>1123.458795645468</v>
       </c>
       <c r="G73">
         <v>19271.83516304578</v>
       </c>
       <c r="H73">
-        <v>1719.679298437244</v>
+        <v>1719.687253144153</v>
       </c>
       <c r="I73">
         <v>35.63666063608861</v>
       </c>
       <c r="J73">
-        <v>5.880197977337836</v>
+        <v>5.880491570414351</v>
       </c>
       <c r="K73">
         <v>0.6433132359178328</v>
@@ -7517,13 +7517,13 @@
         <v>0.3517185468522294</v>
       </c>
       <c r="O73">
-        <v>0.636644501710348</v>
+        <v>0.6366445549224254</v>
       </c>
       <c r="R73">
-        <v>0.456436520666578</v>
+        <v>0.4564487101648048</v>
       </c>
       <c r="U73">
-        <v>41.51685861342645</v>
+        <v>41.51715220650296</v>
       </c>
       <c r="V73" t="s">
         <v>181</v>
@@ -7570,28 +7570,28 @@
         <v>105</v>
       </c>
       <c r="C74">
-        <v>1.000641421488242</v>
+        <v>1.000641424802194</v>
       </c>
       <c r="D74">
-        <v>330.2657947690366</v>
+        <v>330.2657936752532</v>
       </c>
       <c r="E74">
         <v>1453.734050564974</v>
       </c>
       <c r="F74">
-        <v>1123.468255795937</v>
+        <v>1123.46825688972</v>
       </c>
       <c r="G74">
         <v>19579.98663102658</v>
       </c>
       <c r="H74">
-        <v>1726.618592781991</v>
+        <v>1726.604778846471</v>
       </c>
       <c r="I74">
         <v>37.96075513637956</v>
       </c>
       <c r="J74">
-        <v>5.716022155626201</v>
+        <v>5.71593597781732</v>
       </c>
       <c r="K74">
         <v>0.6443743401031139</v>
@@ -7603,13 +7603,13 @@
         <v>0.3571363528379445</v>
       </c>
       <c r="O74">
-        <v>0.6523644431445752</v>
+        <v>0.6523650913838674</v>
       </c>
       <c r="R74">
-        <v>0.3776348849201987</v>
+        <v>0.3776136582825758</v>
       </c>
       <c r="U74">
-        <v>43.67677729200576</v>
+        <v>43.67669111419688</v>
       </c>
       <c r="V74" t="s">
         <v>182</v>
@@ -7656,28 +7656,28 @@
         <v>106</v>
       </c>
       <c r="C75">
-        <v>1.000606522117488</v>
+        <v>1.000606522904965</v>
       </c>
       <c r="D75">
-        <v>330.2773138508778</v>
+        <v>330.2773135909495</v>
       </c>
       <c r="E75">
         <v>1453.733147113155</v>
       </c>
       <c r="F75">
-        <v>1123.455833262278</v>
+        <v>1123.455833522206</v>
       </c>
       <c r="G75">
         <v>19406.09874321437</v>
       </c>
       <c r="H75">
-        <v>1661.964429588654</v>
+        <v>1661.963139001104</v>
       </c>
       <c r="I75">
         <v>37.24458590909412</v>
       </c>
       <c r="J75">
-        <v>6.752173579131103</v>
+        <v>6.75217736654688</v>
       </c>
       <c r="K75">
         <v>0.6409753485673552</v>
@@ -7689,13 +7689,13 @@
         <v>0.3507299512892643</v>
       </c>
       <c r="O75">
-        <v>0.6290064675628958</v>
+        <v>0.6290052158853325</v>
       </c>
       <c r="R75">
-        <v>0.4452436856505225</v>
+        <v>0.4452445633700858</v>
       </c>
       <c r="U75">
-        <v>43.99675948822522</v>
+        <v>43.996763275641</v>
       </c>
       <c r="V75" t="s">
         <v>183</v>
@@ -7742,28 +7742,28 @@
         <v>107</v>
       </c>
       <c r="C76">
-        <v>1.000590512773814</v>
+        <v>1.000590512856161</v>
       </c>
       <c r="D76">
-        <v>330.2825982533959</v>
+        <v>330.2825982262141</v>
       </c>
       <c r="E76">
         <v>1453.731503775221</v>
       </c>
       <c r="F76">
-        <v>1123.448905521825</v>
+        <v>1123.448905549006</v>
       </c>
       <c r="G76">
         <v>19630.12309162354</v>
       </c>
       <c r="H76">
-        <v>1700.844285237337</v>
+        <v>1700.844309426287</v>
       </c>
       <c r="I76">
         <v>39.78044898374196</v>
       </c>
       <c r="J76">
-        <v>6.382452509543989</v>
+        <v>6.382447870842977</v>
       </c>
       <c r="K76">
         <v>0.6369966546290188</v>
@@ -7775,13 +7775,13 @@
         <v>0.3711120731559501</v>
       </c>
       <c r="O76">
-        <v>0.6466524783731066</v>
+        <v>0.6466524600440575</v>
       </c>
       <c r="R76">
-        <v>0.3925688855976509</v>
+        <v>0.3925689664526068</v>
       </c>
       <c r="U76">
-        <v>46.16290149328594</v>
+        <v>46.16289685458493</v>
       </c>
       <c r="V76" t="s">
         <v>184</v>
@@ -7828,28 +7828,28 @@
         <v>108</v>
       </c>
       <c r="C77">
-        <v>1.000642709197498</v>
+        <v>1.000642713095808</v>
       </c>
       <c r="D77">
-        <v>330.2653697558756</v>
+        <v>330.2653684692259</v>
       </c>
       <c r="E77">
         <v>1453.733395253289</v>
       </c>
       <c r="F77">
-        <v>1123.468025497414</v>
+        <v>1123.468026784063</v>
       </c>
       <c r="G77">
         <v>19420.48984016729</v>
       </c>
       <c r="H77">
-        <v>1674.378488412338</v>
+        <v>1674.36007388411</v>
       </c>
       <c r="I77">
         <v>38.31936532178086</v>
       </c>
       <c r="J77">
-        <v>6.588452190646384</v>
+        <v>6.588340314160319</v>
       </c>
       <c r="K77">
         <v>0.635770424098993</v>
@@ -7861,13 +7861,13 @@
         <v>0.3667368878496088</v>
       </c>
       <c r="O77">
-        <v>0.6401761233219359</v>
+        <v>0.6401777399516042</v>
       </c>
       <c r="R77">
-        <v>0.4180259016064161</v>
+        <v>0.4179954947397526</v>
       </c>
       <c r="U77">
-        <v>44.90781751242725</v>
+        <v>44.90770563594118</v>
       </c>
       <c r="V77" t="s">
         <v>185</v>
@@ -7914,28 +7914,28 @@
         <v>109</v>
       </c>
       <c r="C78">
-        <v>1.000581775088056</v>
+        <v>1.000581775028069</v>
       </c>
       <c r="D78">
-        <v>330.2854824809788</v>
+        <v>330.2854825007801</v>
       </c>
       <c r="E78">
         <v>1453.741118671579</v>
       </c>
       <c r="F78">
-        <v>1123.4556361906</v>
+        <v>1123.455636170799</v>
       </c>
       <c r="G78">
         <v>19094.77962083993</v>
       </c>
       <c r="H78">
-        <v>1566.008985854686</v>
+        <v>1566.008993403828</v>
       </c>
       <c r="I78">
         <v>37.12625379721084</v>
       </c>
       <c r="J78">
-        <v>7.009487338243835</v>
+        <v>7.009486618539589</v>
       </c>
       <c r="K78">
         <v>0.6363477429182082</v>
@@ -7947,13 +7947,13 @@
         <v>0.3639171425560962</v>
       </c>
       <c r="O78">
-        <v>0.6309004259077673</v>
+        <v>0.6309007306759069</v>
       </c>
       <c r="R78">
-        <v>0.4572686568878274</v>
+        <v>0.4572680086128129</v>
       </c>
       <c r="U78">
-        <v>44.13574113545468</v>
+        <v>44.13574041575043</v>
       </c>
       <c r="V78" t="s">
         <v>186</v>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
@@ -1378,46 +1378,46 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1.000672339660433</v>
+        <v>1.000672335493391</v>
       </c>
       <c r="D2">
-        <v>330.255590415117</v>
+        <v>330.2555917903812</v>
       </c>
       <c r="E2">
-        <v>1453.824137714816</v>
+        <v>1453.824137675149</v>
       </c>
       <c r="F2">
-        <v>1123.568547299699</v>
+        <v>1123.568545884767</v>
       </c>
       <c r="G2">
-        <v>21207.72021478431</v>
+        <v>21207.6921593864</v>
       </c>
       <c r="H2">
-        <v>1446.817859341855</v>
+        <v>1446.824983976873</v>
       </c>
       <c r="I2">
-        <v>41.66655271648441</v>
+        <v>41.66584055711061</v>
       </c>
       <c r="J2">
-        <v>6.136669127862317</v>
+        <v>6.136603011966044</v>
       </c>
       <c r="K2">
-        <v>0.6203285339049449</v>
+        <v>0.6203313544563492</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.00225</v>
       </c>
       <c r="N2">
-        <v>0.3738985059721814</v>
+        <v>0.3738886141267517</v>
       </c>
       <c r="O2">
-        <v>0.628988018990431</v>
+        <v>0.62898109023626</v>
       </c>
       <c r="R2">
-        <v>0.4076608316356126</v>
+        <v>0.4076791950987831</v>
       </c>
       <c r="U2">
-        <v>47.80322184434673</v>
+        <v>47.80244356907665</v>
       </c>
       <c r="V2" t="s">
         <v>110</v>
@@ -1464,46 +1464,46 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>1.000616587169185</v>
+        <v>1.000616587200346</v>
       </c>
       <c r="D3">
-        <v>330.2739916410715</v>
+        <v>330.273991630786</v>
       </c>
       <c r="E3">
-        <v>1453.828523171554</v>
+        <v>1453.828523171423</v>
       </c>
       <c r="F3">
-        <v>1123.554531530482</v>
+        <v>1123.554531540637</v>
       </c>
       <c r="G3">
-        <v>21691.26884916821</v>
+        <v>21691.26890909946</v>
       </c>
       <c r="H3">
-        <v>1328.319899319157</v>
+        <v>1328.319840024182</v>
       </c>
       <c r="I3">
-        <v>42.80647971611094</v>
+        <v>42.80648106357247</v>
       </c>
       <c r="J3">
-        <v>5.335542977706218</v>
+        <v>5.335542926233985</v>
       </c>
       <c r="K3">
-        <v>0.61843636393068</v>
+        <v>0.6184363663484839</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.00235</v>
       </c>
       <c r="N3">
-        <v>0.3660781948380815</v>
+        <v>0.3660781951630119</v>
       </c>
       <c r="O3">
-        <v>0.6486929112023514</v>
+        <v>0.6486929046495546</v>
       </c>
       <c r="R3">
-        <v>0.4087929479256287</v>
+        <v>0.4087928553778686</v>
       </c>
       <c r="U3">
-        <v>48.14202269381716</v>
+        <v>48.14202398980645</v>
       </c>
       <c r="V3" t="s">
         <v>111</v>
@@ -1550,46 +1550,46 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>1.000594816067742</v>
+        <v>1.000594816030338</v>
       </c>
       <c r="D4">
-        <v>330.2811777952077</v>
+        <v>330.2811778075541</v>
       </c>
       <c r="E4">
-        <v>1453.82232508809</v>
+        <v>1453.822325089127</v>
       </c>
       <c r="F4">
-        <v>1123.541147292882</v>
+        <v>1123.541147281573</v>
       </c>
       <c r="G4">
-        <v>20320.58024531272</v>
+        <v>20320.58047004566</v>
       </c>
       <c r="H4">
-        <v>1618.779528596682</v>
+        <v>1618.779572601536</v>
       </c>
       <c r="I4">
-        <v>38.41164138306906</v>
+        <v>38.41163710531283</v>
       </c>
       <c r="J4">
-        <v>6.845233115646338</v>
+        <v>6.845234387065845</v>
       </c>
       <c r="K4">
-        <v>0.6228620545919288</v>
+        <v>0.6228620260380261</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.00225</v>
       </c>
       <c r="N4">
-        <v>0.3663539501751377</v>
+        <v>0.366354044288141</v>
       </c>
       <c r="O4">
-        <v>0.6397509712382312</v>
+        <v>0.6397509362239668</v>
       </c>
       <c r="R4">
-        <v>0.4180140328085212</v>
+        <v>0.4180141738945246</v>
       </c>
       <c r="U4">
-        <v>45.2568744987154</v>
+        <v>45.25687149237868</v>
       </c>
       <c r="V4" t="s">
         <v>112</v>
@@ -1636,46 +1636,46 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>1.000641950420278</v>
+        <v>1.000641951980591</v>
       </c>
       <c r="D5">
-        <v>330.2656201929467</v>
+        <v>330.2656196779594</v>
       </c>
       <c r="E5">
-        <v>1453.816835429267</v>
+        <v>1453.816835428168</v>
       </c>
       <c r="F5">
-        <v>1123.55121523632</v>
+        <v>1123.551215750208</v>
       </c>
       <c r="G5">
-        <v>19843.74687413721</v>
+        <v>19843.74674039496</v>
       </c>
       <c r="H5">
-        <v>1499.932065583676</v>
+        <v>1499.927137306187</v>
       </c>
       <c r="I5">
-        <v>41.20599166488984</v>
+        <v>41.20599760321195</v>
       </c>
       <c r="J5">
-        <v>5.938521812090877</v>
+        <v>5.938481702313204</v>
       </c>
       <c r="K5">
-        <v>0.6197854340411275</v>
+        <v>0.6197854630233822</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.00251</v>
       </c>
       <c r="N5">
-        <v>0.3851316134418831</v>
+        <v>0.3851315309068848</v>
       </c>
       <c r="O5">
-        <v>0.6364128579449773</v>
+        <v>0.6364131119840418</v>
       </c>
       <c r="R5">
-        <v>0.4482037714715404</v>
+        <v>0.448195223657375</v>
       </c>
       <c r="U5">
-        <v>47.14451347698071</v>
+        <v>47.14447930552515</v>
       </c>
       <c r="V5" t="s">
         <v>113</v>
@@ -1722,46 +1722,46 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>1.000614031335007</v>
+        <v>1.00061403119695</v>
       </c>
       <c r="D6">
-        <v>330.2748352486258</v>
+        <v>330.2748352941946</v>
       </c>
       <c r="E6">
-        <v>1453.817174057574</v>
+        <v>1453.817174059296</v>
       </c>
       <c r="F6">
-        <v>1123.542338808948</v>
+        <v>1123.542338765101</v>
       </c>
       <c r="G6">
-        <v>20547.57647772583</v>
+        <v>20547.57688815906</v>
       </c>
       <c r="H6">
-        <v>1460.7964430287</v>
+        <v>1460.796757510816</v>
       </c>
       <c r="I6">
-        <v>43.86642492125705</v>
+        <v>43.86643399576013</v>
       </c>
       <c r="J6">
-        <v>6.587840949083333</v>
+        <v>6.587850741205358</v>
       </c>
       <c r="K6">
-        <v>0.6222773537309388</v>
+        <v>0.622277313185599</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.00261</v>
       </c>
       <c r="N6">
-        <v>0.3797557088542522</v>
+        <v>0.3797558502015055</v>
       </c>
       <c r="O6">
-        <v>0.6439098086085211</v>
+        <v>0.6439098241508447</v>
       </c>
       <c r="R6">
-        <v>0.3995508127181722</v>
+        <v>0.3995512894104848</v>
       </c>
       <c r="U6">
-        <v>50.45426587034038</v>
+        <v>50.45428473696548</v>
       </c>
       <c r="V6" t="s">
         <v>114</v>
@@ -1808,46 +1808,46 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>1.000632723334459</v>
+        <v>1.000632723317336</v>
       </c>
       <c r="D7">
-        <v>330.2686656552323</v>
+        <v>330.2686656608839</v>
       </c>
       <c r="E7">
-        <v>1453.81464777805</v>
+        <v>1453.814647778088</v>
       </c>
       <c r="F7">
-        <v>1123.545982122818</v>
+        <v>1123.545982117204</v>
       </c>
       <c r="G7">
-        <v>20645.55513732425</v>
+        <v>20645.55504034918</v>
       </c>
       <c r="H7">
-        <v>1526.416964746067</v>
+        <v>1526.41692276889</v>
       </c>
       <c r="I7">
-        <v>40.35810681807515</v>
+        <v>40.35810510511937</v>
       </c>
       <c r="J7">
-        <v>5.706012603111299</v>
+        <v>5.706012191698383</v>
       </c>
       <c r="K7">
-        <v>0.6258569407193386</v>
+        <v>0.6258569389371409</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.0024</v>
       </c>
       <c r="N7">
-        <v>0.3762981485684497</v>
+        <v>0.3762981414776077</v>
       </c>
       <c r="O7">
-        <v>0.617991466268717</v>
+        <v>0.6179914610973932</v>
       </c>
       <c r="R7">
-        <v>0.4368779819242287</v>
+        <v>0.4368779207630855</v>
       </c>
       <c r="U7">
-        <v>46.06411942118645</v>
+        <v>46.06411729681776</v>
       </c>
       <c r="V7" t="s">
         <v>115</v>
@@ -1894,46 +1894,46 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>1.000604535751257</v>
+        <v>1.000604535095436</v>
       </c>
       <c r="D8">
-        <v>330.2779695062136</v>
+        <v>330.2779697226861</v>
       </c>
       <c r="E8">
-        <v>1453.806151710498</v>
+        <v>1453.806151710594</v>
       </c>
       <c r="F8">
-        <v>1123.528182204285</v>
+        <v>1123.528181987908</v>
       </c>
       <c r="G8">
-        <v>20375.29387089088</v>
+        <v>20375.293835285</v>
       </c>
       <c r="H8">
-        <v>1503.036020548312</v>
+        <v>1503.037709770766</v>
       </c>
       <c r="I8">
-        <v>43.5380453818754</v>
+        <v>43.53804534268182</v>
       </c>
       <c r="J8">
-        <v>6.767571866470631</v>
+        <v>6.767630833908406</v>
       </c>
       <c r="K8">
-        <v>0.6247820811480714</v>
+        <v>0.6247820804288887</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.00256</v>
       </c>
       <c r="N8">
-        <v>0.3789471321543898</v>
+        <v>0.3789471307210617</v>
       </c>
       <c r="O8">
-        <v>0.6318365202061471</v>
+        <v>0.631836739333536</v>
       </c>
       <c r="R8">
-        <v>0.4564935926092168</v>
+        <v>0.4564957159920661</v>
       </c>
       <c r="U8">
-        <v>50.30561724834603</v>
+        <v>50.30567617659023</v>
       </c>
       <c r="V8" t="s">
         <v>116</v>
@@ -1980,46 +1980,46 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>1.000596058747376</v>
+        <v>1.000596057742867</v>
       </c>
       <c r="D9">
-        <v>330.2807676060113</v>
+        <v>330.2807679375835</v>
       </c>
       <c r="E9">
-        <v>1453.806207175838</v>
+        <v>1453.806207175778</v>
       </c>
       <c r="F9">
-        <v>1123.525439569827</v>
+        <v>1123.525439238195</v>
       </c>
       <c r="G9">
-        <v>20097.25090333418</v>
+        <v>20097.25084642474</v>
       </c>
       <c r="H9">
-        <v>1555.353723840071</v>
+        <v>1555.356857718215</v>
       </c>
       <c r="I9">
-        <v>41.31030635155285</v>
+        <v>41.31030552295414</v>
       </c>
       <c r="J9">
-        <v>6.709336144489693</v>
+        <v>6.709335935429623</v>
       </c>
       <c r="K9">
-        <v>0.6263521802234405</v>
+        <v>0.6263521838461912</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.00242</v>
       </c>
       <c r="N9">
-        <v>0.3707416866545901</v>
+        <v>0.3707416722661901</v>
       </c>
       <c r="O9">
-        <v>0.6275257591769003</v>
+        <v>0.6275258362375581</v>
       </c>
       <c r="R9">
-        <v>0.4685928679873102</v>
+        <v>0.4685973931221329</v>
       </c>
       <c r="U9">
-        <v>48.01964249604254</v>
+        <v>48.01964145838376</v>
       </c>
       <c r="V9" t="s">
         <v>117</v>
@@ -2066,46 +2066,46 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>1.000585982535085</v>
+        <v>1.000585982495097</v>
       </c>
       <c r="D10">
-        <v>330.2840936361456</v>
+        <v>330.2840936493453</v>
       </c>
       <c r="E10">
-        <v>1453.772211006492</v>
+        <v>1453.77221100843</v>
       </c>
       <c r="F10">
-        <v>1123.488117370346</v>
+        <v>1123.488117359085</v>
       </c>
       <c r="G10">
-        <v>21259.41648165957</v>
+        <v>21259.4199171943</v>
       </c>
       <c r="H10">
-        <v>1618.974327850979</v>
+        <v>1618.974530655941</v>
       </c>
       <c r="I10">
-        <v>43.37880904129673</v>
+        <v>43.378827841758</v>
       </c>
       <c r="J10">
-        <v>6.917289847987602</v>
+        <v>6.917288993725409</v>
       </c>
       <c r="K10">
-        <v>0.6287112020199872</v>
+        <v>0.6287111787157169</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.00235</v>
       </c>
       <c r="N10">
-        <v>0.3587663354259155</v>
+        <v>0.3587667466081698</v>
       </c>
       <c r="O10">
-        <v>0.6316051762548753</v>
+        <v>0.6316050447001951</v>
       </c>
       <c r="R10">
-        <v>0.4849082476430032</v>
+        <v>0.4849088446813473</v>
       </c>
       <c r="U10">
-        <v>50.29609888928433</v>
+        <v>50.29611683548341</v>
       </c>
       <c r="V10" t="s">
         <v>118</v>
@@ -2152,46 +2152,46 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1.000592765562348</v>
+        <v>1.000592765479055</v>
       </c>
       <c r="D11">
-        <v>330.2818546373355</v>
+        <v>330.2818546648293</v>
       </c>
       <c r="E11">
-        <v>1453.755112678146</v>
+        <v>1453.755112678558</v>
       </c>
       <c r="F11">
-        <v>1123.473258040811</v>
+        <v>1123.473258013729</v>
       </c>
       <c r="G11">
-        <v>21055.08583936378</v>
+        <v>21055.0862373496</v>
       </c>
       <c r="H11">
-        <v>1624.144446385512</v>
+        <v>1624.143982409034</v>
       </c>
       <c r="I11">
-        <v>42.16183567112072</v>
+        <v>42.16183949476476</v>
       </c>
       <c r="J11">
-        <v>6.204757435848779</v>
+        <v>6.204774095163089</v>
       </c>
       <c r="K11">
-        <v>0.6316554284304758</v>
+        <v>0.6316554287897662</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.0024</v>
       </c>
       <c r="N11">
-        <v>0.3547889852606788</v>
+        <v>0.3547890259909787</v>
       </c>
       <c r="O11">
-        <v>0.6051822022712319</v>
+        <v>0.6051821112763868</v>
       </c>
       <c r="R11">
-        <v>0.4796559814508799</v>
+        <v>0.4796556684520414</v>
       </c>
       <c r="U11">
-        <v>48.3665931069695</v>
+        <v>48.36661358992784</v>
       </c>
       <c r="V11" t="s">
         <v>119</v>
@@ -2238,46 +2238,46 @@
         <v>43</v>
       </c>
       <c r="C12">
-        <v>1.000607526263597</v>
+        <v>1.00060752626683</v>
       </c>
       <c r="D12">
-        <v>330.2769824055599</v>
+        <v>330.2769824044929</v>
       </c>
       <c r="E12">
-        <v>1453.760640616532</v>
+        <v>1453.760640616717</v>
       </c>
       <c r="F12">
-        <v>1123.483658210972</v>
+        <v>1123.483658212224</v>
       </c>
       <c r="G12">
-        <v>20116.48240334301</v>
+        <v>20116.48251359555</v>
       </c>
       <c r="H12">
-        <v>1621.746067772069</v>
+        <v>1621.746054035757</v>
       </c>
       <c r="I12">
-        <v>41.00097667765822</v>
+        <v>41.00097750810959</v>
       </c>
       <c r="J12">
-        <v>5.84294958569692</v>
+        <v>5.842947062398353</v>
       </c>
       <c r="K12">
-        <v>0.6295395681675494</v>
+        <v>0.6295395629868142</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.00237</v>
       </c>
       <c r="N12">
-        <v>0.3688529625782946</v>
+        <v>0.3688529850866302</v>
       </c>
       <c r="O12">
-        <v>0.6328127712242657</v>
+        <v>0.6328126993962628</v>
       </c>
       <c r="R12">
-        <v>0.4086063608837576</v>
+        <v>0.4086064935604347</v>
       </c>
       <c r="U12">
-        <v>46.84392626335514</v>
+        <v>46.84392457050794</v>
       </c>
       <c r="V12" t="s">
         <v>120</v>
@@ -2324,46 +2324,46 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <v>1.000622688880072</v>
+        <v>1.000622695074863</v>
       </c>
       <c r="D13">
-        <v>330.2719776587453</v>
+        <v>330.2719756140527</v>
       </c>
       <c r="E13">
-        <v>1453.772985343938</v>
+        <v>1453.77298534407</v>
       </c>
       <c r="F13">
-        <v>1123.501007685192</v>
+        <v>1123.501009730017</v>
       </c>
       <c r="G13">
-        <v>19064.19294519749</v>
+        <v>19064.19302681013</v>
       </c>
       <c r="H13">
-        <v>1465.33406726336</v>
+        <v>1465.313029441058</v>
       </c>
       <c r="I13">
-        <v>34.8663489717361</v>
+        <v>34.8663499243268</v>
       </c>
       <c r="J13">
-        <v>5.799425591499896</v>
+        <v>5.799273393775209</v>
       </c>
       <c r="K13">
-        <v>0.6357654591239388</v>
+        <v>0.6357654587551176</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.00219</v>
       </c>
       <c r="N13">
-        <v>0.3548555788575822</v>
+        <v>0.3548555897536392</v>
       </c>
       <c r="O13">
-        <v>0.6377464509691891</v>
+        <v>0.6377478673319252</v>
       </c>
       <c r="R13">
-        <v>0.4172080818437585</v>
+        <v>0.4171697508791918</v>
       </c>
       <c r="U13">
-        <v>40.665774563236</v>
+        <v>40.66562331810201</v>
       </c>
       <c r="V13" t="s">
         <v>121</v>
@@ -2410,46 +2410,46 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>1.000578883662281</v>
+        <v>1.000578883639496</v>
       </c>
       <c r="D14">
-        <v>330.2864369244242</v>
+        <v>330.2864369319454</v>
       </c>
       <c r="E14">
-        <v>1453.78104391501</v>
+        <v>1453.781043914828</v>
       </c>
       <c r="F14">
-        <v>1123.494606990586</v>
+        <v>1123.494606982882</v>
       </c>
       <c r="G14">
-        <v>18754.56856891526</v>
+        <v>18754.56841989799</v>
       </c>
       <c r="H14">
-        <v>1478.954694234129</v>
+        <v>1478.9546057996</v>
       </c>
       <c r="I14">
-        <v>35.58847536670353</v>
+        <v>35.58847480189396</v>
       </c>
       <c r="J14">
-        <v>5.975752421123002</v>
+        <v>5.975749233704562</v>
       </c>
       <c r="K14">
-        <v>0.6314793946109969</v>
+        <v>0.6314793993166226</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.00233</v>
       </c>
       <c r="N14">
-        <v>0.3678899026864748</v>
+        <v>0.3678898737822783</v>
       </c>
       <c r="O14">
-        <v>0.6331074597788311</v>
+        <v>0.6331075653269057</v>
       </c>
       <c r="R14">
-        <v>0.4670030897747079</v>
+        <v>0.4670027153594544</v>
       </c>
       <c r="U14">
-        <v>41.56422778782654</v>
+        <v>41.56422403559852</v>
       </c>
       <c r="V14" t="s">
         <v>122</v>
@@ -2496,46 +2496,46 @@
         <v>46</v>
       </c>
       <c r="C15">
-        <v>1.000579605540272</v>
+        <v>1.000579605533969</v>
       </c>
       <c r="D15">
-        <v>330.2861986360281</v>
+        <v>330.2861986381085</v>
       </c>
       <c r="E15">
-        <v>1453.78149127593</v>
+        <v>1453.781491276092</v>
       </c>
       <c r="F15">
-        <v>1123.495292639902</v>
+        <v>1123.495292637984</v>
       </c>
       <c r="G15">
-        <v>18682.13161729148</v>
+        <v>18682.13175031697</v>
       </c>
       <c r="H15">
-        <v>1417.782963109459</v>
+        <v>1417.78302358399</v>
       </c>
       <c r="I15">
-        <v>34.85916630373707</v>
+        <v>34.85916704345554</v>
       </c>
       <c r="J15">
-        <v>5.814535347178055</v>
+        <v>5.814536244971977</v>
       </c>
       <c r="K15">
-        <v>0.6347515525637155</v>
+        <v>0.634751548678412</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.00227</v>
       </c>
       <c r="N15">
-        <v>0.355494951558606</v>
+        <v>0.355494977516044</v>
       </c>
       <c r="O15">
-        <v>0.6426272327709921</v>
+        <v>0.6426272198763863</v>
       </c>
       <c r="R15">
-        <v>0.4323751188736774</v>
+        <v>0.4323752599105635</v>
       </c>
       <c r="U15">
-        <v>40.67370165091512</v>
+        <v>40.67370328842752</v>
       </c>
       <c r="V15" t="s">
         <v>123</v>
@@ -2582,46 +2582,46 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>1.000550682465539</v>
+        <v>1.000550682424198</v>
       </c>
       <c r="D16">
-        <v>330.2957462707193</v>
+        <v>330.2957462843667</v>
       </c>
       <c r="E16">
-        <v>1453.783114557011</v>
+        <v>1453.783114557202</v>
       </c>
       <c r="F16">
-        <v>1123.487368286291</v>
+        <v>1123.487368272836</v>
       </c>
       <c r="G16">
-        <v>18883.54168724222</v>
+        <v>18883.54176647641</v>
       </c>
       <c r="H16">
-        <v>1430.772035916294</v>
+        <v>1430.772071384606</v>
       </c>
       <c r="I16">
-        <v>36.927123792199</v>
+        <v>36.92712445336085</v>
       </c>
       <c r="J16">
-        <v>6.849669070200894</v>
+        <v>6.849669107434909</v>
       </c>
       <c r="K16">
-        <v>0.6287939079785784</v>
+        <v>0.6287939058028084</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.00229</v>
       </c>
       <c r="N16">
-        <v>0.3672059826854112</v>
+        <v>0.3672059973115422</v>
       </c>
       <c r="O16">
-        <v>0.6414984651628087</v>
+        <v>0.6414984682405016</v>
       </c>
       <c r="R16">
-        <v>0.4280352947159096</v>
+        <v>0.4280353537429618</v>
       </c>
       <c r="U16">
-        <v>43.77679286239989</v>
+        <v>43.77679356079575</v>
       </c>
       <c r="V16" t="s">
         <v>124</v>
@@ -2668,46 +2668,46 @@
         <v>48</v>
       </c>
       <c r="C17">
-        <v>1.000553283055651</v>
+        <v>1.000553283093372</v>
       </c>
       <c r="D17">
-        <v>330.2948877818549</v>
+        <v>330.2948877694027</v>
       </c>
       <c r="E17">
-        <v>1453.786988780687</v>
+        <v>1453.786988780605</v>
       </c>
       <c r="F17">
-        <v>1123.492100998832</v>
+        <v>1123.492101011203</v>
       </c>
       <c r="G17">
-        <v>18861.89023809195</v>
+        <v>18861.890270855</v>
       </c>
       <c r="H17">
-        <v>1439.148197957606</v>
+        <v>1439.148183082616</v>
       </c>
       <c r="I17">
-        <v>36.59236802667134</v>
+        <v>36.59236935751514</v>
       </c>
       <c r="J17">
-        <v>5.801499475012745</v>
+        <v>5.801498430709932</v>
       </c>
       <c r="K17">
-        <v>0.6301460956089393</v>
+        <v>0.6301460991811347</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.00235</v>
       </c>
       <c r="N17">
-        <v>0.3616002577684834</v>
+        <v>0.3616002525990838</v>
       </c>
       <c r="O17">
-        <v>0.6362395932418288</v>
+        <v>0.6362395586443033</v>
       </c>
       <c r="R17">
-        <v>0.4640049035877137</v>
+        <v>0.4640049655262382</v>
       </c>
       <c r="U17">
-        <v>42.39386750168409</v>
+        <v>42.39386778822507</v>
       </c>
       <c r="V17" t="s">
         <v>125</v>
@@ -2754,46 +2754,46 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>1.000600456485928</v>
+        <v>1.000600455135269</v>
       </c>
       <c r="D18">
-        <v>330.2793159891794</v>
+        <v>330.2793164350064</v>
       </c>
       <c r="E18">
-        <v>1453.783750121359</v>
+        <v>1453.783750121312</v>
       </c>
       <c r="F18">
-        <v>1123.50443413218</v>
+        <v>1123.504433686306</v>
       </c>
       <c r="G18">
-        <v>18630.31779071511</v>
+        <v>18630.31784174176</v>
       </c>
       <c r="H18">
-        <v>1561.267093623361</v>
+        <v>1561.271515561726</v>
       </c>
       <c r="I18">
-        <v>36.88248316153879</v>
+        <v>36.88248394370196</v>
       </c>
       <c r="J18">
-        <v>5.874880537998654</v>
+        <v>5.874930571124194</v>
       </c>
       <c r="K18">
-        <v>0.6334540078667956</v>
+        <v>0.6334540094920085</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.00236</v>
       </c>
       <c r="N18">
-        <v>0.3598008068612976</v>
+        <v>0.3598008088577627</v>
       </c>
       <c r="O18">
-        <v>0.6256081093608953</v>
+        <v>0.6256083023646235</v>
       </c>
       <c r="R18">
-        <v>0.4379844173226976</v>
+        <v>0.4379905794278938</v>
       </c>
       <c r="U18">
-        <v>42.75736369953744</v>
+        <v>42.75741451482615</v>
       </c>
       <c r="V18" t="s">
         <v>126</v>
@@ -2840,46 +2840,46 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>1.000616940404455</v>
+        <v>1.000616933535833</v>
       </c>
       <c r="D19">
-        <v>330.2738750485794</v>
+        <v>330.2738773157071</v>
       </c>
       <c r="E19">
-        <v>1453.781309053594</v>
+        <v>1453.781309053711</v>
       </c>
       <c r="F19">
-        <v>1123.507434005014</v>
+        <v>1123.507431738004</v>
       </c>
       <c r="G19">
-        <v>18572.52277146685</v>
+        <v>18572.52283091092</v>
       </c>
       <c r="H19">
-        <v>1606.71413804754</v>
+        <v>1606.74063641129</v>
       </c>
       <c r="I19">
-        <v>36.95477865689188</v>
+        <v>36.95477936378487</v>
       </c>
       <c r="J19">
-        <v>6.093317601813032</v>
+        <v>6.093330302612847</v>
       </c>
       <c r="K19">
-        <v>0.6302961755045813</v>
+        <v>0.6302961725459989</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.00237</v>
       </c>
       <c r="N19">
-        <v>0.3662549422310952</v>
+        <v>0.3662549578368767</v>
       </c>
       <c r="O19">
-        <v>0.6362931074943889</v>
+        <v>0.6362905113303531</v>
       </c>
       <c r="R19">
-        <v>0.400900548319618</v>
+        <v>0.4009470849837153</v>
       </c>
       <c r="U19">
-        <v>43.04809625870491</v>
+        <v>43.04810966639771</v>
       </c>
       <c r="V19" t="s">
         <v>127</v>
@@ -2926,46 +2926,46 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>1.000574237249096</v>
+        <v>1.000574237251304</v>
       </c>
       <c r="D20">
-        <v>330.2879706909339</v>
+        <v>330.2879706902049</v>
       </c>
       <c r="E20">
-        <v>1453.776775249614</v>
+        <v>1453.776775249913</v>
       </c>
       <c r="F20">
-        <v>1123.48880455868</v>
+        <v>1123.488804559708</v>
       </c>
       <c r="G20">
-        <v>18452.45785890206</v>
+        <v>18452.45806535664</v>
       </c>
       <c r="H20">
-        <v>1590.00704024247</v>
+        <v>1590.006865509326</v>
       </c>
       <c r="I20">
-        <v>36.43537608390672</v>
+        <v>36.43537707240161</v>
       </c>
       <c r="J20">
-        <v>6.733934708209089</v>
+        <v>6.733930749709891</v>
       </c>
       <c r="K20">
-        <v>0.6332241581317302</v>
+        <v>0.6332241590152121</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.00234</v>
       </c>
       <c r="N20">
-        <v>0.3644046253757366</v>
+        <v>0.3644046485005814</v>
       </c>
       <c r="O20">
-        <v>0.6498539384077535</v>
+        <v>0.6498540249779609</v>
       </c>
       <c r="R20">
-        <v>0.4445380502359733</v>
+        <v>0.444537570017882</v>
       </c>
       <c r="U20">
-        <v>43.16931079211581</v>
+        <v>43.1693078221115</v>
       </c>
       <c r="V20" t="s">
         <v>128</v>
@@ -3012,46 +3012,46 @@
         <v>52</v>
       </c>
       <c r="C21">
-        <v>1.00060704061775</v>
+        <v>1.000607040654392</v>
       </c>
       <c r="D21">
-        <v>330.277142705896</v>
+        <v>330.2771426938014</v>
       </c>
       <c r="E21">
-        <v>1453.73775107745</v>
+        <v>1453.737751077344</v>
       </c>
       <c r="F21">
-        <v>1123.460608371554</v>
+        <v>1123.460608383542</v>
       </c>
       <c r="G21">
-        <v>18697.03747937848</v>
+        <v>18697.03725669025</v>
       </c>
       <c r="H21">
-        <v>1655.927972321408</v>
+        <v>1655.927757561647</v>
       </c>
       <c r="I21">
-        <v>37.54920078485752</v>
+        <v>37.54919853322808</v>
       </c>
       <c r="J21">
-        <v>6.938142890140845</v>
+        <v>6.938141680958684</v>
       </c>
       <c r="K21">
-        <v>0.6357059797938975</v>
+        <v>0.6357059812005992</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.00244</v>
       </c>
       <c r="N21">
-        <v>0.3635559702736475</v>
+        <v>0.3635559409133602</v>
       </c>
       <c r="O21">
-        <v>0.6380179271825408</v>
+        <v>0.6380179361303125</v>
       </c>
       <c r="R21">
-        <v>0.4341787802711042</v>
+        <v>0.4341784375716264</v>
       </c>
       <c r="U21">
-        <v>44.48734367499836</v>
+        <v>44.48734021418677</v>
       </c>
       <c r="V21" t="s">
         <v>129</v>
@@ -3098,46 +3098,46 @@
         <v>53</v>
       </c>
       <c r="C22">
-        <v>1.000606775455659</v>
+        <v>1.000606775363115</v>
       </c>
       <c r="D22">
-        <v>330.2772302297665</v>
+        <v>330.277230260313</v>
       </c>
       <c r="E22">
-        <v>1453.739376453452</v>
+        <v>1453.739376452451</v>
       </c>
       <c r="F22">
-        <v>1123.462146223685</v>
+        <v>1123.462146192138</v>
       </c>
       <c r="G22">
-        <v>18288.45846411305</v>
+        <v>18288.4578986557</v>
       </c>
       <c r="H22">
-        <v>1676.114676716752</v>
+        <v>1676.114771708859</v>
       </c>
       <c r="I22">
-        <v>37.93855703784446</v>
+        <v>37.93855439006794</v>
       </c>
       <c r="J22">
-        <v>6.329137695172424</v>
+        <v>6.329138317098984</v>
       </c>
       <c r="K22">
-        <v>0.637840462111642</v>
+        <v>0.637840463914244</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0.00254</v>
       </c>
       <c r="N22">
-        <v>0.3750931834641644</v>
+        <v>0.3750931110396944</v>
       </c>
       <c r="O22">
-        <v>0.6427764704225847</v>
+        <v>0.6427764561854954</v>
       </c>
       <c r="R22">
-        <v>0.4329142754595372</v>
+        <v>0.43291444356857</v>
       </c>
       <c r="U22">
-        <v>44.26769473301688</v>
+        <v>44.26769270716692</v>
       </c>
       <c r="V22" t="s">
         <v>130</v>
@@ -3184,46 +3184,46 @@
         <v>54</v>
       </c>
       <c r="C23">
-        <v>1.000597694189903</v>
+        <v>1.00059769411025</v>
       </c>
       <c r="D23">
-        <v>330.2802277734529</v>
+        <v>330.280227799745</v>
       </c>
       <c r="E23">
-        <v>1453.738655311244</v>
+        <v>1453.738655311241</v>
       </c>
       <c r="F23">
-        <v>1123.458427537792</v>
+        <v>1123.458427511496</v>
       </c>
       <c r="G23">
-        <v>18569.11394470322</v>
+        <v>18569.11372741521</v>
       </c>
       <c r="H23">
-        <v>1645.968452041994</v>
+        <v>1645.96847033365</v>
       </c>
       <c r="I23">
-        <v>36.50159434320183</v>
+        <v>36.50159303113163</v>
       </c>
       <c r="J23">
-        <v>6.763121674263877</v>
+        <v>6.763121768372697</v>
       </c>
       <c r="K23">
-        <v>0.6390365750511405</v>
+        <v>0.6390365795559847</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.00239</v>
       </c>
       <c r="N23">
-        <v>0.3621410309202135</v>
+        <v>0.3621409941720277</v>
       </c>
       <c r="O23">
-        <v>0.6386204716457219</v>
+        <v>0.6386204884338023</v>
       </c>
       <c r="R23">
-        <v>0.4079083102143485</v>
+        <v>0.4079083009059631</v>
       </c>
       <c r="U23">
-        <v>43.26471601746571</v>
+        <v>43.26471479950433</v>
       </c>
       <c r="V23" t="s">
         <v>131</v>
@@ -3270,46 +3270,46 @@
         <v>55</v>
       </c>
       <c r="C24">
-        <v>1.000601838176315</v>
+        <v>1.000601838152162</v>
       </c>
       <c r="D24">
-        <v>330.2788599199032</v>
+        <v>330.2788599278756</v>
       </c>
       <c r="E24">
-        <v>1453.740553645425</v>
+        <v>1453.74055364483</v>
       </c>
       <c r="F24">
-        <v>1123.461693725522</v>
+        <v>1123.461693716954</v>
       </c>
       <c r="G24">
-        <v>18495.4351100628</v>
+        <v>18495.43444014256</v>
       </c>
       <c r="H24">
-        <v>1626.824327626523</v>
+        <v>1626.824272453415</v>
       </c>
       <c r="I24">
-        <v>34.44429681160523</v>
+        <v>34.44428962365505</v>
       </c>
       <c r="J24">
-        <v>5.432677392572165</v>
+        <v>5.432676595435685</v>
       </c>
       <c r="K24">
-        <v>0.6403016130609793</v>
+        <v>0.6403016167630344</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0.00226</v>
       </c>
       <c r="N24">
-        <v>0.3561850064184325</v>
+        <v>0.3561849186743389</v>
       </c>
       <c r="O24">
-        <v>0.6523089743799052</v>
+        <v>0.6523089936179688</v>
       </c>
       <c r="R24">
-        <v>0.3812859602103207</v>
+        <v>0.3812858289325268</v>
       </c>
       <c r="U24">
-        <v>39.8769742041774</v>
+        <v>39.87696621909073</v>
       </c>
       <c r="V24" t="s">
         <v>132</v>
@@ -3356,46 +3356,46 @@
         <v>56</v>
       </c>
       <c r="C25">
-        <v>1.000598589711721</v>
+        <v>1.000598589735188</v>
       </c>
       <c r="D25">
-        <v>330.2799321772436</v>
+        <v>330.2799321694977</v>
       </c>
       <c r="E25">
-        <v>1453.73866037546</v>
+        <v>1453.738660375142</v>
       </c>
       <c r="F25">
-        <v>1123.458728198216</v>
+        <v>1123.458728205645</v>
       </c>
       <c r="G25">
-        <v>18684.9674010454</v>
+        <v>18684.96721982694</v>
       </c>
       <c r="H25">
-        <v>1644.341640980849</v>
+        <v>1644.341661821466</v>
       </c>
       <c r="I25">
-        <v>36.44584162027105</v>
+        <v>36.4458402904729</v>
       </c>
       <c r="J25">
-        <v>6.507644964142598</v>
+        <v>6.507645624722236</v>
       </c>
       <c r="K25">
-        <v>0.6411997645734314</v>
+        <v>0.6411997668670195</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0.0024</v>
       </c>
       <c r="N25">
-        <v>0.3563308765171355</v>
+        <v>0.3563308500266914</v>
       </c>
       <c r="O25">
-        <v>0.6362990959306534</v>
+        <v>0.6362990926119951</v>
       </c>
       <c r="R25">
-        <v>0.3992369222846266</v>
+        <v>0.3992369639239288</v>
       </c>
       <c r="U25">
-        <v>42.95348658441365</v>
+        <v>42.95348591519514</v>
       </c>
       <c r="V25" t="s">
         <v>133</v>
@@ -3442,46 +3442,46 @@
         <v>57</v>
       </c>
       <c r="C26">
-        <v>1.000612518782188</v>
+        <v>1.000612518709985</v>
       </c>
       <c r="D26">
-        <v>330.2753345009576</v>
+        <v>330.2753345247897</v>
       </c>
       <c r="E26">
-        <v>1453.737002665839</v>
+        <v>1453.737002665865</v>
       </c>
       <c r="F26">
-        <v>1123.461668164881</v>
+        <v>1123.461668141075</v>
       </c>
       <c r="G26">
-        <v>18494.64016552515</v>
+        <v>18494.64023558751</v>
       </c>
       <c r="H26">
-        <v>1659.576837003874</v>
+        <v>1659.576854338921</v>
       </c>
       <c r="I26">
-        <v>35.44108812869199</v>
+        <v>35.44108897876153</v>
       </c>
       <c r="J26">
-        <v>5.520036557767396</v>
+        <v>5.520034878472609</v>
       </c>
       <c r="K26">
-        <v>0.6427367505953204</v>
+        <v>0.6427367519309548</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0.00238</v>
       </c>
       <c r="N26">
-        <v>0.3553570705522187</v>
+        <v>0.3553570757813345</v>
       </c>
       <c r="O26">
-        <v>0.6375499758055168</v>
+        <v>0.6375499468743911</v>
       </c>
       <c r="R26">
-        <v>0.4247202868877875</v>
+        <v>0.4247203758486391</v>
       </c>
       <c r="U26">
-        <v>40.96112468645939</v>
+        <v>40.96112385723414</v>
       </c>
       <c r="V26" t="s">
         <v>134</v>
@@ -3528,46 +3528,46 @@
         <v>58</v>
       </c>
       <c r="C27">
-        <v>1.000580642330764</v>
+        <v>1.000580642273891</v>
       </c>
       <c r="D27">
-        <v>330.2858563971561</v>
+        <v>330.2858564159296</v>
       </c>
       <c r="E27">
-        <v>1453.740852721056</v>
+        <v>1453.740852733197</v>
       </c>
       <c r="F27">
-        <v>1123.4549963239</v>
+        <v>1123.454996317267</v>
       </c>
       <c r="G27">
-        <v>19150.70685184481</v>
+        <v>19150.70755828894</v>
       </c>
       <c r="H27">
-        <v>1688.279416337727</v>
+        <v>1688.27946844088</v>
       </c>
       <c r="I27">
-        <v>39.06555438349822</v>
+        <v>39.06551646561981</v>
       </c>
       <c r="J27">
-        <v>7.003441710330684</v>
+        <v>7.003441885103483</v>
       </c>
       <c r="K27">
-        <v>0.636034061575981</v>
+        <v>0.6360338846624757</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0.0025</v>
       </c>
       <c r="N27">
-        <v>0.3716730784980711</v>
+        <v>0.3716736265245996</v>
       </c>
       <c r="O27">
-        <v>0.6360843746016598</v>
+        <v>0.6360843777595044</v>
       </c>
       <c r="R27">
-        <v>0.4371597700726366</v>
+        <v>0.4371598485804483</v>
       </c>
       <c r="U27">
-        <v>46.06899609382891</v>
+        <v>46.06895835072329</v>
       </c>
       <c r="V27" t="s">
         <v>135</v>
@@ -3614,46 +3614,46 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>1.000577988965894</v>
+        <v>1.000577987099574</v>
       </c>
       <c r="D28">
-        <v>330.2867322598054</v>
+        <v>330.2867328758703</v>
       </c>
       <c r="E28">
-        <v>1453.745460312116</v>
+        <v>1453.745460312327</v>
       </c>
       <c r="F28">
-        <v>1123.45872805231</v>
+        <v>1123.458727436457</v>
       </c>
       <c r="G28">
-        <v>20158.79540524173</v>
+        <v>20158.79582956551</v>
       </c>
       <c r="H28">
-        <v>1675.410323742452</v>
+        <v>1675.417928025262</v>
       </c>
       <c r="I28">
-        <v>39.05499408868409</v>
+        <v>39.05499754576571</v>
       </c>
       <c r="J28">
-        <v>5.652977925625295</v>
+        <v>5.65291390121368</v>
       </c>
       <c r="K28">
-        <v>0.6403938264587846</v>
+        <v>0.6403938239897768</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0.00238</v>
       </c>
       <c r="N28">
-        <v>0.3518248224896304</v>
+        <v>0.3518248736883751</v>
       </c>
       <c r="O28">
-        <v>0.6498853693344372</v>
+        <v>0.6498851813528399</v>
       </c>
       <c r="R28">
-        <v>0.4013424782609165</v>
+        <v>0.4013541263439241</v>
       </c>
       <c r="U28">
-        <v>44.70797201430938</v>
+        <v>44.70791144697939</v>
       </c>
       <c r="V28" t="s">
         <v>136</v>
@@ -3700,46 +3700,46 @@
         <v>60</v>
       </c>
       <c r="C29">
-        <v>1.000553526353131</v>
+        <v>1.000553526387691</v>
       </c>
       <c r="D29">
-        <v>330.2948074663977</v>
+        <v>330.2948074549893</v>
       </c>
       <c r="E29">
-        <v>1453.742003208602</v>
+        <v>1453.742003208994</v>
       </c>
       <c r="F29">
-        <v>1123.447195742204</v>
+        <v>1123.447195754005</v>
       </c>
       <c r="G29">
-        <v>19418.47914274523</v>
+        <v>19418.47946489387</v>
       </c>
       <c r="H29">
-        <v>1690.207524887933</v>
+        <v>1690.207476775814</v>
       </c>
       <c r="I29">
-        <v>38.27660270927796</v>
+        <v>38.27660554893176</v>
       </c>
       <c r="J29">
-        <v>8.366729011947246</v>
+        <v>8.366728141147465</v>
       </c>
       <c r="K29">
-        <v>0.6387028846456402</v>
+        <v>0.6387028822592721</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0.00242</v>
       </c>
       <c r="N29">
-        <v>0.3641976383552364</v>
+        <v>0.3641976809915136</v>
       </c>
       <c r="O29">
-        <v>0.638154931481606</v>
+        <v>0.6381549373232785</v>
       </c>
       <c r="R29">
-        <v>0.3843218877936574</v>
+        <v>0.3843217995375158</v>
       </c>
       <c r="U29">
-        <v>46.64333172122521</v>
+        <v>46.64333369007923</v>
       </c>
       <c r="V29" t="s">
         <v>137</v>
@@ -3786,46 +3786,46 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>1.000620783231715</v>
+        <v>1.000620783254166</v>
       </c>
       <c r="D30">
-        <v>330.2726066505295</v>
+        <v>330.2726066431192</v>
       </c>
       <c r="E30">
-        <v>1453.743555867319</v>
+        <v>1453.743555866633</v>
       </c>
       <c r="F30">
-        <v>1123.470949216789</v>
+        <v>1123.470949223514</v>
       </c>
       <c r="G30">
-        <v>20886.27370424757</v>
+        <v>20886.27296455997</v>
       </c>
       <c r="H30">
-        <v>1688.320882302312</v>
+        <v>1688.320889744955</v>
       </c>
       <c r="I30">
-        <v>40.87740171336872</v>
+        <v>40.87739861590635</v>
       </c>
       <c r="J30">
-        <v>5.459011816063416</v>
+        <v>5.45901171812786</v>
       </c>
       <c r="K30">
-        <v>0.6367834468758244</v>
+        <v>0.6367834472700225</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0.00239</v>
       </c>
       <c r="N30">
-        <v>0.3570301188884596</v>
+        <v>0.3570300399637824</v>
       </c>
       <c r="O30">
-        <v>0.6525002725415004</v>
+        <v>0.6525002791793878</v>
       </c>
       <c r="R30">
-        <v>0.3842658543887635</v>
+        <v>0.3842658505368337</v>
       </c>
       <c r="U30">
-        <v>46.33641352943214</v>
+        <v>46.33641033403421</v>
       </c>
       <c r="V30" t="s">
         <v>138</v>
@@ -3872,46 +3872,46 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>1.000600231807124</v>
+        <v>1.000600231759989</v>
       </c>
       <c r="D31">
-        <v>330.2793901514265</v>
+        <v>330.2793901669847</v>
       </c>
       <c r="E31">
-        <v>1453.737759924129</v>
+        <v>1453.737759924552</v>
       </c>
       <c r="F31">
-        <v>1123.458369772702</v>
+        <v>1123.458369757567</v>
       </c>
       <c r="G31">
-        <v>18991.16676856385</v>
+        <v>18991.16727230959</v>
       </c>
       <c r="H31">
-        <v>1761.005299598887</v>
+        <v>1761.005390265469</v>
       </c>
       <c r="I31">
-        <v>39.59706679591759</v>
+        <v>39.59707107118543</v>
       </c>
       <c r="J31">
-        <v>7.121962784497061</v>
+        <v>7.121962997195151</v>
       </c>
       <c r="K31">
-        <v>0.6415147906780018</v>
+        <v>0.6415147877493346</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0.00261</v>
       </c>
       <c r="N31">
-        <v>0.3643137687376936</v>
+        <v>0.3643138331213224</v>
       </c>
       <c r="O31">
-        <v>0.6399983337390218</v>
+        <v>0.6399983362648376</v>
       </c>
       <c r="R31">
-        <v>0.4233703484016484</v>
+        <v>0.4233704740397731</v>
       </c>
       <c r="U31">
-        <v>46.71902958041466</v>
+        <v>46.71903406838058</v>
       </c>
       <c r="V31" t="s">
         <v>139</v>
@@ -3958,46 +3958,46 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>1.000587759224809</v>
+        <v>1.000587759334412</v>
       </c>
       <c r="D32">
-        <v>330.2835071684922</v>
+        <v>330.2835071323136</v>
       </c>
       <c r="E32">
-        <v>1453.7384310952</v>
+        <v>1453.738431095425</v>
       </c>
       <c r="F32">
-        <v>1123.454923926708</v>
+        <v>1123.454923963111</v>
       </c>
       <c r="G32">
-        <v>18879.44623184956</v>
+        <v>18879.44620141648</v>
       </c>
       <c r="H32">
-        <v>1729.327741653844</v>
+        <v>1729.327813079636</v>
       </c>
       <c r="I32">
-        <v>38.74808217869276</v>
+        <v>38.74808120400586</v>
       </c>
       <c r="J32">
-        <v>5.926049276919466</v>
+        <v>5.926050217536895</v>
       </c>
       <c r="K32">
-        <v>0.6381727556084769</v>
+        <v>0.6381727531285721</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0.00256</v>
       </c>
       <c r="N32">
-        <v>0.3685469186312677</v>
+        <v>0.368546921360829</v>
       </c>
       <c r="O32">
-        <v>0.6457776405033141</v>
+        <v>0.6457776349802232</v>
       </c>
       <c r="R32">
-        <v>0.3865661975615234</v>
+        <v>0.3865663132247495</v>
       </c>
       <c r="U32">
-        <v>44.67413145561223</v>
+        <v>44.67413142154276</v>
       </c>
       <c r="V32" t="s">
         <v>140</v>
@@ -4044,46 +4044,46 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>1.000622897956496</v>
+        <v>1.000622898132533</v>
       </c>
       <c r="D33">
-        <v>330.2719086496468</v>
+        <v>330.271908591543</v>
       </c>
       <c r="E33">
-        <v>1453.741318483434</v>
+        <v>1453.741318483864</v>
       </c>
       <c r="F33">
-        <v>1123.469409833787</v>
+        <v>1123.469409892321</v>
       </c>
       <c r="G33">
-        <v>18223.88989500808</v>
+        <v>18223.89016656084</v>
       </c>
       <c r="H33">
-        <v>1709.47989179897</v>
+        <v>1709.479314919599</v>
       </c>
       <c r="I33">
-        <v>35.54793734453314</v>
+        <v>35.54794028249336</v>
       </c>
       <c r="J33">
-        <v>6.202087791444638</v>
+        <v>6.202086845440954</v>
       </c>
       <c r="K33">
-        <v>0.6404384954704703</v>
+        <v>0.6404384939857739</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0.00243</v>
       </c>
       <c r="N33">
-        <v>0.3693562173975396</v>
+        <v>0.3693562536281824</v>
       </c>
       <c r="O33">
-        <v>0.6379747146366254</v>
+        <v>0.6379747131046951</v>
       </c>
       <c r="R33">
-        <v>0.3818498575776637</v>
+        <v>0.3818490370939867</v>
       </c>
       <c r="U33">
-        <v>41.75002513597778</v>
+        <v>41.75002712793432</v>
       </c>
       <c r="V33" t="s">
         <v>141</v>
@@ -4130,46 +4130,46 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>1.000586329875004</v>
+        <v>1.000586331136629</v>
       </c>
       <c r="D34">
-        <v>330.2839789825202</v>
+        <v>330.2839785660699</v>
       </c>
       <c r="E34">
-        <v>1453.739610963311</v>
+        <v>1453.739610963403</v>
       </c>
       <c r="F34">
-        <v>1123.455631980791</v>
+        <v>1123.455632397333</v>
       </c>
       <c r="G34">
-        <v>18629.21458136037</v>
+        <v>18629.21457128956</v>
       </c>
       <c r="H34">
-        <v>1791.765970397435</v>
+        <v>1791.751395081831</v>
       </c>
       <c r="I34">
-        <v>37.22954287336463</v>
+        <v>37.22954252940948</v>
       </c>
       <c r="J34">
-        <v>6.611051259986477</v>
+        <v>6.610897733955648</v>
       </c>
       <c r="K34">
-        <v>0.640564166161637</v>
+        <v>0.6405641652296064</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0.00246</v>
       </c>
       <c r="N34">
-        <v>0.3667634676023713</v>
+        <v>0.3667634685414392</v>
       </c>
       <c r="O34">
-        <v>0.6335519314209174</v>
+        <v>0.6335509555946204</v>
       </c>
       <c r="R34">
-        <v>0.4882323189883414</v>
+        <v>0.4882136161648991</v>
       </c>
       <c r="U34">
-        <v>43.8405941333511</v>
+        <v>43.84044026336512</v>
       </c>
       <c r="V34" t="s">
         <v>142</v>
@@ -4216,46 +4216,46 @@
         <v>66</v>
       </c>
       <c r="C35">
-        <v>1.00060452677902</v>
+        <v>1.000604526831763</v>
       </c>
       <c r="D35">
-        <v>330.2779724677555</v>
+        <v>330.2779724503462</v>
       </c>
       <c r="E35">
-        <v>1453.738566803127</v>
+        <v>1453.738566802627</v>
       </c>
       <c r="F35">
-        <v>1123.460594335372</v>
+        <v>1123.460594352281</v>
       </c>
       <c r="G35">
-        <v>18669.51145434423</v>
+        <v>18669.5109994057</v>
       </c>
       <c r="H35">
-        <v>1742.353090246965</v>
+        <v>1742.35307499269</v>
       </c>
       <c r="I35">
-        <v>36.89039336527933</v>
+        <v>36.89038758355906</v>
       </c>
       <c r="J35">
-        <v>5.837943001319838</v>
+        <v>5.837943644131929</v>
       </c>
       <c r="K35">
-        <v>0.6386673390145148</v>
+        <v>0.6386673380392965</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0.00246</v>
       </c>
       <c r="N35">
-        <v>0.3720123293482547</v>
+        <v>0.3720122781410652</v>
       </c>
       <c r="O35">
-        <v>0.650154248382381</v>
+        <v>0.6501542482452853</v>
       </c>
       <c r="R35">
-        <v>0.381742383963153</v>
+        <v>0.3817423630512432</v>
       </c>
       <c r="U35">
-        <v>42.72833636659917</v>
+        <v>42.72833122769099</v>
       </c>
       <c r="V35" t="s">
         <v>143</v>
@@ -4302,46 +4302,46 @@
         <v>67</v>
       </c>
       <c r="C36">
-        <v>1.00061475020511</v>
+        <v>1.000614750187799</v>
       </c>
       <c r="D36">
-        <v>330.2745979697884</v>
+        <v>330.2745979755023</v>
       </c>
       <c r="E36">
-        <v>1453.739434935158</v>
+        <v>1453.739434934259</v>
       </c>
       <c r="F36">
-        <v>1123.464836965369</v>
+        <v>1123.464836958757</v>
       </c>
       <c r="G36">
-        <v>18166.7855043674</v>
+        <v>18166.78481324779</v>
       </c>
       <c r="H36">
-        <v>1725.209022692194</v>
+        <v>1725.208943902438</v>
       </c>
       <c r="I36">
-        <v>36.38565257207384</v>
+        <v>36.38564905814776</v>
       </c>
       <c r="J36">
-        <v>7.590030021449476</v>
+        <v>7.590029098778303</v>
       </c>
       <c r="K36">
-        <v>0.6406170837030672</v>
+        <v>0.6406170877682359</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0.00251</v>
       </c>
       <c r="N36">
-        <v>0.3695186092841876</v>
+        <v>0.3695185148637786</v>
       </c>
       <c r="O36">
-        <v>0.6370513345778643</v>
+        <v>0.6370513586637995</v>
       </c>
       <c r="R36">
-        <v>0.3783332646995457</v>
+        <v>0.3783330986567621</v>
       </c>
       <c r="U36">
-        <v>43.97568259352332</v>
+        <v>43.97567815692607</v>
       </c>
       <c r="V36" t="s">
         <v>144</v>
@@ -4388,46 +4388,46 @@
         <v>68</v>
       </c>
       <c r="C37">
-        <v>1.000613774473037</v>
+        <v>1.000613774516686</v>
       </c>
       <c r="D37">
-        <v>330.274920031633</v>
+        <v>330.2749200172257</v>
       </c>
       <c r="E37">
-        <v>1453.735503663641</v>
+        <v>1453.735503663647</v>
       </c>
       <c r="F37">
-        <v>1123.460583632008</v>
+        <v>1123.460583646421</v>
       </c>
       <c r="G37">
-        <v>18668.96682415135</v>
+        <v>18668.96709220705</v>
       </c>
       <c r="H37">
-        <v>1762.525867904886</v>
+        <v>1762.52590587909</v>
       </c>
       <c r="I37">
-        <v>36.6612944532021</v>
+        <v>36.66129802958607</v>
       </c>
       <c r="J37">
-        <v>7.51751942504564</v>
+        <v>7.517519862393606</v>
       </c>
       <c r="K37">
-        <v>0.6397995200522486</v>
+        <v>0.6397995213215659</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0.00245</v>
       </c>
       <c r="N37">
-        <v>0.3651629395321497</v>
+        <v>0.3651629688395734</v>
       </c>
       <c r="O37">
-        <v>0.649865715576843</v>
+        <v>0.6498657198172846</v>
       </c>
       <c r="R37">
-        <v>0.3819739442470775</v>
+        <v>0.3819739891342522</v>
       </c>
       <c r="U37">
-        <v>44.17881387824774</v>
+        <v>44.17881789197968</v>
       </c>
       <c r="V37" t="s">
         <v>145</v>
@@ -4474,46 +4474,46 @@
         <v>69</v>
       </c>
       <c r="C38">
-        <v>1.000601675577595</v>
+        <v>1.000601675528218</v>
       </c>
       <c r="D38">
-        <v>330.2789135905309</v>
+        <v>330.2789136068293</v>
       </c>
       <c r="E38">
-        <v>1453.736690315224</v>
+        <v>1453.736690315707</v>
       </c>
       <c r="F38">
-        <v>1123.457776724693</v>
+        <v>1123.457776708878</v>
       </c>
       <c r="G38">
-        <v>18351.1610079807</v>
+        <v>18351.16113822603</v>
       </c>
       <c r="H38">
-        <v>1737.442949711738</v>
+        <v>1737.442919491469</v>
       </c>
       <c r="I38">
-        <v>35.79990544913402</v>
+        <v>35.79990636286319</v>
       </c>
       <c r="J38">
-        <v>6.30636245561935</v>
+        <v>6.306361715390951</v>
       </c>
       <c r="K38">
-        <v>0.6397071548246022</v>
+        <v>0.6397071554299217</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0.00245</v>
       </c>
       <c r="N38">
-        <v>0.3683431403798139</v>
+        <v>0.3683431531128237</v>
       </c>
       <c r="O38">
-        <v>0.6420005172549073</v>
+        <v>0.6420005317663617</v>
       </c>
       <c r="R38">
-        <v>0.3998997139927351</v>
+        <v>0.3998996338981389</v>
       </c>
       <c r="U38">
-        <v>42.10626790475337</v>
+        <v>42.10626807825414</v>
       </c>
       <c r="V38" t="s">
         <v>146</v>
@@ -4560,46 +4560,46 @@
         <v>70</v>
       </c>
       <c r="C39">
-        <v>1.000628782423256</v>
+        <v>1.000628782450043</v>
       </c>
       <c r="D39">
-        <v>330.2699663968333</v>
+        <v>330.2699663879919</v>
       </c>
       <c r="E39">
-        <v>1453.73465288152</v>
+        <v>1453.734652880961</v>
       </c>
       <c r="F39">
-        <v>1123.464686484687</v>
+        <v>1123.464686492969</v>
       </c>
       <c r="G39">
-        <v>19193.81893124843</v>
+        <v>19193.81903365053</v>
       </c>
       <c r="H39">
-        <v>1752.190206635193</v>
+        <v>1752.190236183771</v>
       </c>
       <c r="I39">
-        <v>39.37458405614138</v>
+        <v>39.37458516897522</v>
       </c>
       <c r="J39">
-        <v>6.174269612579018</v>
+        <v>6.174269736792017</v>
       </c>
       <c r="K39">
-        <v>0.6391467819407706</v>
+        <v>0.6391467845022261</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0.00252</v>
       </c>
       <c r="N39">
-        <v>0.3589793293654308</v>
+        <v>0.3589793334763816</v>
       </c>
       <c r="O39">
-        <v>0.655158142170628</v>
+        <v>0.6551581366360978</v>
       </c>
       <c r="R39">
-        <v>0.3583889417044627</v>
+        <v>0.3583889862405794</v>
       </c>
       <c r="U39">
-        <v>45.5488536687204</v>
+        <v>45.54885490576724</v>
       </c>
       <c r="V39" t="s">
         <v>147</v>
@@ -4646,46 +4646,46 @@
         <v>71</v>
       </c>
       <c r="C40">
-        <v>1.000595763355207</v>
+        <v>1.000595763311083</v>
       </c>
       <c r="D40">
-        <v>330.2808651102739</v>
+        <v>330.2808651248388</v>
       </c>
       <c r="E40">
-        <v>1453.734162914384</v>
+        <v>1453.734162914858</v>
       </c>
       <c r="F40">
-        <v>1123.45329780411</v>
+        <v>1123.453297790019</v>
       </c>
       <c r="G40">
-        <v>18659.54395152058</v>
+        <v>18659.54430584113</v>
       </c>
       <c r="H40">
-        <v>1728.859745717389</v>
+        <v>1728.859831621087</v>
       </c>
       <c r="I40">
-        <v>38.08365266818282</v>
+        <v>38.0836563256559</v>
       </c>
       <c r="J40">
-        <v>6.585402282038345</v>
+        <v>6.585402647405123</v>
       </c>
       <c r="K40">
-        <v>0.6399511821952573</v>
+        <v>0.6399511796260626</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0.00258</v>
       </c>
       <c r="N40">
-        <v>0.3746365249642707</v>
+        <v>0.3746365721204789</v>
       </c>
       <c r="O40">
-        <v>0.6376817278083863</v>
+        <v>0.6376817273128768</v>
       </c>
       <c r="R40">
-        <v>0.3944193031418295</v>
+        <v>0.3944194242810862</v>
       </c>
       <c r="U40">
-        <v>44.66905495022117</v>
+        <v>44.66905897306103</v>
       </c>
       <c r="V40" t="s">
         <v>148</v>
@@ -4732,46 +4732,46 @@
         <v>72</v>
       </c>
       <c r="C41">
-        <v>1.000607316990516</v>
+        <v>1.000607316974349</v>
       </c>
       <c r="D41">
-        <v>330.2770514816905</v>
+        <v>330.2770514870269</v>
       </c>
       <c r="E41">
-        <v>1453.735965947825</v>
+        <v>1453.73596594615</v>
       </c>
       <c r="F41">
-        <v>1123.458914466135</v>
+        <v>1123.458914459123</v>
       </c>
       <c r="G41">
-        <v>19389.56251182578</v>
+        <v>19389.56047205167</v>
       </c>
       <c r="H41">
-        <v>1704.161502010902</v>
+        <v>1704.16148928589</v>
       </c>
       <c r="I41">
-        <v>37.91549867406486</v>
+        <v>37.91548109713627</v>
       </c>
       <c r="J41">
-        <v>7.427239049224514</v>
+        <v>7.427239072262806</v>
       </c>
       <c r="K41">
-        <v>0.6408093430667287</v>
+        <v>0.6408093527456575</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0.00243</v>
       </c>
       <c r="N41">
-        <v>0.3519716426080026</v>
+        <v>0.3519713875931866</v>
       </c>
       <c r="O41">
-        <v>0.6366873413956154</v>
+        <v>0.6366873339425492</v>
       </c>
       <c r="R41">
-        <v>0.3913465141699031</v>
+        <v>0.3913465108128311</v>
       </c>
       <c r="U41">
-        <v>45.34273772328937</v>
+        <v>45.34272016939908</v>
       </c>
       <c r="V41" t="s">
         <v>149</v>
@@ -4818,46 +4818,46 @@
         <v>73</v>
       </c>
       <c r="C42">
-        <v>1.000580325981737</v>
+        <v>1.000580326036269</v>
       </c>
       <c r="D42">
-        <v>330.2859608221647</v>
+        <v>330.285960804164</v>
       </c>
       <c r="E42">
-        <v>1453.73682507813</v>
+        <v>1453.736825076688</v>
       </c>
       <c r="F42">
-        <v>1123.450864255965</v>
+        <v>1123.450864272524</v>
       </c>
       <c r="G42">
-        <v>19221.65670967811</v>
+        <v>19221.65501281684</v>
       </c>
       <c r="H42">
-        <v>1716.758650250353</v>
+        <v>1716.758597623363</v>
       </c>
       <c r="I42">
-        <v>38.34948562024935</v>
+        <v>38.34947037911547</v>
       </c>
       <c r="J42">
-        <v>7.143568721920644</v>
+        <v>7.143567637042699</v>
       </c>
       <c r="K42">
-        <v>0.6399960728857658</v>
+        <v>0.6399960758066432</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0.00242</v>
       </c>
       <c r="N42">
-        <v>0.3572161708215383</v>
+        <v>0.3572159699858616</v>
       </c>
       <c r="O42">
-        <v>0.641983843647699</v>
+        <v>0.6419838624610129</v>
       </c>
       <c r="R42">
-        <v>0.3827250679940348</v>
+        <v>0.3827249577711367</v>
       </c>
       <c r="U42">
-        <v>45.49305434216999</v>
+        <v>45.49303801615817</v>
       </c>
       <c r="V42" t="s">
         <v>150</v>
@@ -4904,46 +4904,46 @@
         <v>74</v>
       </c>
       <c r="C43">
-        <v>1.00061895717572</v>
+        <v>1.000618957203008</v>
       </c>
       <c r="D43">
-        <v>330.2732093737429</v>
+        <v>330.273209364736</v>
       </c>
       <c r="E43">
-        <v>1453.738300668051</v>
+        <v>1453.738300667155</v>
       </c>
       <c r="F43">
-        <v>1123.465091294308</v>
+        <v>1123.465091302419</v>
       </c>
       <c r="G43">
-        <v>19281.20088165096</v>
+        <v>19281.19951117962</v>
       </c>
       <c r="H43">
-        <v>1778.341694155646</v>
+        <v>1778.341854649045</v>
       </c>
       <c r="I43">
-        <v>38.5805506159518</v>
+        <v>38.58053503206603</v>
       </c>
       <c r="J43">
-        <v>7.963040554180099</v>
+        <v>7.963043549399947</v>
       </c>
       <c r="K43">
-        <v>0.6412339708134065</v>
+        <v>0.6412339733772146</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0.00245</v>
       </c>
       <c r="N43">
-        <v>0.3575412700871828</v>
+        <v>0.3575411078726527</v>
       </c>
       <c r="O43">
-        <v>0.6455650717923046</v>
+        <v>0.6455650014204997</v>
       </c>
       <c r="R43">
-        <v>0.4248554163122005</v>
+        <v>0.4248557878397851</v>
       </c>
       <c r="U43">
-        <v>46.5435911701319</v>
+        <v>46.54357858146598</v>
       </c>
       <c r="V43" t="s">
         <v>151</v>
@@ -4990,46 +4990,46 @@
         <v>75</v>
       </c>
       <c r="C44">
-        <v>1.000647989759867</v>
+        <v>1.000647989832874</v>
       </c>
       <c r="D44">
-        <v>330.263626898346</v>
+        <v>330.2636268742501</v>
       </c>
       <c r="E44">
-        <v>1453.735055346313</v>
+        <v>1453.735055347357</v>
       </c>
       <c r="F44">
-        <v>1123.471428447967</v>
+        <v>1123.471428473107</v>
       </c>
       <c r="G44">
-        <v>19746.04739513003</v>
+        <v>19746.04855945813</v>
       </c>
       <c r="H44">
-        <v>1735.471222360973</v>
+        <v>1735.471253051439</v>
       </c>
       <c r="I44">
-        <v>40.29858455359906</v>
+        <v>40.2985895530487</v>
       </c>
       <c r="J44">
-        <v>6.808849347687811</v>
+        <v>6.808849416789306</v>
       </c>
       <c r="K44">
-        <v>0.6382556814746984</v>
+        <v>0.6382556779507826</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0.00248</v>
       </c>
       <c r="N44">
-        <v>0.3646776220993351</v>
+        <v>0.3646777614174019</v>
       </c>
       <c r="O44">
-        <v>0.6467270133592413</v>
+        <v>0.6467270232424707</v>
       </c>
       <c r="R44">
-        <v>0.3477143979415168</v>
+        <v>0.3477144187573177</v>
       </c>
       <c r="U44">
-        <v>47.10743390128687</v>
+        <v>47.10743896983801</v>
       </c>
       <c r="V44" t="s">
         <v>152</v>
@@ -5076,46 +5076,46 @@
         <v>76</v>
       </c>
       <c r="C45">
-        <v>1.000618862964233</v>
+        <v>1.00061886292755</v>
       </c>
       <c r="D45">
-        <v>330.2732404700289</v>
+        <v>330.2732404821368</v>
       </c>
       <c r="E45">
-        <v>1453.736723993024</v>
+        <v>1453.736723989083</v>
       </c>
       <c r="F45">
-        <v>1123.463483522995</v>
+        <v>1123.463483506946</v>
       </c>
       <c r="G45">
-        <v>18510.92809619255</v>
+        <v>18510.92191819741</v>
       </c>
       <c r="H45">
-        <v>1751.163575954869</v>
+        <v>1751.163596071226</v>
       </c>
       <c r="I45">
-        <v>35.18396884946028</v>
+        <v>35.18390727373518</v>
       </c>
       <c r="J45">
-        <v>7.791981900531368</v>
+        <v>7.791982316040974</v>
       </c>
       <c r="K45">
-        <v>0.637972128654774</v>
+        <v>0.6379721749975626</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0.00237</v>
       </c>
       <c r="N45">
-        <v>0.3680919070692401</v>
+        <v>0.3680910636330281</v>
       </c>
       <c r="O45">
-        <v>0.63322138192633</v>
+        <v>0.6332213607458276</v>
       </c>
       <c r="R45">
-        <v>0.4377524447397785</v>
+        <v>0.4377525182584583</v>
       </c>
       <c r="U45">
-        <v>42.97595074999165</v>
+        <v>42.97588958977615</v>
       </c>
       <c r="V45" t="s">
         <v>153</v>
@@ -5162,46 +5162,46 @@
         <v>77</v>
       </c>
       <c r="C46">
-        <v>1.000622388353878</v>
+        <v>1.000622388425201</v>
       </c>
       <c r="D46">
-        <v>330.2720768523889</v>
+        <v>330.2720768288475</v>
       </c>
       <c r="E46">
-        <v>1453.736720676146</v>
+        <v>1453.736720676557</v>
       </c>
       <c r="F46">
-        <v>1123.464643823757</v>
+        <v>1123.464643847709</v>
       </c>
       <c r="G46">
-        <v>18391.15498763144</v>
+        <v>18391.15526246814</v>
       </c>
       <c r="H46">
-        <v>1751.619134382062</v>
+        <v>1751.619094651786</v>
       </c>
       <c r="I46">
-        <v>37.01498450835839</v>
+        <v>37.014988019882</v>
       </c>
       <c r="J46">
-        <v>7.112827933920874</v>
+        <v>7.1128264478549</v>
       </c>
       <c r="K46">
-        <v>0.6401879175392938</v>
+        <v>0.6401879179588796</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0.00254</v>
       </c>
       <c r="N46">
-        <v>0.3776462133311871</v>
+        <v>0.3776462457931122</v>
       </c>
       <c r="O46">
-        <v>0.6324911458581992</v>
+        <v>0.6324912040907341</v>
       </c>
       <c r="R46">
-        <v>0.4045983263003529</v>
+        <v>0.4045981384599789</v>
       </c>
       <c r="U46">
-        <v>44.12781244227926</v>
+        <v>44.1278144677369</v>
       </c>
       <c r="V46" t="s">
         <v>154</v>
@@ -5248,46 +5248,46 @@
         <v>78</v>
       </c>
       <c r="C47">
-        <v>1.000589095207355</v>
+        <v>1.000589095185319</v>
       </c>
       <c r="D47">
-        <v>330.2830661752785</v>
+        <v>330.2830661825524</v>
       </c>
       <c r="E47">
-        <v>1453.737672635668</v>
+        <v>1453.737672636463</v>
       </c>
       <c r="F47">
-        <v>1123.45460646039</v>
+        <v>1123.454606453911</v>
       </c>
       <c r="G47">
-        <v>18401.35284459989</v>
+        <v>18401.35361644334</v>
       </c>
       <c r="H47">
-        <v>1749.479620199699</v>
+        <v>1749.47954009736</v>
       </c>
       <c r="I47">
-        <v>38.04140192438233</v>
+        <v>38.04140840832999</v>
       </c>
       <c r="J47">
-        <v>7.512296115253157</v>
+        <v>7.512295121323437</v>
       </c>
       <c r="K47">
-        <v>0.6398270510630096</v>
+        <v>0.6398270464091512</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0.00258</v>
       </c>
       <c r="N47">
-        <v>0.3661424949401877</v>
+        <v>0.3661425967658803</v>
       </c>
       <c r="O47">
-        <v>0.6413882724055918</v>
+        <v>0.6413882868609184</v>
       </c>
       <c r="R47">
-        <v>0.415878844337195</v>
+        <v>0.4158786869586796</v>
       </c>
       <c r="U47">
-        <v>45.55369803963548</v>
+        <v>45.55370352965343</v>
       </c>
       <c r="V47" t="s">
         <v>155</v>
@@ -5334,46 +5334,46 @@
         <v>79</v>
       </c>
       <c r="C48">
-        <v>1.000624373412971</v>
+        <v>1.000624373351451</v>
       </c>
       <c r="D48">
-        <v>330.2714216518891</v>
+        <v>330.2714216721949</v>
       </c>
       <c r="E48">
-        <v>1453.735501169071</v>
+        <v>1453.735501168997</v>
       </c>
       <c r="F48">
-        <v>1123.464079517182</v>
+        <v>1123.464079496802</v>
       </c>
       <c r="G48">
-        <v>18534.23547290455</v>
+        <v>18534.23463780005</v>
       </c>
       <c r="H48">
-        <v>1704.530949185458</v>
+        <v>1704.530966734032</v>
       </c>
       <c r="I48">
-        <v>37.84454845287728</v>
+        <v>37.84454189870331</v>
       </c>
       <c r="J48">
-        <v>7.256202569982522</v>
+        <v>7.256202480267243</v>
       </c>
       <c r="K48">
-        <v>0.637404518807908</v>
+        <v>0.6374045293727437</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0.00255</v>
       </c>
       <c r="N48">
-        <v>0.3743221175058636</v>
+        <v>0.3743219936117275</v>
       </c>
       <c r="O48">
-        <v>0.6407825439810206</v>
+        <v>0.6407825405084753</v>
       </c>
       <c r="R48">
-        <v>0.3971284468461557</v>
+        <v>0.3971284776982514</v>
       </c>
       <c r="U48">
-        <v>45.1007510228598</v>
+        <v>45.10074437897055</v>
       </c>
       <c r="V48" t="s">
         <v>156</v>
@@ -5420,46 +5420,46 @@
         <v>80</v>
       </c>
       <c r="C49">
-        <v>1.000612361942083</v>
+        <v>1.000612362079527</v>
       </c>
       <c r="D49">
-        <v>330.2753862696745</v>
+        <v>330.275386224308</v>
       </c>
       <c r="E49">
-        <v>1453.738192522406</v>
+        <v>1453.738192521269</v>
       </c>
       <c r="F49">
-        <v>1123.462806252732</v>
+        <v>1123.462806296961</v>
       </c>
       <c r="G49">
-        <v>18450.91358135488</v>
+        <v>18450.91326216561</v>
       </c>
       <c r="H49">
-        <v>1788.478778424496</v>
+        <v>1788.478128422216</v>
       </c>
       <c r="I49">
-        <v>35.7115709918587</v>
+        <v>35.71156288418263</v>
       </c>
       <c r="J49">
-        <v>19.61827976324792</v>
+        <v>19.61826860584108</v>
       </c>
       <c r="K49">
-        <v>0.6384859413211101</v>
+        <v>0.6384859277317614</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0.00238</v>
       </c>
       <c r="N49">
-        <v>0.3654071376132382</v>
+        <v>0.3654071333246512</v>
       </c>
       <c r="O49">
-        <v>0.630477948288777</v>
+        <v>0.6304782910637878</v>
       </c>
       <c r="R49">
-        <v>0.5242969943141075</v>
+        <v>0.5242954199588331</v>
       </c>
       <c r="U49">
-        <v>55.32985075510662</v>
+        <v>55.32983149002371</v>
       </c>
       <c r="V49" t="s">
         <v>157</v>
@@ -5506,46 +5506,46 @@
         <v>81</v>
       </c>
       <c r="C50">
-        <v>1.000571653883383</v>
+        <v>1.000571654253179</v>
       </c>
       <c r="D50">
-        <v>330.2888234580651</v>
+        <v>330.2888233359954</v>
       </c>
       <c r="E50">
-        <v>1453.736766652978</v>
+        <v>1453.736766652681</v>
       </c>
       <c r="F50">
-        <v>1123.447943194913</v>
+        <v>1123.447943316685</v>
       </c>
       <c r="G50">
-        <v>18440.83906881664</v>
+        <v>18440.83869787228</v>
       </c>
       <c r="H50">
-        <v>1679.432277121367</v>
+        <v>1679.43043883702</v>
       </c>
       <c r="I50">
-        <v>35.13886564007415</v>
+        <v>35.13886241665485</v>
       </c>
       <c r="J50">
-        <v>6.964700253684216</v>
+        <v>6.96468555833691</v>
       </c>
       <c r="K50">
-        <v>0.6432819493557959</v>
+        <v>0.643281951314207</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0.00243</v>
       </c>
       <c r="N50">
-        <v>0.3652400510975462</v>
+        <v>0.3652400023416903</v>
       </c>
       <c r="O50">
-        <v>0.6348921206149721</v>
+        <v>0.634892287669937</v>
       </c>
       <c r="R50">
-        <v>0.4363311152083352</v>
+        <v>0.4363280519743679</v>
       </c>
       <c r="U50">
-        <v>42.10356589375836</v>
+        <v>42.10354797499176</v>
       </c>
       <c r="V50" t="s">
         <v>158</v>
@@ -5592,46 +5592,46 @@
         <v>82</v>
       </c>
       <c r="C51">
-        <v>1.000607630245622</v>
+        <v>1.00060763028808</v>
       </c>
       <c r="D51">
-        <v>330.2769480835454</v>
+        <v>330.2769480695313</v>
       </c>
       <c r="E51">
-        <v>1453.741502420451</v>
+        <v>1453.74150242037</v>
       </c>
       <c r="F51">
-        <v>1123.464554336905</v>
+        <v>1123.464554350839</v>
       </c>
       <c r="G51">
-        <v>18825.09054052879</v>
+        <v>18825.09064542919</v>
       </c>
       <c r="H51">
-        <v>1681.891568003326</v>
+        <v>1681.891436094214</v>
       </c>
       <c r="I51">
-        <v>36.92071169866974</v>
+        <v>36.92071235644388</v>
       </c>
       <c r="J51">
-        <v>6.636564157067165</v>
+        <v>6.636563701305763</v>
       </c>
       <c r="K51">
-        <v>0.6344538225522609</v>
+        <v>0.6344538178503035</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0.00236</v>
       </c>
       <c r="N51">
-        <v>0.3640396797539107</v>
+        <v>0.3640397021229675</v>
       </c>
       <c r="O51">
-        <v>0.6489680992869441</v>
+        <v>0.6489681001270322</v>
       </c>
       <c r="R51">
-        <v>0.397252044918967</v>
+        <v>0.3972518459639178</v>
       </c>
       <c r="U51">
-        <v>43.5572758557369</v>
+        <v>43.55727605774964</v>
       </c>
       <c r="V51" t="s">
         <v>159</v>
@@ -5678,46 +5678,46 @@
         <v>83</v>
       </c>
       <c r="C52">
-        <v>1.000594017437326</v>
+        <v>1.000594017508879</v>
       </c>
       <c r="D52">
-        <v>330.2814414112095</v>
+        <v>330.2814413875908</v>
       </c>
       <c r="E52">
-        <v>1453.739621466288</v>
+        <v>1453.73962146542</v>
       </c>
       <c r="F52">
-        <v>1123.458180055078</v>
+        <v>1123.45818007783</v>
       </c>
       <c r="G52">
-        <v>18737.38580755598</v>
+        <v>18737.38474398111</v>
       </c>
       <c r="H52">
-        <v>1712.680142863776</v>
+        <v>1712.680097042388</v>
       </c>
       <c r="I52">
-        <v>36.28825572591655</v>
+        <v>36.28824630726329</v>
       </c>
       <c r="J52">
-        <v>5.969615930099344</v>
+        <v>5.969614573215185</v>
       </c>
       <c r="K52">
-        <v>0.6386027625777997</v>
+        <v>0.6386027682282466</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0.00234</v>
       </c>
       <c r="N52">
-        <v>0.3573824236867441</v>
+        <v>0.3573822851495536</v>
       </c>
       <c r="O52">
-        <v>0.63305404000135</v>
+        <v>0.6330541061844395</v>
       </c>
       <c r="R52">
-        <v>0.432361655414792</v>
+        <v>0.4323614434547793</v>
       </c>
       <c r="U52">
-        <v>42.25787165601589</v>
+        <v>42.25786088047847</v>
       </c>
       <c r="V52" t="s">
         <v>160</v>
@@ -5764,46 +5764,46 @@
         <v>84</v>
       </c>
       <c r="C53">
-        <v>1.000592000628377</v>
+        <v>1.000592000571749</v>
       </c>
       <c r="D53">
-        <v>330.2821071316691</v>
+        <v>330.2821071503613</v>
       </c>
       <c r="E53">
-        <v>1453.739009240468</v>
+        <v>1453.739009240594</v>
       </c>
       <c r="F53">
-        <v>1123.456902108799</v>
+        <v>1123.456902090233</v>
       </c>
       <c r="G53">
-        <v>19165.87050482735</v>
+        <v>19165.87035623413</v>
       </c>
       <c r="H53">
-        <v>1767.184605497301</v>
+        <v>1767.184668773922</v>
       </c>
       <c r="I53">
-        <v>36.5171746542336</v>
+        <v>36.51717288110104</v>
       </c>
       <c r="J53">
-        <v>7.592642652797989</v>
+        <v>7.592643156700337</v>
       </c>
       <c r="K53">
-        <v>0.6348869545491639</v>
+        <v>0.6348869541197053</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0.0023</v>
       </c>
       <c r="N53">
-        <v>0.3573613737650015</v>
+        <v>0.3573613581270872</v>
       </c>
       <c r="O53">
-        <v>0.6389816696127241</v>
+        <v>0.6389816577992368</v>
       </c>
       <c r="R53">
-        <v>0.4335386685709615</v>
+        <v>0.4335387921242211</v>
       </c>
       <c r="U53">
-        <v>44.10981730703159</v>
+        <v>44.10981603780138</v>
       </c>
       <c r="V53" t="s">
         <v>161</v>
@@ -5850,46 +5850,46 @@
         <v>85</v>
       </c>
       <c r="C54">
-        <v>1.000595123146503</v>
+        <v>1.000595123064857</v>
       </c>
       <c r="D54">
-        <v>330.2810764331955</v>
+        <v>330.2810764601456</v>
       </c>
       <c r="E54">
-        <v>1453.73786076628</v>
+        <v>1453.737860766301</v>
       </c>
       <c r="F54">
-        <v>1123.456784333084</v>
+        <v>1123.456784306156</v>
       </c>
       <c r="G54">
-        <v>18627.07070457179</v>
+        <v>18627.07046887998</v>
       </c>
       <c r="H54">
-        <v>1735.576728379051</v>
+        <v>1735.576791201038</v>
       </c>
       <c r="I54">
-        <v>36.06379449535349</v>
+        <v>36.0637931543074</v>
       </c>
       <c r="J54">
-        <v>7.216208059462053</v>
+        <v>7.216208748364441</v>
       </c>
       <c r="K54">
-        <v>0.6400915700405473</v>
+        <v>0.6400915747073199</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0.00238</v>
       </c>
       <c r="N54">
-        <v>0.3639998161022251</v>
+        <v>0.3639997786389307</v>
       </c>
       <c r="O54">
-        <v>0.6449507410750639</v>
+        <v>0.6449507189857278</v>
       </c>
       <c r="R54">
-        <v>0.400201523905125</v>
+        <v>0.4002016656414741</v>
       </c>
       <c r="U54">
-        <v>43.28000255481555</v>
+        <v>43.28000190267184</v>
       </c>
       <c r="V54" t="s">
         <v>162</v>
@@ -5936,46 +5936,46 @@
         <v>86</v>
       </c>
       <c r="C55">
-        <v>1.000596362956024</v>
+        <v>1.000596362941311</v>
       </c>
       <c r="D55">
-        <v>330.2806671916287</v>
+        <v>330.2806671964854</v>
       </c>
       <c r="E55">
-        <v>1453.735018933479</v>
+        <v>1453.735018933741</v>
       </c>
       <c r="F55">
-        <v>1123.45435174185</v>
+        <v>1123.454351737256</v>
       </c>
       <c r="G55">
-        <v>18234.15748514444</v>
+        <v>18234.15764865914</v>
       </c>
       <c r="H55">
-        <v>1715.031744954498</v>
+        <v>1715.031626889811</v>
       </c>
       <c r="I55">
-        <v>33.67625672380856</v>
+        <v>33.67625818407361</v>
       </c>
       <c r="J55">
-        <v>6.120160493368344</v>
+        <v>6.120159032025402</v>
       </c>
       <c r="K55">
-        <v>0.6371673586208575</v>
+        <v>0.6371673567895952</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0.0023</v>
       </c>
       <c r="N55">
-        <v>0.3661178252234975</v>
+        <v>0.3661178491836197</v>
       </c>
       <c r="O55">
-        <v>0.6389331096588288</v>
+        <v>0.6389331216448368</v>
       </c>
       <c r="R55">
-        <v>0.4386554037059407</v>
+        <v>0.4386551971820397</v>
       </c>
       <c r="U55">
-        <v>39.7964172171769</v>
+        <v>39.79641721609902</v>
       </c>
       <c r="V55" t="s">
         <v>163</v>
@@ -6022,46 +6022,46 @@
         <v>87</v>
       </c>
       <c r="C56">
-        <v>1.000568491434604</v>
+        <v>1.000568485124136</v>
       </c>
       <c r="D56">
-        <v>330.2898673860873</v>
+        <v>330.2898694691867</v>
       </c>
       <c r="E56">
-        <v>1453.736214694482</v>
+        <v>1453.736214695664</v>
       </c>
       <c r="F56">
-        <v>1123.446347308394</v>
+        <v>1123.446345226478</v>
       </c>
       <c r="G56">
-        <v>19103.40368087279</v>
+        <v>19103.40494074376</v>
       </c>
       <c r="H56">
-        <v>1687.04482743874</v>
+        <v>1687.073131349761</v>
       </c>
       <c r="I56">
-        <v>36.71460532528267</v>
+        <v>36.71461868673833</v>
       </c>
       <c r="J56">
-        <v>8.039047778578617</v>
+        <v>8.039301350845243</v>
       </c>
       <c r="K56">
-        <v>0.6384984596224297</v>
+        <v>0.6384984538988241</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0.00234</v>
       </c>
       <c r="N56">
-        <v>0.3609349703989764</v>
+        <v>0.3609351285892616</v>
       </c>
       <c r="O56">
-        <v>0.6260082110927567</v>
+        <v>0.6260037439997519</v>
       </c>
       <c r="R56">
-        <v>0.4816191068648464</v>
+        <v>0.4816695441679575</v>
       </c>
       <c r="U56">
-        <v>44.75365310386128</v>
+        <v>44.75392003758357</v>
       </c>
       <c r="V56" t="s">
         <v>164</v>
@@ -6108,46 +6108,46 @@
         <v>88</v>
       </c>
       <c r="C57">
-        <v>1.000597901391102</v>
+        <v>1.000597901408266</v>
       </c>
       <c r="D57">
-        <v>330.2801593798863</v>
+        <v>330.2801593742208</v>
       </c>
       <c r="E57">
-        <v>1453.739015389572</v>
+        <v>1453.739015389491</v>
       </c>
       <c r="F57">
-        <v>1123.458856009686</v>
+        <v>1123.45885601527</v>
       </c>
       <c r="G57">
-        <v>18898.53802956064</v>
+        <v>18898.53792514066</v>
       </c>
       <c r="H57">
-        <v>1659.820368666017</v>
+        <v>1659.820351652591</v>
       </c>
       <c r="I57">
-        <v>35.46455806358919</v>
+        <v>35.46455619768462</v>
       </c>
       <c r="J57">
-        <v>6.531891432710888</v>
+        <v>6.531891200606256</v>
       </c>
       <c r="K57">
-        <v>0.6377946997644165</v>
+        <v>0.6377946977891724</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0.00233</v>
       </c>
       <c r="N57">
-        <v>0.3552669797966843</v>
+        <v>0.3552669720333118</v>
       </c>
       <c r="O57">
-        <v>0.6475373809419787</v>
+        <v>0.6475373872788532</v>
       </c>
       <c r="R57">
-        <v>0.4048395113984461</v>
+        <v>0.4048394714593229</v>
       </c>
       <c r="U57">
-        <v>41.99644949630008</v>
+        <v>41.99644739829087</v>
       </c>
       <c r="V57" t="s">
         <v>165</v>
@@ -6194,46 +6194,46 @@
         <v>89</v>
       </c>
       <c r="C58">
-        <v>1.000585024594195</v>
+        <v>1.000585024539965</v>
       </c>
       <c r="D58">
-        <v>330.2844098437949</v>
+        <v>330.2844098616958</v>
       </c>
       <c r="E58">
-        <v>1453.740862484779</v>
+        <v>1453.740862493263</v>
       </c>
       <c r="F58">
-        <v>1123.456452640984</v>
+        <v>1123.456452631567</v>
       </c>
       <c r="G58">
-        <v>18948.30687737206</v>
+        <v>18948.31700643309</v>
       </c>
       <c r="H58">
-        <v>1724.496364099156</v>
+        <v>1724.496379704393</v>
       </c>
       <c r="I58">
-        <v>36.58605118509112</v>
+        <v>36.5861382816778</v>
       </c>
       <c r="J58">
-        <v>4.846260751787037</v>
+        <v>4.846259888652631</v>
       </c>
       <c r="K58">
-        <v>0.639969443841512</v>
+        <v>0.6399693984463586</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0.00238</v>
       </c>
       <c r="N58">
-        <v>0.3532648053787124</v>
+        <v>0.3532660893721458</v>
       </c>
       <c r="O58">
-        <v>0.636463446364959</v>
+        <v>0.6364634337234535</v>
       </c>
       <c r="R58">
-        <v>0.4185451420831351</v>
+        <v>0.4185451898299941</v>
       </c>
       <c r="U58">
-        <v>41.43231193687815</v>
+        <v>41.43239817033043</v>
       </c>
       <c r="V58" t="s">
         <v>166</v>
@@ -6280,46 +6280,46 @@
         <v>90</v>
       </c>
       <c r="C59">
-        <v>1.000622940843612</v>
+        <v>1.000622940760273</v>
       </c>
       <c r="D59">
-        <v>330.2718944940552</v>
+        <v>330.2718945215629</v>
       </c>
       <c r="E59">
-        <v>1453.740619818348</v>
+        <v>1453.740619818763</v>
       </c>
       <c r="F59">
-        <v>1123.468725324293</v>
+        <v>1123.4687252972</v>
       </c>
       <c r="G59">
-        <v>18537.19701423655</v>
+        <v>18537.19736505791</v>
       </c>
       <c r="H59">
-        <v>1776.888888506351</v>
+        <v>1776.889111748477</v>
       </c>
       <c r="I59">
-        <v>33.30605513056275</v>
+        <v>33.30605822681473</v>
       </c>
       <c r="J59">
-        <v>6.423057915662215</v>
+        <v>6.423062907310386</v>
       </c>
       <c r="K59">
-        <v>0.642567810699751</v>
+        <v>0.6425678098683724</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0.00225</v>
       </c>
       <c r="N59">
-        <v>0.3458463804605866</v>
+        <v>0.3458464240709176</v>
       </c>
       <c r="O59">
-        <v>0.6443438114331155</v>
+        <v>0.6443438419757064</v>
       </c>
       <c r="R59">
-        <v>0.3931953184321044</v>
+        <v>0.393195547797163</v>
       </c>
       <c r="U59">
-        <v>39.72911304622496</v>
+        <v>39.72912113412512</v>
       </c>
       <c r="V59" t="s">
         <v>167</v>
@@ -6366,46 +6366,46 @@
         <v>91</v>
       </c>
       <c r="C60">
-        <v>1.000629402902222</v>
+        <v>1.000629402884667</v>
       </c>
       <c r="D60">
-        <v>330.2697616001656</v>
+        <v>330.2697616059597</v>
       </c>
       <c r="E60">
-        <v>1453.739166518514</v>
+        <v>1453.739166520925</v>
       </c>
       <c r="F60">
-        <v>1123.469404918349</v>
+        <v>1123.469404914965</v>
       </c>
       <c r="G60">
-        <v>18439.7146653392</v>
+        <v>18439.71729542278</v>
       </c>
       <c r="H60">
-        <v>1648.833439935272</v>
+        <v>1648.833492282581</v>
       </c>
       <c r="I60">
-        <v>38.43437616384223</v>
+        <v>38.43438699885848</v>
       </c>
       <c r="J60">
-        <v>7.592922694434048</v>
+        <v>7.592923438520051</v>
       </c>
       <c r="K60">
-        <v>0.6355632230060011</v>
+        <v>0.6355632162601098</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0.00258</v>
       </c>
       <c r="N60">
-        <v>0.3773215338587317</v>
+        <v>0.3773218603795443</v>
       </c>
       <c r="O60">
-        <v>0.635264590858363</v>
+        <v>0.6352645705260987</v>
       </c>
       <c r="R60">
-        <v>0.4408952478193706</v>
+        <v>0.4408953729337108</v>
       </c>
       <c r="U60">
-        <v>46.02729885827628</v>
+        <v>46.02731043737853</v>
       </c>
       <c r="V60" t="s">
         <v>168</v>
@@ -6452,46 +6452,46 @@
         <v>92</v>
       </c>
       <c r="C61">
-        <v>1.000624078852912</v>
+        <v>1.00062407879477</v>
       </c>
       <c r="D61">
-        <v>330.2715188759832</v>
+        <v>330.271518895174</v>
       </c>
       <c r="E61">
-        <v>1453.737174649037</v>
+        <v>1453.737174648026</v>
       </c>
       <c r="F61">
-        <v>1123.465655773054</v>
+        <v>1123.465655752852</v>
       </c>
       <c r="G61">
-        <v>19260.64650688229</v>
+        <v>19260.6456093876</v>
       </c>
       <c r="H61">
-        <v>1624.076728832479</v>
+        <v>1624.076682569651</v>
       </c>
       <c r="I61">
-        <v>38.09695484952366</v>
+        <v>38.09694678614692</v>
       </c>
       <c r="J61">
-        <v>6.878910721276412</v>
+        <v>6.878909767267377</v>
       </c>
       <c r="K61">
-        <v>0.6400524173649926</v>
+        <v>0.6400524226234839</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0.00246</v>
       </c>
       <c r="N61">
-        <v>0.3629348486410592</v>
+        <v>0.3629347327812736</v>
       </c>
       <c r="O61">
-        <v>0.6329901267070015</v>
+        <v>0.6329901850295857</v>
       </c>
       <c r="R61">
-        <v>0.3849669026472403</v>
+        <v>0.384966694697148</v>
       </c>
       <c r="U61">
-        <v>44.97586557080007</v>
+        <v>44.9758565534143</v>
       </c>
       <c r="V61" t="s">
         <v>169</v>
@@ -6538,46 +6538,46 @@
         <v>93</v>
       </c>
       <c r="C62">
-        <v>1.000615570688979</v>
+        <v>1.000615570183858</v>
       </c>
       <c r="D62">
-        <v>330.274327151516</v>
+        <v>330.2743273182418</v>
       </c>
       <c r="E62">
-        <v>1453.733676750572</v>
+        <v>1453.733676738351</v>
       </c>
       <c r="F62">
-        <v>1123.459349599056</v>
+        <v>1123.459349420109</v>
       </c>
       <c r="G62">
-        <v>19428.7223040801</v>
+        <v>19428.70732028359</v>
       </c>
       <c r="H62">
-        <v>1646.451542825847</v>
+        <v>1646.453350632716</v>
       </c>
       <c r="I62">
-        <v>38.11090154771414</v>
+        <v>38.11073458675094</v>
       </c>
       <c r="J62">
-        <v>6.421152689094826</v>
+        <v>6.42115784043706</v>
       </c>
       <c r="K62">
-        <v>0.6405010937456714</v>
+        <v>0.6405011484225518</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0.0024</v>
       </c>
       <c r="N62">
-        <v>0.3624027187720768</v>
+        <v>0.362400899707974</v>
       </c>
       <c r="O62">
-        <v>0.6383449183069446</v>
+        <v>0.6383449008687901</v>
       </c>
       <c r="R62">
-        <v>0.4395438595410771</v>
+        <v>0.4395465288492946</v>
       </c>
       <c r="U62">
-        <v>44.53205423680897</v>
+        <v>44.53189242718801</v>
       </c>
       <c r="V62" t="s">
         <v>170</v>
@@ -6624,46 +6624,46 @@
         <v>94</v>
       </c>
       <c r="C63">
-        <v>1.000573840890993</v>
+        <v>1.000573840915017</v>
       </c>
       <c r="D63">
-        <v>330.2881015281675</v>
+        <v>330.2881015202372</v>
       </c>
       <c r="E63">
-        <v>1453.736443406442</v>
+        <v>1453.736443404304</v>
       </c>
       <c r="F63">
-        <v>1123.448341878274</v>
+        <v>1123.448341884067</v>
       </c>
       <c r="G63">
-        <v>19144.20442995782</v>
+        <v>19144.20202972849</v>
       </c>
       <c r="H63">
-        <v>1649.336605343899</v>
+        <v>1649.336620726482</v>
       </c>
       <c r="I63">
-        <v>38.65433331897265</v>
+        <v>38.65430702440522</v>
       </c>
       <c r="J63">
-        <v>7.59495651828043</v>
+        <v>7.594956719717608</v>
       </c>
       <c r="K63">
-        <v>0.6394932949625507</v>
+        <v>0.6394933030943037</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0.00253</v>
       </c>
       <c r="N63">
-        <v>0.3657164376126722</v>
+        <v>0.3657161444783817</v>
       </c>
       <c r="O63">
-        <v>0.6483360283220723</v>
+        <v>0.6483360244592341</v>
       </c>
       <c r="R63">
-        <v>0.4321552291520649</v>
+        <v>0.4321552615463566</v>
       </c>
       <c r="U63">
-        <v>46.24928983725307</v>
+        <v>46.24926374412283</v>
       </c>
       <c r="V63" t="s">
         <v>171</v>
@@ -6710,46 +6710,46 @@
         <v>95</v>
       </c>
       <c r="C64">
-        <v>1.000610443986199</v>
+        <v>1.000610444002525</v>
       </c>
       <c r="D64">
-        <v>330.2760193368429</v>
+        <v>330.2760193314541</v>
       </c>
       <c r="E64">
-        <v>1453.734744109124</v>
+        <v>1453.734744108461</v>
       </c>
       <c r="F64">
-        <v>1123.458724772281</v>
+        <v>1123.458724777007</v>
       </c>
       <c r="G64">
-        <v>19266.94632617488</v>
+        <v>19266.94555950833</v>
       </c>
       <c r="H64">
-        <v>1705.46477185113</v>
+        <v>1705.46460512298</v>
       </c>
       <c r="I64">
-        <v>34.92099091904142</v>
+        <v>34.92098270632822</v>
       </c>
       <c r="J64">
-        <v>7.371164551479535</v>
+        <v>7.371161954289203</v>
       </c>
       <c r="K64">
-        <v>0.6411236468099419</v>
+        <v>0.6411236500248497</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0.00223</v>
       </c>
       <c r="N64">
-        <v>0.3535631236074057</v>
+        <v>0.3535630290508023</v>
       </c>
       <c r="O64">
-        <v>0.6441129713632689</v>
+        <v>0.6441129800188903</v>
       </c>
       <c r="R64">
-        <v>0.4048561052830845</v>
+        <v>0.4048558369831578</v>
       </c>
       <c r="U64">
-        <v>42.29215547052096</v>
+        <v>42.29214466061742</v>
       </c>
       <c r="V64" t="s">
         <v>172</v>
@@ -6796,46 +6796,46 @@
         <v>96</v>
       </c>
       <c r="C65">
-        <v>1.000597381801497</v>
+        <v>1.000597381800956</v>
       </c>
       <c r="D65">
-        <v>330.2803308875682</v>
+        <v>330.2803308877467</v>
       </c>
       <c r="E65">
-        <v>1453.73900835956</v>
+        <v>1453.73900835912</v>
       </c>
       <c r="F65">
-        <v>1123.458677471992</v>
+        <v>1123.458677471374</v>
       </c>
       <c r="G65">
-        <v>18987.49240223048</v>
+        <v>18987.49207083168</v>
       </c>
       <c r="H65">
-        <v>1635.157743111992</v>
+        <v>1635.157765173581</v>
       </c>
       <c r="I65">
-        <v>39.18149024823936</v>
+        <v>39.18148731474128</v>
       </c>
       <c r="J65">
-        <v>6.002643216286497</v>
+        <v>6.002643340510208</v>
       </c>
       <c r="K65">
-        <v>0.6403742915744335</v>
+        <v>0.6403742942760793</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0.00255</v>
       </c>
       <c r="N65">
-        <v>0.3622957078223017</v>
+        <v>0.3622956619176981</v>
       </c>
       <c r="O65">
-        <v>0.6514004395236468</v>
+        <v>0.6514004386653116</v>
       </c>
       <c r="R65">
-        <v>0.3808447348146766</v>
+        <v>0.3808447699860961</v>
       </c>
       <c r="U65">
-        <v>45.18413346452586</v>
+        <v>45.18413065525149</v>
       </c>
       <c r="V65" t="s">
         <v>173</v>
@@ -6882,46 +6882,46 @@
         <v>97</v>
       </c>
       <c r="C66">
-        <v>1.000584716921465</v>
+        <v>1.000584716934817</v>
       </c>
       <c r="D66">
-        <v>330.2845114039171</v>
+        <v>330.2845113995099</v>
       </c>
       <c r="E66">
-        <v>1453.739593640112</v>
+        <v>1453.739593643663</v>
       </c>
       <c r="F66">
-        <v>1123.455082236195</v>
+        <v>1123.455082244153</v>
       </c>
       <c r="G66">
-        <v>19030.55461343363</v>
+        <v>19030.55848959001</v>
       </c>
       <c r="H66">
-        <v>1679.024722867895</v>
+        <v>1679.024872997345</v>
       </c>
       <c r="I66">
-        <v>37.77801350595006</v>
+        <v>37.77804885383676</v>
       </c>
       <c r="J66">
-        <v>7.340675567962082</v>
+        <v>7.340677289816917</v>
       </c>
       <c r="K66">
-        <v>0.638112358457252</v>
+        <v>0.6381123484663843</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0.00245</v>
       </c>
       <c r="N66">
-        <v>0.3603583700079172</v>
+        <v>0.3603588406735745</v>
       </c>
       <c r="O66">
-        <v>0.6329046810681026</v>
+        <v>0.632904640370203</v>
       </c>
       <c r="R66">
-        <v>0.4885628279521786</v>
+        <v>0.4885631497321428</v>
       </c>
       <c r="U66">
-        <v>45.11868907391214</v>
+        <v>45.11872614365368</v>
       </c>
       <c r="V66" t="s">
         <v>174</v>
@@ -6968,46 +6968,46 @@
         <v>98</v>
       </c>
       <c r="C67">
-        <v>1.000632252056216</v>
+        <v>1.000632251996054</v>
       </c>
       <c r="D67">
-        <v>330.2688212053217</v>
+        <v>330.2688212251787</v>
       </c>
       <c r="E67">
-        <v>1453.732367416853</v>
+        <v>1453.732367418588</v>
       </c>
       <c r="F67">
-        <v>1123.463546211531</v>
+        <v>1123.463546193409</v>
       </c>
       <c r="G67">
-        <v>19168.95636601711</v>
+        <v>19168.95827696947</v>
       </c>
       <c r="H67">
-        <v>1640.149011532312</v>
+        <v>1640.148942432516</v>
       </c>
       <c r="I67">
-        <v>38.87576824486851</v>
+        <v>38.87578943094936</v>
       </c>
       <c r="J67">
-        <v>6.147478906075043</v>
+        <v>6.147478614305204</v>
       </c>
       <c r="K67">
-        <v>0.6386726142676993</v>
+        <v>0.6386726089885342</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0.0025</v>
       </c>
       <c r="N67">
-        <v>0.3653429616989983</v>
+        <v>0.3653431924077914</v>
       </c>
       <c r="O67">
-        <v>0.6451003874583543</v>
+        <v>0.6451003723856119</v>
       </c>
       <c r="R67">
-        <v>0.3856343900970374</v>
+        <v>0.3856343153863879</v>
       </c>
       <c r="U67">
-        <v>45.02324715094355</v>
+        <v>45.02326804525457</v>
       </c>
       <c r="V67" t="s">
         <v>175</v>
@@ -7054,46 +7054,46 @@
         <v>99</v>
       </c>
       <c r="C68">
-        <v>1.000601348499139</v>
+        <v>1.000601348545542</v>
       </c>
       <c r="D68">
-        <v>330.279021552725</v>
+        <v>330.2790215374082</v>
       </c>
       <c r="E68">
-        <v>1453.739822179914</v>
+        <v>1453.739822182081</v>
       </c>
       <c r="F68">
-        <v>1123.460800627189</v>
+        <v>1123.460800644673</v>
       </c>
       <c r="G68">
-        <v>19165.7839055456</v>
+        <v>19165.78624925403</v>
       </c>
       <c r="H68">
-        <v>1641.125406662361</v>
+        <v>1641.125321390427</v>
       </c>
       <c r="I68">
-        <v>38.61746144545604</v>
+        <v>38.61748251116898</v>
       </c>
       <c r="J68">
-        <v>6.404741601333464</v>
+        <v>6.404740453990598</v>
       </c>
       <c r="K68">
-        <v>0.6389510078282052</v>
+        <v>0.6389510018852989</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0.00252</v>
       </c>
       <c r="N68">
-        <v>0.3617909738663931</v>
+        <v>0.3617912575787358</v>
       </c>
       <c r="O68">
-        <v>0.6422032202762256</v>
+        <v>0.6422032583804566</v>
       </c>
       <c r="R68">
-        <v>0.4183543076344846</v>
+        <v>0.4183540871173702</v>
       </c>
       <c r="U68">
-        <v>45.02220304678951</v>
+        <v>45.02222296515958</v>
       </c>
       <c r="V68" t="s">
         <v>176</v>
@@ -7140,46 +7140,46 @@
         <v>100</v>
       </c>
       <c r="C69">
-        <v>1.000626970226831</v>
+        <v>1.000626970171842</v>
       </c>
       <c r="D69">
-        <v>330.2705645358701</v>
+        <v>330.2705645540202</v>
       </c>
       <c r="E69">
-        <v>1453.738699599209</v>
+        <v>1453.738699599385</v>
       </c>
       <c r="F69">
-        <v>1123.468135063339</v>
+        <v>1123.468135045364</v>
       </c>
       <c r="G69">
-        <v>19017.23142451724</v>
+        <v>19017.23150445768</v>
       </c>
       <c r="H69">
-        <v>1651.903772389997</v>
+        <v>1651.903744525349</v>
       </c>
       <c r="I69">
-        <v>37.96314424684039</v>
+        <v>37.96314527336192</v>
       </c>
       <c r="J69">
-        <v>5.643434847828429</v>
+        <v>5.643433990008338</v>
       </c>
       <c r="K69">
-        <v>0.6438547617906212</v>
+        <v>0.6438547633998672</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0.00252</v>
       </c>
       <c r="N69">
-        <v>0.3561629906606461</v>
+        <v>0.3561629964549922</v>
       </c>
       <c r="O69">
-        <v>0.6442826494085567</v>
+        <v>0.6442826394256207</v>
       </c>
       <c r="R69">
-        <v>0.3921970447935741</v>
+        <v>0.3921970193946609</v>
       </c>
       <c r="U69">
-        <v>43.60657909466882</v>
+        <v>43.60657926337026</v>
       </c>
       <c r="V69" t="s">
         <v>177</v>
@@ -7226,46 +7226,46 @@
         <v>101</v>
       </c>
       <c r="C70">
-        <v>1.000625269497543</v>
+        <v>1.000625269480242</v>
       </c>
       <c r="D70">
-        <v>330.2711258856973</v>
+        <v>330.2711258914078</v>
       </c>
       <c r="E70">
-        <v>1453.732430122003</v>
+        <v>1453.732430121846</v>
       </c>
       <c r="F70">
-        <v>1123.461304236306</v>
+        <v>1123.461304230439</v>
       </c>
       <c r="G70">
-        <v>19437.92495407654</v>
+        <v>19437.92470531664</v>
       </c>
       <c r="H70">
-        <v>1625.029087581866</v>
+        <v>1625.029068612021</v>
       </c>
       <c r="I70">
-        <v>35.32010004904854</v>
+        <v>35.3200984807596</v>
       </c>
       <c r="J70">
-        <v>6.92727778723195</v>
+        <v>6.92727712303628</v>
       </c>
       <c r="K70">
-        <v>0.6398855661652311</v>
+        <v>0.6398855681743004</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0.00227</v>
       </c>
       <c r="N70">
-        <v>0.3682567030666429</v>
+        <v>0.3682566703064224</v>
       </c>
       <c r="O70">
-        <v>0.6376278973984109</v>
+        <v>0.6376279288019486</v>
       </c>
       <c r="R70">
-        <v>0.3660011605346463</v>
+        <v>0.366001061879674</v>
       </c>
       <c r="U70">
-        <v>42.24737783628049</v>
+        <v>42.24737560379589</v>
       </c>
       <c r="V70" t="s">
         <v>178</v>
@@ -7312,46 +7312,46 @@
         <v>102</v>
       </c>
       <c r="C71">
-        <v>1.000605266835161</v>
+        <v>1.0006052668797</v>
       </c>
       <c r="D71">
-        <v>330.2777281913664</v>
+        <v>330.2777281766651</v>
       </c>
       <c r="E71">
-        <v>1453.734489636459</v>
+        <v>1453.734489636845</v>
       </c>
       <c r="F71">
-        <v>1123.456761445093</v>
+        <v>1123.456761460179</v>
       </c>
       <c r="G71">
-        <v>19139.66213654533</v>
+        <v>19139.6625051877</v>
       </c>
       <c r="H71">
-        <v>1707.095828257574</v>
+        <v>1707.095866762795</v>
       </c>
       <c r="I71">
-        <v>36.08242687012345</v>
+        <v>36.08243212805287</v>
       </c>
       <c r="J71">
-        <v>6.764929613080193</v>
+        <v>6.764929556860034</v>
       </c>
       <c r="K71">
-        <v>0.6388920241497454</v>
+        <v>0.6388920267386328</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0.00236</v>
       </c>
       <c r="N71">
-        <v>0.364216172467112</v>
+        <v>0.3642162099798475</v>
       </c>
       <c r="O71">
-        <v>0.6395658606442156</v>
+        <v>0.6395658609604978</v>
       </c>
       <c r="R71">
-        <v>0.4484641305944604</v>
+        <v>0.4484641911478038</v>
       </c>
       <c r="U71">
-        <v>42.84735648320364</v>
+        <v>42.8473616849129</v>
       </c>
       <c r="V71" t="s">
         <v>179</v>
@@ -7398,46 +7398,46 @@
         <v>103</v>
       </c>
       <c r="C72">
-        <v>1.000616192503436</v>
+        <v>1.000616192342704</v>
       </c>
       <c r="D72">
-        <v>330.2741219086338</v>
+        <v>330.2741219616869</v>
       </c>
       <c r="E72">
-        <v>1453.736949371645</v>
+        <v>1453.736949375475</v>
       </c>
       <c r="F72">
-        <v>1123.462827463012</v>
+        <v>1123.462827413788</v>
       </c>
       <c r="G72">
-        <v>19613.01921238567</v>
+        <v>19613.02330145553</v>
       </c>
       <c r="H72">
-        <v>1723.983486865219</v>
+        <v>1723.983479505118</v>
       </c>
       <c r="I72">
-        <v>40.57080490823467</v>
+        <v>40.57085051162159</v>
       </c>
       <c r="J72">
-        <v>6.03922215495702</v>
+        <v>6.039217667071764</v>
       </c>
       <c r="K72">
-        <v>0.6387786464555198</v>
+        <v>0.6387786309724207</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0.00259</v>
       </c>
       <c r="N72">
-        <v>0.3678214259461177</v>
+        <v>0.3678219203969001</v>
       </c>
       <c r="O72">
-        <v>0.6350286961971913</v>
+        <v>0.6350286333983236</v>
       </c>
       <c r="R72">
-        <v>0.4286047616041163</v>
+        <v>0.4286048853816364</v>
       </c>
       <c r="U72">
-        <v>46.61002706319169</v>
+        <v>46.61006817869335</v>
       </c>
       <c r="V72" t="s">
         <v>180</v>
@@ -7484,46 +7484,46 @@
         <v>104</v>
       </c>
       <c r="C73">
-        <v>1.000606944965044</v>
+        <v>1.000606944898815</v>
       </c>
       <c r="D73">
-        <v>330.2771742786356</v>
+        <v>330.2771743004962</v>
       </c>
       <c r="E73">
-        <v>1453.735969924104</v>
+        <v>1453.735969924118</v>
       </c>
       <c r="F73">
-        <v>1123.458795645468</v>
+        <v>1123.458795623622</v>
       </c>
       <c r="G73">
-        <v>19271.83516304578</v>
+        <v>19271.83504330089</v>
       </c>
       <c r="H73">
-        <v>1719.687253144153</v>
+        <v>1719.687384841665</v>
       </c>
       <c r="I73">
-        <v>35.63666063608861</v>
+        <v>35.6366595235016</v>
       </c>
       <c r="J73">
-        <v>5.880491570414351</v>
+        <v>5.880495073312623</v>
       </c>
       <c r="K73">
-        <v>0.6433132359178328</v>
+        <v>0.6433132373404155</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0.00231</v>
       </c>
       <c r="N73">
-        <v>0.3517185468522294</v>
+        <v>0.3517185290701568</v>
       </c>
       <c r="O73">
-        <v>0.6366445549224254</v>
+        <v>0.6366445636383851</v>
       </c>
       <c r="R73">
-        <v>0.4564487101648048</v>
+        <v>0.4564488794457792</v>
       </c>
       <c r="U73">
-        <v>41.51715220650296</v>
+        <v>41.51715459681422</v>
       </c>
       <c r="V73" t="s">
         <v>181</v>
@@ -7570,46 +7570,46 @@
         <v>105</v>
       </c>
       <c r="C74">
-        <v>1.000641424802194</v>
+        <v>1.000641424742833</v>
       </c>
       <c r="D74">
-        <v>330.2657936752532</v>
+        <v>330.2657936948456</v>
       </c>
       <c r="E74">
-        <v>1453.734050564974</v>
+        <v>1453.734050564113</v>
       </c>
       <c r="F74">
-        <v>1123.46825688972</v>
+        <v>1123.468256869268</v>
       </c>
       <c r="G74">
-        <v>19579.98663102658</v>
+        <v>19579.9859356443</v>
       </c>
       <c r="H74">
-        <v>1726.604778846471</v>
+        <v>1726.604730023504</v>
       </c>
       <c r="I74">
-        <v>37.96075513637956</v>
+        <v>37.96074681695657</v>
       </c>
       <c r="J74">
-        <v>5.71593597781732</v>
+        <v>5.715935274112025</v>
       </c>
       <c r="K74">
-        <v>0.6443743401031139</v>
+        <v>0.6443743408686456</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0.00246</v>
       </c>
       <c r="N74">
-        <v>0.3571363528379445</v>
+        <v>0.3571362716143767</v>
       </c>
       <c r="O74">
-        <v>0.6523650913838674</v>
+        <v>0.6523650992728133</v>
       </c>
       <c r="R74">
-        <v>0.3776136582825758</v>
+        <v>0.3776135694719575</v>
       </c>
       <c r="U74">
-        <v>43.67669111419688</v>
+        <v>43.6766820910686</v>
       </c>
       <c r="V74" t="s">
         <v>182</v>
@@ -7656,46 +7656,46 @@
         <v>106</v>
       </c>
       <c r="C75">
-        <v>1.000606522904965</v>
+        <v>1.000606497906581</v>
       </c>
       <c r="D75">
-        <v>330.2773135909495</v>
+        <v>330.2773218423445</v>
       </c>
       <c r="E75">
-        <v>1453.733147113155</v>
+        <v>1453.73314711401</v>
       </c>
       <c r="F75">
-        <v>1123.455833522206</v>
+        <v>1123.455825271666</v>
       </c>
       <c r="G75">
-        <v>19406.09874321437</v>
+        <v>19406.09987946782</v>
       </c>
       <c r="H75">
-        <v>1661.963139001104</v>
+        <v>1662.08052494733</v>
       </c>
       <c r="I75">
-        <v>37.24458590909412</v>
+        <v>37.24459638007298</v>
       </c>
       <c r="J75">
-        <v>6.75217736654688</v>
+        <v>6.753167018234493</v>
       </c>
       <c r="K75">
-        <v>0.6409753485673552</v>
+        <v>0.6409753453421598</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0.00242</v>
       </c>
       <c r="N75">
-        <v>0.3507299512892643</v>
+        <v>0.3507300882233722</v>
       </c>
       <c r="O75">
-        <v>0.6290052158853325</v>
+        <v>0.6289845696394971</v>
       </c>
       <c r="R75">
-        <v>0.4452445633700858</v>
+        <v>0.4454420617301824</v>
       </c>
       <c r="U75">
-        <v>43.996763275641</v>
+        <v>43.99776339830747</v>
       </c>
       <c r="V75" t="s">
         <v>183</v>
@@ -7742,46 +7742,46 @@
         <v>107</v>
       </c>
       <c r="C76">
-        <v>1.000590512856161</v>
+        <v>1.00059051280311</v>
       </c>
       <c r="D76">
-        <v>330.2825982262141</v>
+        <v>330.2825982437255</v>
       </c>
       <c r="E76">
-        <v>1453.731503775221</v>
+        <v>1453.731503774644</v>
       </c>
       <c r="F76">
-        <v>1123.448905549006</v>
+        <v>1123.448905530918</v>
       </c>
       <c r="G76">
-        <v>19630.12309162354</v>
+        <v>19630.12229620976</v>
       </c>
       <c r="H76">
-        <v>1700.844309426287</v>
+        <v>1700.844360605233</v>
       </c>
       <c r="I76">
-        <v>39.78044898374196</v>
+        <v>39.78043926784686</v>
       </c>
       <c r="J76">
-        <v>6.382447870842977</v>
+        <v>6.382448253259561</v>
       </c>
       <c r="K76">
-        <v>0.6369966546290188</v>
+        <v>0.6369966542175426</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0.00258</v>
       </c>
       <c r="N76">
-        <v>0.3711120731559501</v>
+        <v>0.3711119866021209</v>
       </c>
       <c r="O76">
-        <v>0.6466524600440575</v>
+        <v>0.6466524358005689</v>
       </c>
       <c r="R76">
-        <v>0.3925689664526068</v>
+        <v>0.3925690885870587</v>
       </c>
       <c r="U76">
-        <v>46.16289685458493</v>
+        <v>46.16288752110642</v>
       </c>
       <c r="V76" t="s">
         <v>184</v>
@@ -7828,46 +7828,46 @@
         <v>108</v>
       </c>
       <c r="C77">
-        <v>1.000642713095808</v>
+        <v>1.000642714170346</v>
       </c>
       <c r="D77">
-        <v>330.2653684692259</v>
+        <v>330.2653681145709</v>
       </c>
       <c r="E77">
-        <v>1453.733395253289</v>
+        <v>1453.73339525342</v>
       </c>
       <c r="F77">
-        <v>1123.468026784063</v>
+        <v>1123.468027138849</v>
       </c>
       <c r="G77">
-        <v>19420.48984016729</v>
+        <v>19420.49006518794</v>
       </c>
       <c r="H77">
-        <v>1674.36007388411</v>
+        <v>1674.356247777106</v>
       </c>
       <c r="I77">
-        <v>38.31936532178086</v>
+        <v>38.31936606811367</v>
       </c>
       <c r="J77">
-        <v>6.588340314160319</v>
+        <v>6.588313486680762</v>
       </c>
       <c r="K77">
-        <v>0.635770424098993</v>
+        <v>0.635770424984931</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0.00244</v>
       </c>
       <c r="N77">
-        <v>0.3667368878496088</v>
+        <v>0.3667369093881545</v>
       </c>
       <c r="O77">
-        <v>0.6401777399516042</v>
+        <v>0.6401777730509837</v>
       </c>
       <c r="R77">
-        <v>0.4179954947397526</v>
+        <v>0.4179899093843576</v>
       </c>
       <c r="U77">
-        <v>44.90770563594118</v>
+        <v>44.90767955479443</v>
       </c>
       <c r="V77" t="s">
         <v>185</v>
@@ -7914,46 +7914,46 @@
         <v>109</v>
       </c>
       <c r="C78">
-        <v>1.000581775028069</v>
+        <v>1.000581775080275</v>
       </c>
       <c r="D78">
-        <v>330.2854825007801</v>
+        <v>330.2854824835472</v>
       </c>
       <c r="E78">
-        <v>1453.741118671579</v>
+        <v>1453.74111867086</v>
       </c>
       <c r="F78">
-        <v>1123.455636170799</v>
+        <v>1123.455636187313</v>
       </c>
       <c r="G78">
-        <v>19094.77962083993</v>
+        <v>19094.77875821762</v>
       </c>
       <c r="H78">
-        <v>1566.008993403828</v>
+        <v>1566.008947191035</v>
       </c>
       <c r="I78">
-        <v>37.12625379721084</v>
+        <v>37.12625014576297</v>
       </c>
       <c r="J78">
-        <v>7.009486618539589</v>
+        <v>7.009486544485931</v>
       </c>
       <c r="K78">
-        <v>0.6363477429182082</v>
+        <v>0.6363477453527115</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0.00233</v>
       </c>
       <c r="N78">
-        <v>0.3639171425560962</v>
+        <v>0.3639170380596871</v>
       </c>
       <c r="O78">
-        <v>0.6309007306759069</v>
+        <v>0.6309007302536102</v>
       </c>
       <c r="R78">
-        <v>0.4572680086128129</v>
+        <v>0.4572679353159389</v>
       </c>
       <c r="U78">
-        <v>44.13574041575043</v>
+        <v>44.1357366902489</v>
       </c>
       <c r="V78" t="s">
         <v>186</v>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="272">
   <si>
     <t>filename_x</t>
   </si>
   <si>
     <t>Ne_Corr</t>
+  </si>
+  <si>
+    <t>1σ_Ne_Corr</t>
   </si>
   <si>
     <t>deltaNe</t>
@@ -1263,13 +1266,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,6626 +1372,7553 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1.000672335493391</v>
       </c>
       <c r="D2">
-        <v>330.2555917903812</v>
+        <v>4.414708079924415E-05</v>
       </c>
       <c r="E2">
+        <v>330.2555917903815</v>
+      </c>
+      <c r="F2">
         <v>1453.824137675149</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1123.568545884767</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21207.6921593864</v>
       </c>
-      <c r="H2">
-        <v>1446.824983976873</v>
-      </c>
       <c r="I2">
+        <v>1446.824983973253</v>
+      </c>
+      <c r="J2">
         <v>41.66584055711061</v>
       </c>
-      <c r="J2">
-        <v>6.136603011966044</v>
-      </c>
       <c r="K2">
+        <v>6.136602999992066</v>
+      </c>
+      <c r="L2">
         <v>0.6203313544563492</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.00225</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.3738886141267517</v>
       </c>
-      <c r="O2">
-        <v>0.62898109023626</v>
+      <c r="P2">
+        <v>0.6289810902512236</v>
       </c>
       <c r="R2">
-        <v>0.4076791950987831</v>
+        <v>0.0144051608751695</v>
+      </c>
+      <c r="S2">
+        <v>0.4076791951078689</v>
+      </c>
+      <c r="T2">
+        <v>1.000621873007109</v>
       </c>
       <c r="U2">
-        <v>47.80244356907665</v>
-      </c>
-      <c r="V2" t="s">
-        <v>110</v>
+        <v>1.000722803069689</v>
+      </c>
+      <c r="V2">
+        <v>47.80244355710267</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="X2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z2">
+        <v>188</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA2">
         <v>28</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>45</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>50</v>
       </c>
-      <c r="AE2" t="s">
-        <v>190</v>
-      </c>
       <c r="AF2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG2">
+        <v>191</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH2">
         <v>47384</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1341</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="1">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>1.000616587200346</v>
       </c>
       <c r="D3">
+        <v>6.228212136541908E-05</v>
+      </c>
+      <c r="E3">
         <v>330.273991630786</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1453.828523171423</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1123.554531540637</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21691.26890909946</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1328.319840024182</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>42.80648106357247</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5.335542926233985</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.6184363663484839</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.00235</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.3660781951630119</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.6486929046495546</v>
       </c>
       <c r="R3">
+        <v>0.02043548827793558</v>
+      </c>
+      <c r="S3">
         <v>0.4087928553778686</v>
       </c>
+      <c r="T3">
+        <v>1.000547559770781</v>
+      </c>
       <c r="U3">
+        <v>1.000685624154926</v>
+      </c>
+      <c r="V3">
         <v>48.14202398980645</v>
       </c>
-      <c r="V3" t="s">
-        <v>111</v>
-      </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="X3" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z3">
+        <v>188</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA3">
         <v>28</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>45</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>3</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>50</v>
       </c>
-      <c r="AE3" t="s">
-        <v>190</v>
-      </c>
       <c r="AF3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG3">
+        <v>191</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH3">
         <v>47830</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1341</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="1">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1.000594816030338</v>
       </c>
       <c r="D4">
+        <v>4.234348850772221E-05</v>
+      </c>
+      <c r="E4">
         <v>330.2811778075541</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1453.822325089127</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1123.541147281573</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20320.58047004566</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1618.779572601536</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>38.41163710531283</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6.845234387065845</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.6228620260380261</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.00225</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.366354044288141</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.6397509362239668</v>
       </c>
       <c r="R4">
+        <v>0.0138030764882032</v>
+      </c>
+      <c r="S4">
         <v>0.4180141738945246</v>
       </c>
+      <c r="T4">
+        <v>1.000546185210538</v>
+      </c>
       <c r="U4">
+        <v>1.000643451577698</v>
+      </c>
+      <c r="V4">
         <v>45.25687149237868</v>
       </c>
-      <c r="V4" t="s">
-        <v>112</v>
-      </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="X4" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z4">
+        <v>188</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA4">
         <v>28</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>45</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>50</v>
       </c>
-      <c r="AE4" t="s">
-        <v>190</v>
-      </c>
       <c r="AF4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG4">
+        <v>191</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH4">
         <v>48415</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1341</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="1">
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1.000641951980591</v>
       </c>
       <c r="D5">
+        <v>4.546333700593749E-05</v>
+      </c>
+      <c r="E5">
         <v>330.2656196779594</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1453.816835428168</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1123.551215750208</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>19843.74674039496</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1499.927137306187</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>41.20599760321195</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5.938481702313204</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.6197854630233822</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.00251</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.3851315309068848</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.6364131119840418</v>
       </c>
       <c r="R5">
+        <v>0.01480369681472853</v>
+      </c>
+      <c r="S5">
         <v>0.448195223657375</v>
       </c>
+      <c r="T5">
+        <v>1.000589497525256</v>
+      </c>
       <c r="U5">
+        <v>1.000694411935912</v>
+      </c>
+      <c r="V5">
         <v>47.14447930552515</v>
       </c>
-      <c r="V5" t="s">
-        <v>113</v>
-      </c>
       <c r="W5" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="X5" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z5">
+        <v>188</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA5">
         <v>28</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>45</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>50</v>
       </c>
-      <c r="AE5" t="s">
-        <v>190</v>
-      </c>
       <c r="AF5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG5">
+        <v>191</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH5">
         <v>48896</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1341</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>1.00061403119695</v>
       </c>
       <c r="D6">
+        <v>4.463296963879429E-05</v>
+      </c>
+      <c r="E6">
         <v>330.2748352941946</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1453.817174059296</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1123.542338765101</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20547.57688815906</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1460.796757510816</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>43.86643399576013</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.587850741205358</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.622277313185599</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.00261</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.3797558502015055</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.6439098241508447</v>
       </c>
       <c r="R6">
+        <v>0.01450824958143554</v>
+      </c>
+      <c r="S6">
         <v>0.3995512894104848</v>
       </c>
+      <c r="T6">
+        <v>1.000562171741892</v>
+      </c>
       <c r="U6">
+        <v>1.000665896028071</v>
+      </c>
+      <c r="V6">
         <v>50.45428473696548</v>
       </c>
-      <c r="V6" t="s">
-        <v>114</v>
-      </c>
       <c r="W6" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="X6" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z6">
+        <v>188</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6">
         <v>28</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>45</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>50</v>
       </c>
-      <c r="AE6" t="s">
-        <v>190</v>
-      </c>
       <c r="AF6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG6">
+        <v>191</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH6">
         <v>49329</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1341</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>1.000632723317336</v>
       </c>
       <c r="D7">
+        <v>4.059024187696224E-05</v>
+      </c>
+      <c r="E7">
         <v>330.2686656608839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1453.814647778088</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1123.545982117204</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20645.55504034918</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1526.41692276889</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>40.35810510511937</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5.706012191698383</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.6258569389371409</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.0024</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.3762981414776077</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.6179914610973932</v>
       </c>
       <c r="R7">
+        <v>0.01318910121846127</v>
+      </c>
+      <c r="S7">
         <v>0.4368779207630855</v>
       </c>
+      <c r="T7">
+        <v>1.000585494408959</v>
+      </c>
       <c r="U7">
+        <v>1.000679956684451</v>
+      </c>
+      <c r="V7">
         <v>46.06411729681776</v>
       </c>
-      <c r="V7" t="s">
-        <v>115</v>
-      </c>
       <c r="W7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="X7" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z7">
+        <v>188</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA7">
         <v>28</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>45</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>50</v>
       </c>
-      <c r="AE7" t="s">
-        <v>190</v>
-      </c>
       <c r="AF7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG7">
+        <v>191</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH7">
         <v>49783</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1341</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>1.000604535095436</v>
       </c>
       <c r="D8">
+        <v>4.432184963927573E-05</v>
+      </c>
+      <c r="E8">
         <v>330.2779697226861</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1453.806151710594</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1123.528181987908</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20375.293835285</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1503.037709770766</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>43.53804534268182</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6.767630833908406</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.6247820804288887</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.00256</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.3789471307210617</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.631836739333536</v>
       </c>
       <c r="R8">
+        <v>0.01441294472293229</v>
+      </c>
+      <c r="S8">
         <v>0.4564957159920661</v>
       </c>
+      <c r="T8">
+        <v>1.000553116792369</v>
+      </c>
       <c r="U8">
+        <v>1.000655958683535</v>
+      </c>
+      <c r="V8">
         <v>50.30567617659023</v>
       </c>
-      <c r="V8" t="s">
-        <v>116</v>
-      </c>
       <c r="W8" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z8">
+        <v>188</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA8">
         <v>28</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>45</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>50</v>
       </c>
-      <c r="AE8" t="s">
-        <v>190</v>
-      </c>
       <c r="AF8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG8">
+        <v>191</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH8">
         <v>50206</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1341</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1.000596057742867</v>
       </c>
       <c r="D9">
+        <v>4.192999490143818E-05</v>
+      </c>
+      <c r="E9">
         <v>330.2807679375835</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1453.806207175778</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1123.525439238195</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>20097.25084642474</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1555.356857718215</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>41.31030552295414</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6.709335935429623</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.6263521838461912</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.00242</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.3707416722661901</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.6275258362375581</v>
       </c>
       <c r="R9">
+        <v>0.01363558895429208</v>
+      </c>
+      <c r="S9">
         <v>0.4685973931221329</v>
       </c>
+      <c r="T9">
+        <v>1.000547419191516</v>
+      </c>
       <c r="U9">
+        <v>1.000644701023278</v>
+      </c>
+      <c r="V9">
         <v>48.01964145838376</v>
       </c>
-      <c r="V9" t="s">
-        <v>117</v>
-      </c>
       <c r="W9" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z9">
+        <v>188</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA9">
         <v>28</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>45</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>3</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>50</v>
       </c>
-      <c r="AE9" t="s">
-        <v>190</v>
-      </c>
       <c r="AF9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG9">
+        <v>191</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH9">
         <v>50617</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1341</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>1.000585982495097</v>
       </c>
       <c r="D10">
+        <v>4.218849171588243E-05</v>
+      </c>
+      <c r="E10">
         <v>330.2840936493453</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1453.77221100843</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1123.488117359085</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21259.4199171943</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1618.974530655941</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>43.378827841758</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6.917288993725409</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.6287111787157169</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.00235</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.3587667466081698</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.6316050447001951</v>
       </c>
       <c r="R10">
+        <v>0.01373459457789615</v>
+      </c>
+      <c r="S10">
         <v>0.4849088446813473</v>
       </c>
+      <c r="T10">
+        <v>1.000537257060087</v>
+      </c>
       <c r="U10">
+        <v>1.000634712676124</v>
+      </c>
+      <c r="V10">
         <v>50.29611683548341</v>
       </c>
-      <c r="V10" t="s">
-        <v>118</v>
-      </c>
       <c r="W10" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z10">
+        <v>188</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA10">
         <v>28</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>45</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>50</v>
       </c>
-      <c r="AE10" t="s">
-        <v>190</v>
-      </c>
       <c r="AF10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG10">
+        <v>191</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH10">
         <v>51568</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1341</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>1.000592765479055</v>
       </c>
       <c r="D11">
+        <v>3.883278758789559E-05</v>
+      </c>
+      <c r="E11">
         <v>330.2818546648293</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1453.755112678558</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1123.473258013729</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>21055.0862373496</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1624.143982409034</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>42.16183949476476</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6.204774095163089</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.6316554287897662</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.0024</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.3547890259909787</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.6051821112763868</v>
       </c>
       <c r="R11">
+        <v>0.01259921626780387</v>
+      </c>
+      <c r="S11">
         <v>0.4796556684520414</v>
       </c>
+      <c r="T11">
+        <v>1.000547327240364</v>
+      </c>
       <c r="U11">
+        <v>1.000638207844941</v>
+      </c>
+      <c r="V11">
         <v>48.36661358992784</v>
       </c>
-      <c r="V11" t="s">
-        <v>119</v>
-      </c>
       <c r="W11" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="Y11" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z11">
+        <v>188</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA11">
         <v>28</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>45</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>50</v>
       </c>
-      <c r="AE11" t="s">
-        <v>190</v>
-      </c>
       <c r="AF11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG11">
+        <v>191</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH11">
         <v>51961</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1341</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>1.00060752626683</v>
       </c>
       <c r="D12">
+        <v>4.05582222274999E-05</v>
+      </c>
+      <c r="E12">
         <v>330.2769824044929</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1453.760640616717</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1123.483658212224</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>20116.48251359555</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1621.746054035757</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>41.00097750810959</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5.842947062398353</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.6295395629868142</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.00237</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.3688529850866302</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.6328126993962628</v>
       </c>
       <c r="R12">
+        <v>0.01318412329282688</v>
+      </c>
+      <c r="S12">
         <v>0.4086064935604347</v>
       </c>
+      <c r="T12">
+        <v>1.000560405696093</v>
+      </c>
       <c r="U12">
+        <v>1.000654651275984</v>
+      </c>
+      <c r="V12">
         <v>46.84392457050794</v>
       </c>
-      <c r="V12" t="s">
-        <v>120</v>
-      </c>
       <c r="W12" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="X12" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="Y12" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z12">
+        <v>188</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA12">
         <v>28</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>45</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>3</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>50</v>
       </c>
-      <c r="AE12" t="s">
-        <v>190</v>
-      </c>
       <c r="AF12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG12">
+        <v>191</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH12">
         <v>52619</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>1.000622695074863</v>
       </c>
       <c r="D13">
+        <v>4.625567868777742E-05</v>
+      </c>
+      <c r="E13">
         <v>330.2719756140527</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1453.77298534407</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1123.501009730017</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>19064.19302681013</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1465.313029441058</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>34.8663499243268</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5.799273393775209</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.6357654587551176</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.00219</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.3548555897536392</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.6377478673319252</v>
       </c>
       <c r="R13">
+        <v>0.0151191678090435</v>
+      </c>
+      <c r="S13">
         <v>0.4171697508791918</v>
       </c>
+      <c r="T13">
+        <v>1.000570256358439</v>
+      </c>
       <c r="U13">
+        <v>1.000675139288078</v>
+      </c>
+      <c r="V13">
         <v>40.66562331810201</v>
       </c>
-      <c r="V13" t="s">
-        <v>121</v>
-      </c>
       <c r="W13" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="X13" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z13">
+        <v>188</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA13">
         <v>28</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>45</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>3</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>50</v>
       </c>
-      <c r="AE13" t="s">
-        <v>190</v>
-      </c>
       <c r="AF13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG13">
+        <v>191</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH13">
         <v>53185</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1.000578883639496</v>
       </c>
       <c r="D14">
+        <v>4.515788577739603E-05</v>
+      </c>
+      <c r="E14">
         <v>330.2864369319454</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1453.781043914828</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1123.494606982882</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>18754.56841989799</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1478.9546057996</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>35.58847480189396</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.975749233704562</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.6314793993166226</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.00233</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.3678898737822783</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.6331075653269057</v>
       </c>
       <c r="R14">
+        <v>0.0147319188995353</v>
+      </c>
+      <c r="S14">
         <v>0.4670027153594544</v>
       </c>
+      <c r="T14">
+        <v>1.000527198459579</v>
+      </c>
       <c r="U14">
+        <v>1.000630574159589</v>
+      </c>
+      <c r="V14">
         <v>41.56422403559852</v>
       </c>
-      <c r="V14" t="s">
-        <v>122</v>
-      </c>
       <c r="W14" t="s">
+        <v>123</v>
+      </c>
+      <c r="X14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA14">
+        <v>28</v>
+      </c>
+      <c r="AC14">
         <v>45</v>
       </c>
-      <c r="X14" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z14">
-        <v>28</v>
-      </c>
-      <c r="AB14">
-        <v>45</v>
-      </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>50</v>
       </c>
-      <c r="AE14" t="s">
-        <v>190</v>
-      </c>
       <c r="AF14" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG14">
+        <v>191</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH14">
         <v>53608</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1341</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>1.000579605533969</v>
       </c>
       <c r="D15">
+        <v>4.686267359653344E-05</v>
+      </c>
+      <c r="E15">
         <v>330.2861986381085</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1453.781491276092</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1123.495292637984</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>18682.13175031697</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1417.78302358399</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>34.85916704345554</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5.814536244971977</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.634751548678412</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.00227</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.355494977516044</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.6426272198763863</v>
       </c>
       <c r="R15">
+        <v>0.01531073165415516</v>
+      </c>
+      <c r="S15">
         <v>0.4323752599105635</v>
       </c>
+      <c r="T15">
+        <v>1.000526348736311</v>
+      </c>
       <c r="U15">
+        <v>1.000632868001518</v>
+      </c>
+      <c r="V15">
         <v>40.67370328842752</v>
       </c>
-      <c r="V15" t="s">
-        <v>123</v>
-      </c>
       <c r="W15" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="X15" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="Y15" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z15">
+        <v>188</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA15">
         <v>28</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>45</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>50</v>
       </c>
-      <c r="AE15" t="s">
-        <v>190</v>
-      </c>
       <c r="AF15" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG15">
+        <v>191</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH15">
         <v>54030</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1341</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>1.000550682424198</v>
       </c>
       <c r="D16">
+        <v>4.599902712611106E-05</v>
+      </c>
+      <c r="E16">
         <v>330.2957462843667</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1453.783114557202</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1123.487368272836</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>18883.54176647641</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1430.772071384606</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>36.92712445336085</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6.849669107434909</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.6287939058028084</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.00229</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.3672059973115422</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.6414984682405016</v>
       </c>
       <c r="R16">
+        <v>0.01501971198474136</v>
+      </c>
+      <c r="S16">
         <v>0.4280353537429618</v>
       </c>
+      <c r="T16">
+        <v>1.000498249606832</v>
+      </c>
       <c r="U16">
+        <v>1.000603120737515</v>
+      </c>
+      <c r="V16">
         <v>43.77679356079575</v>
       </c>
-      <c r="V16" t="s">
-        <v>124</v>
-      </c>
       <c r="W16" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z16">
+        <v>188</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA16">
         <v>28</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>45</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>3</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>50</v>
       </c>
-      <c r="AE16" t="s">
-        <v>190</v>
-      </c>
       <c r="AF16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG16">
+        <v>191</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH16">
         <v>54457</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1341</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>1.000553283093372</v>
       </c>
       <c r="D17">
+        <v>4.473343086093496E-05</v>
+      </c>
+      <c r="E17">
         <v>330.2948877694027</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1453.786988780605</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1123.492101011203</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>18861.890270855</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1439.148183082616</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>36.59236935751514</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.801498430709932</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.6301460991811347</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.00235</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.3616002525990838</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.6362395586443033</v>
       </c>
       <c r="R17">
+        <v>0.01458714263438733</v>
+      </c>
+      <c r="S17">
         <v>0.4640049655262382</v>
       </c>
+      <c r="T17">
+        <v>1.000501978500588</v>
+      </c>
       <c r="U17">
+        <v>1.000604592948108</v>
+      </c>
+      <c r="V17">
         <v>42.39386778822507</v>
       </c>
-      <c r="V17" t="s">
-        <v>125</v>
-      </c>
       <c r="W17" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z17">
+        <v>188</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA17">
         <v>28</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>45</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>50</v>
       </c>
-      <c r="AE17" t="s">
-        <v>190</v>
-      </c>
       <c r="AF17" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG17">
+        <v>191</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH17">
         <v>54880</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1341</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>1.000600455135269</v>
       </c>
       <c r="D18">
+        <v>4.02444823355435E-05</v>
+      </c>
+      <c r="E18">
         <v>330.2793164350064</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1453.783750121312</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1123.504433686306</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>18630.31784174176</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1561.271515561726</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>36.88248394370196</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5.874930571124194</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.6334540094920085</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.00236</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.3598008088577627</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.6256083023646235</v>
       </c>
       <c r="R18">
+        <v>0.01308073164512699</v>
+      </c>
+      <c r="S18">
         <v>0.4379905794278938</v>
       </c>
+      <c r="T18">
+        <v>1.000553678724876</v>
+      </c>
       <c r="U18">
+        <v>1.000647235919509</v>
+      </c>
+      <c r="V18">
         <v>42.75741451482615</v>
       </c>
-      <c r="V18" t="s">
-        <v>126</v>
-      </c>
       <c r="W18" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z18">
+        <v>188</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA18">
         <v>28</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>45</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>20</v>
       </c>
-      <c r="AE18" t="s">
-        <v>190</v>
-      </c>
       <c r="AF18" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG18">
+        <v>191</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH18">
         <v>55399</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1341</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>1.000616933535833</v>
       </c>
       <c r="D19">
+        <v>4.184126984725764E-05</v>
+      </c>
+      <c r="E19">
         <v>330.2738773157071</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1453.781309053711</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1123.507431738004</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>18572.52283091092</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1606.74063641129</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>36.95477936378487</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6.093330302612847</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.6302961725459989</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.00237</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.3662549578368767</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.6362905113303531</v>
       </c>
       <c r="R19">
+        <v>0.01361433173152578</v>
+      </c>
+      <c r="S19">
         <v>0.4009470849837153</v>
       </c>
+      <c r="T19">
+        <v>1.000568508819065</v>
+      </c>
       <c r="U19">
+        <v>1.00066536294007</v>
+      </c>
+      <c r="V19">
         <v>43.04810966639771</v>
       </c>
-      <c r="V19" t="s">
-        <v>127</v>
-      </c>
       <c r="W19" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA19">
+        <v>28</v>
+      </c>
+      <c r="AC19">
+        <v>45</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
         <v>50</v>
       </c>
-      <c r="X19" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z19">
-        <v>28</v>
-      </c>
-      <c r="AB19">
-        <v>45</v>
-      </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19">
-        <v>50</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>190</v>
-      </c>
       <c r="AF19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG19">
+        <v>191</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH19">
         <v>55893</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1341</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20">
-        <v>1.000574237251304</v>
+        <v>1.000574237251321</v>
       </c>
       <c r="D20">
-        <v>330.2879706902049</v>
+        <v>4.381693710333002E-05</v>
       </c>
       <c r="E20">
+        <v>330.2879706901992</v>
+      </c>
+      <c r="F20">
         <v>1453.776775249913</v>
       </c>
-      <c r="F20">
-        <v>1123.488804559708</v>
-      </c>
       <c r="G20">
+        <v>1123.488804559714</v>
+      </c>
+      <c r="H20">
         <v>18452.45806535664</v>
       </c>
-      <c r="H20">
-        <v>1590.006865509326</v>
-      </c>
       <c r="I20">
+        <v>1590.006865509405</v>
+      </c>
+      <c r="J20">
         <v>36.43537707240161</v>
       </c>
-      <c r="J20">
-        <v>6.733930749709891</v>
-      </c>
       <c r="K20">
+        <v>6.733930956327795</v>
+      </c>
+      <c r="L20">
         <v>0.6332241590152121</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.00234</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.3644046485005814</v>
       </c>
-      <c r="O20">
-        <v>0.6498540249779609</v>
+      <c r="P20">
+        <v>0.6498540249811954</v>
       </c>
       <c r="R20">
-        <v>0.444537570017882</v>
+        <v>0.01428177798215213</v>
+      </c>
+      <c r="S20">
+        <v>0.4445375700106274</v>
+      </c>
+      <c r="T20">
+        <v>1.000523885778149</v>
       </c>
       <c r="U20">
-        <v>43.1693078221115</v>
-      </c>
-      <c r="V20" t="s">
-        <v>128</v>
+        <v>1.000624593792635</v>
+      </c>
+      <c r="V20">
+        <v>43.1693080287294</v>
       </c>
       <c r="W20" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="X20" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="Y20" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z20">
+        <v>188</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA20">
         <v>28</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>45</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>3</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>5</v>
       </c>
-      <c r="AE20" t="s">
-        <v>190</v>
-      </c>
       <c r="AF20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG20">
+        <v>191</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH20">
         <v>56368</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1341</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>1.000607040654392</v>
       </c>
       <c r="D21">
+        <v>3.849984551034345E-05</v>
+      </c>
+      <c r="E21">
         <v>330.2771426938014</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1453.737751077344</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1123.460608383542</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>18697.03725669025</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1655.927757561647</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>37.54919853322808</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>6.938141680958684</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.6357059812005992</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.00244</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.3635559409133602</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.6380179361303125</v>
       </c>
       <c r="R21">
+        <v>0.0124793175203074</v>
+      </c>
+      <c r="S21">
         <v>0.4341784375716264</v>
       </c>
+      <c r="T21">
+        <v>1.000561843158389</v>
+      </c>
       <c r="U21">
+        <v>1.000652242233912</v>
+      </c>
+      <c r="V21">
         <v>44.48734021418677</v>
       </c>
-      <c r="V21" t="s">
-        <v>129</v>
-      </c>
       <c r="W21" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="X21" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="Y21" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z21">
+        <v>188</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA21">
         <v>28</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>45</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>3</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>5</v>
       </c>
-      <c r="AE21" t="s">
-        <v>191</v>
-      </c>
       <c r="AF21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG21">
+        <v>192</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH21">
         <v>64406</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1341</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22">
-        <v>1.000606775363115</v>
+        <v>1.000606775363118</v>
       </c>
       <c r="D22">
-        <v>330.277230260313</v>
+        <v>3.870348560717337E-05</v>
       </c>
       <c r="E22">
+        <v>330.2772302603121</v>
+      </c>
+      <c r="F22">
         <v>1453.739376452451</v>
       </c>
-      <c r="F22">
-        <v>1123.462146192138</v>
-      </c>
       <c r="G22">
+        <v>1123.462146192139</v>
+      </c>
+      <c r="H22">
         <v>18288.4578986557</v>
       </c>
-      <c r="H22">
-        <v>1676.114771708859</v>
-      </c>
       <c r="I22">
+        <v>1676.114771708771</v>
+      </c>
+      <c r="J22">
         <v>37.93855439006794</v>
       </c>
-      <c r="J22">
-        <v>6.329138317098984</v>
-      </c>
       <c r="K22">
+        <v>6.329138418976303</v>
+      </c>
+      <c r="L22">
         <v>0.637840463914244</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.00254</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.3750931110396944</v>
       </c>
-      <c r="O22">
-        <v>0.6427764561854954</v>
+      <c r="P22">
+        <v>0.6427764561864178</v>
       </c>
       <c r="R22">
-        <v>0.43291444356857</v>
+        <v>0.01252798554453312</v>
+      </c>
+      <c r="S22">
+        <v>0.4329144435680581</v>
+      </c>
+      <c r="T22">
+        <v>1.000561127527831</v>
       </c>
       <c r="U22">
-        <v>44.26769270716692</v>
-      </c>
-      <c r="V22" t="s">
-        <v>130</v>
+        <v>1.000652427363707</v>
+      </c>
+      <c r="V22">
+        <v>44.26769280904423</v>
       </c>
       <c r="W22" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="X22" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="Y22" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z22">
+        <v>188</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA22">
         <v>28</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>45</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>5</v>
       </c>
-      <c r="AE22" t="s">
-        <v>191</v>
-      </c>
       <c r="AF22" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG22">
+        <v>192</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH22">
         <v>65221</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>1.00059769411025</v>
       </c>
       <c r="D23">
+        <v>3.841158524410083E-05</v>
+      </c>
+      <c r="E23">
         <v>330.280227799745</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1453.738655311241</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1123.458427511496</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>18569.11372741521</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1645.96847033365</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>36.50159303113163</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>6.763121768372697</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.6390365795559847</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.00239</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.3621409941720277</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.6386204884338023</v>
       </c>
       <c r="R23">
+        <v>0.01245942987737919</v>
+      </c>
+      <c r="S23">
         <v>0.4079083009059631</v>
       </c>
+      <c r="T23">
+        <v>1.000552709167032</v>
+      </c>
       <c r="U23">
+        <v>1.000642683098704</v>
+      </c>
+      <c r="V23">
         <v>43.26471479950433</v>
       </c>
-      <c r="V23" t="s">
-        <v>131</v>
-      </c>
       <c r="W23" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="X23" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="Y23" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z23">
+        <v>188</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA23">
         <v>28</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>45</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>3</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>5</v>
       </c>
-      <c r="AE23" t="s">
-        <v>191</v>
-      </c>
       <c r="AF23" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG23">
+        <v>192</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH23">
         <v>65654</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1341</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>1.000601838152162</v>
       </c>
       <c r="D24">
+        <v>3.818774751658554E-05</v>
+      </c>
+      <c r="E24">
         <v>330.2788599278756</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1453.74055364483</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1123.461693716954</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>18495.43444014256</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1626.824272453415</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>34.44428962365505</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>5.432676595435685</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.6403016167630344</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.00226</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.3561849186743389</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.6523089936179688</v>
       </c>
       <c r="R24">
+        <v>0.01240847383328765</v>
+      </c>
+      <c r="S24">
         <v>0.3812858289325268</v>
       </c>
+      <c r="T24">
+        <v>1.00055740100575</v>
+      </c>
       <c r="U24">
+        <v>1.000646279245869</v>
+      </c>
+      <c r="V24">
         <v>39.87696621909073</v>
       </c>
-      <c r="V24" t="s">
-        <v>132</v>
-      </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="X24" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="Y24" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z24">
+        <v>188</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA24">
         <v>28</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>45</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>3</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>5</v>
       </c>
-      <c r="AE24" t="s">
-        <v>191</v>
-      </c>
       <c r="AF24" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG24">
+        <v>192</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH24">
         <v>65926</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1341</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>1.000598589735188</v>
       </c>
       <c r="D25">
+        <v>3.672248036440203E-05</v>
+      </c>
+      <c r="E25">
         <v>330.2799321694977</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1453.738660375142</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1123.458728205645</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>18684.96721982694</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1644.341661821466</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>36.4458402904729</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>6.507645624722236</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.6411997668670195</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.0024</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.3563308500266914</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.6362990926119951</v>
       </c>
       <c r="R25">
+        <v>0.01188887391770019</v>
+      </c>
+      <c r="S25">
         <v>0.3992369639239288</v>
       </c>
+      <c r="T25">
+        <v>1.000555302792274</v>
+      </c>
       <c r="U25">
+        <v>1.000641880423703</v>
+      </c>
+      <c r="V25">
         <v>42.95348591519514</v>
       </c>
-      <c r="V25" t="s">
-        <v>133</v>
-      </c>
       <c r="W25" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="X25" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="Y25" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z25">
+        <v>188</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA25">
         <v>28</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>45</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>3</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>5</v>
       </c>
-      <c r="AE25" t="s">
-        <v>191</v>
-      </c>
       <c r="AF25" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG25">
+        <v>192</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH25">
         <v>66231</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1341</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>1.000612518709985</v>
       </c>
       <c r="D26">
+        <v>3.876492047007156E-05</v>
+      </c>
+      <c r="E26">
         <v>330.2753345247897</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1453.737002665865</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1123.461668141075</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>18494.64023558751</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1659.576854338921</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>35.44108897876153</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5.520034878472609</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.6427367519309548</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.00238</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.3553570757813345</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.6375499468743911</v>
       </c>
       <c r="R26">
+        <v>0.01257994017233476</v>
+      </c>
+      <c r="S26">
         <v>0.4247203758486391</v>
       </c>
+      <c r="T26">
+        <v>1.000567197658576</v>
+      </c>
       <c r="U26">
+        <v>1.000657843867248</v>
+      </c>
+      <c r="V26">
         <v>40.96112385723414</v>
       </c>
-      <c r="V26" t="s">
-        <v>134</v>
-      </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="X26" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="Y26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z26">
+        <v>188</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA26">
         <v>28</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>45</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>3</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>5</v>
       </c>
-      <c r="AE26" t="s">
-        <v>191</v>
-      </c>
       <c r="AF26" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG26">
+        <v>192</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH26">
         <v>66493</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1341</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>1.000580642273891</v>
       </c>
       <c r="D27">
+        <v>3.787479712685662E-05</v>
+      </c>
+      <c r="E27">
         <v>330.2858564159296</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1453.740852733197</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1123.454996317267</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>19150.70755828894</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1688.27946844088</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>39.06551646561981</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>7.003441885103483</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.6360338846624757</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.0025</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.3716736265245996</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.6360843777595044</v>
       </c>
       <c r="R27">
+        <v>0.01225715446492328</v>
+      </c>
+      <c r="S27">
         <v>0.4371598485804483</v>
       </c>
+      <c r="T27">
+        <v>1.000535938381478</v>
+      </c>
       <c r="U27">
+        <v>1.000625350161217</v>
+      </c>
+      <c r="V27">
         <v>46.06895835072329</v>
       </c>
-      <c r="V27" t="s">
-        <v>135</v>
-      </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="X27" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="Y27" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z27">
+        <v>188</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA27">
         <v>28</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>45</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>5</v>
       </c>
-      <c r="AE27" t="s">
-        <v>191</v>
-      </c>
       <c r="AF27" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG27">
+        <v>192</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH27">
         <v>66757</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1341</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1.000577987099574</v>
       </c>
       <c r="D28">
+        <v>3.813606466107583E-05</v>
+      </c>
+      <c r="E28">
         <v>330.2867328758703</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1453.745460312327</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1123.458727436457</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>20158.79582956551</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1675.417928025262</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>39.05499754576571</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5.65291390121368</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.6403938239897768</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.00238</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.3518248736883751</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.6498851813528399</v>
       </c>
       <c r="R28">
+        <v>0.01236894052127297</v>
+      </c>
+      <c r="S28">
         <v>0.4013541263439241</v>
       </c>
+      <c r="T28">
+        <v>1.000533308325693</v>
+      </c>
       <c r="U28">
+        <v>1.00062266986389</v>
+      </c>
+      <c r="V28">
         <v>44.70791144697939</v>
       </c>
-      <c r="V28" t="s">
-        <v>136</v>
-      </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="X28" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="Y28" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z28">
+        <v>188</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA28">
         <v>28</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>45</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>3</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>5</v>
       </c>
-      <c r="AE28" t="s">
-        <v>191</v>
-      </c>
       <c r="AF28" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG28">
+        <v>192</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH28">
         <v>67002</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>1.000553526387691</v>
       </c>
       <c r="D29">
+        <v>3.869470145986096E-05</v>
+      </c>
+      <c r="E29">
         <v>330.2948074549893</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1453.742003208994</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1123.447195754005</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>19418.47946489387</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1690.207476775814</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>38.27660554893176</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>8.366728141147465</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.6387028822592721</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.00242</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.3641976809915136</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.6381549373232785</v>
       </c>
       <c r="R29">
+        <v>0.01254945591098535</v>
+      </c>
+      <c r="S29">
         <v>0.3843217995375158</v>
       </c>
+      <c r="T29">
+        <v>1.000508181856748</v>
+      </c>
       <c r="U29">
+        <v>1.000598875028984</v>
+      </c>
+      <c r="V29">
         <v>46.64333369007923</v>
       </c>
-      <c r="V29" t="s">
-        <v>137</v>
-      </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="X29" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="Y29" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z29">
+        <v>188</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA29">
         <v>28</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>45</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>5</v>
       </c>
-      <c r="AE29" t="s">
-        <v>191</v>
-      </c>
       <c r="AF29" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG29">
+        <v>192</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH29">
         <v>67408</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1341</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>1.000620783254166</v>
       </c>
       <c r="D30">
+        <v>3.887318600801247E-05</v>
+      </c>
+      <c r="E30">
         <v>330.2726066431192</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1453.743555866633</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1123.470949223514</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>20886.27296455997</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1688.320889744955</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>40.87739861590635</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5.45901171812786</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.6367834472700225</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.00239</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.3570300399637824</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.6525002791793878</v>
       </c>
       <c r="R30">
+        <v>0.01261433162365712</v>
+      </c>
+      <c r="S30">
         <v>0.3842658505368337</v>
       </c>
+      <c r="T30">
+        <v>1.000575326974358</v>
+      </c>
       <c r="U30">
+        <v>1.000666243664332</v>
+      </c>
+      <c r="V30">
         <v>46.33641033403421</v>
       </c>
-      <c r="V30" t="s">
-        <v>138</v>
-      </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="X30" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="Y30" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z30">
+        <v>188</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA30">
         <v>28</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>45</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>3</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>5</v>
       </c>
-      <c r="AE30" t="s">
-        <v>191</v>
-      </c>
       <c r="AF30" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG30">
+        <v>192</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH30">
         <v>67731</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>1.000600231759989</v>
       </c>
       <c r="D31">
+        <v>3.774583330468268E-05</v>
+      </c>
+      <c r="E31">
         <v>330.2793901669847</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1453.737759924552</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1123.458369757567</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>18991.16727230959</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1761.005390265469</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>39.59707107118543</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>7.121962997195151</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.6415147877493346</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.00261</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.3643138331213224</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.6399983362648376</v>
       </c>
       <c r="R31">
+        <v>0.01219039707989885</v>
+      </c>
+      <c r="S31">
         <v>0.4233704740397731</v>
       </c>
+      <c r="T31">
+        <v>1.00055539512292</v>
+      </c>
       <c r="U31">
+        <v>1.000645072415654</v>
+      </c>
+      <c r="V31">
         <v>46.71903406838058</v>
       </c>
-      <c r="V31" t="s">
-        <v>139</v>
-      </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="X31" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="Y31" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z31">
+        <v>188</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA31">
         <v>28</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>45</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>5</v>
       </c>
-      <c r="AE31" t="s">
-        <v>191</v>
-      </c>
       <c r="AF31" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG31">
+        <v>192</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH31">
         <v>68094</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1341</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>1.000587759334412</v>
       </c>
       <c r="D32">
+        <v>3.867144216195783E-05</v>
+      </c>
+      <c r="E32">
         <v>330.2835071323136</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1453.738431095425</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1123.454923963111</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>18879.44620141648</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1729.327813079636</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>38.74808120400586</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5.926050217536895</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.6381727531285721</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.00256</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.368546921360829</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.6457776349802232</v>
       </c>
       <c r="R32">
+        <v>0.01251335951615145</v>
+      </c>
+      <c r="S32">
         <v>0.3865663132247495</v>
       </c>
+      <c r="T32">
+        <v>1.000542096955235</v>
+      </c>
       <c r="U32">
+        <v>1.000633425881624</v>
+      </c>
+      <c r="V32">
         <v>44.67413142154276</v>
       </c>
-      <c r="V32" t="s">
-        <v>140</v>
-      </c>
       <c r="W32" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="X32" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="Y32" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z32">
+        <v>188</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA32">
         <v>28</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>45</v>
-      </c>
-      <c r="AC32">
-        <v>5</v>
       </c>
       <c r="AD32">
         <v>5</v>
       </c>
-      <c r="AE32" t="s">
-        <v>192</v>
+      <c r="AE32">
+        <v>5</v>
       </c>
       <c r="AF32" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG32">
+        <v>193</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH32">
         <v>68485</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>1341</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33">
-        <v>1.000622898132533</v>
+        <v>1.000622898132534</v>
       </c>
       <c r="D33">
-        <v>330.271908591543</v>
+        <v>3.749622591049962E-05</v>
       </c>
       <c r="E33">
+        <v>330.2719085915426</v>
+      </c>
+      <c r="F33">
         <v>1453.741318483864</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1123.469409892321</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>18223.89016656084</v>
       </c>
-      <c r="H33">
-        <v>1709.479314919599</v>
-      </c>
       <c r="I33">
+        <v>1709.479314919216</v>
+      </c>
+      <c r="J33">
         <v>35.54794028249336</v>
       </c>
-      <c r="J33">
-        <v>6.202086845440954</v>
-      </c>
       <c r="K33">
+        <v>6.20208688247518</v>
+      </c>
+      <c r="L33">
         <v>0.6404384939857739</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.00243</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.3693562536281824</v>
       </c>
-      <c r="O33">
-        <v>0.6379747131046951</v>
+      <c r="P33">
+        <v>0.6379747131051205</v>
       </c>
       <c r="R33">
-        <v>0.3818490370939867</v>
+        <v>0.0121432005662068</v>
+      </c>
+      <c r="S33">
+        <v>0.381849037093183</v>
+      </c>
+      <c r="T33">
+        <v>1.000578747738893</v>
       </c>
       <c r="U33">
-        <v>41.75002712793432</v>
-      </c>
-      <c r="V33" t="s">
-        <v>141</v>
+        <v>1.000667052422608</v>
+      </c>
+      <c r="V33">
+        <v>41.75002716496854</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="X33" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="Y33" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z33">
+        <v>188</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA33">
         <v>28</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>45</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>3</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>5</v>
       </c>
-      <c r="AE33" t="s">
-        <v>191</v>
-      </c>
       <c r="AF33" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG33">
+        <v>192</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH33">
         <v>68930</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>1341</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>1.000586331136629</v>
       </c>
       <c r="D34">
+        <v>0.0001902299938573812</v>
+      </c>
+      <c r="E34">
         <v>330.2839785660699</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1453.739610963403</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1123.455632397333</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>18629.21457128956</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1791.751395081831</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>37.22954252940948</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>6.610897733955648</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.6405641652296064</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.00246</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.3667634685414392</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.6335509555946204</v>
       </c>
       <c r="R34">
+        <v>0.06278174215816655</v>
+      </c>
+      <c r="S34">
         <v>0.4882136161648991</v>
       </c>
+      <c r="T34">
+        <v>1.000388722087145</v>
+      </c>
       <c r="U34">
+        <v>1.000784018269863</v>
+      </c>
+      <c r="V34">
         <v>43.84044026336512</v>
       </c>
-      <c r="V34" t="s">
-        <v>142</v>
-      </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="X34" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="Y34" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z34">
+        <v>188</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA34">
         <v>28</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>45</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>3</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>5</v>
       </c>
-      <c r="AE34" t="s">
-        <v>191</v>
-      </c>
       <c r="AF34" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG34">
+        <v>192</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH34">
         <v>69321</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>1.000604526831763</v>
       </c>
       <c r="D35">
+        <v>3.880448500942663E-05</v>
+      </c>
+      <c r="E35">
         <v>330.2779724503462</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1453.738566802627</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1123.460594352281</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>18669.5109994057</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1742.35307499269</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>36.89038758355906</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5.837943644131929</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.6386673380392965</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.00246</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.3720122781410652</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.6501542482452853</v>
       </c>
       <c r="R35">
+        <v>0.01257796050057991</v>
+      </c>
+      <c r="S35">
         <v>0.3817423630512432</v>
       </c>
+      <c r="T35">
+        <v>1.0005589701567</v>
+      </c>
       <c r="U35">
+        <v>1.000650087655518</v>
+      </c>
+      <c r="V35">
         <v>42.72833122769099</v>
       </c>
-      <c r="V35" t="s">
-        <v>143</v>
-      </c>
       <c r="W35" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="X35" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="Y35" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z35">
+        <v>188</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA35">
         <v>28</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>45</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>3</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>5</v>
       </c>
-      <c r="AE35" t="s">
-        <v>191</v>
-      </c>
       <c r="AF35" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG35">
+        <v>192</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH35">
         <v>69709</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>1341</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>1.000614750187799</v>
       </c>
       <c r="D36">
+        <v>3.806098157560064E-05</v>
+      </c>
+      <c r="E36">
         <v>330.2745979755023</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1453.739434934259</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1123.464836958757</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>18166.78481324779</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1725.208943902438</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>36.38564905814776</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>7.590029098778303</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.6406170877682359</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.00251</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.3695185148637786</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.6370513586637995</v>
       </c>
       <c r="R36">
+        <v>0.01231743746062123</v>
+      </c>
+      <c r="S36">
         <v>0.3783330986567621</v>
       </c>
+      <c r="T36">
+        <v>1.000569830334213</v>
+      </c>
       <c r="U36">
+        <v>1.000659674074854</v>
+      </c>
+      <c r="V36">
         <v>43.97567815692607</v>
       </c>
-      <c r="V36" t="s">
-        <v>144</v>
-      </c>
       <c r="W36" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="X36" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="Y36" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z36">
+        <v>188</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA36">
         <v>28</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>45</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>3</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>5</v>
       </c>
-      <c r="AE36" t="s">
-        <v>191</v>
-      </c>
       <c r="AF36" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG36">
+        <v>192</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH36">
         <v>70265</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>1341</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>1.000613774516686</v>
       </c>
       <c r="D37">
+        <v>3.872497867181677E-05</v>
+      </c>
+      <c r="E37">
         <v>330.2749200172257</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1453.735503663647</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1123.460583646421</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>18668.96709220705</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1762.52590587909</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>36.66129802958607</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>7.517519862393606</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.6397995213215659</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.00245</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.3651629688395734</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.6498657198172846</v>
       </c>
       <c r="R37">
+        <v>0.012553038142429</v>
+      </c>
+      <c r="S37">
         <v>0.3819739891342522</v>
       </c>
+      <c r="T37">
+        <v>1.000568322792074</v>
+      </c>
       <c r="U37">
+        <v>1.000659230370858</v>
+      </c>
+      <c r="V37">
         <v>44.17881789197968</v>
       </c>
-      <c r="V37" t="s">
-        <v>145</v>
-      </c>
       <c r="W37" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="X37" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="Y37" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z37">
+        <v>188</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA37">
         <v>28</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>45</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>3</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>5</v>
       </c>
-      <c r="AE37" t="s">
-        <v>191</v>
-      </c>
       <c r="AF37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG37">
+        <v>192</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH37">
         <v>70624</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>1.000601675528218</v>
       </c>
       <c r="D38">
+        <v>3.884026408437823E-05</v>
+      </c>
+      <c r="E38">
         <v>330.2789136068293</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1453.736690315707</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1123.457776708878</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>18351.16113822603</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1737.442919491469</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>35.79990636286319</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>6.306361715390951</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.6397071554299217</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.00245</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.3683431531128237</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.6420005317663617</v>
       </c>
       <c r="R38">
+        <v>0.0125919882676436</v>
+      </c>
+      <c r="S38">
         <v>0.3998996338981389</v>
       </c>
+      <c r="T38">
+        <v>1.000556106911509</v>
+      </c>
       <c r="U38">
+        <v>1.000647248295805</v>
+      </c>
+      <c r="V38">
         <v>42.10626807825414</v>
       </c>
-      <c r="V38" t="s">
-        <v>146</v>
-      </c>
       <c r="W38" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="X38" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="Y38" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z38">
+        <v>188</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA38">
         <v>28</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>45</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>3</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>5</v>
       </c>
-      <c r="AE38" t="s">
-        <v>191</v>
-      </c>
       <c r="AF38" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG38">
+        <v>192</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH38">
         <v>71051</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>1.000628782450043</v>
       </c>
       <c r="D39">
+        <v>3.75120395570204E-05</v>
+      </c>
+      <c r="E39">
         <v>330.2699663879919</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1453.734652880961</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1123.464686492969</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>19193.81903365053</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1752.190236183771</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>39.37458516897522</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>6.174269736792017</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.6391467845022261</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.00252</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.3589793334763816</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.6551581366360978</v>
       </c>
       <c r="R39">
+        <v>0.01213010304537327</v>
+      </c>
+      <c r="S39">
         <v>0.3583889862405794</v>
       </c>
+      <c r="T39">
+        <v>1.000584398564021</v>
+      </c>
       <c r="U39">
+        <v>1.000673170273797</v>
+      </c>
+      <c r="V39">
         <v>45.54885490576724</v>
       </c>
-      <c r="V39" t="s">
-        <v>147</v>
-      </c>
       <c r="W39" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="X39" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="Y39" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z39">
+        <v>188</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA39">
         <v>28</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>45</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>3</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>5</v>
       </c>
-      <c r="AE39" t="s">
-        <v>191</v>
-      </c>
       <c r="AF39" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG39">
+        <v>192</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH39">
         <v>71742</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>1341</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>1.000595763311083</v>
       </c>
       <c r="D40">
+        <v>3.865065966970413E-05</v>
+      </c>
+      <c r="E40">
         <v>330.2808651248388</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1453.734162914858</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1123.453297790019</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>18659.54430584113</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>1728.859831621087</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>38.0836563256559</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>6.585402647405123</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.6399511796260626</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.00258</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>0.3746365721204789</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0.6376817273128768</v>
       </c>
       <c r="R40">
+        <v>0.01250213829785355</v>
+      </c>
+      <c r="S40">
         <v>0.3944194242810862</v>
       </c>
+      <c r="T40">
+        <v>1.000550073608234</v>
+      </c>
       <c r="U40">
+        <v>1.000641457186924</v>
+      </c>
+      <c r="V40">
         <v>44.66905897306103</v>
       </c>
-      <c r="V40" t="s">
-        <v>148</v>
-      </c>
       <c r="W40" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="X40" t="s">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z40">
+        <v>188</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA40">
         <v>28</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>45</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>3</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>5</v>
       </c>
-      <c r="AE40" t="s">
-        <v>191</v>
-      </c>
       <c r="AF40" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG40">
+        <v>192</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH40">
         <v>72204</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>1341</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41">
-        <v>1.000607316974349</v>
+        <v>1.000607316974352</v>
       </c>
       <c r="D41">
-        <v>330.2770514870269</v>
+        <v>3.857121433422815E-05</v>
       </c>
       <c r="E41">
+        <v>330.2770514870258</v>
+      </c>
+      <c r="F41">
         <v>1453.73596594615</v>
       </c>
-      <c r="F41">
-        <v>1123.458914459123</v>
-      </c>
       <c r="G41">
+        <v>1123.458914459124</v>
+      </c>
+      <c r="H41">
         <v>19389.56047205167</v>
       </c>
-      <c r="H41">
-        <v>1704.16148928589</v>
-      </c>
       <c r="I41">
+        <v>1704.161489285403</v>
+      </c>
+      <c r="J41">
         <v>37.91548109713627</v>
       </c>
-      <c r="J41">
-        <v>7.427239072262806</v>
-      </c>
       <c r="K41">
+        <v>7.42723908058756</v>
+      </c>
+      <c r="L41">
         <v>0.6408093527456575</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.00243</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>0.3519713875931866</v>
       </c>
-      <c r="O41">
-        <v>0.6366873339425492</v>
+      <c r="P41">
+        <v>0.636687333943224</v>
       </c>
       <c r="R41">
-        <v>0.3913465108128311</v>
+        <v>0.01250527824392871</v>
+      </c>
+      <c r="S41">
+        <v>0.391346510811466</v>
+      </c>
+      <c r="T41">
+        <v>1.000562071103151</v>
       </c>
       <c r="U41">
-        <v>45.34272016939908</v>
-      </c>
-      <c r="V41" t="s">
-        <v>149</v>
+        <v>1.000652566937816</v>
+      </c>
+      <c r="V41">
+        <v>45.34272017772383</v>
       </c>
       <c r="W41" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="X41" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z41">
+        <v>188</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA41">
         <v>28</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>45</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>3</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>5</v>
       </c>
-      <c r="AE41" t="s">
-        <v>190</v>
-      </c>
       <c r="AF41" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG41">
+        <v>191</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH41">
         <v>72714</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>1341</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>1.000580326036269</v>
       </c>
       <c r="D42">
+        <v>3.917830316473908E-05</v>
+      </c>
+      <c r="E42">
         <v>330.285960804164</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1453.736825076688</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1123.450864272524</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>19221.65501281684</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1716.758597623363</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>38.34947037911547</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>7.143567637042699</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.6399960758066432</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.00242</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>0.3572159699858616</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0.6419838624610129</v>
       </c>
       <c r="R42">
+        <v>0.01271173968703689</v>
+      </c>
+      <c r="S42">
         <v>0.3827249577711367</v>
       </c>
+      <c r="T42">
+        <v>1.000534487492675</v>
+      </c>
       <c r="U42">
+        <v>1.000626168780155</v>
+      </c>
+      <c r="V42">
         <v>45.49303801615817</v>
       </c>
-      <c r="V42" t="s">
-        <v>150</v>
-      </c>
       <c r="W42" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="X42" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z42">
+        <v>188</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA42">
         <v>28</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>45</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>3</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>5</v>
       </c>
-      <c r="AE42" t="s">
-        <v>190</v>
-      </c>
       <c r="AF42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG42">
+        <v>191</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH42">
         <v>73220</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>1341</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43">
         <v>1.000618957203008</v>
       </c>
       <c r="D43">
+        <v>6.147238656364014E-05</v>
+      </c>
+      <c r="E43">
         <v>330.273209364736</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1453.738300667155</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1123.465091302419</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>19281.19951117962</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1778.341854649045</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>38.58053503206603</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>7.963043549399947</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.6412339733772146</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.00245</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>0.3575411078726527</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.6455650014204997</v>
       </c>
       <c r="R43">
+        <v>0.0201543149856598</v>
+      </c>
+      <c r="S43">
         <v>0.4248557878397851</v>
       </c>
+      <c r="T43">
+        <v>1.000550478266393</v>
+      </c>
       <c r="U43">
+        <v>1.000687445513834</v>
+      </c>
+      <c r="V43">
         <v>46.54357858146598</v>
       </c>
-      <c r="V43" t="s">
-        <v>151</v>
-      </c>
       <c r="W43" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="X43" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z43">
+        <v>188</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA43">
         <v>28</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>45</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>3</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>5</v>
       </c>
-      <c r="AE43" t="s">
-        <v>190</v>
-      </c>
       <c r="AF43" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG43">
+        <v>191</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH43">
         <v>73808</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>1341</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <v>1.000647989832874</v>
       </c>
       <c r="D44">
+        <v>3.768626248966549E-05</v>
+      </c>
+      <c r="E44">
         <v>330.2636268742501</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1453.735055347357</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1123.471428473107</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>19746.04855945813</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1735.471253051439</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>40.2985895530487</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>6.808849416789306</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.6382556779507826</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.00248</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>0.3646777614174019</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>0.6467270232424707</v>
       </c>
       <c r="R44">
+        <v>0.01219682401707532</v>
+      </c>
+      <c r="S44">
         <v>0.3477144187573177</v>
       </c>
+      <c r="T44">
+        <v>1.000603523289703</v>
+      </c>
       <c r="U44">
+        <v>1.000692460328383</v>
+      </c>
+      <c r="V44">
         <v>47.10743896983801</v>
       </c>
-      <c r="V44" t="s">
-        <v>152</v>
-      </c>
       <c r="W44" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="X44" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z44">
+        <v>188</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA44">
         <v>28</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>45</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>3</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>5</v>
       </c>
-      <c r="AE44" t="s">
-        <v>190</v>
-      </c>
       <c r="AF44" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG44">
+        <v>191</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH44">
         <v>74109</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>1341</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <v>1.00061886292755</v>
       </c>
       <c r="D45">
+        <v>3.768166217048924E-05</v>
+      </c>
+      <c r="E45">
         <v>330.2732404821368</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1453.736723989083</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1123.463483506946</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>18510.92191819741</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>1751.163596071226</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>35.18390727373518</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7.791982316040974</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.6379721749975626</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.00237</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>0.3680910636330281</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>0.6332213607458276</v>
       </c>
       <c r="R45">
+        <v>0.01221749626318674</v>
+      </c>
+      <c r="S45">
         <v>0.4377525182584583</v>
       </c>
+      <c r="T45">
+        <v>1.000574669582572</v>
+      </c>
       <c r="U45">
+        <v>1.00066306017656</v>
+      </c>
+      <c r="V45">
         <v>42.97588958977615</v>
       </c>
-      <c r="V45" t="s">
-        <v>153</v>
-      </c>
       <c r="W45" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="X45" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z45">
+        <v>188</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA45">
         <v>28</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>45</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>3</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>5</v>
       </c>
-      <c r="AE45" t="s">
-        <v>190</v>
-      </c>
       <c r="AF45" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG45">
+        <v>191</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH45">
         <v>74464</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>1341</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C46">
         <v>1.000622388425201</v>
       </c>
       <c r="D46">
+        <v>3.699669026075431E-05</v>
+      </c>
+      <c r="E46">
         <v>330.2720768288475</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1453.736720676557</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1123.464643847709</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>18391.15526246814</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1751.619094651786</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>37.014988019882</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>7.1128264478549</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.6401879179588796</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.00254</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>0.3776462457931122</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>0.6324912040907341</v>
       </c>
       <c r="R46">
+        <v>0.01195205919374388</v>
+      </c>
+      <c r="S46">
         <v>0.4045981384599789</v>
       </c>
+      <c r="T46">
+        <v>1.000578483888203</v>
+      </c>
       <c r="U46">
+        <v>1.000666296815356</v>
+      </c>
+      <c r="V46">
         <v>44.1278144677369</v>
       </c>
-      <c r="V46" t="s">
-        <v>154</v>
-      </c>
       <c r="W46" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="X46" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z46">
+        <v>188</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA46">
         <v>28</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>45</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>3</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>5</v>
       </c>
-      <c r="AE46" t="s">
-        <v>190</v>
-      </c>
       <c r="AF46" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG46">
+        <v>191</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH46">
         <v>74756</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>1341</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47">
         <v>1.000589095185319</v>
       </c>
       <c r="D47">
+        <v>3.816489296610713E-05</v>
+      </c>
+      <c r="E47">
         <v>330.2830661825524</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1453.737672636463</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1123.454606453911</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>18401.35361644334</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1749.47954009736</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>38.04140840832999</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>7.512295121323437</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.6398270464091512</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.00258</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>0.3661425967658803</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.6413882868609184</v>
       </c>
       <c r="R47">
+        <v>0.01233835959657545</v>
+      </c>
+      <c r="S47">
         <v>0.4158786869586796</v>
       </c>
+      <c r="T47">
+        <v>1.000543902212219</v>
+      </c>
       <c r="U47">
+        <v>1.000634292241192</v>
+      </c>
+      <c r="V47">
         <v>45.55370352965343</v>
       </c>
-      <c r="V47" t="s">
-        <v>155</v>
-      </c>
       <c r="W47" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="X47" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z47">
+        <v>188</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA47">
         <v>28</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>45</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>3</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>5</v>
       </c>
-      <c r="AE47" t="s">
-        <v>190</v>
-      </c>
       <c r="AF47" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG47">
+        <v>191</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH47">
         <v>75105</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>1341</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>1.000624373351451</v>
       </c>
       <c r="D48">
+        <v>3.924129611164351E-05</v>
+      </c>
+      <c r="E48">
         <v>330.2714216721949</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1453.735501168997</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1123.464079496802</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>18534.23463780005</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1704.530966734032</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>37.84454189870331</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>7.256202480267243</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>0.6374045293727437</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.00255</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>0.3743219936117275</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.6407825405084753</v>
       </c>
       <c r="R48">
+        <v>0.01270693994699741</v>
+      </c>
+      <c r="S48">
         <v>0.3971284776982514</v>
       </c>
+      <c r="T48">
+        <v>1.000578151487348</v>
+      </c>
       <c r="U48">
+        <v>1.000670599486203</v>
+      </c>
+      <c r="V48">
         <v>45.10074437897055</v>
       </c>
-      <c r="V48" t="s">
-        <v>156</v>
-      </c>
       <c r="W48" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="X48" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z48">
+        <v>188</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA48">
         <v>28</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>45</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>3</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>5</v>
       </c>
-      <c r="AE48" t="s">
-        <v>190</v>
-      </c>
       <c r="AF48" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG48">
+        <v>191</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH48">
         <v>75899</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>1341</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>1.000612362079527</v>
       </c>
       <c r="D49">
+        <v>5.026090650290604E-05</v>
+      </c>
+      <c r="E49">
         <v>330.275386224308</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1453.738192521269</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>1123.462806296961</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>18450.91326216561</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1788.478128422216</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>35.71156288418263</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>19.61826860584108</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.6384859277317614</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.00238</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>0.3654071333246512</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.6304782910637878</v>
       </c>
       <c r="R49">
+        <v>0.01642843931125646</v>
+      </c>
+      <c r="S49">
         <v>0.5242954199588331</v>
       </c>
+      <c r="T49">
+        <v>1.000555382704199</v>
+      </c>
       <c r="U49">
+        <v>1.000669347944918</v>
+      </c>
+      <c r="V49">
         <v>55.32983149002371</v>
       </c>
-      <c r="V49" t="s">
-        <v>157</v>
-      </c>
       <c r="W49" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="X49" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z49">
+        <v>188</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA49">
         <v>28</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>45</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>3</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>5</v>
       </c>
-      <c r="AE49" t="s">
-        <v>190</v>
-      </c>
       <c r="AF49" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG49">
+        <v>191</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH49">
         <v>76805</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>1341</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50">
         <v>1.000571654253179</v>
       </c>
       <c r="D50">
+        <v>3.903176756594086E-05</v>
+      </c>
+      <c r="E50">
         <v>330.2888233359954</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1453.736766652681</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1123.447943316685</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>18440.83869787228</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1679.43043883702</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>35.13886241665485</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>6.96468555833691</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>0.643281951314207</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.00243</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>0.3652400023416903</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0.634892287669937</v>
       </c>
       <c r="R50">
+        <v>0.01266066695603233</v>
+      </c>
+      <c r="S50">
         <v>0.4363280519743679</v>
       </c>
+      <c r="T50">
+        <v>1.000525940917793</v>
+      </c>
       <c r="U50">
+        <v>1.000617371765976</v>
+      </c>
+      <c r="V50">
         <v>42.10354797499176</v>
       </c>
-      <c r="V50" t="s">
-        <v>158</v>
-      </c>
       <c r="W50" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="X50" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z50">
+        <v>188</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA50">
         <v>28</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>45</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>3</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>5</v>
       </c>
-      <c r="AE50" t="s">
-        <v>190</v>
-      </c>
       <c r="AF50" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG50">
+        <v>191</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH50">
         <v>77733</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>1341</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51">
-        <v>1.00060763028808</v>
+        <v>1.000607630288074</v>
       </c>
       <c r="D51">
-        <v>330.2769480695313</v>
+        <v>4.043962483331854E-05</v>
       </c>
       <c r="E51">
+        <v>330.2769480695331</v>
+      </c>
+      <c r="F51">
         <v>1453.74150242037</v>
       </c>
-      <c r="F51">
-        <v>1123.464554350839</v>
-      </c>
       <c r="G51">
+        <v>1123.464554350837</v>
+      </c>
+      <c r="H51">
         <v>18825.09064542919</v>
       </c>
-      <c r="H51">
-        <v>1681.891436094214</v>
-      </c>
       <c r="I51">
+        <v>1681.891436096113</v>
+      </c>
+      <c r="J51">
         <v>36.92071235644388</v>
       </c>
-      <c r="J51">
-        <v>6.636563701305763</v>
-      </c>
       <c r="K51">
+        <v>6.636563974878982</v>
+      </c>
+      <c r="L51">
         <v>0.6344538178503035</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.00236</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>0.3640397021229675</v>
       </c>
-      <c r="O51">
-        <v>0.6489681001270322</v>
+      <c r="P51">
+        <v>0.6489681001242138</v>
       </c>
       <c r="R51">
-        <v>0.3972518459639178</v>
+        <v>0.01314612129652446</v>
+      </c>
+      <c r="S51">
+        <v>0.3972518459668008</v>
+      </c>
+      <c r="T51">
+        <v>1.000560655120799</v>
       </c>
       <c r="U51">
-        <v>43.55727605774964</v>
-      </c>
-      <c r="V51" t="s">
-        <v>159</v>
+        <v>1.000654609866417</v>
+      </c>
+      <c r="V51">
+        <v>43.55727633132286</v>
       </c>
       <c r="W51" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="X51" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="Y51" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z51">
+        <v>188</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA51">
         <v>28</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>45</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>3</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>5</v>
       </c>
-      <c r="AE51" t="s">
-        <v>190</v>
-      </c>
       <c r="AF51" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG51">
+        <v>191</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH51">
         <v>78619</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>1341</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <v>1.000594017508879</v>
       </c>
       <c r="D52">
+        <v>3.916000340469184E-05</v>
+      </c>
+      <c r="E52">
         <v>330.2814413875908</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1453.73962146542</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1123.45818007783</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>18737.38474398111</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>1712.680097042388</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>36.28824630726329</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>5.969614573215185</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>0.6386027682282466</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.00234</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>0.3573822851495536</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0.6330541061844395</v>
       </c>
       <c r="R52">
+        <v>0.0127203836844323</v>
+      </c>
+      <c r="S52">
         <v>0.4323614434547793</v>
       </c>
+      <c r="T52">
+        <v>1.00054839386547</v>
+      </c>
       <c r="U52">
+        <v>1.00063964531323</v>
+      </c>
+      <c r="V52">
         <v>42.25786088047847</v>
       </c>
-      <c r="V52" t="s">
-        <v>160</v>
-      </c>
       <c r="W52" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="X52" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="Y52" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z52">
+        <v>188</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA52">
         <v>28</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>45</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>3</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>5</v>
       </c>
-      <c r="AE52" t="s">
-        <v>190</v>
-      </c>
       <c r="AF52" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG52">
+        <v>191</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH52">
         <v>78968</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>1341</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53">
-        <v>1.000592000571749</v>
+        <v>1.000592000571771</v>
       </c>
       <c r="D53">
-        <v>330.2821071503613</v>
+        <v>3.805460389704093E-05</v>
       </c>
       <c r="E53">
+        <v>330.282107150354</v>
+      </c>
+      <c r="F53">
         <v>1453.739009240594</v>
       </c>
-      <c r="F53">
-        <v>1123.456902090233</v>
-      </c>
       <c r="G53">
+        <v>1123.45690209024</v>
+      </c>
+      <c r="H53">
         <v>19165.87035623413</v>
       </c>
-      <c r="H53">
-        <v>1767.184668773922</v>
-      </c>
       <c r="I53">
+        <v>1767.184668773295</v>
+      </c>
+      <c r="J53">
         <v>36.51717288110104</v>
       </c>
-      <c r="J53">
-        <v>7.592643156700337</v>
-      </c>
       <c r="K53">
+        <v>7.592640560832852</v>
+      </c>
+      <c r="L53">
         <v>0.6348869541197053</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.0023</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>0.3573613581270872</v>
       </c>
-      <c r="O53">
-        <v>0.6389816577992368</v>
+      <c r="P53">
+        <v>0.6389816578054949</v>
       </c>
       <c r="R53">
-        <v>0.4335387921242211</v>
+        <v>0.01235652039469247</v>
+      </c>
+      <c r="S53">
+        <v>0.4335387921184329</v>
+      </c>
+      <c r="T53">
+        <v>1.00054760050893</v>
       </c>
       <c r="U53">
-        <v>44.10981603780138</v>
-      </c>
-      <c r="V53" t="s">
-        <v>161</v>
+        <v>1.00063640457536</v>
+      </c>
+      <c r="V53">
+        <v>44.10981344193389</v>
       </c>
       <c r="W53" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="X53" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="Y53" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z53">
+        <v>188</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA53">
         <v>28</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>45</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>3</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>5</v>
       </c>
-      <c r="AE53" t="s">
-        <v>190</v>
-      </c>
       <c r="AF53" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG53">
+        <v>191</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH53">
         <v>79455</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>1341</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>1.000595123064857</v>
       </c>
       <c r="D54">
+        <v>3.887676438376075E-05</v>
+      </c>
+      <c r="E54">
         <v>330.2810764601456</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1453.737860766301</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>1123.456784306156</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>18627.07046887998</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1735.576791201038</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>36.0637931543074</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>7.216208748364441</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>0.6400915747073199</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>0.00238</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>0.3639997786389307</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>0.6449507189857278</v>
       </c>
       <c r="R54">
+        <v>0.01261775995719747</v>
+      </c>
+      <c r="S54">
         <v>0.4002016656414741</v>
       </c>
+      <c r="T54">
+        <v>1.000549689023579</v>
+      </c>
       <c r="U54">
+        <v>1.000640561232558</v>
+      </c>
+      <c r="V54">
         <v>43.28000190267184</v>
       </c>
-      <c r="V54" t="s">
-        <v>162</v>
-      </c>
       <c r="W54" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="X54" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="Y54" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z54">
+        <v>188</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA54">
         <v>28</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>45</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>3</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>5</v>
       </c>
-      <c r="AE54" t="s">
-        <v>190</v>
-      </c>
       <c r="AF54" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG54">
+        <v>191</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH54">
         <v>79792</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>1341</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>1.000596362941311</v>
       </c>
       <c r="D55">
+        <v>3.933637614556299E-05</v>
+      </c>
+      <c r="E55">
         <v>330.2806671964854</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1453.735018933741</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1123.454351737256</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>18234.15764865914</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1715.031626889811</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>33.67625818407361</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>6.120159032025402</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>0.6371673567895952</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.0023</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>0.3661178491836197</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>0.6389331216448368</v>
       </c>
       <c r="R55">
+        <v>0.01278683783461377</v>
+      </c>
+      <c r="S55">
         <v>0.4386551971820397</v>
       </c>
+      <c r="T55">
+        <v>1.000550658947598</v>
+      </c>
       <c r="U55">
+        <v>1.000642071110625</v>
+      </c>
+      <c r="V55">
         <v>39.79641721609902</v>
       </c>
-      <c r="V55" t="s">
-        <v>163</v>
-      </c>
       <c r="W55" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="X55" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="Y55" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z55">
+        <v>188</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA55">
         <v>28</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>45</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>3</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>5</v>
       </c>
-      <c r="AE55" t="s">
-        <v>190</v>
-      </c>
       <c r="AF55" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG55">
+        <v>191</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH55">
         <v>80086</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>1341</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56">
         <v>1.000568485124136</v>
       </c>
       <c r="D56">
+        <v>4.860940929070697E-05</v>
+      </c>
+      <c r="E56">
         <v>330.2898694691867</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1453.736214695664</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>1123.446345226478</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>19103.40494074376</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1687.073131349761</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>36.71461868673833</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>8.039301350845243</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>0.6384984538988241</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>0.00234</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>0.3609351285892616</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>0.6260037439997519</v>
       </c>
       <c r="R56">
+        <v>0.01588375588218721</v>
+      </c>
+      <c r="S56">
         <v>0.4816695441679575</v>
       </c>
+      <c r="T56">
+        <v>1.000513281766452</v>
+      </c>
       <c r="U56">
+        <v>1.000623694573852</v>
+      </c>
+      <c r="V56">
         <v>44.75392003758357</v>
       </c>
-      <c r="V56" t="s">
-        <v>164</v>
-      </c>
       <c r="W56" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="X56" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="Y56" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z56">
+        <v>188</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA56">
         <v>28</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>45</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>3</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>5</v>
       </c>
-      <c r="AE56" t="s">
-        <v>190</v>
-      </c>
       <c r="AF56" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG56">
+        <v>191</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH56">
         <v>80562</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>1341</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C57">
         <v>1.000597901408266</v>
       </c>
       <c r="D57">
+        <v>3.805871733009478E-05</v>
+      </c>
+      <c r="E57">
         <v>330.2801593742208</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>1453.739015389491</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1123.45885601527</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>18898.53792514066</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1659.820351652591</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>35.46455619768462</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>6.531891200606256</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>0.6377946977891724</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>0.00233</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>0.3552669720333118</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>0.6475373872788532</v>
       </c>
       <c r="R57">
+        <v>0.01235220571910711</v>
+      </c>
+      <c r="S57">
         <v>0.4048394714593229</v>
       </c>
+      <c r="T57">
+        <v>1.00055342301387</v>
+      </c>
       <c r="U57">
+        <v>1.000642383757303</v>
+      </c>
+      <c r="V57">
         <v>41.99644739829087</v>
       </c>
-      <c r="V57" t="s">
-        <v>165</v>
-      </c>
       <c r="W57" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="Y57" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z57">
+        <v>188</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA57">
         <v>28</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>45</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>3</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>5</v>
       </c>
-      <c r="AE57" t="s">
-        <v>190</v>
-      </c>
       <c r="AF57" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG57">
+        <v>191</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH57">
         <v>80916</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>1341</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>1.000585024539965</v>
       </c>
       <c r="D58">
+        <v>3.837959313138636E-05</v>
+      </c>
+      <c r="E58">
         <v>330.2844098616958</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1453.740862493263</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>1123.456452631567</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>18948.31700643309</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>1724.496379704393</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>36.5861382816778</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>4.846259888652631</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>0.6399693984463586</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>0.00238</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>0.3532660893721458</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>0.6364634337234535</v>
       </c>
       <c r="R58">
+        <v>0.01245074983856551</v>
+      </c>
+      <c r="S58">
         <v>0.4185451898299941</v>
       </c>
+      <c r="T58">
+        <v>1.000540097321351</v>
+      </c>
       <c r="U58">
+        <v>1.000629955793491</v>
+      </c>
+      <c r="V58">
         <v>41.43239817033043</v>
       </c>
-      <c r="V58" t="s">
-        <v>166</v>
-      </c>
       <c r="W58" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="X58" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="Y58" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z58">
+        <v>188</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA58">
         <v>28</v>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>45</v>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>3</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>5</v>
       </c>
-      <c r="AE58" t="s">
-        <v>190</v>
-      </c>
       <c r="AF58" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG58">
+        <v>191</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH58">
         <v>81501</v>
       </c>
-      <c r="AH58">
+      <c r="AI58">
         <v>1341</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>1.000622940760273</v>
       </c>
       <c r="D59">
+        <v>3.808398049265153E-05</v>
+      </c>
+      <c r="E59">
         <v>330.2718945215629</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1453.740619818763</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1123.4687252972</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>18537.19736505791</v>
       </c>
-      <c r="H59">
-        <v>1776.889111748477</v>
-      </c>
       <c r="I59">
+        <v>1776.889111748502</v>
+      </c>
+      <c r="J59">
         <v>33.30605822681473</v>
       </c>
-      <c r="J59">
-        <v>6.423062907310386</v>
-      </c>
       <c r="K59">
+        <v>6.423062757329991</v>
+      </c>
+      <c r="L59">
         <v>0.6425678098683724</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>0.00225</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>0.3458464240709176</v>
       </c>
-      <c r="O59">
-        <v>0.6443438419757064</v>
+      <c r="P59">
+        <v>0.6443438419758368</v>
       </c>
       <c r="R59">
-        <v>0.393195547797163</v>
+        <v>0.01237518906437383</v>
+      </c>
+      <c r="S59">
+        <v>0.393195547797024</v>
+      </c>
+      <c r="T59">
+        <v>1.000578632867527</v>
       </c>
       <c r="U59">
-        <v>39.72912113412512</v>
-      </c>
-      <c r="V59" t="s">
-        <v>167</v>
+        <v>1.000667252577301</v>
+      </c>
+      <c r="V59">
+        <v>39.72912098414472</v>
       </c>
       <c r="W59" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="X59" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="Y59" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z59">
+        <v>188</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA59">
         <v>28</v>
       </c>
-      <c r="AB59">
+      <c r="AC59">
         <v>45</v>
       </c>
-      <c r="AC59">
+      <c r="AD59">
         <v>3</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>5</v>
       </c>
-      <c r="AE59" t="s">
-        <v>190</v>
-      </c>
       <c r="AF59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG59">
+        <v>191</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH59">
         <v>81911</v>
       </c>
-      <c r="AH59">
+      <c r="AI59">
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>1.000629402884667</v>
       </c>
       <c r="D60">
+        <v>4.075162017601349E-05</v>
+      </c>
+      <c r="E60">
         <v>330.2697616059597</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1453.739166520925</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>1123.469404914965</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>18439.71729542278</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>1648.833492282581</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>38.43438699885848</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>7.592923438520051</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>0.6355632162601098</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.00258</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>0.3773218603795443</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>0.6352645705260987</v>
       </c>
       <c r="R60">
+        <v>0.01320942964289</v>
+      </c>
+      <c r="S60">
         <v>0.4408953729337108</v>
       </c>
+      <c r="T60">
+        <v>1.000581567405622</v>
+      </c>
       <c r="U60">
+        <v>1.000677242937738</v>
+      </c>
+      <c r="V60">
         <v>46.02731043737853</v>
       </c>
-      <c r="V60" t="s">
-        <v>168</v>
-      </c>
       <c r="W60" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="X60" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="Y60" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z60">
+        <v>188</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA60">
         <v>28</v>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>45</v>
       </c>
-      <c r="AC60">
+      <c r="AD60">
         <v>3</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>5</v>
       </c>
-      <c r="AE60" t="s">
-        <v>190</v>
-      </c>
       <c r="AF60" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG60">
+        <v>191</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH60">
         <v>82252</v>
       </c>
-      <c r="AH60">
+      <c r="AI60">
         <v>1341</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <v>1.00062407879477</v>
       </c>
       <c r="D61">
+        <v>3.976336433257278E-05</v>
+      </c>
+      <c r="E61">
         <v>330.271518895174</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1453.737174648026</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1123.465655752852</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>19260.6456093876</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>1624.076682569651</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>38.09694678614692</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>6.878909767267377</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>0.6400524226234839</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>0.00246</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>0.3629347327812736</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>0.6329901850295857</v>
       </c>
       <c r="R61">
+        <v>0.01290024752376511</v>
+      </c>
+      <c r="S61">
         <v>0.384966694697148</v>
       </c>
+      <c r="T61">
+        <v>1.000577543995784</v>
+      </c>
       <c r="U61">
+        <v>1.000670617922431</v>
+      </c>
+      <c r="V61">
         <v>44.9758565534143</v>
       </c>
-      <c r="V61" t="s">
-        <v>169</v>
-      </c>
       <c r="W61" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="X61" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="Y61" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z61">
+        <v>188</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA61">
         <v>28</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>45</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>3</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>5</v>
       </c>
-      <c r="AE61" t="s">
-        <v>190</v>
-      </c>
       <c r="AF61" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG61">
+        <v>191</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH61">
         <v>82634</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62">
         <v>1.000615570183858</v>
       </c>
       <c r="D62">
+        <v>3.9726107421984E-05</v>
+      </c>
+      <c r="E62">
         <v>330.2743273182418</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>1453.733676738351</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1123.459349420109</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>19428.70732028359</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>1646.453350632716</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>38.11073458675094</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>6.42115784043706</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>0.6405011484225518</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>0.0024</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>0.362400899707974</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>0.6383449008687901</v>
       </c>
       <c r="R62">
+        <v>0.01289914229826686</v>
+      </c>
+      <c r="S62">
         <v>0.4395465288492946</v>
       </c>
+      <c r="T62">
+        <v>1.000569221286504</v>
+      </c>
       <c r="U62">
+        <v>1.000661923375408</v>
+      </c>
+      <c r="V62">
         <v>44.53189242718801</v>
       </c>
-      <c r="V62" t="s">
-        <v>170</v>
-      </c>
       <c r="W62" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="X62" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="Y62" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z62">
+        <v>188</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA62">
         <v>28</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>45</v>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>3</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>5</v>
       </c>
-      <c r="AE62" t="s">
-        <v>190</v>
-      </c>
       <c r="AF62" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG62">
+        <v>191</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH62">
         <v>83111</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>1341</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>1.000573840915017</v>
       </c>
       <c r="D63">
+        <v>4.153125076736969E-05</v>
+      </c>
+      <c r="E63">
         <v>330.2881015202372</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1453.736443404304</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>1123.448341884067</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>19144.20202972849</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>1649.336620726482</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>38.65430702440522</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>7.594956719717608</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>0.6394933030943037</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.00253</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>0.3657161444783817</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>0.6483360244592341</v>
       </c>
       <c r="R63">
+        <v>0.01348194403261044</v>
+      </c>
+      <c r="S63">
         <v>0.4321552615463566</v>
       </c>
+      <c r="T63">
+        <v>1.000525336728456</v>
+      </c>
       <c r="U63">
+        <v>1.000622349804648</v>
+      </c>
+      <c r="V63">
         <v>46.24926374412283</v>
       </c>
-      <c r="V63" t="s">
-        <v>171</v>
-      </c>
       <c r="W63" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="X63" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="Y63" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z63">
+        <v>188</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA63">
         <v>28</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>45</v>
       </c>
-      <c r="AC63">
+      <c r="AD63">
         <v>3</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>5</v>
       </c>
-      <c r="AE63" t="s">
-        <v>190</v>
-      </c>
       <c r="AF63" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG63">
+        <v>191</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH63">
         <v>83509</v>
       </c>
-      <c r="AH63">
+      <c r="AI63">
         <v>1341</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>1.000610444002525</v>
       </c>
       <c r="D64">
+        <v>3.892787376423694E-05</v>
+      </c>
+      <c r="E64">
         <v>330.2760193314541</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>1453.734744108461</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>1123.458724777007</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>19266.94555950833</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>1705.46460512298</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>34.92098270632822</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>7.371161954289203</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>0.6411236500248497</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>0.00223</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>0.3535630290508023</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>0.6441129800188903</v>
       </c>
       <c r="R64">
+        <v>0.01266207282148618</v>
+      </c>
+      <c r="S64">
         <v>0.4048558369831578</v>
       </c>
+      <c r="T64">
+        <v>1.000565328732672</v>
+      </c>
       <c r="U64">
+        <v>1.000655563341037</v>
+      </c>
+      <c r="V64">
         <v>42.29214466061742</v>
       </c>
-      <c r="V64" t="s">
-        <v>172</v>
-      </c>
       <c r="W64" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="X64" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="Y64" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z64">
+        <v>188</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA64">
         <v>28</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>45</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <v>3</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>5</v>
       </c>
-      <c r="AE64" t="s">
-        <v>190</v>
-      </c>
       <c r="AF64" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG64">
+        <v>191</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH64">
         <v>84177</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>1341</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>1.000597381800956</v>
       </c>
       <c r="D65">
+        <v>4.004651919635305E-05</v>
+      </c>
+      <c r="E65">
         <v>330.2803308877467</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>1453.73900835912</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>1123.458677471374</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>18987.49207083168</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>1635.157765173581</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>39.18148731474128</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>6.002643340510208</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>0.6403742942760793</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>0.00255</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>0.3622956619176981</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>0.6514004386653116</v>
       </c>
       <c r="R65">
+        <v>0.0129784380917645</v>
+      </c>
+      <c r="S65">
         <v>0.3808447699860961</v>
       </c>
+      <c r="T65">
+        <v>1.000550339992652</v>
+      </c>
       <c r="U65">
+        <v>1.000644428032897</v>
+      </c>
+      <c r="V65">
         <v>45.18413065525149</v>
       </c>
-      <c r="V65" t="s">
-        <v>173</v>
-      </c>
       <c r="W65" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="X65" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="Y65" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z65">
+        <v>188</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA65">
         <v>28</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>45</v>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <v>3</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>5</v>
       </c>
-      <c r="AE65" t="s">
-        <v>190</v>
-      </c>
       <c r="AF65" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG65">
+        <v>191</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH65">
         <v>84585</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>1341</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>1.000584716934817</v>
       </c>
       <c r="D66">
+        <v>4.041039886763256E-05</v>
+      </c>
+      <c r="E66">
         <v>330.2845113995099</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>1453.739593643663</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1123.455082244153</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>19030.55848959001</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>1679.024872997345</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>37.77804885383676</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>7.340677289816917</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>0.6381123484663843</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>0.00245</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>0.3603588406735745</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>0.632904640370203</v>
       </c>
       <c r="R66">
+        <v>0.01312013756046969</v>
+      </c>
+      <c r="S66">
         <v>0.4885631497321428</v>
       </c>
+      <c r="T66">
+        <v>1.000537550002217</v>
+      </c>
       <c r="U66">
+        <v>1.000631888314674</v>
+      </c>
+      <c r="V66">
         <v>45.11872614365368</v>
       </c>
-      <c r="V66" t="s">
-        <v>174</v>
-      </c>
       <c r="W66" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="X66" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="Y66" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z66">
+        <v>188</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA66">
         <v>28</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>45</v>
       </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>3</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>5</v>
       </c>
-      <c r="AE66" t="s">
-        <v>190</v>
-      </c>
       <c r="AF66" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG66">
+        <v>191</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH66">
         <v>85114</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>1341</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67">
         <v>1.000632251996054</v>
       </c>
       <c r="D67">
+        <v>4.070665129299608E-05</v>
+      </c>
+      <c r="E67">
         <v>330.2688212251787</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1453.732367418588</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>1123.463546193409</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>19168.95827696947</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>1640.148942432516</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>38.87578943094936</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>6.147478614305204</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>0.6386726089885342</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>0.0025</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>0.3653431924077914</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>0.6451003723856119</v>
       </c>
       <c r="R67">
+        <v>0.01320964948563862</v>
+      </c>
+      <c r="S67">
         <v>0.3856343153863879</v>
       </c>
+      <c r="T67">
+        <v>1.00058465793556</v>
+      </c>
       <c r="U67">
+        <v>1.000679850584506</v>
+      </c>
+      <c r="V67">
         <v>45.02326804525457</v>
       </c>
-      <c r="V67" t="s">
-        <v>175</v>
-      </c>
       <c r="W67" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="X67" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="Y67" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z67">
+        <v>188</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA67">
         <v>28</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>45</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <v>3</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>5</v>
       </c>
-      <c r="AE67" t="s">
-        <v>190</v>
-      </c>
       <c r="AF67" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG67">
+        <v>191</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH67">
         <v>85521</v>
       </c>
-      <c r="AH67">
+      <c r="AI67">
         <v>1341</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>1.000601348545542</v>
       </c>
       <c r="D68">
+        <v>4.122090084576382E-05</v>
+      </c>
+      <c r="E68">
         <v>330.2790215374082</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1453.739822182081</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1123.460800644673</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>19165.78624925403</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>1641.125321390427</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>38.61748251116898</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>6.404740453990598</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>0.6389510018852989</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>0.00252</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>0.3617912575787358</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>0.6422032583804566</v>
       </c>
       <c r="R68">
+        <v>0.01337914252249486</v>
+      </c>
+      <c r="S68">
         <v>0.4183540871173702</v>
       </c>
+      <c r="T68">
+        <v>1.000553183398418</v>
+      </c>
       <c r="U68">
+        <v>1.000649518330087</v>
+      </c>
+      <c r="V68">
         <v>45.02222296515958</v>
       </c>
-      <c r="V68" t="s">
-        <v>176</v>
-      </c>
       <c r="W68" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="X68" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="Y68" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z68">
+        <v>188</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA68">
         <v>28</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>45</v>
-      </c>
-      <c r="AC68">
-        <v>5</v>
       </c>
       <c r="AD68">
         <v>5</v>
       </c>
-      <c r="AE68" t="s">
-        <v>193</v>
+      <c r="AE68">
+        <v>5</v>
       </c>
       <c r="AF68" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG68">
+        <v>194</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH68">
         <v>86050</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>1341</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>1.000626970171842</v>
       </c>
       <c r="D69">
+        <v>3.878985326912887E-05</v>
+      </c>
+      <c r="E69">
         <v>330.2705645540202</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1453.738699599385</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1123.468135045364</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>19017.23150445768</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>1651.903744525349</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>37.96314527336192</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>5.643433990008338</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>0.6438547633998672</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>0.00252</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>0.3561629964549922</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>0.6442826394256207</v>
       </c>
       <c r="R69">
+        <v>0.01256085509616043</v>
+      </c>
+      <c r="S69">
         <v>0.3921970193946609</v>
       </c>
+      <c r="T69">
+        <v>1.000581281506433</v>
+      </c>
       <c r="U69">
+        <v>1.000672663009924</v>
+      </c>
+      <c r="V69">
         <v>43.60657926337026</v>
       </c>
-      <c r="V69" t="s">
-        <v>177</v>
-      </c>
       <c r="W69" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="X69" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="Y69" t="s">
         <v>189</v>
       </c>
-      <c r="Z69">
+      <c r="Z69" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA69">
         <v>29</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>45</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <v>3</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <v>5</v>
       </c>
-      <c r="AE69" t="s">
-        <v>190</v>
-      </c>
       <c r="AF69" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG69">
+        <v>191</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH69">
         <v>86821</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>1341</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70">
-        <v>1.000625269480242</v>
+        <v>1.000625269480247</v>
       </c>
       <c r="D70">
-        <v>330.2711258914078</v>
+        <v>3.896289398626903E-05</v>
       </c>
       <c r="E70">
+        <v>330.2711258914062</v>
+      </c>
+      <c r="F70">
         <v>1453.732430121846</v>
       </c>
-      <c r="F70">
-        <v>1123.461304230439</v>
-      </c>
       <c r="G70">
+        <v>1123.46130423044</v>
+      </c>
+      <c r="H70">
         <v>19437.92470531664</v>
       </c>
-      <c r="H70">
-        <v>1625.029068612021</v>
-      </c>
       <c r="I70">
+        <v>1625.029068610713</v>
+      </c>
+      <c r="J70">
         <v>35.3200984807596</v>
       </c>
-      <c r="J70">
-        <v>6.92727712303628</v>
-      </c>
       <c r="K70">
+        <v>6.927276777804675</v>
+      </c>
+      <c r="L70">
         <v>0.6398855681743004</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>0.00227</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>0.3682566703064224</v>
       </c>
-      <c r="O70">
-        <v>0.6376279288019486</v>
+      <c r="P70">
+        <v>0.6376279288032006</v>
       </c>
       <c r="R70">
-        <v>0.366001061879674</v>
+        <v>0.01266652005907723</v>
+      </c>
+      <c r="S70">
+        <v>0.3660010618767107</v>
+      </c>
+      <c r="T70">
+        <v>1.000580018223503</v>
       </c>
       <c r="U70">
-        <v>42.24737560379589</v>
-      </c>
-      <c r="V70" t="s">
-        <v>178</v>
+        <v>1.000670524830155</v>
+      </c>
+      <c r="V70">
+        <v>42.24737525856428</v>
       </c>
       <c r="W70" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="X70" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="Y70" t="s">
         <v>189</v>
       </c>
-      <c r="Z70">
+      <c r="Z70" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA70">
         <v>29</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>45</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <v>3</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>5</v>
       </c>
-      <c r="AE70" t="s">
-        <v>190</v>
-      </c>
       <c r="AF70" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG70">
+        <v>191</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH70">
         <v>87260</v>
       </c>
-      <c r="AH70">
+      <c r="AI70">
         <v>1341</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71">
         <v>1.0006052668797</v>
       </c>
       <c r="D71">
+        <v>3.936487834945275E-05</v>
+      </c>
+      <c r="E71">
         <v>330.2777281766651</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>1453.734489636845</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>1123.456761460179</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>19139.6625051877</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>1707.095866762795</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>36.08243212805287</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>6.764929556860034</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>0.6388920267386328</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>0.00236</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>0.3642162099798475</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>0.6395658609604978</v>
       </c>
       <c r="R71">
+        <v>0.01278535526193779</v>
+      </c>
+      <c r="S71">
         <v>0.4484641911478038</v>
       </c>
+      <c r="T71">
+        <v>1.000559384805159</v>
+      </c>
       <c r="U71">
+        <v>1.000651153162409</v>
+      </c>
+      <c r="V71">
         <v>42.8473616849129</v>
       </c>
-      <c r="V71" t="s">
-        <v>179</v>
-      </c>
       <c r="W71" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="X71" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="Y71" t="s">
         <v>189</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA71">
         <v>29</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>45</v>
       </c>
-      <c r="AC71">
+      <c r="AD71">
         <v>3</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>5</v>
       </c>
-      <c r="AE71" t="s">
-        <v>191</v>
-      </c>
       <c r="AF71" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG71">
+        <v>192</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH71">
         <v>87672</v>
       </c>
-      <c r="AH71">
+      <c r="AI71">
         <v>1341</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72">
         <v>1.000616192342704</v>
       </c>
       <c r="D72">
+        <v>3.73867230852465E-05</v>
+      </c>
+      <c r="E72">
         <v>330.2741219616869</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>1453.736949375475</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>1123.462827413788</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>19613.02330145553</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>1723.983479505118</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>40.57085051162159</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>6.039217667071764</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>0.6387786309724207</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>0.00259</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>0.3678219203969001</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>0.6350286333983236</v>
       </c>
       <c r="R72">
+        <v>0.01207318197109624</v>
+      </c>
+      <c r="S72">
         <v>0.4286048853816364</v>
       </c>
+      <c r="T72">
+        <v>1.000571769952445</v>
+      </c>
       <c r="U72">
+        <v>1.000660618677579</v>
+      </c>
+      <c r="V72">
         <v>46.61006817869335</v>
       </c>
-      <c r="V72" t="s">
-        <v>180</v>
-      </c>
       <c r="W72" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="X72" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="Y72" t="s">
         <v>189</v>
       </c>
-      <c r="Z72">
+      <c r="Z72" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA72">
         <v>29</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>45</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>3</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>5</v>
       </c>
-      <c r="AE72" t="s">
-        <v>191</v>
-      </c>
       <c r="AF72" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG72">
+        <v>192</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH72">
         <v>88589</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <v>1341</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73">
-        <v>1.000606944898815</v>
+        <v>1.000606944898816</v>
       </c>
       <c r="D73">
-        <v>330.2771743004962</v>
+        <v>3.765747635269445E-05</v>
       </c>
       <c r="E73">
+        <v>330.277174300496</v>
+      </c>
+      <c r="F73">
         <v>1453.735969924118</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1123.458795623622</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>19271.83504330089</v>
       </c>
-      <c r="H73">
-        <v>1719.687384841665</v>
-      </c>
       <c r="I73">
+        <v>1719.687384841874</v>
+      </c>
+      <c r="J73">
         <v>35.6366595235016</v>
       </c>
-      <c r="J73">
-        <v>5.880495073312623</v>
-      </c>
       <c r="K73">
+        <v>5.880495079695384</v>
+      </c>
+      <c r="L73">
         <v>0.6433132373404155</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>0.00231</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>0.3517185290701568</v>
       </c>
-      <c r="O73">
-        <v>0.6366445636383851</v>
+      <c r="P73">
+        <v>0.6366445636382958</v>
       </c>
       <c r="R73">
-        <v>0.4564488794457792</v>
+        <v>0.01222100405757675</v>
+      </c>
+      <c r="S73">
+        <v>0.4564488794458292</v>
+      </c>
+      <c r="T73">
+        <v>1.000562923740115</v>
       </c>
       <c r="U73">
-        <v>41.51715459681422</v>
-      </c>
-      <c r="V73" t="s">
-        <v>181</v>
+        <v>1.00065096993123</v>
+      </c>
+      <c r="V73">
+        <v>41.51715460319699</v>
       </c>
       <c r="W73" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="X73" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="Y73" t="s">
         <v>189</v>
       </c>
-      <c r="Z73">
+      <c r="Z73" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA73">
         <v>29</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>45</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <v>3</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <v>5</v>
       </c>
-      <c r="AE73" t="s">
-        <v>191</v>
-      </c>
       <c r="AF73" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG73">
+        <v>192</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH73">
         <v>89050</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <v>1341</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74">
         <v>1.000641424742833</v>
       </c>
       <c r="D74">
+        <v>3.822542324111882E-05</v>
+      </c>
+      <c r="E74">
         <v>330.2657936948456</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>1453.734050564113</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>1123.468256869268</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>19579.9859356443</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>1726.604730023504</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>37.96074681695657</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>5.715935274112025</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>0.6443743408686456</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>0.00246</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>0.3571362716143767</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>0.6523650992728133</v>
       </c>
       <c r="R74">
+        <v>0.01238255451393123</v>
+      </c>
+      <c r="S74">
         <v>0.3776135694719575</v>
       </c>
+      <c r="T74">
+        <v>1.000596456696676</v>
+      </c>
       <c r="U74">
+        <v>1.000686396831011</v>
+      </c>
+      <c r="V74">
         <v>43.6766820910686</v>
       </c>
-      <c r="V74" t="s">
-        <v>182</v>
-      </c>
       <c r="W74" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="X74" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="Y74" t="s">
         <v>189</v>
       </c>
-      <c r="Z74">
+      <c r="Z74" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA74">
         <v>29</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>45</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <v>3</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <v>5</v>
       </c>
-      <c r="AE74" t="s">
-        <v>191</v>
-      </c>
       <c r="AF74" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG74">
+        <v>192</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH74">
         <v>89512</v>
       </c>
-      <c r="AH74">
+      <c r="AI74">
         <v>1341</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75">
-        <v>1.000606497906581</v>
+        <v>1.000606497908441</v>
       </c>
       <c r="D75">
-        <v>330.2773218423445</v>
+        <v>3.966157520054231E-05</v>
       </c>
       <c r="E75">
+        <v>330.2773218417303</v>
+      </c>
+      <c r="F75">
         <v>1453.73314711401</v>
       </c>
-      <c r="F75">
-        <v>1123.455825271666</v>
-      </c>
       <c r="G75">
+        <v>1123.45582527228</v>
+      </c>
+      <c r="H75">
         <v>19406.09987946782</v>
       </c>
-      <c r="H75">
-        <v>1662.08052494733</v>
-      </c>
       <c r="I75">
+        <v>1662.080521339037</v>
+      </c>
+      <c r="J75">
         <v>37.24459638007298</v>
       </c>
-      <c r="J75">
-        <v>6.753167018234493</v>
-      </c>
       <c r="K75">
+        <v>6.753162594223118</v>
+      </c>
+      <c r="L75">
         <v>0.6409753453421598</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>0.00242</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>0.3507300882233722</v>
       </c>
-      <c r="O75">
-        <v>0.6289845696394971</v>
+      <c r="P75">
+        <v>0.6289847277520144</v>
       </c>
       <c r="R75">
-        <v>0.4454420617301824</v>
+        <v>0.01287383990890759</v>
+      </c>
+      <c r="S75">
+        <v>0.4454420698094505</v>
+      </c>
+      <c r="T75">
+        <v>1.00056016591413</v>
       </c>
       <c r="U75">
-        <v>43.99776339830747</v>
-      </c>
-      <c r="V75" t="s">
-        <v>183</v>
+        <v>1.000652834193855</v>
+      </c>
+      <c r="V75">
+        <v>43.9977589742961</v>
       </c>
       <c r="W75" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="X75" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="Y75" t="s">
         <v>189</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA75">
         <v>29</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>45</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <v>3</v>
       </c>
-      <c r="AD75">
+      <c r="AE75">
         <v>5</v>
       </c>
-      <c r="AE75" t="s">
-        <v>191</v>
-      </c>
       <c r="AF75" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG75">
+        <v>192</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH75">
         <v>89961</v>
       </c>
-      <c r="AH75">
+      <c r="AI75">
         <v>1341</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76">
         <v>1.00059051280311</v>
       </c>
       <c r="D76">
+        <v>3.789201242836208E-05</v>
+      </c>
+      <c r="E76">
         <v>330.2825982437255</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1453.731503774644</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>1123.448905530918</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>19630.12229620976</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>1700.844360605233</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>39.78043926784686</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>6.382448253259561</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>0.6369966542175426</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>0.00258</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>0.3711119866021209</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>0.6466524358005689</v>
       </c>
       <c r="R76">
+        <v>0.0122462498387396</v>
+      </c>
+      <c r="S76">
         <v>0.3925690885870587</v>
       </c>
+      <c r="T76">
+        <v>1.000545598723166</v>
+      </c>
       <c r="U76">
+        <v>1.000635430915584</v>
+      </c>
+      <c r="V76">
         <v>46.16288752110642</v>
       </c>
-      <c r="V76" t="s">
-        <v>184</v>
-      </c>
       <c r="W76" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="X76" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="Y76" t="s">
         <v>189</v>
       </c>
-      <c r="Z76">
+      <c r="Z76" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA76">
         <v>29</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>45</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <v>3</v>
       </c>
-      <c r="AD76">
+      <c r="AE76">
         <v>5</v>
       </c>
-      <c r="AE76" t="s">
-        <v>191</v>
-      </c>
       <c r="AF76" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG76">
+        <v>192</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH76">
         <v>90401</v>
       </c>
-      <c r="AH76">
+      <c r="AI76">
         <v>1341</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77">
         <v>1.000642714170346</v>
       </c>
       <c r="D77">
+        <v>3.84257413566448E-05</v>
+      </c>
+      <c r="E77">
         <v>330.2653681145709</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>1453.73339525342</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>1123.468027138849</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>19420.49006518794</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>1674.356247777106</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>38.31936606811367</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>6.588313486680762</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>0.635770424984931</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>0.00244</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>0.3667369093881545</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>0.6401777730509837</v>
       </c>
       <c r="R77">
+        <v>0.01245391720092222</v>
+      </c>
+      <c r="S77">
         <v>0.4179899093843576</v>
       </c>
+      <c r="T77">
+        <v>1.000597590402911</v>
+      </c>
       <c r="U77">
+        <v>1.000687842007842</v>
+      </c>
+      <c r="V77">
         <v>44.90767955479443</v>
       </c>
-      <c r="V77" t="s">
-        <v>185</v>
-      </c>
       <c r="W77" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="X77" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="Y77" t="s">
         <v>189</v>
       </c>
-      <c r="Z77">
+      <c r="Z77" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA77">
         <v>29</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>45</v>
       </c>
-      <c r="AC77">
+      <c r="AD77">
         <v>3</v>
       </c>
-      <c r="AD77">
+      <c r="AE77">
         <v>5</v>
       </c>
-      <c r="AE77" t="s">
-        <v>191</v>
-      </c>
       <c r="AF77" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG77">
+        <v>192</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH77">
         <v>91109</v>
       </c>
-      <c r="AH77">
+      <c r="AI77">
         <v>1341</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C78">
         <v>1.000581775080275</v>
       </c>
       <c r="D78">
+        <v>4.072351771093495E-05</v>
+      </c>
+      <c r="E78">
         <v>330.2854824835472</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>1453.74111867086</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>1123.455636187313</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>19094.77875821762</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>1566.008947191035</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>37.12625014576297</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>7.009486544485931</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>0.6363477453527115</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>0.00233</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>0.3639170380596871</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>0.6309007302536102</v>
       </c>
       <c r="R78">
+        <v>0.01324703748997215</v>
+      </c>
+      <c r="S78">
         <v>0.4572679353159389</v>
       </c>
+      <c r="T78">
+        <v>1.000534587524036</v>
+      </c>
       <c r="U78">
+        <v>1.000628967087676</v>
+      </c>
+      <c r="V78">
         <v>44.1357366902489</v>
       </c>
-      <c r="V78" t="s">
-        <v>186</v>
-      </c>
       <c r="W78" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="X78" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="Y78" t="s">
         <v>189</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA78">
         <v>29</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>45</v>
-      </c>
-      <c r="AC78">
-        <v>5</v>
       </c>
       <c r="AD78">
         <v>5</v>
       </c>
-      <c r="AE78" t="s">
-        <v>192</v>
+      <c r="AE78">
+        <v>5</v>
       </c>
       <c r="AF78" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG78">
+        <v>193</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH78">
         <v>91722</v>
       </c>
-      <c r="AH78">
+      <c r="AI78">
         <v>1341</v>
       </c>
     </row>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/PseudoVoigt.xlsx
@@ -620,63 +620,63 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.000674604797469</v>
+        <v>1.00067464430589</v>
       </c>
       <c r="D2" t="n">
-        <v>4.406273885862257e-05</v>
+        <v>4.406712817111646e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>330.2548428452621</v>
+        <v>330.2548298062113</v>
       </c>
       <c r="F2" t="n">
-        <v>1453.82413758209</v>
+        <v>1453.824137609813</v>
       </c>
       <c r="G2" t="n">
-        <v>1123.569294736828</v>
+        <v>1123.569307803602</v>
       </c>
       <c r="H2" t="n">
-        <v>21207.69578444473</v>
+        <v>21207.70204087172</v>
       </c>
       <c r="I2" t="n">
-        <v>1440.912664130908</v>
+        <v>1440.60088348267</v>
       </c>
       <c r="J2" t="n">
-        <v>41.66579955179145</v>
+        <v>41.66598291147866</v>
       </c>
       <c r="K2" t="n">
-        <v>5.988492905440837</v>
+        <v>5.899430790266803</v>
       </c>
       <c r="L2" t="n">
-        <v>4.406273885862256e-05</v>
+        <v>4.406712817111646e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6203316965243671</v>
+        <v>0.6203309359111754</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>0.00225</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3738883108448209</v>
+        <v>0.3738908067865817</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6285114172408035</v>
+        <v>0.6285366993421693</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0.01437693468863583</v>
+        <v>0.01437840134161584</v>
       </c>
       <c r="T2" t="n">
-        <v>0.39860103563282</v>
+        <v>0.3980641901878404</v>
       </c>
       <c r="U2" t="n">
-        <v>1.000624227599251</v>
+        <v>1.000624262660173</v>
       </c>
       <c r="V2" t="n">
-        <v>1.000724987068499</v>
+        <v>1.000725031025316</v>
       </c>
       <c r="W2" t="n">
-        <v>47.65429245723229</v>
+        <v>47.56541370174547</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -740,63 +740,63 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.000619051165139</v>
+        <v>1.000618752127377</v>
       </c>
       <c r="D3" t="n">
-        <v>6.210181441071669e-05</v>
+        <v>6.222399720994094e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>330.2731783507606</v>
+        <v>330.2732770538398</v>
       </c>
       <c r="F3" t="n">
-        <v>1453.82852314374</v>
+        <v>1453.828523171429</v>
       </c>
       <c r="G3" t="n">
-        <v>1123.55534479298</v>
+        <v>1123.555246117589</v>
       </c>
       <c r="H3" t="n">
-        <v>21691.2623590449</v>
+        <v>21691.26884655449</v>
       </c>
       <c r="I3" t="n">
-        <v>1320.733179468684</v>
+        <v>1323.555614110455</v>
       </c>
       <c r="J3" t="n">
-        <v>42.80665950873679</v>
+        <v>42.80648006950954</v>
       </c>
       <c r="K3" t="n">
-        <v>5.232533064590335</v>
+        <v>5.182389438231543</v>
       </c>
       <c r="L3" t="n">
-        <v>6.210181441071669e-05</v>
+        <v>6.222399720994094e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6184372028546448</v>
+        <v>0.6184363649692611</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
         <v>0.00235</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3660755066456742</v>
+        <v>0.3660781922992917</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6482883802833217</v>
+        <v>0.6480367293385518</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.02037549312993543</v>
+        <v>0.02041611999049652</v>
       </c>
       <c r="T3" t="n">
-        <v>0.396178830016774</v>
+        <v>0.4014993404114852</v>
       </c>
       <c r="U3" t="n">
-        <v>1.000550205136144</v>
+        <v>1.000549783070538</v>
       </c>
       <c r="V3" t="n">
-        <v>1.000687906669124</v>
+        <v>1.000687730693107</v>
       </c>
       <c r="W3" t="n">
-        <v>48.03919257332712</v>
+        <v>47.98886950774109</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -860,63 +860,63 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.000598290073448</v>
+        <v>1.000598013679497</v>
       </c>
       <c r="D4" t="n">
-        <v>4.21630043292993e-05</v>
+        <v>4.225281151617301e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>330.280031082578</v>
+        <v>330.2801223154222</v>
       </c>
       <c r="F4" t="n">
-        <v>1453.822325047783</v>
+        <v>1453.822325088227</v>
       </c>
       <c r="G4" t="n">
-        <v>1123.542293965205</v>
+        <v>1123.542202772804</v>
       </c>
       <c r="H4" t="n">
-        <v>20320.59553438908</v>
+        <v>20320.58033854845</v>
       </c>
       <c r="I4" t="n">
-        <v>1607.64553584428</v>
+        <v>1610.418734149635</v>
       </c>
       <c r="J4" t="n">
-        <v>38.41169306035028</v>
+        <v>38.41164055899982</v>
       </c>
       <c r="K4" t="n">
-        <v>6.491537079215322</v>
+        <v>6.682482760361668</v>
       </c>
       <c r="L4" t="n">
-        <v>4.21630043292993e-05</v>
+        <v>4.225281151617301e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6228615878689414</v>
+        <v>0.6228620468570287</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.00225</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3663570796095029</v>
+        <v>0.3663539796417289</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.63902981338122</v>
+        <v>0.6388199612794965</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>0.01374262675956239</v>
+        <v>0.01377268624822515</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4033780798210747</v>
+        <v>0.4076497323397905</v>
       </c>
       <c r="U4" t="n">
-        <v>1.000549842033385</v>
+        <v>1.000549474608495</v>
       </c>
       <c r="V4" t="n">
-        <v>1.000646742805584</v>
+        <v>1.000646557460223</v>
       </c>
       <c r="W4" t="n">
-        <v>44.9032301395656</v>
+        <v>45.09412331936149</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -980,63 +980,63 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.000644022528292</v>
+        <v>1.000643866116464</v>
       </c>
       <c r="D5" t="n">
-        <v>4.533249365353354e-05</v>
+        <v>4.540173701216725e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>330.2649362873588</v>
+        <v>330.2649879114624</v>
       </c>
       <c r="F5" t="n">
-        <v>1453.81683539098</v>
+        <v>1453.816835426913</v>
       </c>
       <c r="G5" t="n">
-        <v>1123.551899103621</v>
+        <v>1123.55184751545</v>
       </c>
       <c r="H5" t="n">
-        <v>19843.74215276429</v>
+        <v>19843.74648748233</v>
       </c>
       <c r="I5" t="n">
-        <v>1493.085529381233</v>
+        <v>1494.631168521749</v>
       </c>
       <c r="J5" t="n">
-        <v>41.20614964719372</v>
+        <v>41.20600114699579</v>
       </c>
       <c r="K5" t="n">
-        <v>5.722743234137814</v>
+        <v>5.743368205729741</v>
       </c>
       <c r="L5" t="n">
-        <v>4.533249365353354e-05</v>
+        <v>4.540173701216724e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6197862766624207</v>
+        <v>0.6197854895150872</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.00251</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3851290980482513</v>
+        <v>0.3851314369579371</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6361724389201029</v>
+        <v>0.6360374555625412</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>0.01475983376813506</v>
+        <v>0.01478303260092279</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4378743576228246</v>
+        <v>0.4404400111242168</v>
       </c>
       <c r="U5" t="n">
-        <v>1.000591700739199</v>
+        <v>1.000591474062766</v>
       </c>
       <c r="V5" t="n">
-        <v>1.000696349789574</v>
+        <v>1.000696263657058</v>
       </c>
       <c r="W5" t="n">
-        <v>46.92889288133154</v>
+        <v>46.94936935272553</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1100,63 +1100,63 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.00061635943423</v>
+        <v>1.000615657146794</v>
       </c>
       <c r="D6" t="n">
-        <v>4.433736276878812e-05</v>
+        <v>4.460314476078676e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>330.2740668096733</v>
+        <v>330.2742986142887</v>
       </c>
       <c r="F6" t="n">
-        <v>1453.817174014502</v>
+        <v>1453.8171740581</v>
       </c>
       <c r="G6" t="n">
-        <v>1123.543107204829</v>
+        <v>1123.542875443811</v>
       </c>
       <c r="H6" t="n">
-        <v>20547.57333374948</v>
+        <v>20547.57666654617</v>
       </c>
       <c r="I6" t="n">
-        <v>1449.957046161038</v>
+        <v>1456.893783748423</v>
       </c>
       <c r="J6" t="n">
-        <v>43.86628927805531</v>
+        <v>43.86642892886636</v>
       </c>
       <c r="K6" t="n">
-        <v>6.292119851494792</v>
+        <v>6.54764979906113</v>
       </c>
       <c r="L6" t="n">
-        <v>4.433736276878812e-05</v>
+        <v>4.460314476078677e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.622278072520398</v>
+        <v>0.6222773359740376</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
         <v>0.00261</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3797537028561117</v>
+        <v>0.3797557717324919</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6439909299698954</v>
+        <v>0.6434245881459512</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.01440900548665671</v>
+        <v>0.01449821661807712</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3822449229105279</v>
+        <v>0.3941358000108085</v>
       </c>
       <c r="U6" t="n">
-        <v>1.000564800382101</v>
+        <v>1.000563827916424</v>
       </c>
       <c r="V6" t="n">
-        <v>1.000667923800303</v>
+        <v>1.000667491746952</v>
       </c>
       <c r="W6" t="n">
-        <v>50.15840912955009</v>
+        <v>50.41407872792749</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1220,63 +1220,63 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.00063410994822</v>
+        <v>1.000633759594128</v>
       </c>
       <c r="D7" t="n">
-        <v>4.048225440268784e-05</v>
+        <v>4.058292526237796e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>330.2682079903652</v>
+        <v>330.2683236278972</v>
       </c>
       <c r="F7" t="n">
-        <v>1453.814647752244</v>
+        <v>1453.814647778011</v>
       </c>
       <c r="G7" t="n">
-        <v>1123.546439761878</v>
+        <v>1123.546324150114</v>
       </c>
       <c r="H7" t="n">
-        <v>20645.55168178812</v>
+        <v>20645.55507598037</v>
       </c>
       <c r="I7" t="n">
-        <v>1519.379089267249</v>
+        <v>1523.25728479355</v>
       </c>
       <c r="J7" t="n">
-        <v>40.35824140908093</v>
+        <v>40.35810570169828</v>
       </c>
       <c r="K7" t="n">
-        <v>5.808318429174762</v>
+        <v>5.621969818295169</v>
       </c>
       <c r="L7" t="n">
-        <v>4.048225440268783e-05</v>
+        <v>4.058292526237796e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6258576282309586</v>
+        <v>0.6258569395761319</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
         <v>0.0024</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3762961781036718</v>
+        <v>0.3762981444087546</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.618213239824047</v>
+        <v>0.6178632007667771</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0.01315283023680464</v>
+        <v>0.01318663097234694</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4257844019040499</v>
+        <v>0.4321414905328863</v>
       </c>
       <c r="U7" t="n">
-        <v>1.000586990791037</v>
+        <v>1.000586538071477</v>
       </c>
       <c r="V7" t="n">
-        <v>1.000681233543438</v>
+        <v>1.000680985574119</v>
       </c>
       <c r="W7" t="n">
-        <v>46.16655983825569</v>
+        <v>45.98007551999345</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1340,63 +1340,63 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.00060555976543</v>
+        <v>1.000604959388799</v>
       </c>
       <c r="D8" t="n">
-        <v>4.411354068716555e-05</v>
+        <v>4.429386096822596e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>330.277631501574</v>
+        <v>330.2778296726603</v>
       </c>
       <c r="F8" t="n">
-        <v>1453.806151659454</v>
+        <v>1453.806151710058</v>
       </c>
       <c r="G8" t="n">
-        <v>1123.52852015788</v>
+        <v>1123.528322037397</v>
       </c>
       <c r="H8" t="n">
-        <v>20375.29059653765</v>
+        <v>20375.29374684323</v>
       </c>
       <c r="I8" t="n">
-        <v>1495.869842285102</v>
+        <v>1501.948299100125</v>
       </c>
       <c r="J8" t="n">
-        <v>43.53791887290823</v>
+        <v>43.53804433791994</v>
       </c>
       <c r="K8" t="n">
-        <v>6.575818062352134</v>
+        <v>6.758589071049064</v>
       </c>
       <c r="L8" t="n">
-        <v>4.411354068716555e-05</v>
+        <v>4.429386096822596e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6247828265273875</v>
+        <v>0.6247820835886229</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
         <v>0.00256</v>
       </c>
       <c r="P8" t="n">
-        <v>0.378945050373457</v>
+        <v>0.3789471129019116</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6323173018213846</v>
+        <v>0.6317238444132418</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0.01434304767500981</v>
+        <v>0.0144035496031929</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4449321966803451</v>
+        <v>0.4550233350873392</v>
       </c>
       <c r="U8" t="n">
-        <v>1.000554353094682</v>
+        <v>1.000553569502521</v>
       </c>
       <c r="V8" t="n">
-        <v>1.000656771677787</v>
+        <v>1.000656354554266</v>
       </c>
       <c r="W8" t="n">
-        <v>50.11373693526036</v>
+        <v>50.29663340896901</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1460,63 +1460,63 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.000599124460142</v>
+        <v>1.000599004064825</v>
       </c>
       <c r="D9" t="n">
-        <v>4.180439961485854e-05</v>
+        <v>4.185397269686659e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>330.2797556663236</v>
+        <v>330.2797954066546</v>
       </c>
       <c r="F9" t="n">
-        <v>1453.806207124493</v>
+        <v>1453.806207175436</v>
       </c>
       <c r="G9" t="n">
-        <v>1123.52645145817</v>
+        <v>1123.526411768781</v>
       </c>
       <c r="H9" t="n">
-        <v>20097.246712268</v>
+        <v>20097.25097910611</v>
       </c>
       <c r="I9" t="n">
-        <v>1545.669112419255</v>
+        <v>1546.898800862299</v>
       </c>
       <c r="J9" t="n">
-        <v>41.310160605249</v>
+        <v>41.31030595204415</v>
       </c>
       <c r="K9" t="n">
-        <v>6.548005758602061</v>
+        <v>6.460818245252296</v>
       </c>
       <c r="L9" t="n">
-        <v>4.180439961485854e-05</v>
+        <v>4.185397269686659e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.626352984085522</v>
+        <v>0.6263521855723898</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
         <v>0.00242</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3707393357057254</v>
+        <v>0.3707416827411866</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6271422176040542</v>
+        <v>0.6270143003148335</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>0.01359341403981557</v>
+        <v>0.01361004583926335</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4546958646197502</v>
+        <v>0.4567159302504872</v>
       </c>
       <c r="U9" t="n">
-        <v>1.000550613369271</v>
+        <v>1.000550442603657</v>
       </c>
       <c r="V9" t="n">
-        <v>1.000647640255302</v>
+        <v>1.000647570240059</v>
       </c>
       <c r="W9" t="n">
-        <v>47.85816636385105</v>
+        <v>47.77112419729644</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1580,63 +1580,63 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.000586029653282</v>
+        <v>1.000585832688396</v>
       </c>
       <c r="D10" t="n">
-        <v>4.214966423994699e-05</v>
+        <v>4.221295456962131e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>330.2840780828692</v>
+        <v>330.2841430991464</v>
       </c>
       <c r="F10" t="n">
-        <v>1453.772210963737</v>
+        <v>1453.772211006048</v>
       </c>
       <c r="G10" t="n">
-        <v>1123.488132880868</v>
+        <v>1123.488067906902</v>
       </c>
       <c r="H10" t="n">
-        <v>21259.41108600853</v>
+        <v>21259.41702440053</v>
       </c>
       <c r="I10" t="n">
-        <v>1616.675459886411</v>
+        <v>1619.433115188273</v>
       </c>
       <c r="J10" t="n">
-        <v>43.37868418033749</v>
+        <v>43.37881209805585</v>
       </c>
       <c r="K10" t="n">
-        <v>6.896089344059728</v>
+        <v>6.918142226504865</v>
       </c>
       <c r="L10" t="n">
-        <v>4.214966423994698e-05</v>
+        <v>4.221295456962131e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6287120901152227</v>
+        <v>0.6287111971006775</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>0.00235</v>
       </c>
       <c r="P10" t="n">
-        <v>0.358763632977089</v>
+        <v>0.3587664033003792</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6319595329225947</v>
+        <v>0.6316309888432954</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>0.0137215832773908</v>
+        <v>0.01374279373283783</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4811368483040603</v>
+        <v>0.4855166858460606</v>
       </c>
       <c r="U10" t="n">
-        <v>1.0005373436272</v>
+        <v>1.000537082431304</v>
       </c>
       <c r="V10" t="n">
-        <v>1.000634720417708</v>
+        <v>1.000634587696344</v>
       </c>
       <c r="W10" t="n">
-        <v>50.27477352439722</v>
+        <v>50.29695432456071</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1700,63 +1700,63 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.000595541413541</v>
+        <v>1.00059542415845</v>
       </c>
       <c r="D11" t="n">
-        <v>3.867700844908775e-05</v>
+        <v>3.873377557560583e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>330.2809383697304</v>
+        <v>330.2809770738068</v>
       </c>
       <c r="F11" t="n">
-        <v>1453.755112819743</v>
+        <v>1453.755112677967</v>
       </c>
       <c r="G11" t="n">
-        <v>1123.474174450013</v>
+        <v>1123.47413560416</v>
       </c>
       <c r="H11" t="n">
-        <v>21055.10047214173</v>
+        <v>21055.08575433833</v>
       </c>
       <c r="I11" t="n">
-        <v>1613.8154651514</v>
+        <v>1615.84499126067</v>
       </c>
       <c r="J11" t="n">
-        <v>42.16192186914624</v>
+        <v>42.1618353507604</v>
       </c>
       <c r="K11" t="n">
-        <v>6.02234162845695</v>
+        <v>6.041862583972611</v>
       </c>
       <c r="L11" t="n">
-        <v>3.867700844908775e-05</v>
+        <v>3.873377557560583e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6316548484407886</v>
+        <v>0.631655430538559</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
         <v>0.0024</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3547922400068593</v>
+        <v>0.3547889715317646</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6048728519375579</v>
+        <v>0.6046351109998223</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>0.01254680018458755</v>
+        <v>0.01256589022747264</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4657192563112786</v>
+        <v>0.4689446212008178</v>
       </c>
       <c r="U11" t="n">
-        <v>1.000550261704364</v>
+        <v>1.000550086631304</v>
       </c>
       <c r="V11" t="n">
-        <v>1.000640825221154</v>
+        <v>1.000640765794504</v>
       </c>
       <c r="W11" t="n">
-        <v>48.18426349760319</v>
+        <v>48.20369793473301</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1820,63 +1820,63 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.000612125587393</v>
+        <v>1.000611998872523</v>
       </c>
       <c r="D12" t="n">
-        <v>4.03151911550934e-05</v>
+        <v>4.037824349737836e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>330.2754642840566</v>
+        <v>330.2755061092721</v>
       </c>
       <c r="F12" t="n">
-        <v>1453.760640569622</v>
+        <v>1453.760640616661</v>
       </c>
       <c r="G12" t="n">
-        <v>1123.485176285566</v>
+        <v>1123.485134507389</v>
       </c>
       <c r="H12" t="n">
-        <v>20116.47928186789</v>
+        <v>20116.48298201057</v>
       </c>
       <c r="I12" t="n">
-        <v>1608.052369392027</v>
+        <v>1610.111190734076</v>
       </c>
       <c r="J12" t="n">
-        <v>41.00089797012647</v>
+        <v>41.00097956948321</v>
       </c>
       <c r="K12" t="n">
-        <v>5.228260566231981</v>
+        <v>5.49764927675888</v>
       </c>
       <c r="L12" t="n">
-        <v>4.03151911550934e-05</v>
+        <v>4.037824349737836e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6295403468936867</v>
+        <v>0.6295395637659944</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
         <v>0.00237</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3688507778225506</v>
+        <v>0.3688530351499153</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6314416141242962</v>
+        <v>0.6312413668585036</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>0.01310249899988062</v>
+        <v>0.01312366274683576</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3917131833306785</v>
+        <v>0.3950238434571934</v>
       </c>
       <c r="U12" t="n">
-        <v>1.000565251851579</v>
+        <v>1.000565061036307</v>
       </c>
       <c r="V12" t="n">
-        <v>1.000659003715223</v>
+        <v>1.000658941112778</v>
       </c>
       <c r="W12" t="n">
-        <v>46.22915853635845</v>
+        <v>46.49862884624209</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1940,63 +1940,63 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.000625354736946</v>
+        <v>1.000624981943412</v>
       </c>
       <c r="D13" t="n">
-        <v>4.608266318593803e-05</v>
+        <v>4.619834773681424e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>330.2710977511776</v>
+        <v>330.2712207972058</v>
       </c>
       <c r="F13" t="n">
-        <v>1453.772985310385</v>
+        <v>1453.772985343516</v>
       </c>
       <c r="G13" t="n">
-        <v>1123.501887559208</v>
+        <v>1123.50176454631</v>
       </c>
       <c r="H13" t="n">
-        <v>19064.18900223573</v>
+        <v>19064.19289204932</v>
       </c>
       <c r="I13" t="n">
-        <v>1454.73244778908</v>
+        <v>1459.110834123227</v>
       </c>
       <c r="J13" t="n">
-        <v>34.86649360056092</v>
+        <v>34.86634912538558</v>
       </c>
       <c r="K13" t="n">
-        <v>5.719281233037911</v>
+        <v>5.55099093128723</v>
       </c>
       <c r="L13" t="n">
-        <v>4.608266318593803e-05</v>
+        <v>4.619834773681423e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6357662028932254</v>
+        <v>0.6357654626883789</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
         <v>0.00219</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3548533605362649</v>
+        <v>0.3548555641564326</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6376363545587838</v>
+        <v>0.637183161187643</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>0.01506138613664149</v>
+        <v>0.01509999991006614</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4004228337312237</v>
+        <v>0.408083590419874</v>
       </c>
       <c r="U13" t="n">
-        <v>1.000573090785106</v>
+        <v>1.000572601054335</v>
       </c>
       <c r="V13" t="n">
-        <v>1.000677624148984</v>
+        <v>1.000677368317152</v>
       </c>
       <c r="W13" t="n">
-        <v>40.58577483359883</v>
+        <v>40.41734005667281</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2060,63 +2060,63 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.000582750236355</v>
+        <v>1.000582418811282</v>
       </c>
       <c r="D14" t="n">
-        <v>4.495886538611502e-05</v>
+        <v>4.50491506592691e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>330.2851605912338</v>
+        <v>330.2852699922998</v>
       </c>
       <c r="F14" t="n">
-        <v>1453.781043876936</v>
+        <v>1453.78104391443</v>
       </c>
       <c r="G14" t="n">
-        <v>1123.495883285702</v>
+        <v>1123.49577392213</v>
       </c>
       <c r="H14" t="n">
-        <v>18754.5652930165</v>
+        <v>18754.56842703534</v>
       </c>
       <c r="I14" t="n">
-        <v>1464.98888441094</v>
+        <v>1469.167586764018</v>
       </c>
       <c r="J14" t="n">
-        <v>35.5886230445031</v>
+        <v>35.58847520185582</v>
       </c>
       <c r="K14" t="n">
-        <v>5.602947772473426</v>
+        <v>5.580757688573369</v>
       </c>
       <c r="L14" t="n">
-        <v>4.495886538611502e-05</v>
+        <v>4.50491506592691e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6314801264022646</v>
+        <v>0.6314794011008547</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
         <v>0.00233</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3678878058594959</v>
+        <v>0.3678898707444462</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.63277809500627</v>
+        <v>0.6323228133504795</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>0.01466530630323719</v>
+        <v>0.01469550443171795</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4457208163263349</v>
+        <v>0.4528762432993653</v>
       </c>
       <c r="U14" t="n">
-        <v>1.000531266435785</v>
+        <v>1.000530843570546</v>
       </c>
       <c r="V14" t="n">
-        <v>1.000634239335546</v>
+        <v>1.000633999369481</v>
       </c>
       <c r="W14" t="n">
-        <v>41.19157081697653</v>
+        <v>41.16923289042919</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2180,63 +2180,63 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.000580782898729</v>
+        <v>1.000580511656077</v>
       </c>
       <c r="D15" t="n">
-        <v>4.673595474994628e-05</v>
+        <v>4.683850129325081e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>330.2858099964942</v>
+        <v>330.2858995321164</v>
       </c>
       <c r="F15" t="n">
-        <v>1453.781491252789</v>
+        <v>1453.781491275768</v>
       </c>
       <c r="G15" t="n">
-        <v>1123.495681256294</v>
+        <v>1123.495591743652</v>
       </c>
       <c r="H15" t="n">
-        <v>18682.12817401521</v>
+        <v>18682.13167232756</v>
       </c>
       <c r="I15" t="n">
-        <v>1412.141665542048</v>
+        <v>1415.571664891092</v>
       </c>
       <c r="J15" t="n">
-        <v>34.85927551510024</v>
+        <v>34.85916702456377</v>
       </c>
       <c r="K15" t="n">
-        <v>5.79849696027488</v>
+        <v>5.798395985719107</v>
       </c>
       <c r="L15" t="n">
-        <v>4.673595474994628e-05</v>
+        <v>4.683850129325081e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6347522529379562</v>
+        <v>0.6347515531428417</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
         <v>0.00227</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3554928919533915</v>
+        <v>0.3554949569102108</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6427268572283551</v>
+        <v>0.6423502462349084</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>0.01526840104053673</v>
+        <v>0.01530264639600222</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4230895420142868</v>
+        <v>0.4292375492352174</v>
       </c>
       <c r="U15" t="n">
-        <v>1.000527654200128</v>
+        <v>1.000527279253141</v>
       </c>
       <c r="V15" t="n">
-        <v>1.000633917239969</v>
+        <v>1.000633749723705</v>
       </c>
       <c r="W15" t="n">
-        <v>40.65777247537513</v>
+        <v>40.65756301028288</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2300,63 +2300,63 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.000553521473109</v>
+        <v>1.000553380215448</v>
       </c>
       <c r="D16" t="n">
-        <v>4.588000037453474e-05</v>
+        <v>4.59347334589051e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>330.2948090773521</v>
+        <v>330.2948557082198</v>
       </c>
       <c r="F16" t="n">
-        <v>1453.783114515374</v>
+        <v>1453.783114556796</v>
       </c>
       <c r="G16" t="n">
-        <v>1123.488305438022</v>
+        <v>1123.488258848576</v>
       </c>
       <c r="H16" t="n">
-        <v>18883.53707330696</v>
+        <v>18883.54173426209</v>
       </c>
       <c r="I16" t="n">
-        <v>1422.555568571132</v>
+        <v>1424.15170709223</v>
       </c>
       <c r="J16" t="n">
-        <v>36.92700679857126</v>
+        <v>36.92712411462586</v>
       </c>
       <c r="K16" t="n">
-        <v>6.59243703248184</v>
+        <v>6.790116326689919</v>
       </c>
       <c r="L16" t="n">
-        <v>4.588000037453474e-05</v>
+        <v>4.59347334589051e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6287947300963975</v>
+        <v>0.6287939074695107</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
         <v>0.00229</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3672034816949873</v>
+        <v>0.3672059902201998</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6408964417037477</v>
+        <v>0.6407177489539468</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>0.01497989893583135</v>
+        <v>0.01499818892110473</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4157297834622146</v>
+        <v>0.4186009701541679</v>
       </c>
       <c r="U16" t="n">
-        <v>1.000501208950209</v>
+        <v>1.000501012307751</v>
       </c>
       <c r="V16" t="n">
-        <v>1.000605839466753</v>
+        <v>1.00060575360548</v>
       </c>
       <c r="W16" t="n">
-        <v>43.5194438310531</v>
+        <v>43.71724044131578</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2420,63 +2420,63 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.000554636350895</v>
+        <v>1.000554559681875</v>
       </c>
       <c r="D17" t="n">
-        <v>4.467006295998203e-05</v>
+        <v>4.470889492811364e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>330.2944410431317</v>
+        <v>330.2944663524472</v>
       </c>
       <c r="F17" t="n">
-        <v>1453.786988744859</v>
+        <v>1453.786988780299</v>
       </c>
       <c r="G17" t="n">
-        <v>1123.492547701728</v>
+        <v>1123.492522427852</v>
       </c>
       <c r="H17" t="n">
-        <v>18861.88584138431</v>
+        <v>18861.89014172072</v>
       </c>
       <c r="I17" t="n">
-        <v>1435.051656727776</v>
+        <v>1435.988751449015</v>
       </c>
       <c r="J17" t="n">
-        <v>36.59251694783001</v>
+        <v>36.59236749417536</v>
       </c>
       <c r="K17" t="n">
-        <v>5.804481741007072</v>
+        <v>5.786127360547101</v>
       </c>
       <c r="L17" t="n">
-        <v>4.467006295998203e-05</v>
+        <v>4.470889492811364e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6301468984902059</v>
+        <v>0.6301460987807765</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
         <v>0.00235</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3615978352732477</v>
+        <v>0.3616002382393266</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6359826058929219</v>
+        <v>0.6358726279277597</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>0.01456592207263591</v>
+        <v>0.01457891490746663</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4579596879217332</v>
+        <v>0.4596168594999421</v>
       </c>
       <c r="U17" t="n">
-        <v>1.000503395895788</v>
+        <v>1.000503279879714</v>
       </c>
       <c r="V17" t="n">
-        <v>1.000605882054798</v>
+        <v>1.000605844740897</v>
       </c>
       <c r="W17" t="n">
-        <v>42.39699868883708</v>
+        <v>42.37849485472245</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2540,63 +2540,63 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.000605442715965</v>
+        <v>1.000605073624238</v>
       </c>
       <c r="D18" t="n">
-        <v>4.004005055599261e-05</v>
+        <v>4.015785060026039e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>330.2776701370024</v>
+        <v>330.2777919660427</v>
       </c>
       <c r="F18" t="n">
-        <v>1453.783750105218</v>
+        <v>1453.783750121286</v>
       </c>
       <c r="G18" t="n">
-        <v>1123.506079968216</v>
+        <v>1123.505958155243</v>
       </c>
       <c r="H18" t="n">
-        <v>18630.31448301387</v>
+        <v>18630.31784291104</v>
       </c>
       <c r="I18" t="n">
-        <v>1545.144032789655</v>
+        <v>1550.109665572953</v>
       </c>
       <c r="J18" t="n">
-        <v>36.88259360209288</v>
+        <v>36.88248419226095</v>
       </c>
       <c r="K18" t="n">
-        <v>5.207740274313394</v>
+        <v>5.359242979717336</v>
       </c>
       <c r="L18" t="n">
-        <v>4.00400505559926e-05</v>
+        <v>4.015785060026039e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6334546986548983</v>
+        <v>0.6334540107263257</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
         <v>0.00236</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3597987870393174</v>
+        <v>0.3598008060129424</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6245381224865654</v>
+        <v>0.6240587232175971</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>0.013012049257207</v>
+        <v>0.01305159379006843</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4167638513386682</v>
+        <v>0.4248511591907656</v>
       </c>
       <c r="U18" t="n">
-        <v>1.000558873899224</v>
+        <v>1.000558385049442</v>
       </c>
       <c r="V18" t="n">
-        <v>1.000652015867795</v>
+        <v>1.00065176655645</v>
       </c>
       <c r="W18" t="n">
-        <v>42.09033387640627</v>
+        <v>42.24172717197829</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2660,63 +2660,63 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.000618441190947</v>
+        <v>1.000618192517169</v>
       </c>
       <c r="D19" t="n">
-        <v>4.170446694967391e-05</v>
+        <v>4.178442915297889e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>330.2733796843627</v>
+        <v>330.273461763951</v>
       </c>
       <c r="F19" t="n">
-        <v>1453.781309007295</v>
+        <v>1453.781309053171</v>
       </c>
       <c r="G19" t="n">
-        <v>1123.507929322932</v>
+        <v>1123.50784728922</v>
       </c>
       <c r="H19" t="n">
-        <v>18572.51854152417</v>
+        <v>18572.52279699748</v>
       </c>
       <c r="I19" t="n">
-        <v>1599.772907256796</v>
+        <v>1603.017525759622</v>
       </c>
       <c r="J19" t="n">
-        <v>36.95466314934812</v>
+        <v>36.95477880481404</v>
       </c>
       <c r="K19" t="n">
-        <v>5.903156425058069</v>
+        <v>6.010985047425443</v>
       </c>
       <c r="L19" t="n">
-        <v>4.170446694967391e-05</v>
+        <v>4.178442915297888e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6302970084802606</v>
+        <v>0.6302961755189183</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
         <v>0.00237</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3662524665653352</v>
+        <v>0.3662549461089769</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6362811437515559</v>
+        <v>0.6359754931048767</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>0.01356844645974762</v>
+        <v>0.01359525838866198</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3907755766657169</v>
+        <v>0.3959780517728521</v>
       </c>
       <c r="U19" t="n">
-        <v>1.000570155331926</v>
+        <v>1.00056982545881</v>
       </c>
       <c r="V19" t="n">
-        <v>1.000666731710584</v>
+        <v>1.000666564251833</v>
       </c>
       <c r="W19" t="n">
-        <v>42.85781957440619</v>
+        <v>42.96576385223948</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2780,63 +2780,63 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.000576064910272</v>
+        <v>1.000575708939555</v>
       </c>
       <c r="D20" t="n">
-        <v>4.366201074521622e-05</v>
+        <v>4.378084733687684e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>330.287367383977</v>
+        <v>330.2874848889592</v>
       </c>
       <c r="F20" t="n">
-        <v>1453.776775197109</v>
+        <v>1453.776775249248</v>
       </c>
       <c r="G20" t="n">
-        <v>1123.489407813132</v>
+        <v>1123.489290360289</v>
       </c>
       <c r="H20" t="n">
-        <v>18452.4546112089</v>
+        <v>18452.45800856593</v>
       </c>
       <c r="I20" t="n">
-        <v>1582.148925220651</v>
+        <v>1586.849110998069</v>
       </c>
       <c r="J20" t="n">
-        <v>36.435272594437</v>
+        <v>36.43537665070096</v>
       </c>
       <c r="K20" t="n">
-        <v>6.466479521989892</v>
+        <v>6.717471617598072</v>
       </c>
       <c r="L20" t="n">
-        <v>4.366201074521622e-05</v>
+        <v>4.378084733687684e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6332249285151154</v>
+        <v>0.6332241597872031</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
         <v>0.00234</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3644024314588824</v>
+        <v>0.3644046395449272</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6496574886694539</v>
+        <v>0.6492315318128878</v>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>0.01422989621381709</v>
+        <v>0.01426967734174134</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4339552529206924</v>
+        <v>0.4413231034849661</v>
       </c>
       <c r="U20" t="n">
-        <v>1.000525870408546</v>
+        <v>1.000525393972363</v>
       </c>
       <c r="V20" t="n">
-        <v>1.000626264448577</v>
+        <v>1.000626028967534</v>
       </c>
       <c r="W20" t="n">
-        <v>42.90175211642689</v>
+        <v>43.15284826829903</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2900,63 +2900,63 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.000609517721105</v>
+        <v>1.000609508682247</v>
       </c>
       <c r="D21" t="n">
-        <v>3.830979723194989e-05</v>
+        <v>3.840842050970105e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>330.2763250736389</v>
+        <v>330.2763280571414</v>
       </c>
       <c r="F21" t="n">
-        <v>1453.737751062079</v>
+        <v>1453.73775107716</v>
       </c>
       <c r="G21" t="n">
-        <v>1123.461425988441</v>
+        <v>1123.461423020018</v>
       </c>
       <c r="H21" t="n">
-        <v>18697.03665459119</v>
+        <v>18697.03753783258</v>
       </c>
       <c r="I21" t="n">
-        <v>1643.89705264417</v>
+        <v>1646.692134923052</v>
       </c>
       <c r="J21" t="n">
-        <v>37.549352236437</v>
+        <v>37.54920204745083</v>
       </c>
       <c r="K21" t="n">
-        <v>6.827014642996137</v>
+        <v>6.760124440550188</v>
       </c>
       <c r="L21" t="n">
-        <v>3.830979723194989e-05</v>
+        <v>3.840842050970104e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6357065355789276</v>
+        <v>0.6357059821470634</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
         <v>0.00244</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3635546076166999</v>
+        <v>0.363555971494974</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6381885717628177</v>
+        <v>0.6379077692640942</v>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>0.01241532237851083</v>
+        <v>0.01244851688107454</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4165606331921012</v>
+        <v>0.4207447850465935</v>
       </c>
       <c r="U21" t="n">
-        <v>1.000564513864378</v>
+        <v>1.000564404268887</v>
       </c>
       <c r="V21" t="n">
-        <v>1.000654525626423</v>
+        <v>1.000654617162311</v>
       </c>
       <c r="W21" t="n">
-        <v>44.37636687943314</v>
+        <v>44.30932648800102</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -3020,63 +3020,63 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.000612425077043</v>
+        <v>1.000612450486726</v>
       </c>
       <c r="D22" t="n">
-        <v>3.851721779855774e-05</v>
+        <v>3.86175136203841e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>330.2753654305138</v>
+        <v>330.2753570434581</v>
       </c>
       <c r="F22" t="n">
-        <v>1453.739376447435</v>
+        <v>1453.739376452594</v>
       </c>
       <c r="G22" t="n">
-        <v>1123.464011016921</v>
+        <v>1123.464019409136</v>
       </c>
       <c r="H22" t="n">
-        <v>18288.46411839596</v>
+        <v>18288.45822494216</v>
       </c>
       <c r="I22" t="n">
-        <v>1651.407161195731</v>
+        <v>1654.776627919407</v>
       </c>
       <c r="J22" t="n">
-        <v>37.93858273575431</v>
+        <v>37.93855579377173</v>
       </c>
       <c r="K22" t="n">
-        <v>6.183784438558821</v>
+        <v>6.041811407311457</v>
       </c>
       <c r="L22" t="n">
-        <v>3.851721779855774e-05</v>
+        <v>3.86175136203841e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6378405835629969</v>
+        <v>0.6378404646740639</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
         <v>0.00254</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3750937921797862</v>
+        <v>0.3750931488812629</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6430039112129493</v>
+        <v>0.642664359384172</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>0.01246513429750826</v>
+        <v>0.01249893809499708</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3968171755443493</v>
+        <v>0.4018944892208833</v>
       </c>
       <c r="U22" t="n">
-        <v>1.000566967125022</v>
+        <v>1.00056689012868</v>
       </c>
       <c r="V22" t="n">
-        <v>1.00065788715976</v>
+        <v>1.0006580149941</v>
       </c>
       <c r="W22" t="n">
-        <v>44.12236717431313</v>
+        <v>43.98036720108318</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3140,63 +3140,63 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.000598695850648</v>
+        <v>1.000598610335985</v>
       </c>
       <c r="D23" t="n">
-        <v>3.832098165358829e-05</v>
+        <v>3.834731057657201e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>330.279897142661</v>
+        <v>330.2799253695384</v>
       </c>
       <c r="F23" t="n">
-        <v>1453.738655311542</v>
+        <v>1453.738655312806</v>
       </c>
       <c r="G23" t="n">
-        <v>1123.458758168881</v>
+        <v>1123.458729943268</v>
       </c>
       <c r="H23" t="n">
-        <v>18569.11616213555</v>
+        <v>18569.11583429856</v>
       </c>
       <c r="I23" t="n">
-        <v>1642.080157221815</v>
+        <v>1643.595315827929</v>
       </c>
       <c r="J23" t="n">
-        <v>36.50175643616235</v>
+        <v>36.50161704694739</v>
       </c>
       <c r="K23" t="n">
-        <v>6.809348857427408</v>
+        <v>6.752987360317663</v>
       </c>
       <c r="L23" t="n">
-        <v>3.832098165358829e-05</v>
+        <v>3.834731057657201e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6390370403851786</v>
+        <v>0.6390365737717668</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
         <v>0.00239</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3621402728365088</v>
+        <v>0.3621412556854046</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6384135279761882</v>
+        <v>0.6382636519402396</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>0.01242894549663806</v>
+        <v>0.01243780171384826</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4028737938102057</v>
+        <v>0.4052667178039037</v>
       </c>
       <c r="U23" t="n">
-        <v>1.00055380316295</v>
+        <v>1.00055369082804</v>
       </c>
       <c r="V23" t="n">
-        <v>1.000643592567004</v>
+        <v>1.000643533877402</v>
       </c>
       <c r="W23" t="n">
-        <v>43.31110529358975</v>
+        <v>43.25460440726505</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3260,63 +3260,63 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.000605581366892</v>
+        <v>1.000605453700735</v>
       </c>
       <c r="D24" t="n">
-        <v>3.80199565555604e-05</v>
+        <v>3.808565428070352e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>330.2776243714122</v>
+        <v>330.2776665111737</v>
       </c>
       <c r="F24" t="n">
-        <v>1453.740553627591</v>
+        <v>1453.740553643751</v>
       </c>
       <c r="G24" t="n">
-        <v>1123.462929256178</v>
+        <v>1123.462887132577</v>
       </c>
       <c r="H24" t="n">
-        <v>18495.43243452437</v>
+        <v>18495.43357448343</v>
       </c>
       <c r="I24" t="n">
-        <v>1616.535850374877</v>
+        <v>1619.186125997977</v>
       </c>
       <c r="J24" t="n">
-        <v>34.44441056795357</v>
+        <v>34.44428046678063</v>
       </c>
       <c r="K24" t="n">
-        <v>5.322171150936358</v>
+        <v>5.248225642432889</v>
       </c>
       <c r="L24" t="n">
-        <v>3.801995655556041e-05</v>
+        <v>3.808565428070351e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6403021578996387</v>
+        <v>0.6403016227535764</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
         <v>0.00226</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3561834442842352</v>
+        <v>0.356184800489783</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6508800160670658</v>
+        <v>0.650654077362935</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>0.01235209246778605</v>
+        <v>0.01237415215243126</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3697466589581596</v>
+        <v>0.3739091669186148</v>
       </c>
       <c r="U24" t="n">
-        <v>1.000561314685255</v>
+        <v>1.000561120204541</v>
       </c>
       <c r="V24" t="n">
-        <v>1.000649851965582</v>
+        <v>1.000649791125815</v>
       </c>
       <c r="W24" t="n">
-        <v>39.76658171888992</v>
+        <v>39.69250610921353</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3380,63 +3380,63 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.000603255008534</v>
+        <v>1.000603284724002</v>
       </c>
       <c r="D25" t="n">
-        <v>3.644950520181581e-05</v>
+        <v>3.650756042739874e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>330.2783922522963</v>
+        <v>330.2783824438363</v>
       </c>
       <c r="F25" t="n">
-        <v>1453.738660364815</v>
+        <v>1453.738660375477</v>
       </c>
       <c r="G25" t="n">
-        <v>1123.460268112519</v>
+        <v>1123.460277931641</v>
       </c>
       <c r="H25" t="n">
-        <v>18684.9662936351</v>
+        <v>18684.96765897988</v>
       </c>
       <c r="I25" t="n">
-        <v>1625.481807321973</v>
+        <v>1628.250096641611</v>
       </c>
       <c r="J25" t="n">
-        <v>36.44591819432831</v>
+        <v>36.44584449936388</v>
       </c>
       <c r="K25" t="n">
-        <v>6.223092545204262</v>
+        <v>6.09625234098538</v>
       </c>
       <c r="L25" t="n">
-        <v>3.644950520181581e-05</v>
+        <v>3.650756042739874e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6412003179081738</v>
+        <v>0.6411997665286235</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
         <v>0.0024</v>
       </c>
       <c r="P25" t="n">
-        <v>0.356329479135959</v>
+        <v>0.3563309026869077</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6357981896324627</v>
+        <v>0.6355096011280366</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>0.01179682569385433</v>
+        <v>0.01181639185893467</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3725780066815678</v>
+        <v>0.376882475729423</v>
       </c>
       <c r="U25" t="n">
-        <v>1.000560246504952</v>
+        <v>1.000560216945792</v>
       </c>
       <c r="V25" t="n">
-        <v>1.000646267209665</v>
+        <v>1.000646356209962</v>
       </c>
       <c r="W25" t="n">
-        <v>42.66901073953257</v>
+        <v>42.54209684034926</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3500,63 +3500,63 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.000612704717512</v>
+        <v>1.00061261818351</v>
       </c>
       <c r="D26" t="n">
-        <v>3.866509439531585e-05</v>
+        <v>3.878959190047638e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>330.2752731287092</v>
+        <v>330.2753016912527</v>
       </c>
       <c r="F26" t="n">
-        <v>1453.737002661596</v>
+        <v>1453.73700266552</v>
       </c>
       <c r="G26" t="n">
-        <v>1123.461729532887</v>
+        <v>1123.461700974267</v>
       </c>
       <c r="H26" t="n">
-        <v>18494.63873471073</v>
+        <v>18494.64007144868</v>
       </c>
       <c r="I26" t="n">
-        <v>1655.082753297653</v>
+        <v>1659.042621066559</v>
       </c>
       <c r="J26" t="n">
-        <v>35.44115572447154</v>
+        <v>35.44108778306157</v>
       </c>
       <c r="K26" t="n">
-        <v>5.59994710526851</v>
+        <v>5.511920413960285</v>
       </c>
       <c r="L26" t="n">
-        <v>3.866509439531584e-05</v>
+        <v>3.878959190047638e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6427372844704099</v>
+        <v>0.6427367545160755</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
         <v>0.00238</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3553556776260827</v>
+        <v>0.355357049902646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.637973317608187</v>
+        <v>0.6375854400739172</v>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>0.01254638125536576</v>
+        <v>0.01258823169142542</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4178214628964331</v>
+        <v>0.4238377796463085</v>
       </c>
       <c r="U26" t="n">
-        <v>1.00056748531124</v>
+        <v>1.000567272005114</v>
       </c>
       <c r="V26" t="n">
-        <v>1.00065792821124</v>
+        <v>1.000657968472311</v>
       </c>
       <c r="W26" t="n">
-        <v>41.04110282974005</v>
+        <v>40.95300819702185</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3620,63 +3620,63 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.000585564934343</v>
+        <v>1.000585529390333</v>
       </c>
       <c r="D27" t="n">
-        <v>3.77112946648604e-05</v>
+        <v>3.779197140136128e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>330.2842314823104</v>
+        <v>330.2842432150665</v>
       </c>
       <c r="F27" t="n">
-        <v>1453.740852715409</v>
+        <v>1453.74085273405</v>
       </c>
       <c r="G27" t="n">
-        <v>1123.456621233099</v>
+        <v>1123.456609518983</v>
       </c>
       <c r="H27" t="n">
-        <v>19150.70834009544</v>
+        <v>19150.7089035286</v>
       </c>
       <c r="I27" t="n">
-        <v>1663.408868856341</v>
+        <v>1666.61713612154</v>
       </c>
       <c r="J27" t="n">
-        <v>39.06569214063961</v>
+        <v>39.06553166286407</v>
       </c>
       <c r="K27" t="n">
-        <v>6.758202195359894</v>
+        <v>6.767256737062411</v>
       </c>
       <c r="L27" t="n">
-        <v>3.771129466486039e-05</v>
+        <v>3.779197140136128e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6360344522464173</v>
+        <v>0.6360338808949932</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
         <v>0.0025</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3716724407770262</v>
+        <v>0.3716737895873611</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6373121233692769</v>
+        <v>0.6369466054075815</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>0.01220197256494463</v>
+        <v>0.01222917157946232</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3984649708527834</v>
+        <v>0.4036052260344357</v>
       </c>
       <c r="U27" t="n">
-        <v>1.000541027758971</v>
+        <v>1.000540909826924</v>
       </c>
       <c r="V27" t="n">
-        <v>1.000630106074867</v>
+        <v>1.000630152933578</v>
       </c>
       <c r="W27" t="n">
-        <v>45.8238943359995</v>
+        <v>45.83278839992649</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3740,63 +3740,63 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.000583372998961</v>
+        <v>1.000583371606836</v>
       </c>
       <c r="D28" t="n">
-        <v>3.797199081982634e-05</v>
+        <v>3.80174235610627e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>330.28495502191</v>
+        <v>330.2849554814397</v>
       </c>
       <c r="F28" t="n">
-        <v>1453.745460294957</v>
+        <v>1453.745460312319</v>
       </c>
       <c r="G28" t="n">
-        <v>1123.460505273047</v>
+        <v>1123.460504830879</v>
       </c>
       <c r="H28" t="n">
-        <v>20158.7937158724</v>
+        <v>20158.7960421281</v>
       </c>
       <c r="I28" t="n">
-        <v>1652.152586942079</v>
+        <v>1653.488391524481</v>
       </c>
       <c r="J28" t="n">
-        <v>39.05508759965137</v>
+        <v>39.05500034174508</v>
       </c>
       <c r="K28" t="n">
-        <v>5.363834978172652</v>
+        <v>5.312179925717903</v>
       </c>
       <c r="L28" t="n">
-        <v>3.797199081982634e-05</v>
+        <v>3.801742356106269e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6403944567788067</v>
+        <v>0.6403938277347125</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
         <v>0.00238</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3518231737883901</v>
+        <v>0.3518248885732911</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6498986710507604</v>
+        <v>0.649747869393611</v>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>0.01231368184868693</v>
+        <v>0.01232896499512349</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3672192337913738</v>
+        <v>0.3694653393494288</v>
       </c>
       <c r="U28" t="n">
-        <v>1.000538861132831</v>
+        <v>1.000538813445349</v>
       </c>
       <c r="V28" t="n">
-        <v>1.000627888825745</v>
+        <v>1.000627933737221</v>
       </c>
       <c r="W28" t="n">
-        <v>44.41892257782403</v>
+        <v>44.36718026746298</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3860,63 +3860,63 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.000559353213893</v>
+        <v>1.000559314255638</v>
       </c>
       <c r="D29" t="n">
-        <v>3.865268506628142e-05</v>
+        <v>3.868762523843392e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>330.2928839604635</v>
+        <v>330.2928968209048</v>
       </c>
       <c r="F29" t="n">
-        <v>1453.742003195667</v>
+        <v>1453.742003208861</v>
       </c>
       <c r="G29" t="n">
-        <v>1123.449119235204</v>
+        <v>1123.449106387956</v>
       </c>
       <c r="H29" t="n">
-        <v>19418.47792664642</v>
+        <v>19418.47956620084</v>
       </c>
       <c r="I29" t="n">
-        <v>1659.132430108401</v>
+        <v>1660.717101434883</v>
       </c>
       <c r="J29" t="n">
-        <v>38.276694228261</v>
+        <v>38.27660673428687</v>
       </c>
       <c r="K29" t="n">
-        <v>8.290094929164145</v>
+        <v>8.158311582809922</v>
       </c>
       <c r="L29" t="n">
-        <v>3.865268506628143e-05</v>
+        <v>3.868762523843392e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.638703485042339</v>
+        <v>0.6387028839559781</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
         <v>0.00242</v>
       </c>
       <c r="P29" t="n">
-        <v>0.3641961220040945</v>
+        <v>0.3641976880568647</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6403783256264095</v>
+        <v>0.6401940438665266</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>0.01253524643210361</v>
+        <v>0.01254700032368265</v>
       </c>
       <c r="T29" t="n">
-        <v>0.3333070190692619</v>
+        <v>0.3359986610015925</v>
       </c>
       <c r="U29" t="n">
-        <v>1.000514051195832</v>
+        <v>1.000513976638159</v>
       </c>
       <c r="V29" t="n">
-        <v>1.000604659334577</v>
+        <v>1.000604655982191</v>
       </c>
       <c r="W29" t="n">
-        <v>46.56678915742515</v>
+        <v>46.43491831709679</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3980,63 +3980,63 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.000625514201714</v>
+        <v>1.00062543664521</v>
       </c>
       <c r="D30" t="n">
-        <v>3.872297344548831e-05</v>
+        <v>3.88053740063398e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>330.2710451174969</v>
+        <v>330.2710707161541</v>
       </c>
       <c r="F30" t="n">
-        <v>1453.743555835814</v>
+        <v>1453.743555866957</v>
       </c>
       <c r="G30" t="n">
-        <v>1123.472510718317</v>
+        <v>1123.472485150803</v>
       </c>
       <c r="H30" t="n">
-        <v>20886.2717219504</v>
+        <v>20886.27381620504</v>
       </c>
       <c r="I30" t="n">
-        <v>1666.949213761381</v>
+        <v>1669.947478128385</v>
       </c>
       <c r="J30" t="n">
-        <v>40.87734080757627</v>
+        <v>40.8774020297252</v>
       </c>
       <c r="K30" t="n">
-        <v>5.356794702138833</v>
+        <v>5.383375268242724</v>
       </c>
       <c r="L30" t="n">
-        <v>3.872297344548831e-05</v>
+        <v>3.88053740063398e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6367840901725264</v>
+        <v>0.6367834485607252</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
         <v>0.00239</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3570284207550816</v>
+        <v>0.3570301269526179</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6528840149706672</v>
+        <v>0.6525829515934037</v>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>0.01256377284923995</v>
+        <v>0.01259147534890054</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3526206555972479</v>
+        <v>0.3575504258619176</v>
       </c>
       <c r="U30" t="n">
-        <v>1.000580210656614</v>
+        <v>1.00058004918421</v>
       </c>
       <c r="V30" t="n">
-        <v>1.000670821849442</v>
+        <v>1.000670828224052</v>
       </c>
       <c r="W30" t="n">
-        <v>46.23413550971511</v>
+        <v>46.26077729796792</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -4100,63 +4100,63 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.000606290972244</v>
+        <v>1.000606259609182</v>
       </c>
       <c r="D31" t="n">
-        <v>3.766102307512551e-05</v>
+        <v>3.771566304549318e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>330.2773901466508</v>
+        <v>330.2774004988846</v>
       </c>
       <c r="F31" t="n">
-        <v>1453.737759944448</v>
+        <v>1453.737759924153</v>
       </c>
       <c r="G31" t="n">
-        <v>1123.460369797797</v>
+        <v>1123.460359425268</v>
       </c>
       <c r="H31" t="n">
-        <v>18991.16659208959</v>
+        <v>18991.1669927675</v>
       </c>
       <c r="I31" t="n">
-        <v>1732.246763213439</v>
+        <v>1734.031851433941</v>
       </c>
       <c r="J31" t="n">
-        <v>39.59714573688367</v>
+        <v>39.5970690993981</v>
       </c>
       <c r="K31" t="n">
-        <v>6.986452872589695</v>
+        <v>6.840539683847598</v>
       </c>
       <c r="L31" t="n">
-        <v>3.766102307512551e-05</v>
+        <v>3.771566304549318e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6415152991332262</v>
+        <v>0.6415147928466394</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
         <v>0.00261</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3643126129753345</v>
+        <v>0.3643137887218364</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6409541214315984</v>
+        <v>0.6407529780813291</v>
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>0.01216167267122994</v>
+        <v>0.01218012970276554</v>
       </c>
       <c r="T31" t="n">
-        <v>0.380905365989308</v>
+        <v>0.3837686784390293</v>
       </c>
       <c r="U31" t="n">
-        <v>1.000561540807657</v>
+        <v>1.000561453535103</v>
       </c>
       <c r="V31" t="n">
-        <v>1.000651045139916</v>
+        <v>1.000651069696357</v>
       </c>
       <c r="W31" t="n">
-        <v>46.58359860947336</v>
+        <v>46.43760878324569</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -4220,63 +4220,63 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.000592601366862</v>
+        <v>1.000592583724423</v>
       </c>
       <c r="D32" t="n">
-        <v>3.8599310315733e-05</v>
+        <v>3.866627025492087e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>330.281908836007</v>
+        <v>330.2819146595343</v>
       </c>
       <c r="F32" t="n">
-        <v>1453.738431095944</v>
+        <v>1453.738431095303</v>
       </c>
       <c r="G32" t="n">
-        <v>1123.456522259937</v>
+        <v>1123.456516435769</v>
       </c>
       <c r="H32" t="n">
-        <v>18879.44779734719</v>
+        <v>18879.44671090752</v>
       </c>
       <c r="I32" t="n">
-        <v>1703.82648068206</v>
+        <v>1706.0235072682</v>
       </c>
       <c r="J32" t="n">
-        <v>38.74823966098478</v>
+        <v>38.74808786011564</v>
       </c>
       <c r="K32" t="n">
-        <v>6.071692621781034</v>
+        <v>6.009126455020985</v>
       </c>
       <c r="L32" t="n">
-        <v>3.859931031573302e-05</v>
+        <v>3.866627025492086e-05</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6381732116024408</v>
+        <v>0.6381727558839202</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
         <v>0.00256</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3685461275345634</v>
+        <v>0.3685469738468099</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6467830991578016</v>
+        <v>0.6465412616176498</v>
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>0.01248897818191179</v>
+        <v>0.01251155308437674</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3495710425089068</v>
+        <v>0.3531669616555019</v>
       </c>
       <c r="U32" t="n">
-        <v>1.000547012402535</v>
+        <v>1.000546926377033</v>
       </c>
       <c r="V32" t="n">
-        <v>1.000638194485812</v>
+        <v>1.000638245238911</v>
       </c>
       <c r="W32" t="n">
-        <v>44.81993228276581</v>
+        <v>44.75721431513662</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -4340,63 +4340,63 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.000625489569342</v>
+        <v>1.000625441038005</v>
       </c>
       <c r="D33" t="n">
-        <v>3.739085750679836e-05</v>
+        <v>3.743132410046545e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>330.2710532477709</v>
+        <v>330.2710692662479</v>
       </c>
       <c r="F33" t="n">
-        <v>1453.741318478411</v>
+        <v>1453.74131848314</v>
       </c>
       <c r="G33" t="n">
-        <v>1123.47026523064</v>
+        <v>1123.470249216892</v>
       </c>
       <c r="H33" t="n">
-        <v>18223.8908957831</v>
+        <v>18223.88988334278</v>
       </c>
       <c r="I33" t="n">
-        <v>1701.332846204054</v>
+        <v>1702.309004758345</v>
       </c>
       <c r="J33" t="n">
-        <v>35.54806292106275</v>
+        <v>35.54793795259278</v>
       </c>
       <c r="K33" t="n">
-        <v>5.906322690560057</v>
+        <v>5.943623585048755</v>
       </c>
       <c r="L33" t="n">
-        <v>3.739085750679836e-05</v>
+        <v>3.743132410046546e-05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6404389019793866</v>
+        <v>0.6404384986586674</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
         <v>0.00243</v>
       </c>
       <c r="P33" t="n">
-        <v>0.3693554763418923</v>
+        <v>0.3693562080195111</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6371432517455189</v>
+        <v>0.6370545320161332</v>
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>0.0121076757751488</v>
+        <v>0.01212130754801369</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3722389080491838</v>
+        <v>0.3737348108006932</v>
       </c>
       <c r="U33" t="n">
-        <v>1.000581446567348</v>
+        <v>1.000581356743607</v>
       </c>
       <c r="V33" t="n">
-        <v>1.000669536448824</v>
+        <v>1.000669529217167</v>
       </c>
       <c r="W33" t="n">
-        <v>41.45438561162281</v>
+        <v>41.49156153764154</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4460,63 +4460,63 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.000595733210327</v>
+        <v>1.000595726678221</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001899081826765105</v>
+        <v>0.0001898434240077455</v>
       </c>
       <c r="E34" t="n">
-        <v>330.2808750606234</v>
+        <v>330.2808772167684</v>
       </c>
       <c r="F34" t="n">
-        <v>1453.739610976527</v>
+        <v>1453.739610962961</v>
       </c>
       <c r="G34" t="n">
-        <v>1123.458735915903</v>
+        <v>1123.458733746192</v>
       </c>
       <c r="H34" t="n">
-        <v>18629.21644481487</v>
+        <v>18629.21447496486</v>
       </c>
       <c r="I34" t="n">
-        <v>1749.296710993817</v>
+        <v>1752.898922648959</v>
       </c>
       <c r="J34" t="n">
-        <v>37.22967470484044</v>
+        <v>37.22954314913102</v>
       </c>
       <c r="K34" t="n">
-        <v>7.25029852034139</v>
+        <v>7.195743381402734</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0001899081826765105</v>
+        <v>0.0001898434240077456</v>
       </c>
       <c r="M34" t="n">
-        <v>0.640564520825212</v>
+        <v>0.6405641722954902</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
         <v>0.00246</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3667629689528667</v>
+        <v>0.3667634399485644</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6332230055441945</v>
+        <v>0.632805960795836</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>0.06267478154429398</v>
+        <v>0.06265337692947062</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4412541764745605</v>
+        <v>0.4468085893020647</v>
       </c>
       <c r="U34" t="n">
-        <v>1.000398444359985</v>
+        <v>1.000398502650807</v>
       </c>
       <c r="V34" t="n">
-        <v>1.000793099890793</v>
+        <v>1.000793028484615</v>
       </c>
       <c r="W34" t="n">
-        <v>44.47997322518183</v>
+        <v>44.42528653053375</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4580,63 +4580,63 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.000609100929474</v>
+        <v>1.000609119961757</v>
       </c>
       <c r="D35" t="n">
-        <v>3.883025890005894e-05</v>
+        <v>3.883917525190167e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>330.2764626462517</v>
+        <v>330.2764563641629</v>
       </c>
       <c r="F35" t="n">
-        <v>1453.738566805822</v>
+        <v>1453.738566803134</v>
       </c>
       <c r="G35" t="n">
-        <v>1123.46210415957</v>
+        <v>1123.462110438971</v>
       </c>
       <c r="H35" t="n">
-        <v>18669.5124743894</v>
+        <v>18669.51168483065</v>
       </c>
       <c r="I35" t="n">
-        <v>1719.975685889903</v>
+        <v>1719.244051813184</v>
       </c>
       <c r="J35" t="n">
-        <v>36.89053110105693</v>
+        <v>36.89039605157714</v>
       </c>
       <c r="K35" t="n">
-        <v>5.969554200967725</v>
+        <v>5.844002017200756</v>
       </c>
       <c r="L35" t="n">
-        <v>3.883025890005894e-05</v>
+        <v>3.883917525190167e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6386677557399573</v>
+        <v>0.6386673390437837</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
         <v>0.00246</v>
       </c>
       <c r="P35" t="n">
-        <v>0.3720115547628823</v>
+        <v>0.3720123564268454</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6509654558704714</v>
+        <v>0.6510362652049075</v>
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
-        <v>0.01258657448499701</v>
+        <v>0.01258957480304439</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3491665449879188</v>
+        <v>0.3480056214841649</v>
       </c>
       <c r="U35" t="n">
-        <v>1.000563517743267</v>
+        <v>1.000563527684849</v>
       </c>
       <c r="V35" t="n">
-        <v>1.000654688269183</v>
+        <v>1.000654716393826</v>
       </c>
       <c r="W35" t="n">
-        <v>42.86008530202466</v>
+        <v>42.7343980687779</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4700,63 +4700,63 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.000619681097533</v>
+        <v>1.000619675816445</v>
       </c>
       <c r="D36" t="n">
-        <v>3.795352130364004e-05</v>
+        <v>3.802381626205643e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>330.2729704298313</v>
+        <v>330.2729721729518</v>
       </c>
       <c r="F36" t="n">
-        <v>1453.739434933904</v>
+        <v>1453.739434934003</v>
       </c>
       <c r="G36" t="n">
-        <v>1123.466464504073</v>
+        <v>1123.466462761051</v>
       </c>
       <c r="H36" t="n">
-        <v>18166.78866316679</v>
+        <v>18166.78497200997</v>
       </c>
       <c r="I36" t="n">
-        <v>1703.789877011274</v>
+        <v>1706.374606806794</v>
       </c>
       <c r="J36" t="n">
-        <v>36.38565496409531</v>
+        <v>36.38564965316521</v>
       </c>
       <c r="K36" t="n">
-        <v>7.498117912180077</v>
+        <v>7.418094288932502</v>
       </c>
       <c r="L36" t="n">
-        <v>3.795352130364004e-05</v>
+        <v>3.802381626205643e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>0.6406173295294948</v>
+        <v>0.6406170897694931</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
         <v>0.00251</v>
       </c>
       <c r="P36" t="n">
-        <v>0.3695185740495018</v>
+        <v>0.3695185303180163</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6372577858806783</v>
+        <v>0.6369942997413248</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>0.01228115149472827</v>
+        <v>0.01230484709432452</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3473541291096037</v>
+        <v>0.3512682809755733</v>
       </c>
       <c r="U36" t="n">
-        <v>1.000574870726053</v>
+        <v>1.000574793661914</v>
       </c>
       <c r="V36" t="n">
-        <v>1.000664495482825</v>
+        <v>1.000664561997658</v>
       </c>
       <c r="W36" t="n">
-        <v>43.88377287627539</v>
+        <v>43.80374394209771</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4820,63 +4820,63 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.000618047636455</v>
+        <v>1.000618053356159</v>
       </c>
       <c r="D37" t="n">
-        <v>3.860587427571021e-05</v>
+        <v>3.86542801604797e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>330.2735095846504</v>
+        <v>330.2735076967504</v>
       </c>
       <c r="F37" t="n">
-        <v>1453.735503670787</v>
+        <v>1453.735503663534</v>
       </c>
       <c r="G37" t="n">
-        <v>1123.461994086137</v>
+        <v>1123.461995966784</v>
       </c>
       <c r="H37" t="n">
-        <v>18668.96788392145</v>
+        <v>18668.96728218386</v>
       </c>
       <c r="I37" t="n">
-        <v>1742.956995981427</v>
+        <v>1744.751915390551</v>
       </c>
       <c r="J37" t="n">
-        <v>36.661441662855</v>
+        <v>36.66130115942057</v>
       </c>
       <c r="K37" t="n">
-        <v>7.418507357919053</v>
+        <v>7.282624843774936</v>
       </c>
       <c r="L37" t="n">
-        <v>3.860587427571021e-05</v>
+        <v>3.86542801604797e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6397999685053746</v>
+        <v>0.6397995246354415</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
         <v>0.00245</v>
       </c>
       <c r="P37" t="n">
-        <v>0.3651620919281423</v>
+        <v>0.3651629826816897</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6501704246992546</v>
+        <v>0.6500045905713694</v>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>0.01251290089195824</v>
+        <v>0.01252919117483711</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3537476312937483</v>
+        <v>0.3563467564918791</v>
       </c>
       <c r="U37" t="n">
-        <v>1.000572717115033</v>
+        <v>1.000572673484595</v>
       </c>
       <c r="V37" t="n">
-        <v>1.000663382265423</v>
+        <v>1.000663437344218</v>
       </c>
       <c r="W37" t="n">
-        <v>44.07994902077405</v>
+        <v>43.9439260031955</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4940,63 +4940,63 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.00060621182372</v>
+        <v>1.000606169355769</v>
       </c>
       <c r="D38" t="n">
-        <v>3.88213551826425e-05</v>
+        <v>3.890103371382671e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>330.277416271781</v>
+        <v>330.2774302894893</v>
       </c>
       <c r="F38" t="n">
-        <v>1453.736690340052</v>
+        <v>1453.7366903154</v>
       </c>
       <c r="G38" t="n">
-        <v>1123.459274068271</v>
+        <v>1123.459260025911</v>
       </c>
       <c r="H38" t="n">
-        <v>18351.16157393233</v>
+        <v>18351.1612320913</v>
       </c>
       <c r="I38" t="n">
-        <v>1712.392628109152</v>
+        <v>1715.23470641313</v>
       </c>
       <c r="J38" t="n">
-        <v>35.7999822106589</v>
+        <v>35.7999078502633</v>
       </c>
       <c r="K38" t="n">
-        <v>6.285388721546845</v>
+        <v>6.344134238961683</v>
       </c>
       <c r="L38" t="n">
-        <v>3.88213551826425e-05</v>
+        <v>3.890103371382671e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>0.6397075839229072</v>
+        <v>0.6397071577309577</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
         <v>0.00245</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3683422701269476</v>
+        <v>0.3683431598657934</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6432847021128274</v>
+        <v>0.6429755202078232</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>0.0125855666640542</v>
+        <v>0.01261237619025926</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3631720089273678</v>
+        <v>0.3677712097571003</v>
       </c>
       <c r="U38" t="n">
-        <v>1.000560662246918</v>
+        <v>1.000560538568283</v>
       </c>
       <c r="V38" t="n">
-        <v>1.000651765547914</v>
+        <v>1.000651804305449</v>
       </c>
       <c r="W38" t="n">
-        <v>42.08537093220575</v>
+        <v>42.14404208922498</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -5060,63 +5060,63 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.000631612915295</v>
+        <v>1.000631626150117</v>
       </c>
       <c r="D39" t="n">
-        <v>3.740711149581515e-05</v>
+        <v>3.746714218635559e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>330.2690321603984</v>
+        <v>330.2690277921056</v>
       </c>
       <c r="F39" t="n">
-        <v>1453.734652874807</v>
+        <v>1453.734652880675</v>
       </c>
       <c r="G39" t="n">
-        <v>1123.465620714408</v>
+        <v>1123.46562508857</v>
       </c>
       <c r="H39" t="n">
-        <v>19193.81761959681</v>
+        <v>19193.81852189256</v>
       </c>
       <c r="I39" t="n">
-        <v>1737.857461309262</v>
+        <v>1739.360603485168</v>
       </c>
       <c r="J39" t="n">
-        <v>39.37466317105261</v>
+        <v>39.37458112322713</v>
       </c>
       <c r="K39" t="n">
-        <v>5.960631065015701</v>
+        <v>6.024385538883367</v>
       </c>
       <c r="L39" t="n">
-        <v>3.740711149581516e-05</v>
+        <v>3.746714218635558e-05</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6391473367443629</v>
+        <v>0.6391467884082973</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
         <v>0.00252</v>
       </c>
       <c r="P39" t="n">
-        <v>0.3589779187703035</v>
+        <v>0.3589792669662193</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6555802510541797</v>
+        <v>0.6554486174637422</v>
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>0.01209467068756641</v>
+        <v>0.01211492187459911</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3369303069413125</v>
+        <v>0.339110599336248</v>
       </c>
       <c r="U39" t="n">
-        <v>1.000587336119751</v>
+        <v>1.00058728800286</v>
       </c>
       <c r="V39" t="n">
-        <v>1.00067589362958</v>
+        <v>1.000675968226983</v>
       </c>
       <c r="W39" t="n">
-        <v>45.33529423606831</v>
+        <v>45.3989666621105</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -5180,63 +5180,63 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.000601015779139</v>
+        <v>1.000601004137384</v>
       </c>
       <c r="D40" t="n">
-        <v>3.859958354852311e-05</v>
+        <v>3.863512651780241e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>330.2791313771547</v>
+        <v>330.279135219874</v>
       </c>
       <c r="F40" t="n">
-        <v>1453.734162916802</v>
+        <v>1453.734162914368</v>
       </c>
       <c r="G40" t="n">
-        <v>1123.455031539648</v>
+        <v>1123.455027694494</v>
       </c>
       <c r="H40" t="n">
-        <v>18659.54615267173</v>
+        <v>18659.54414722345</v>
       </c>
       <c r="I40" t="n">
-        <v>1705.549161420058</v>
+        <v>1706.484268066267</v>
       </c>
       <c r="J40" t="n">
-        <v>38.08378804483949</v>
+        <v>38.08365553900027</v>
       </c>
       <c r="K40" t="n">
-        <v>6.168611982901667</v>
+        <v>6.289131775642413</v>
       </c>
       <c r="L40" t="n">
-        <v>3.859958354852311e-05</v>
+        <v>3.863512651780242e-05</v>
       </c>
       <c r="M40" t="n">
-        <v>0.6399515444013593</v>
+        <v>0.6399511841659835</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
         <v>0.00258</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3746360504759315</v>
+        <v>0.3746365430105715</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6380123426219275</v>
+        <v>0.6379082298515669</v>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>0.01248484455125842</v>
+        <v>0.01249683160396972</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3604092576381339</v>
+        <v>0.3619470567098433</v>
       </c>
       <c r="U40" t="n">
-        <v>1.00055537798431</v>
+        <v>1.000555330031415</v>
       </c>
       <c r="V40" t="n">
-        <v>1.000646657737463</v>
+        <v>1.000646682413476</v>
       </c>
       <c r="W40" t="n">
-        <v>44.25240002774116</v>
+        <v>44.37278731464268</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -5300,63 +5300,63 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.000612594183147</v>
+        <v>1.000612581843511</v>
       </c>
       <c r="D41" t="n">
-        <v>3.842677164411077e-05</v>
+        <v>3.848848503712163e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>330.2753096131269</v>
+        <v>330.2753136861088</v>
       </c>
       <c r="F41" t="n">
-        <v>1453.735965950545</v>
+        <v>1453.735965946359</v>
       </c>
       <c r="G41" t="n">
-        <v>1123.460656337418</v>
+        <v>1123.46065226025</v>
       </c>
       <c r="H41" t="n">
-        <v>19389.55954166858</v>
+        <v>19389.5608784603</v>
       </c>
       <c r="I41" t="n">
-        <v>1680.2176973314</v>
+        <v>1682.19178956798</v>
       </c>
       <c r="J41" t="n">
-        <v>37.915558489829</v>
+        <v>37.91548489625762</v>
       </c>
       <c r="K41" t="n">
-        <v>7.198004129356323</v>
+        <v>7.116638214130816</v>
       </c>
       <c r="L41" t="n">
-        <v>3.842677164411077e-05</v>
+        <v>3.848848503712163e-05</v>
       </c>
       <c r="M41" t="n">
-        <v>0.6408098926044536</v>
+        <v>0.6408093525437196</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
         <v>0.00243</v>
       </c>
       <c r="P41" t="n">
-        <v>0.3519700436913417</v>
+        <v>0.351971434408213</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6373408209334253</v>
+        <v>0.6371409238031859</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>0.01245660815939646</v>
+        <v>0.01247737430181992</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3548722434504503</v>
+        <v>0.3578748732374499</v>
       </c>
       <c r="U41" t="n">
-        <v>1.000567495273825</v>
+        <v>1.000567420027213</v>
       </c>
       <c r="V41" t="n">
-        <v>1.000657697158167</v>
+        <v>1.000657747736859</v>
       </c>
       <c r="W41" t="n">
-        <v>45.11356261918532</v>
+        <v>45.03212311038844</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -5420,63 +5420,63 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.000584997518806</v>
+        <v>1.000584982890469</v>
       </c>
       <c r="D42" t="n">
-        <v>3.923726625997308e-05</v>
+        <v>3.929110653483799e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>330.2844187811456</v>
+        <v>330.2844236098326</v>
       </c>
       <c r="F42" t="n">
-        <v>1453.736825090068</v>
+        <v>1453.736825077825</v>
       </c>
       <c r="G42" t="n">
-        <v>1123.452406308922</v>
+        <v>1123.452401467992</v>
       </c>
       <c r="H42" t="n">
-        <v>19221.65594966297</v>
+        <v>19221.65673449628</v>
       </c>
       <c r="I42" t="n">
-        <v>1689.251153272882</v>
+        <v>1691.141936271212</v>
       </c>
       <c r="J42" t="n">
-        <v>38.34956084178859</v>
+        <v>38.34948583692535</v>
       </c>
       <c r="K42" t="n">
-        <v>7.34386920897925</v>
+        <v>7.218324732658019</v>
       </c>
       <c r="L42" t="n">
-        <v>3.923726625997307e-05</v>
+        <v>3.929110653483799e-05</v>
       </c>
       <c r="M42" t="n">
-        <v>0.6399965751542858</v>
+        <v>0.6399960722352753</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
         <v>0.00242</v>
       </c>
       <c r="P42" t="n">
-        <v>0.3572149463957897</v>
+        <v>0.3572161752544888</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.6438640397365447</v>
+        <v>0.6436513710217482</v>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
-        <v>0.01273150200847306</v>
+        <v>0.0127496027523262</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3394701007537901</v>
+        <v>0.342608383272437</v>
       </c>
       <c r="U42" t="n">
-        <v>1.000539098683435</v>
+        <v>1.00053902922591</v>
       </c>
       <c r="V42" t="n">
-        <v>1.000630900565506</v>
+        <v>1.000630940776425</v>
       </c>
       <c r="W42" t="n">
-        <v>45.69343005076784</v>
+        <v>45.56781056958337</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -5540,63 +5540,63 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.000627525138992</v>
+        <v>1.000627530885579</v>
       </c>
       <c r="D43" t="n">
-        <v>6.141426227047288e-05</v>
+        <v>6.141247221990219e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>330.2703813796525</v>
+        <v>330.2703794829154</v>
       </c>
       <c r="F43" t="n">
-        <v>1453.738300673812</v>
+        <v>1453.738300667548</v>
       </c>
       <c r="G43" t="n">
-        <v>1123.46791929416</v>
+        <v>1123.467921184633</v>
       </c>
       <c r="H43" t="n">
-        <v>19281.20124568297</v>
+        <v>19281.20042983616</v>
       </c>
       <c r="I43" t="n">
-        <v>1741.907562610242</v>
+        <v>1742.043523814682</v>
       </c>
       <c r="J43" t="n">
-        <v>38.58068794087819</v>
+        <v>38.5805459438052</v>
       </c>
       <c r="K43" t="n">
-        <v>7.772144293672286</v>
+        <v>7.879625430905706</v>
       </c>
       <c r="L43" t="n">
-        <v>6.14142622704729e-05</v>
+        <v>6.141247221990219e-05</v>
       </c>
       <c r="M43" t="n">
-        <v>0.6412344052162117</v>
+        <v>0.6412339735266506</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
         <v>0.00245</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3575403787223765</v>
+        <v>0.3575412125467589</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6461649380449974</v>
+        <v>0.6461449602834057</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>0.02013480167464712</v>
+        <v>0.020134205995917</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3762816079072339</v>
+        <v>0.3765192421694517</v>
       </c>
       <c r="U43" t="n">
-        <v>1.000559104141516</v>
+        <v>1.000559111691812</v>
       </c>
       <c r="V43" t="n">
-        <v>1.000695955494742</v>
+        <v>1.000695959437127</v>
       </c>
       <c r="W43" t="n">
-        <v>46.35283223455048</v>
+        <v>46.4601713747109</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -5660,63 +5660,63 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.000651351429949</v>
+        <v>1.000651360049011</v>
       </c>
       <c r="D44" t="n">
-        <v>3.757731016089861e-05</v>
+        <v>3.760749949124926e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>330.2625173836764</v>
+        <v>330.2625145389763</v>
       </c>
       <c r="F44" t="n">
-        <v>1453.735055328418</v>
+        <v>1453.735055346169</v>
       </c>
       <c r="G44" t="n">
-        <v>1123.472537944742</v>
+        <v>1123.472540807193</v>
       </c>
       <c r="H44" t="n">
-        <v>19746.04997869059</v>
+        <v>19746.04785474937</v>
       </c>
       <c r="I44" t="n">
-        <v>1720.83766017056</v>
+        <v>1721.331773724839</v>
       </c>
       <c r="J44" t="n">
-        <v>40.29857324455116</v>
+        <v>40.29858635007387</v>
       </c>
       <c r="K44" t="n">
-        <v>6.606000893608861</v>
+        <v>6.617770870057888</v>
       </c>
       <c r="L44" t="n">
-        <v>3.75773101608986e-05</v>
+        <v>3.760749949124927e-05</v>
       </c>
       <c r="M44" t="n">
-        <v>0.6382560680096594</v>
+        <v>0.6382556828533511</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
         <v>0.00248</v>
       </c>
       <c r="P44" t="n">
-        <v>0.364677121365969</v>
+        <v>0.3646776713309238</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6468479958819462</v>
+        <v>0.6468030629230286</v>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>0.01216005997227242</v>
+        <v>0.01217023534006763</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3260843392556955</v>
+        <v>0.3268157033575793</v>
       </c>
       <c r="U44" t="n">
-        <v>1.000606995968282</v>
+        <v>1.000606973759307</v>
       </c>
       <c r="V44" t="n">
-        <v>1.000695710824217</v>
+        <v>1.000695750276784</v>
       </c>
       <c r="W44" t="n">
-        <v>46.90457413816002</v>
+        <v>46.91635722013176</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -5780,63 +5780,63 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.000624766833004</v>
+        <v>1.000624749999258</v>
       </c>
       <c r="D45" t="n">
-        <v>3.772135835705456e-05</v>
+        <v>3.77410829934822e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>330.2712917976241</v>
+        <v>330.271297353856</v>
       </c>
       <c r="F45" t="n">
-        <v>1453.736723989458</v>
+        <v>1453.736723999109</v>
       </c>
       <c r="G45" t="n">
-        <v>1123.465432191834</v>
+        <v>1123.465426645253</v>
       </c>
       <c r="H45" t="n">
-        <v>18510.93405148933</v>
+        <v>18510.93377802808</v>
       </c>
       <c r="I45" t="n">
-        <v>1721.930039450359</v>
+        <v>1722.769753918068</v>
       </c>
       <c r="J45" t="n">
-        <v>35.18417577862563</v>
+        <v>35.18403800216597</v>
       </c>
       <c r="K45" t="n">
-        <v>7.80251543593975</v>
+        <v>7.658397970768161</v>
       </c>
       <c r="L45" t="n">
-        <v>3.772135835705456e-05</v>
+        <v>3.77410829934822e-05</v>
       </c>
       <c r="M45" t="n">
-        <v>0.6379725965246857</v>
+        <v>0.6379721265067778</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="n">
         <v>0.00238</v>
       </c>
       <c r="P45" t="n">
-        <v>0.368091580676867</v>
+        <v>0.3680925802483739</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6347475258486979</v>
+        <v>0.6346426014778324</v>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>0.0122288341323192</v>
+        <v>0.01223547099155943</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3947174029795593</v>
+        <v>0.3960919267309369</v>
       </c>
       <c r="U45" t="n">
-        <v>1.000580508324787</v>
+        <v>1.00058047138658</v>
       </c>
       <c r="V45" t="n">
-        <v>1.000669029256754</v>
+        <v>1.000669032531026</v>
       </c>
       <c r="W45" t="n">
-        <v>42.98669121456538</v>
+        <v>42.84243597293413</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -5900,63 +5900,63 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.000629271174181</v>
+        <v>1.000629275659432</v>
       </c>
       <c r="D46" t="n">
-        <v>3.687781579514211e-05</v>
+        <v>3.690925445142396e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>330.2698050785946</v>
+        <v>330.269803598183</v>
       </c>
       <c r="F46" t="n">
-        <v>1453.736720692167</v>
+        <v>1453.736720676016</v>
       </c>
       <c r="G46" t="n">
-        <v>1123.466915613572</v>
+        <v>1123.466917077833</v>
       </c>
       <c r="H46" t="n">
-        <v>18391.15746862128</v>
+        <v>18391.15511159561</v>
       </c>
       <c r="I46" t="n">
-        <v>1723.834533325543</v>
+        <v>1725.676603906233</v>
       </c>
       <c r="J46" t="n">
-        <v>37.0151123210157</v>
+        <v>37.01498664420399</v>
       </c>
       <c r="K46" t="n">
-        <v>6.802009223620219</v>
+        <v>6.612650829909811</v>
       </c>
       <c r="L46" t="n">
-        <v>3.687781579514211e-05</v>
+        <v>3.690925445142396e-05</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6401882270445253</v>
+        <v>0.6401879201668088</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
         <v>0.00254</v>
       </c>
       <c r="P46" t="n">
-        <v>0.3776459058259598</v>
+        <v>0.3776462220806784</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6321959915028541</v>
+        <v>0.6320084660415868</v>
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>0.01191183291585539</v>
+        <v>0.01192244932429068</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3664319560107212</v>
+        <v>0.3691657772071438</v>
       </c>
       <c r="U46" t="n">
-        <v>1.000585487897397</v>
+        <v>1.00058546022019</v>
       </c>
       <c r="V46" t="n">
-        <v>1.000673058282839</v>
+        <v>1.000673094936182</v>
       </c>
       <c r="W46" t="n">
-        <v>43.81712154463592</v>
+        <v>43.6276374741138</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -6020,63 +6020,63 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.000597158083114</v>
+        <v>1.000597128855824</v>
       </c>
       <c r="D47" t="n">
-        <v>3.805419172468132e-05</v>
+        <v>3.812185171841491e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>330.2804047332522</v>
+        <v>330.2804143806925</v>
       </c>
       <c r="F47" t="n">
-        <v>1453.737672657292</v>
+        <v>1453.737672635446</v>
       </c>
       <c r="G47" t="n">
-        <v>1123.45726792404</v>
+        <v>1123.457258254754</v>
       </c>
       <c r="H47" t="n">
-        <v>18401.35394116341</v>
+        <v>18401.35284996681</v>
       </c>
       <c r="I47" t="n">
-        <v>1712.959201123801</v>
+        <v>1715.159368564774</v>
       </c>
       <c r="J47" t="n">
-        <v>38.0414869035236</v>
+        <v>38.04140214293341</v>
       </c>
       <c r="K47" t="n">
-        <v>7.414206236599901</v>
+        <v>7.458045886378294</v>
       </c>
       <c r="L47" t="n">
-        <v>3.805419172468132e-05</v>
+        <v>3.812185171841491e-05</v>
       </c>
       <c r="M47" t="n">
-        <v>0.6398274642158447</v>
+        <v>0.6398270527804891</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
         <v>0.00258</v>
       </c>
       <c r="P47" t="n">
-        <v>0.3661417485791406</v>
+        <v>0.3661424910186611</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.6418550011764979</v>
+        <v>0.6416019646845166</v>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>0.01230090020060426</v>
+        <v>0.01232373269555768</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3671356233070361</v>
+        <v>0.3707253825442152</v>
       </c>
       <c r="U47" t="n">
-        <v>1.000552077856122</v>
+        <v>1.000551979465789</v>
       </c>
       <c r="V47" t="n">
-        <v>1.0006422423725</v>
+        <v>1.000642282320729</v>
       </c>
       <c r="W47" t="n">
-        <v>45.4556931401235</v>
+        <v>45.4994480293117</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -6140,63 +6140,63 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.000628348728282</v>
+        <v>1.0006283482184</v>
       </c>
       <c r="D48" t="n">
-        <v>3.925041870622811e-05</v>
+        <v>3.925352493930487e-05</v>
       </c>
       <c r="E48" t="n">
-        <v>330.2701095433117</v>
+        <v>330.2701097116046</v>
       </c>
       <c r="F48" t="n">
-        <v>1453.735501178916</v>
+        <v>1453.735501170709</v>
       </c>
       <c r="G48" t="n">
-        <v>1123.465391635604</v>
+        <v>1123.465391459104</v>
       </c>
       <c r="H48" t="n">
-        <v>18534.24031549509</v>
+        <v>18534.23723145783</v>
       </c>
       <c r="I48" t="n">
-        <v>1687.495931833558</v>
+        <v>1687.757540634453</v>
       </c>
       <c r="J48" t="n">
-        <v>37.84470183725783</v>
+        <v>37.84456984285067</v>
       </c>
       <c r="K48" t="n">
-        <v>7.368576472388568</v>
+        <v>7.067278739619853</v>
       </c>
       <c r="L48" t="n">
-        <v>3.925041870622811e-05</v>
+        <v>3.925352493930488e-05</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6374048170160185</v>
+        <v>0.637404520226712</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
         <v>0.00255</v>
       </c>
       <c r="P48" t="n">
-        <v>0.3743221314247778</v>
+        <v>0.3743223208888353</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6411729588304238</v>
+        <v>0.6411494632348802</v>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>0.01270996040592552</v>
+        <v>0.01271100675063354</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3713620450401339</v>
+        <v>0.3717453112635044</v>
       </c>
       <c r="U48" t="n">
-        <v>1.000582117346597</v>
+        <v>1.000582113666916</v>
       </c>
       <c r="V48" t="n">
-        <v>1.000674584382359</v>
+        <v>1.000674587042862</v>
       </c>
       <c r="W48" t="n">
-        <v>45.2132783096464</v>
+        <v>44.91184858247052</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -6260,63 +6260,63 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.000618095081379</v>
+        <v>1.000618067771375</v>
       </c>
       <c r="D49" t="n">
-        <v>5.049844530170225e-05</v>
+        <v>5.055514303760642e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>330.2734939245281</v>
+        <v>330.2735029387275</v>
       </c>
       <c r="F49" t="n">
-        <v>1453.738192519002</v>
+        <v>1453.738192530592</v>
       </c>
       <c r="G49" t="n">
-        <v>1123.464698594474</v>
+        <v>1123.464689591865</v>
       </c>
       <c r="H49" t="n">
-        <v>18450.92445483971</v>
+        <v>18450.92386196316</v>
       </c>
       <c r="I49" t="n">
-        <v>1755.443999785374</v>
+        <v>1758.116071990743</v>
       </c>
       <c r="J49" t="n">
-        <v>35.71181631051616</v>
+        <v>35.71168249935923</v>
       </c>
       <c r="K49" t="n">
-        <v>19.96629183590002</v>
+        <v>19.89457111679049</v>
       </c>
       <c r="L49" t="n">
-        <v>5.049844530170225e-05</v>
+        <v>5.055514303760643e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>0.6384863429677295</v>
+        <v>0.6384858924278203</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="n">
         <v>0.00238</v>
       </c>
       <c r="P49" t="n">
-        <v>0.3654075667143197</v>
+        <v>0.3654084733001977</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6325757997441916</v>
+        <v>0.6322576361964654</v>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>0.01650761106563812</v>
+        <v>0.01652653068717949</v>
       </c>
       <c r="T49" t="n">
-        <v>0.4809164268320893</v>
+        <v>0.4849825706833704</v>
       </c>
       <c r="U49" t="n">
-        <v>1.000560875216612</v>
+        <v>1.000560790596175</v>
       </c>
       <c r="V49" t="n">
-        <v>1.000675321491076</v>
+        <v>1.000675351504622</v>
       </c>
       <c r="W49" t="n">
-        <v>55.67810814641618</v>
+        <v>55.60625361614973</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -6380,63 +6380,63 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.000578310292556</v>
+        <v>1.000578288021871</v>
       </c>
       <c r="D50" t="n">
-        <v>3.900170216143021e-05</v>
+        <v>3.90530483893323e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>330.2866261912129</v>
+        <v>330.2866335426709</v>
       </c>
       <c r="F50" t="n">
-        <v>1453.736766668856</v>
+        <v>1453.736766652228</v>
       </c>
       <c r="G50" t="n">
-        <v>1123.450140477643</v>
+        <v>1123.450133109557</v>
       </c>
       <c r="H50" t="n">
-        <v>18440.84001172307</v>
+        <v>18440.83865047479</v>
       </c>
       <c r="I50" t="n">
-        <v>1645.312210253902</v>
+        <v>1647.651678897203</v>
       </c>
       <c r="J50" t="n">
-        <v>35.13894432369155</v>
+        <v>35.13886223860626</v>
       </c>
       <c r="K50" t="n">
-        <v>6.860542762448505</v>
+        <v>6.715845495038096</v>
       </c>
       <c r="L50" t="n">
-        <v>3.900170216143021e-05</v>
+        <v>3.90530483893323e-05</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6432823255624959</v>
+        <v>0.643281954291123</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
         <v>0.00243</v>
       </c>
       <c r="P50" t="n">
-        <v>0.3652393803405228</v>
+        <v>0.3652399887443821</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6365485706316598</v>
+        <v>0.6362602329393836</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>0.01265046803356644</v>
+        <v>0.01266773691897134</v>
       </c>
       <c r="T50" t="n">
-        <v>0.382913455311822</v>
+        <v>0.3868817003157858</v>
       </c>
       <c r="U50" t="n">
-        <v>1.000532627243031</v>
+        <v>1.000532552664382</v>
       </c>
       <c r="V50" t="n">
-        <v>1.000623997513931</v>
+        <v>1.000624027560771</v>
       </c>
       <c r="W50" t="n">
-        <v>41.99948708614006</v>
+        <v>41.85470773364435</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -6500,63 +6500,63 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.000611111614042</v>
+        <v>1.000611115957911</v>
       </c>
       <c r="D51" t="n">
-        <v>4.021669955065516e-05</v>
+        <v>4.025403296487115e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>330.2757989700451</v>
+        <v>330.2757975362467</v>
       </c>
       <c r="F51" t="n">
-        <v>1453.741502386885</v>
+        <v>1453.741502419871</v>
       </c>
       <c r="G51" t="n">
-        <v>1123.46570341684</v>
+        <v>1123.465704883624</v>
       </c>
       <c r="H51" t="n">
-        <v>18825.08864647063</v>
+        <v>18825.09035356895</v>
       </c>
       <c r="I51" t="n">
-        <v>1669.80126736258</v>
+        <v>1671.290371212604</v>
       </c>
       <c r="J51" t="n">
-        <v>36.92066529283742</v>
+        <v>36.92071098877577</v>
       </c>
       <c r="K51" t="n">
-        <v>6.530322255639794</v>
+        <v>6.454637012001447</v>
       </c>
       <c r="L51" t="n">
-        <v>4.021669955065515e-05</v>
+        <v>4.025403296487116e-05</v>
       </c>
       <c r="M51" t="n">
-        <v>0.6344544577973926</v>
+        <v>0.6344538211799926</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
         <v>0.00236</v>
       </c>
       <c r="P51" t="n">
-        <v>0.364037989008438</v>
+        <v>0.3640396604306629</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.648281810523289</v>
+        <v>0.6481328981244454</v>
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
-        <v>0.01307126356527105</v>
+        <v>0.01308379299976165</v>
       </c>
       <c r="T51" t="n">
-        <v>0.381497675781721</v>
+        <v>0.3837397187390167</v>
       </c>
       <c r="U51" t="n">
-        <v>1.000564362889353</v>
+        <v>1.000564329276902</v>
       </c>
       <c r="V51" t="n">
-        <v>1.000657864707357</v>
+        <v>1.000657907014642</v>
       </c>
       <c r="W51" t="n">
-        <v>43.45098754847722</v>
+        <v>43.37534800077722</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -6620,63 +6620,63 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.000598337842331</v>
+        <v>1.000598337786458</v>
       </c>
       <c r="D52" t="n">
-        <v>3.919595132937412e-05</v>
+        <v>3.924381311717102e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>330.2800153149044</v>
+        <v>330.2800153333469</v>
       </c>
       <c r="F52" t="n">
-        <v>1453.739621460531</v>
+        <v>1453.73962146459</v>
       </c>
       <c r="G52" t="n">
-        <v>1123.459606145626</v>
+        <v>1123.459606131243</v>
       </c>
       <c r="H52" t="n">
-        <v>18737.38299067266</v>
+        <v>18737.38412270863</v>
       </c>
       <c r="I52" t="n">
-        <v>1688.18844430591</v>
+        <v>1689.19385099416</v>
       </c>
       <c r="J52" t="n">
-        <v>36.28831777043943</v>
+        <v>36.28824122038652</v>
       </c>
       <c r="K52" t="n">
-        <v>6.199302521746258</v>
+        <v>6.304242448509862</v>
       </c>
       <c r="L52" t="n">
-        <v>3.919595132937413e-05</v>
+        <v>3.924381311717102e-05</v>
       </c>
       <c r="M52" t="n">
-        <v>0.6386033053686241</v>
+        <v>0.6386027726284534</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
         <v>0.00234</v>
       </c>
       <c r="P52" t="n">
-        <v>0.3573808513278023</v>
+        <v>0.3573822024540101</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6347328507116357</v>
+        <v>0.6346100462172476</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>0.01273239881614212</v>
+        <v>0.01274847102473745</v>
       </c>
       <c r="T52" t="n">
-        <v>0.3966895801171865</v>
+        <v>0.3983439782395364</v>
       </c>
       <c r="U52" t="n">
-        <v>1.000552677407878</v>
+        <v>1.000552628664969</v>
       </c>
       <c r="V52" t="n">
-        <v>1.000644002444421</v>
+        <v>1.000644051084478</v>
       </c>
       <c r="W52" t="n">
-        <v>42.48762029218568</v>
+        <v>42.59248366889639</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -6740,63 +6740,63 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.000598928243648</v>
+        <v>1.000598901532449</v>
       </c>
       <c r="D53" t="n">
-        <v>3.79218828217448e-05</v>
+        <v>3.797027915181603e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>330.2798204338681</v>
+        <v>330.2798292507575</v>
       </c>
       <c r="F53" t="n">
-        <v>1453.739009222231</v>
+        <v>1453.739009240385</v>
       </c>
       <c r="G53" t="n">
-        <v>1123.459188788363</v>
+        <v>1123.459179989628</v>
       </c>
       <c r="H53" t="n">
-        <v>19165.86928253723</v>
+        <v>19165.87052377294</v>
       </c>
       <c r="I53" t="n">
-        <v>1735.627476193384</v>
+        <v>1737.636159979727</v>
       </c>
       <c r="J53" t="n">
-        <v>36.51733221774343</v>
+        <v>36.51717547099788</v>
       </c>
       <c r="K53" t="n">
-        <v>7.220286706450647</v>
+        <v>7.085839269089754</v>
       </c>
       <c r="L53" t="n">
-        <v>3.79218828217448e-05</v>
+        <v>3.797027915181603e-05</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6348875259098352</v>
+        <v>0.6348869564684265</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
         <v>0.0023</v>
       </c>
       <c r="P53" t="n">
-        <v>0.3573599203356403</v>
+        <v>0.3573613724399631</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6393762689865712</v>
+        <v>0.6391473222386613</v>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>0.01231184116541681</v>
+        <v>0.0123281020000983</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3892669684121272</v>
+        <v>0.3924764019846704</v>
       </c>
       <c r="U53" t="n">
-        <v>1.000554662911928</v>
+        <v>1.000554586944459</v>
       </c>
       <c r="V53" t="n">
-        <v>1.000643197492208</v>
+        <v>1.000643220046001</v>
       </c>
       <c r="W53" t="n">
-        <v>43.73761892419408</v>
+        <v>43.60301474008763</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -6860,63 +6860,63 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.000601083368863</v>
+        <v>1.000601037916348</v>
       </c>
       <c r="D54" t="n">
-        <v>3.878801403329588e-05</v>
+        <v>3.88630789892466e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>330.2791090670896</v>
+        <v>330.2791240700885</v>
       </c>
       <c r="F54" t="n">
-        <v>1453.737860753932</v>
+        <v>1453.737860765715</v>
       </c>
       <c r="G54" t="n">
-        <v>1123.458751686842</v>
+        <v>1123.458736695627</v>
       </c>
       <c r="H54" t="n">
-        <v>18627.07153893501</v>
+        <v>18627.07044474472</v>
       </c>
       <c r="I54" t="n">
-        <v>1705.950290759445</v>
+        <v>1708.857893227263</v>
       </c>
       <c r="J54" t="n">
-        <v>36.06392624760391</v>
+        <v>36.06379264502635</v>
       </c>
       <c r="K54" t="n">
-        <v>7.083946540241802</v>
+        <v>7.010424222692636</v>
       </c>
       <c r="L54" t="n">
-        <v>3.878801403329587e-05</v>
+        <v>3.88630789892466e-05</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6400920020310613</v>
+        <v>0.6400915749321821</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="n">
         <v>0.00238</v>
       </c>
       <c r="P54" t="n">
-        <v>0.3639989968393001</v>
+        <v>0.3639997741696178</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.6459843898489004</v>
+        <v>0.6456639274766188</v>
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>0.0125878516251942</v>
+        <v>0.01261308298124626</v>
       </c>
       <c r="T54" t="n">
-        <v>0.3561815109895681</v>
+        <v>0.3609333314739008</v>
       </c>
       <c r="U54" t="n">
-        <v>1.000555739387247</v>
+        <v>1.000555617505831</v>
       </c>
       <c r="V54" t="n">
-        <v>1.000646431460535</v>
+        <v>1.000646462450788</v>
       </c>
       <c r="W54" t="n">
-        <v>43.14787278784571</v>
+        <v>43.07421686771898</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -6980,63 +6980,63 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.000601492972219</v>
+        <v>1.00060148620615</v>
       </c>
       <c r="D55" t="n">
-        <v>3.926524161701905e-05</v>
+        <v>3.930880886900683e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>330.2789738649815</v>
+        <v>330.2789760983285</v>
       </c>
       <c r="F55" t="n">
-        <v>1453.735018912678</v>
+        <v>1453.735018933455</v>
       </c>
       <c r="G55" t="n">
-        <v>1123.456045047697</v>
+        <v>1123.456042835126</v>
       </c>
       <c r="H55" t="n">
-        <v>18234.15683122377</v>
+        <v>18234.15779972303</v>
       </c>
       <c r="I55" t="n">
-        <v>1691.754525093096</v>
+        <v>1692.812341302733</v>
       </c>
       <c r="J55" t="n">
-        <v>33.67640180672061</v>
+        <v>33.67626101888479</v>
       </c>
       <c r="K55" t="n">
-        <v>6.046847119358507</v>
+        <v>6.038852620575482</v>
       </c>
       <c r="L55" t="n">
-        <v>3.926524161701905e-05</v>
+        <v>3.930880886900683e-05</v>
       </c>
       <c r="M55" t="n">
-        <v>0.6371679061975205</v>
+        <v>0.6371673609038402</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
         <v>0.0023</v>
       </c>
       <c r="P55" t="n">
-        <v>0.3661164985643456</v>
+        <v>0.36611785806204</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.6395115648205374</v>
+        <v>0.6393901359105477</v>
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
-        <v>0.01276289817134479</v>
+        <v>0.01277751912918067</v>
       </c>
       <c r="T55" t="n">
-        <v>0.4056257804723361</v>
+        <v>0.4073481509340522</v>
       </c>
       <c r="U55" t="n">
-        <v>1.000555861030006</v>
+        <v>1.00055580997346</v>
       </c>
       <c r="V55" t="n">
-        <v>1.000647129076856</v>
+        <v>1.000647166609349</v>
       </c>
       <c r="W55" t="n">
-        <v>39.72324892607912</v>
+        <v>39.71511363946028</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -7100,63 +7100,63 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.00057335791583</v>
+        <v>1.000573305077136</v>
       </c>
       <c r="D56" t="n">
-        <v>4.862292095428929e-05</v>
+        <v>4.867247252371313e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>330.2882609577071</v>
+        <v>330.2882783997079</v>
       </c>
       <c r="F56" t="n">
-        <v>1453.736214681866</v>
+        <v>1453.736214694128</v>
       </c>
       <c r="G56" t="n">
-        <v>1123.447953724159</v>
+        <v>1123.44793629442</v>
       </c>
       <c r="H56" t="n">
-        <v>19103.40314814655</v>
+        <v>19103.40367900423</v>
       </c>
       <c r="I56" t="n">
-        <v>1659.432274500467</v>
+        <v>1661.646131741431</v>
       </c>
       <c r="J56" t="n">
-        <v>36.71475329146298</v>
+        <v>36.71460562203582</v>
       </c>
       <c r="K56" t="n">
-        <v>7.940115722055026</v>
+        <v>7.845444166109035</v>
       </c>
       <c r="L56" t="n">
-        <v>4.862292095428929e-05</v>
+        <v>4.867247252371313e-05</v>
       </c>
       <c r="M56" t="n">
-        <v>0.6384989840457855</v>
+        <v>0.6384984613125895</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
         <v>0.00234</v>
       </c>
       <c r="P56" t="n">
-        <v>0.3609337282939405</v>
+        <v>0.3609349653016407</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6286197151915573</v>
+        <v>0.6283210299549696</v>
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>0.01588818774834303</v>
+        <v>0.01590473127532992</v>
       </c>
       <c r="T56" t="n">
-        <v>0.4361841104373183</v>
+        <v>0.4398934038474109</v>
       </c>
       <c r="U56" t="n">
-        <v>1.000518140596088</v>
+        <v>1.000518037651898</v>
       </c>
       <c r="V56" t="n">
-        <v>1.000628581330655</v>
+        <v>1.000628578608524</v>
       </c>
       <c r="W56" t="n">
-        <v>44.654869013518</v>
+        <v>44.56004978814485</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -7220,63 +7220,63 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.000601995882176</v>
+        <v>1.000601987561468</v>
       </c>
       <c r="D57" t="n">
-        <v>3.80490727077954e-05</v>
+        <v>3.810462261625341e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>330.2788078643284</v>
+        <v>330.2788106108287</v>
       </c>
       <c r="F57" t="n">
-        <v>1453.7390153802</v>
+        <v>1453.739015389089</v>
       </c>
       <c r="G57" t="n">
-        <v>1123.460207515871</v>
+        <v>1123.46020477826</v>
       </c>
       <c r="H57" t="n">
-        <v>18898.53726792218</v>
+        <v>18898.53787001906</v>
       </c>
       <c r="I57" t="n">
-        <v>1639.496361454885</v>
+        <v>1641.428771931039</v>
       </c>
       <c r="J57" t="n">
-        <v>35.46470310407286</v>
+        <v>35.46455667386104</v>
       </c>
       <c r="K57" t="n">
-        <v>6.362609261311913</v>
+        <v>6.298865400653289</v>
       </c>
       <c r="L57" t="n">
-        <v>3.804907270779541e-05</v>
+        <v>3.810462261625342e-05</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6377952304367041</v>
+        <v>0.6377947022682966</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
         <v>0.00233</v>
       </c>
       <c r="P57" t="n">
-        <v>0.3552656921289946</v>
+        <v>0.3552669547782146</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.6485743011117484</v>
+        <v>0.648390101523882</v>
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>0.01234891177043767</v>
+        <v>0.0123675820732388</v>
       </c>
       <c r="T57" t="n">
-        <v>0.3720427772022676</v>
+        <v>0.3749740174503794</v>
       </c>
       <c r="U57" t="n">
-        <v>1.000557527102128</v>
+        <v>1.000557462224245</v>
       </c>
       <c r="V57" t="n">
-        <v>1.000646468615142</v>
+        <v>1.000646516861669</v>
       </c>
       <c r="W57" t="n">
-        <v>41.82731236538477</v>
+        <v>41.76342207451433</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -7340,63 +7340,63 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.00058692891499</v>
+        <v>1.000586918702689</v>
       </c>
       <c r="D58" t="n">
-        <v>3.834279923614793e-05</v>
+        <v>3.833898477052099e-05</v>
       </c>
       <c r="E58" t="n">
-        <v>330.2837812452676</v>
+        <v>330.2837846162465</v>
       </c>
       <c r="F58" t="n">
-        <v>1453.740862482677</v>
+        <v>1453.740862486969</v>
       </c>
       <c r="G58" t="n">
-        <v>1123.457081237409</v>
+        <v>1123.457077870723</v>
       </c>
       <c r="H58" t="n">
-        <v>18948.30880136613</v>
+        <v>18948.30982926681</v>
       </c>
       <c r="I58" t="n">
-        <v>1719.41942879041</v>
+        <v>1719.096377917759</v>
       </c>
       <c r="J58" t="n">
-        <v>36.58615843680376</v>
+        <v>36.58607687589335</v>
       </c>
       <c r="K58" t="n">
-        <v>4.560995460200669</v>
+        <v>4.600035560228172</v>
       </c>
       <c r="L58" t="n">
-        <v>3.834279923614793e-05</v>
+        <v>3.833898477052099e-05</v>
       </c>
       <c r="M58" t="n">
-        <v>0.6399699672260017</v>
+        <v>0.6399694327801405</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
         <v>0.00238</v>
       </c>
       <c r="P58" t="n">
-        <v>0.353263838199525</v>
+        <v>0.353265174131266</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.635727122460279</v>
+        <v>0.6357588195014785</v>
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
-        <v>0.01243835260103601</v>
+        <v>0.01243707001829778</v>
       </c>
       <c r="T58" t="n">
-        <v>0.4130831939379925</v>
+        <v>0.4126290940971964</v>
       </c>
       <c r="U58" t="n">
-        <v>1.000542039079131</v>
+        <v>1.000542032752952</v>
       </c>
       <c r="V58" t="n">
-        <v>1.000631822779042</v>
+        <v>1.000631808679922</v>
       </c>
       <c r="W58" t="n">
-        <v>41.14715389700443</v>
+        <v>41.18611243612152</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -7460,63 +7460,63 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.000625770005863</v>
+        <v>1.000625771981239</v>
       </c>
       <c r="D59" t="n">
-        <v>3.802615783162761e-05</v>
+        <v>3.806511357493028e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>330.2709606856283</v>
+        <v>330.270960033627</v>
       </c>
       <c r="F59" t="n">
-        <v>1453.740619811386</v>
+        <v>1453.74061981867</v>
       </c>
       <c r="G59" t="n">
-        <v>1123.469659125758</v>
+        <v>1123.469659785043</v>
       </c>
       <c r="H59" t="n">
-        <v>18537.1958026435</v>
+        <v>18537.19753413726</v>
       </c>
       <c r="I59" t="n">
-        <v>1764.340260354929</v>
+        <v>1765.745027139306</v>
       </c>
       <c r="J59" t="n">
-        <v>33.30612779970136</v>
+        <v>33.30606001890318</v>
       </c>
       <c r="K59" t="n">
-        <v>6.332493026310837</v>
+        <v>6.30938527370998</v>
       </c>
       <c r="L59" t="n">
-        <v>3.802615783162761e-05</v>
+        <v>3.806511357493027e-05</v>
       </c>
       <c r="M59" t="n">
-        <v>0.6425683586795194</v>
+        <v>0.6425678112570155</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
         <v>0.00225</v>
       </c>
       <c r="P59" t="n">
-        <v>0.3458449680887229</v>
+        <v>0.3458464408230585</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.6443926759277463</v>
+        <v>0.6442693008284504</v>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>0.01235574220231401</v>
+        <v>0.01236881948994708</v>
       </c>
       <c r="T59" t="n">
-        <v>0.375878726320352</v>
+        <v>0.3778557700562378</v>
       </c>
       <c r="U59" t="n">
-        <v>1.000581520775732</v>
+        <v>1.000581483134029</v>
       </c>
       <c r="V59" t="n">
-        <v>1.000670023149879</v>
+        <v>1.000670064749346</v>
       </c>
       <c r="W59" t="n">
-        <v>39.63862082601219</v>
+        <v>39.61544529261316</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -7580,63 +7580,63 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.000636619246303</v>
+        <v>1.000636615767574</v>
       </c>
       <c r="D60" t="n">
-        <v>4.048892917193174e-05</v>
+        <v>4.05075434433169e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>330.2673797762413</v>
+        <v>330.2673809244209</v>
       </c>
       <c r="F60" t="n">
-        <v>1453.739166505498</v>
+        <v>1453.739166522175</v>
       </c>
       <c r="G60" t="n">
-        <v>1123.471786729257</v>
+        <v>1123.471785597754</v>
       </c>
       <c r="H60" t="n">
-        <v>18439.72055552294</v>
+        <v>18439.71889157083</v>
       </c>
       <c r="I60" t="n">
-        <v>1629.238426626269</v>
+        <v>1630.086381717411</v>
       </c>
       <c r="J60" t="n">
-        <v>38.43438067198492</v>
+        <v>38.43439349867875</v>
       </c>
       <c r="K60" t="n">
-        <v>7.294150925313702</v>
+        <v>7.220366584640914</v>
       </c>
       <c r="L60" t="n">
-        <v>4.048892917193174e-05</v>
+        <v>4.05075434433169e-05</v>
       </c>
       <c r="M60" t="n">
-        <v>0.6355636383270563</v>
+        <v>0.6355632129632539</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
         <v>0.00258</v>
       </c>
       <c r="P60" t="n">
-        <v>0.3773213673920995</v>
+        <v>0.3773220560878719</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6330835648309951</v>
+        <v>0.6329865950899938</v>
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>0.01312092217192487</v>
+        <v>0.01312718757134071</v>
       </c>
       <c r="T60" t="n">
-        <v>0.4179364459216344</v>
+        <v>0.4192543911316831</v>
       </c>
       <c r="U60" t="n">
-        <v>1.000589051209672</v>
+        <v>1.000589028750314</v>
       </c>
       <c r="V60" t="n">
-        <v>1.000684191805921</v>
+        <v>1.000684207311432</v>
       </c>
       <c r="W60" t="n">
-        <v>45.72853159729862</v>
+        <v>45.65476008331967</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -7700,63 +7700,63 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.000625431663996</v>
+        <v>1.00062534113103</v>
       </c>
       <c r="D61" t="n">
-        <v>3.964838178519693e-05</v>
+        <v>3.969304215216612e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>330.2710723602768</v>
+        <v>330.2711022420103</v>
       </c>
       <c r="F61" t="n">
-        <v>1453.737174665175</v>
+        <v>1453.737174648441</v>
       </c>
       <c r="G61" t="n">
-        <v>1123.466102304898</v>
+        <v>1123.466072406431</v>
       </c>
       <c r="H61" t="n">
-        <v>19260.64672820789</v>
+        <v>19260.64611382263</v>
       </c>
       <c r="I61" t="n">
-        <v>1619.054042743852</v>
+        <v>1620.702011239082</v>
       </c>
       <c r="J61" t="n">
-        <v>38.09703575644863</v>
+        <v>38.09695182315442</v>
       </c>
       <c r="K61" t="n">
-        <v>6.860131426374996</v>
+        <v>6.863334211943062</v>
       </c>
       <c r="L61" t="n">
-        <v>3.964838178519692e-05</v>
+        <v>3.969304215216612e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>0.6400528547042594</v>
+        <v>0.6400524223786033</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
         <v>0.00245</v>
       </c>
       <c r="P61" t="n">
-        <v>0.3629339257520474</v>
+        <v>0.3629347918686585</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6327112823483638</v>
+        <v>0.6325502596173836</v>
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>0.01286347633684103</v>
+        <v>0.01287849241545762</v>
       </c>
       <c r="T61" t="n">
-        <v>0.3783092210339448</v>
+        <v>0.380948085503816</v>
       </c>
       <c r="U61" t="n">
-        <v>1.000579038429134</v>
+        <v>1.000578902414434</v>
       </c>
       <c r="V61" t="n">
-        <v>1.000671829201231</v>
+        <v>1.000671784158439</v>
       </c>
       <c r="W61" t="n">
-        <v>44.95716718282362</v>
+        <v>44.96028603509748</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -7820,63 +7820,63 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.000620082805293</v>
+        <v>1.000620084939136</v>
       </c>
       <c r="D62" t="n">
-        <v>3.957425024460452e-05</v>
+        <v>3.960840950925714e-05</v>
       </c>
       <c r="E62" t="n">
-        <v>330.2728378388338</v>
+        <v>330.2728371345202</v>
       </c>
       <c r="F62" t="n">
-        <v>1453.73367673205</v>
+        <v>1453.733676740308</v>
       </c>
       <c r="G62" t="n">
-        <v>1123.460838893217</v>
+        <v>1123.460839605788</v>
       </c>
       <c r="H62" t="n">
-        <v>19428.71245283547</v>
+        <v>19428.71105160822</v>
       </c>
       <c r="I62" t="n">
-        <v>1628.898830863744</v>
+        <v>1630.411438472967</v>
       </c>
       <c r="J62" t="n">
-        <v>38.11091419720234</v>
+        <v>38.11077330444935</v>
       </c>
       <c r="K62" t="n">
-        <v>6.086097147687761</v>
+        <v>6.15743862190228</v>
       </c>
       <c r="L62" t="n">
-        <v>3.957425024460453e-05</v>
+        <v>3.960840950925714e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6405015445483753</v>
+        <v>0.6405011267164259</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="n">
         <v>0.0024</v>
       </c>
       <c r="P62" t="n">
-        <v>0.3624006524360644</v>
+        <v>0.3624013725571178</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6381617202864287</v>
+        <v>0.6379956123077956</v>
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>0.01284806368115602</v>
+        <v>0.01285954050289254</v>
       </c>
       <c r="T62" t="n">
-        <v>0.4142559625262113</v>
+        <v>0.4165871510994617</v>
       </c>
       <c r="U62" t="n">
-        <v>1.000573888227303</v>
+        <v>1.000573855593095</v>
       </c>
       <c r="V62" t="n">
-        <v>1.000666281648909</v>
+        <v>1.000666318557227</v>
       </c>
       <c r="W62" t="n">
-        <v>44.1970113448901</v>
+        <v>44.26821192635163</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -7940,63 +7940,63 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.000580066459639</v>
+        <v>1.00058006930355</v>
       </c>
       <c r="D63" t="n">
-        <v>4.137386842037635e-05</v>
+        <v>4.143653867667452e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>330.2860464889777</v>
+        <v>330.2860455502182</v>
       </c>
       <c r="F63" t="n">
-        <v>1453.736443426269</v>
+        <v>1453.736443404947</v>
       </c>
       <c r="G63" t="n">
-        <v>1123.450396937291</v>
+        <v>1123.450397854729</v>
       </c>
       <c r="H63" t="n">
-        <v>19144.20570174814</v>
+        <v>19144.20317786611</v>
       </c>
       <c r="I63" t="n">
-        <v>1620.394135829537</v>
+        <v>1622.330887380157</v>
       </c>
       <c r="J63" t="n">
-        <v>38.65446383274602</v>
+        <v>38.65432050899525</v>
       </c>
       <c r="K63" t="n">
-        <v>7.339190039830099</v>
+        <v>7.213276737923599</v>
       </c>
       <c r="L63" t="n">
-        <v>4.137386842037635e-05</v>
+        <v>4.143653867667452e-05</v>
       </c>
       <c r="M63" t="n">
-        <v>0.6394936381940258</v>
+        <v>0.6394933028685372</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="n">
         <v>0.00253</v>
       </c>
       <c r="P63" t="n">
-        <v>0.3657159049037811</v>
+        <v>0.3657162756402925</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.6495030217319098</v>
+        <v>0.6493135159882759</v>
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>0.01342896508991621</v>
+        <v>0.01345002774109083</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3859067533064682</v>
+        <v>0.3888658726083724</v>
       </c>
       <c r="U63" t="n">
-        <v>1.00053172215023</v>
+        <v>1.000531661192105</v>
       </c>
       <c r="V63" t="n">
-        <v>1.000628415441135</v>
+        <v>1.000628482099422</v>
       </c>
       <c r="W63" t="n">
-        <v>45.99365387257612</v>
+        <v>45.86759724691885</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -8060,63 +8060,63 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.000613571655417</v>
+        <v>1.000613579268589</v>
       </c>
       <c r="D64" t="n">
-        <v>3.896379643448469e-05</v>
+        <v>3.89824184108095e-05</v>
       </c>
       <c r="E64" t="n">
-        <v>330.274986976131</v>
+        <v>330.2749844632326</v>
       </c>
       <c r="F64" t="n">
-        <v>1453.734744088296</v>
+        <v>1453.734744108252</v>
       </c>
       <c r="G64" t="n">
-        <v>1123.459757112165</v>
+        <v>1123.459759645019</v>
       </c>
       <c r="H64" t="n">
-        <v>19266.94497274994</v>
+        <v>19266.94572329654</v>
       </c>
       <c r="I64" t="n">
-        <v>1685.217281126507</v>
+        <v>1685.468823133532</v>
       </c>
       <c r="J64" t="n">
-        <v>34.92112389657924</v>
+        <v>34.92098499974078</v>
       </c>
       <c r="K64" t="n">
-        <v>6.98361353694921</v>
+        <v>7.053704227507593</v>
       </c>
       <c r="L64" t="n">
-        <v>3.89637964344847e-05</v>
+        <v>3.898241841080949e-05</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6411241758160424</v>
+        <v>0.641123651783357</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="n">
         <v>0.00223</v>
       </c>
       <c r="P64" t="n">
-        <v>0.353561773815521</v>
+        <v>0.3535630427798617</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.6464509504309357</v>
+        <v>0.6464284433812111</v>
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>0.01267407879746132</v>
+        <v>0.01268032350167946</v>
       </c>
       <c r="T64" t="n">
-        <v>0.3692834943759721</v>
+        <v>0.3696533990229378</v>
       </c>
       <c r="U64" t="n">
-        <v>1.000568419733055</v>
+        <v>1.000568408428056</v>
       </c>
       <c r="V64" t="n">
-        <v>1.000658727653039</v>
+        <v>1.000658754187798</v>
       </c>
       <c r="W64" t="n">
-        <v>41.90473743352845</v>
+        <v>41.97468922724838</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -8180,63 +8180,63 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.000603196097833</v>
+        <v>1.000603200504487</v>
       </c>
       <c r="D65" t="n">
-        <v>3.991832453169233e-05</v>
+        <v>3.991939454753116e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>330.2784116974985</v>
+        <v>330.278410242953</v>
       </c>
       <c r="F65" t="n">
-        <v>1453.739008356591</v>
+        <v>1453.739008359286</v>
       </c>
       <c r="G65" t="n">
-        <v>1123.460596659092</v>
+        <v>1123.460598116333</v>
       </c>
       <c r="H65" t="n">
-        <v>18987.49035776767</v>
+        <v>18987.4923344842</v>
       </c>
       <c r="I65" t="n">
-        <v>1617.435320122552</v>
+        <v>1617.053800805069</v>
       </c>
       <c r="J65" t="n">
-        <v>39.18156523924262</v>
+        <v>39.18149000899081</v>
       </c>
       <c r="K65" t="n">
-        <v>5.753688029361211</v>
+        <v>5.707607986664316</v>
       </c>
       <c r="L65" t="n">
-        <v>3.991832453169234e-05</v>
+        <v>3.991939454753115e-05</v>
       </c>
       <c r="M65" t="n">
-        <v>0.640374893078815</v>
+        <v>0.640374294290658</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="n">
         <v>0.00255</v>
       </c>
       <c r="P65" t="n">
-        <v>0.3622940780348772</v>
+        <v>0.3622956933622134</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.6503297515960371</v>
+        <v>0.6503518719661734</v>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>0.01293520763775547</v>
+        <v>0.01293556778317379</v>
       </c>
       <c r="T65" t="n">
-        <v>0.3564052778575869</v>
+        <v>0.3558614047770724</v>
       </c>
       <c r="U65" t="n">
-        <v>1.000556284700439</v>
+        <v>1.000556288015695</v>
       </c>
       <c r="V65" t="n">
-        <v>1.000650111894344</v>
+        <v>1.000650117392602</v>
       </c>
       <c r="W65" t="n">
-        <v>44.93525326860383</v>
+        <v>44.88909799565513</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -8300,63 +8300,63 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.000591161345137</v>
+        <v>1.000591137694313</v>
       </c>
       <c r="D66" t="n">
-        <v>4.032435078759555e-05</v>
+        <v>4.036836106974219e-05</v>
       </c>
       <c r="E66" t="n">
-        <v>330.2823841681329</v>
+        <v>330.2823919749687</v>
       </c>
       <c r="F66" t="n">
-        <v>1453.73959363527</v>
+        <v>1453.739593641774</v>
       </c>
       <c r="G66" t="n">
-        <v>1123.457209467138</v>
+        <v>1123.457201666806</v>
       </c>
       <c r="H66" t="n">
-        <v>19030.55539353066</v>
+        <v>19030.55667340878</v>
       </c>
       <c r="I66" t="n">
-        <v>1648.466292446329</v>
+        <v>1649.598938843219</v>
       </c>
       <c r="J66" t="n">
-        <v>37.77811891928694</v>
+        <v>37.77803270907143</v>
       </c>
       <c r="K66" t="n">
-        <v>7.314404139878201</v>
+        <v>7.338127600776563</v>
       </c>
       <c r="L66" t="n">
-        <v>4.032435078759555e-05</v>
+        <v>4.03683610697422e-05</v>
       </c>
       <c r="M66" t="n">
-        <v>0.638112942019663</v>
+        <v>0.6381123559647437</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="n">
         <v>0.00245</v>
       </c>
       <c r="P66" t="n">
-        <v>0.3603571249803984</v>
+        <v>0.3603586132812215</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.6348351614592795</v>
+        <v>0.6346828086919345</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>0.01309113760143017</v>
+        <v>0.01310592582797648</v>
       </c>
       <c r="T66" t="n">
-        <v>0.442676778984933</v>
+        <v>0.4445787317982677</v>
       </c>
       <c r="U66" t="n">
-        <v>1.00054408165214</v>
+        <v>1.000544013206797</v>
       </c>
       <c r="V66" t="n">
-        <v>1.000638245468928</v>
+        <v>1.000638266621057</v>
       </c>
       <c r="W66" t="n">
-        <v>45.09252305916514</v>
+        <v>45.11616030984798</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -8420,63 +8420,63 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.000635376054545</v>
+        <v>1.000635376641319</v>
       </c>
       <c r="D67" t="n">
-        <v>4.07191682692243e-05</v>
+        <v>4.073967660348108e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>330.267790101215</v>
+        <v>330.2677899075456</v>
       </c>
       <c r="F67" t="n">
-        <v>1453.73236741032</v>
+        <v>1453.732367417022</v>
       </c>
       <c r="G67" t="n">
-        <v>1123.464577309105</v>
+        <v>1123.464577509477</v>
       </c>
       <c r="H67" t="n">
-        <v>19168.95749725393</v>
+        <v>19168.95691445918</v>
       </c>
       <c r="I67" t="n">
-        <v>1624.77622295479</v>
+        <v>1625.321866374457</v>
       </c>
       <c r="J67" t="n">
-        <v>38.8759256636874</v>
+        <v>38.87577472238871</v>
       </c>
       <c r="K67" t="n">
-        <v>5.962228214536458</v>
+        <v>5.974166784320399</v>
       </c>
       <c r="L67" t="n">
-        <v>4.071916826922429e-05</v>
+        <v>4.073967660348108e-05</v>
       </c>
       <c r="M67" t="n">
-        <v>0.6386730892646575</v>
+        <v>0.638672614501018</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
         <v>0.0025</v>
       </c>
       <c r="P67" t="n">
-        <v>0.365342057579819</v>
+        <v>0.3653430241421695</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.6459179948560934</v>
+        <v>0.6458772757252221</v>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>0.01321381408133054</v>
+        <v>0.01322070741206613</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3600853789663205</v>
+        <v>0.3608856449512928</v>
       </c>
       <c r="U67" t="n">
-        <v>1.000587769080306</v>
+        <v>1.000587748783806</v>
       </c>
       <c r="V67" t="n">
-        <v>1.000682987559185</v>
+        <v>1.000683009033208</v>
       </c>
       <c r="W67" t="n">
-        <v>44.83815387822386</v>
+        <v>44.8499415067091</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -8540,63 +8540,63 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.000605191616905</v>
+        <v>1.000605192952232</v>
       </c>
       <c r="D68" t="n">
-        <v>4.117765472586754e-05</v>
+        <v>4.121411539330696e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>330.2777530192552</v>
+        <v>330.2777525784934</v>
       </c>
       <c r="F68" t="n">
-        <v>1453.739822184234</v>
+        <v>1453.739822181072</v>
       </c>
       <c r="G68" t="n">
-        <v>1123.462069164978</v>
+        <v>1123.462069602578</v>
       </c>
       <c r="H68" t="n">
-        <v>19165.78410571836</v>
+        <v>19165.78546747228</v>
       </c>
       <c r="I68" t="n">
-        <v>1624.595301622302</v>
+        <v>1625.862868928034</v>
       </c>
       <c r="J68" t="n">
-        <v>38.61755988168339</v>
+        <v>38.61747608634072</v>
       </c>
       <c r="K68" t="n">
-        <v>6.354250643624625</v>
+        <v>6.177119846247221</v>
       </c>
       <c r="L68" t="n">
-        <v>4.117765472586753e-05</v>
+        <v>4.121411539330696e-05</v>
       </c>
       <c r="M68" t="n">
-        <v>0.6389515860577943</v>
+        <v>0.63895100784228</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
         <v>0.00252</v>
       </c>
       <c r="P68" t="n">
-        <v>0.3617896734922535</v>
+        <v>0.3617911532971743</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6425622718115198</v>
+        <v>0.6424304122304507</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>0.01336455465591641</v>
+        <v>0.0133768087973447</v>
       </c>
       <c r="T68" t="n">
-        <v>0.3928395609103056</v>
+        <v>0.3947943329505972</v>
       </c>
       <c r="U68" t="n">
-        <v>1.000557070290767</v>
+        <v>1.000557034504549</v>
       </c>
       <c r="V68" t="n">
-        <v>1.000653317572012</v>
+        <v>1.000653356036028</v>
       </c>
       <c r="W68" t="n">
-        <v>44.97181052530802</v>
+        <v>44.79459593258794</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -8660,63 +8660,63 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.000627808537518</v>
+        <v>1.000627814396595</v>
       </c>
       <c r="D69" t="n">
-        <v>3.879538132420897e-05</v>
+        <v>3.882893188167748e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>330.2702878402383</v>
+        <v>330.2702859063734</v>
       </c>
       <c r="F69" t="n">
-        <v>1453.738699618377</v>
+        <v>1453.738699598952</v>
       </c>
       <c r="G69" t="n">
-        <v>1123.468411778139</v>
+        <v>1123.468413692579</v>
       </c>
       <c r="H69" t="n">
-        <v>19017.2306269176</v>
+        <v>19017.23136010846</v>
       </c>
       <c r="I69" t="n">
-        <v>1646.424825846121</v>
+        <v>1647.719475991619</v>
       </c>
       <c r="J69" t="n">
-        <v>37.96321863986297</v>
+        <v>37.96314427493934</v>
       </c>
       <c r="K69" t="n">
-        <v>5.642417134769353</v>
+        <v>5.581348707420587</v>
       </c>
       <c r="L69" t="n">
-        <v>3.879538132420896e-05</v>
+        <v>3.882893188167748e-05</v>
       </c>
       <c r="M69" t="n">
-        <v>0.6438552869000275</v>
+        <v>0.6438547659554307</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
         <v>0.00252</v>
       </c>
       <c r="P69" t="n">
-        <v>0.3561617184257936</v>
+        <v>0.3561629734545534</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6446343644781627</v>
+        <v>0.6445118183680514</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>0.01256270627618461</v>
+        <v>0.01257400748962124</v>
       </c>
       <c r="T69" t="n">
-        <v>0.383369749408364</v>
+        <v>0.3853168715308136</v>
       </c>
       <c r="U69" t="n">
-        <v>1.000582114187498</v>
+        <v>1.000582085809611</v>
       </c>
       <c r="V69" t="n">
-        <v>1.000673507061245</v>
+        <v>1.000673547163544</v>
       </c>
       <c r="W69" t="n">
-        <v>43.60563577463232</v>
+        <v>43.54449298235993</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -8780,63 +8780,63 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.000626282894655</v>
+        <v>1.000626233135281</v>
       </c>
       <c r="D70" t="n">
-        <v>3.891037475428893e-05</v>
+        <v>3.894292523541002e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>330.2707913993752</v>
+        <v>330.2708078231581</v>
       </c>
       <c r="F70" t="n">
-        <v>1453.732430114931</v>
+        <v>1453.732430121607</v>
       </c>
       <c r="G70" t="n">
-        <v>1123.461638715556</v>
+        <v>1123.461622298449</v>
       </c>
       <c r="H70" t="n">
-        <v>19437.92402287045</v>
+        <v>19437.92475400294</v>
       </c>
       <c r="I70" t="n">
-        <v>1621.341897839993</v>
+        <v>1622.442776034484</v>
       </c>
       <c r="J70" t="n">
-        <v>35.32025319589208</v>
+        <v>35.32009909378899</v>
       </c>
       <c r="K70" t="n">
-        <v>6.98327056045618</v>
+        <v>6.915890496681488</v>
       </c>
       <c r="L70" t="n">
-        <v>3.891037475428893e-05</v>
+        <v>3.894292523541002e-05</v>
       </c>
       <c r="M70" t="n">
-        <v>0.6398860450345789</v>
+        <v>0.6398855690322141</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="n">
         <v>0.00227</v>
       </c>
       <c r="P70" t="n">
-        <v>0.3682555154617961</v>
+        <v>0.3682566736619217</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6373785080497096</v>
+        <v>0.6372740680663869</v>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>0.01264888452395546</v>
+        <v>0.01265980724704287</v>
       </c>
       <c r="T70" t="n">
-        <v>0.3611557334172911</v>
+        <v>0.3629226337607593</v>
       </c>
       <c r="U70" t="n">
-        <v>1.000581084972065</v>
+        <v>1.000581002127444</v>
       </c>
       <c r="V70" t="n">
-        <v>1.000671484900762</v>
+        <v>1.000671468232614</v>
       </c>
       <c r="W70" t="n">
-        <v>42.30352375634826</v>
+        <v>42.23598959047048</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -8900,63 +8900,63 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.00060879646845</v>
+        <v>1.000608747036998</v>
       </c>
       <c r="D71" t="n">
-        <v>3.934867314942081e-05</v>
+        <v>3.941215470328262e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>330.2765631413804</v>
+        <v>330.2765794574984</v>
       </c>
       <c r="F71" t="n">
-        <v>1453.734489633445</v>
+        <v>1453.734489637024</v>
       </c>
       <c r="G71" t="n">
-        <v>1123.457926492065</v>
+        <v>1123.457910179525</v>
       </c>
       <c r="H71" t="n">
-        <v>19139.66392339059</v>
+        <v>19139.66309891416</v>
       </c>
       <c r="I71" t="n">
-        <v>1687.167127587606</v>
+        <v>1689.540281310844</v>
       </c>
       <c r="J71" t="n">
-        <v>36.08258235262618</v>
+        <v>36.082439271021</v>
       </c>
       <c r="K71" t="n">
-        <v>6.657361764426069</v>
+        <v>6.678816465403154</v>
       </c>
       <c r="L71" t="n">
-        <v>3.934867314942081e-05</v>
+        <v>3.941215470328262e-05</v>
       </c>
       <c r="M71" t="n">
-        <v>0.6388924657194112</v>
+        <v>0.6388920274754837</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="n">
         <v>0.00236</v>
       </c>
       <c r="P71" t="n">
-        <v>0.3642154267028666</v>
+        <v>0.3642162758391875</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6410744943002677</v>
+        <v>0.6407979196616438</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>0.01277986597261062</v>
+        <v>0.01280118700587631</v>
       </c>
       <c r="T71" t="n">
-        <v>0.4167509265954859</v>
+        <v>0.4206030140781386</v>
       </c>
       <c r="U71" t="n">
-        <v>1.000562930699097</v>
+        <v>1.000562816683717</v>
       </c>
       <c r="V71" t="n">
-        <v>1.000654666442967</v>
+        <v>1.000654681607293</v>
       </c>
       <c r="W71" t="n">
-        <v>42.73994411705225</v>
+        <v>42.76125573642415</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -9020,63 +9020,63 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.000620147750377</v>
+        <v>1.000620154585973</v>
       </c>
       <c r="D72" t="n">
-        <v>3.724451195579463e-05</v>
+        <v>3.726978696542806e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>330.2728164025302</v>
+        <v>330.2728141463178</v>
       </c>
       <c r="F72" t="n">
-        <v>1453.736949367484</v>
+        <v>1453.73694937279</v>
       </c>
       <c r="G72" t="n">
-        <v>1123.464132964953</v>
+        <v>1123.464135226473</v>
       </c>
       <c r="H72" t="n">
-        <v>19613.02193037613</v>
+        <v>19613.02090802709</v>
       </c>
       <c r="I72" t="n">
-        <v>1706.899987806189</v>
+        <v>1707.816970013668</v>
       </c>
       <c r="J72" t="n">
-        <v>40.57097879383238</v>
+        <v>40.57082435563608</v>
       </c>
       <c r="K72" t="n">
-        <v>5.787638931780926</v>
+        <v>5.687631104531144</v>
       </c>
       <c r="L72" t="n">
-        <v>3.724451195579463e-05</v>
+        <v>3.726978696542806e-05</v>
       </c>
       <c r="M72" t="n">
-        <v>0.6387791066490189</v>
+        <v>0.6387786424248414</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
         <v>0.00259</v>
       </c>
       <c r="P72" t="n">
-        <v>0.3678207460384191</v>
+        <v>0.3678216257479613</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.6350840209416708</v>
+        <v>0.6349970962591843</v>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
-        <v>0.01202509073803767</v>
+        <v>0.01203362959442256</v>
       </c>
       <c r="T72" t="n">
-        <v>0.4042946372202125</v>
+        <v>0.4056202728211497</v>
       </c>
       <c r="U72" t="n">
-        <v>1.00057587069694</v>
+        <v>1.000575851664239</v>
       </c>
       <c r="V72" t="n">
-        <v>1.000664428722645</v>
+        <v>1.000664461431119</v>
       </c>
       <c r="W72" t="n">
-        <v>46.35861772561331</v>
+        <v>46.25845546016723</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -9140,63 +9140,63 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.000613364045502</v>
+        <v>1.000613364671701</v>
       </c>
       <c r="D73" t="n">
-        <v>3.751285103854628e-05</v>
+        <v>3.756808172208198e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>330.2750555024613</v>
+        <v>330.2750552957705</v>
       </c>
       <c r="F73" t="n">
-        <v>1453.735969923543</v>
+        <v>1453.735969923753</v>
       </c>
       <c r="G73" t="n">
-        <v>1123.460914421081</v>
+        <v>1123.460914627982</v>
       </c>
       <c r="H73" t="n">
-        <v>19271.83409680042</v>
+        <v>19271.8349018229</v>
       </c>
       <c r="I73" t="n">
-        <v>1689.841303269126</v>
+        <v>1692.092427568033</v>
       </c>
       <c r="J73" t="n">
-        <v>35.63673312279106</v>
+        <v>35.63665861771018</v>
       </c>
       <c r="K73" t="n">
-        <v>5.538905949734389</v>
+        <v>5.464569604806523</v>
       </c>
       <c r="L73" t="n">
-        <v>3.751285103854628e-05</v>
+        <v>3.756808172208199e-05</v>
       </c>
       <c r="M73" t="n">
-        <v>0.6433137450779453</v>
+        <v>0.643313239409451</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
         <v>0.00231</v>
       </c>
       <c r="P73" t="n">
-        <v>0.3517172752116805</v>
+        <v>0.3517185083320096</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.6368951879130103</v>
+        <v>0.6366266704262716</v>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
-        <v>0.01217230755419303</v>
+        <v>0.01219087394297372</v>
       </c>
       <c r="T73" t="n">
-        <v>0.4159826878743962</v>
+        <v>0.4196495606730219</v>
       </c>
       <c r="U73" t="n">
-        <v>1.000569489841744</v>
+        <v>1.000569434223414</v>
       </c>
       <c r="V73" t="n">
-        <v>1.00065724209713</v>
+        <v>1.000657298977728</v>
       </c>
       <c r="W73" t="n">
-        <v>41.17563907252544</v>
+        <v>41.1012282225167</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -9260,63 +9260,63 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.000643793796806</v>
+        <v>1.000643793105915</v>
       </c>
       <c r="D74" t="n">
-        <v>3.820506571718487e-05</v>
+        <v>3.823864662239588e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>330.2650117807464</v>
+        <v>330.2650120087767</v>
       </c>
       <c r="F74" t="n">
-        <v>1453.734050577955</v>
+        <v>1453.734050564061</v>
       </c>
       <c r="G74" t="n">
-        <v>1123.469038797208</v>
+        <v>1123.469038555284</v>
       </c>
       <c r="H74" t="n">
-        <v>19579.9878642878</v>
+        <v>19579.98611098574</v>
       </c>
       <c r="I74" t="n">
-        <v>1714.352951557725</v>
+        <v>1715.959072274138</v>
       </c>
       <c r="J74" t="n">
-        <v>37.96088867228119</v>
+        <v>37.96075032488874</v>
       </c>
       <c r="K74" t="n">
-        <v>5.601027509880817</v>
+        <v>5.575241572833571</v>
       </c>
       <c r="L74" t="n">
-        <v>3.820506571718487e-05</v>
+        <v>3.823864662239588e-05</v>
       </c>
       <c r="M74" t="n">
-        <v>0.6443747178747117</v>
+        <v>0.6443743459924647</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
         <v>0.00246</v>
       </c>
       <c r="P74" t="n">
-        <v>0.3571357139455372</v>
+        <v>0.3571362794407087</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6527431280107854</v>
+        <v>0.6526046693981122</v>
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
-        <v>0.01237566919361378</v>
+        <v>0.0123869765895293</v>
       </c>
       <c r="T74" t="n">
-        <v>0.3591575167193172</v>
+        <v>0.3614780352099595</v>
       </c>
       <c r="U74" t="n">
-        <v>1.000598846397138</v>
+        <v>1.000598811450006</v>
       </c>
       <c r="V74" t="n">
-        <v>1.000688745234774</v>
+        <v>1.000688778806283</v>
       </c>
       <c r="W74" t="n">
-        <v>43.561916182162</v>
+        <v>43.5359918977223</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -9380,63 +9380,63 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.000609353681002</v>
+        <v>1.000609353658847</v>
       </c>
       <c r="D75" t="n">
-        <v>3.927488160854098e-05</v>
+        <v>3.928600787866355e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>330.2763792192075</v>
+        <v>330.2763792265205</v>
       </c>
       <c r="F75" t="n">
-        <v>1453.733147105305</v>
+        <v>1453.73314711402</v>
       </c>
       <c r="G75" t="n">
-        <v>1123.456767886098</v>
+        <v>1123.456767887499</v>
       </c>
       <c r="H75" t="n">
-        <v>19406.0980170909</v>
+        <v>19406.09998141165</v>
       </c>
       <c r="I75" t="n">
-        <v>1647.247060393836</v>
+        <v>1647.680475723847</v>
       </c>
       <c r="J75" t="n">
-        <v>37.24466545407137</v>
+        <v>37.24459775085641</v>
       </c>
       <c r="K75" t="n">
-        <v>6.639845883229278</v>
+        <v>6.595564206431087</v>
       </c>
       <c r="L75" t="n">
-        <v>3.927488160854098e-05</v>
+        <v>3.928600787866355e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>0.6409759267675902</v>
+        <v>0.6409753482375276</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="n">
         <v>0.00242</v>
       </c>
       <c r="P75" t="n">
-        <v>0.3507285249027713</v>
+        <v>0.350730092890887</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.6301929214308943</v>
+        <v>0.6301372800500611</v>
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
-        <v>0.01274382660350125</v>
+        <v>0.01274756699857493</v>
       </c>
       <c r="T75" t="n">
-        <v>0.4207758375711279</v>
+        <v>0.4214616329020423</v>
       </c>
       <c r="U75" t="n">
-        <v>1.000563415275807</v>
+        <v>1.000563403922748</v>
       </c>
       <c r="V75" t="n">
-        <v>1.000655296304689</v>
+        <v>1.000655307615519</v>
       </c>
       <c r="W75" t="n">
-        <v>43.88451133730064</v>
+        <v>43.84016195728749</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -9500,63 +9500,63 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.000593359738302</v>
+        <v>1.000593179604229</v>
       </c>
       <c r="D76" t="n">
-        <v>3.769940419883049e-05</v>
+        <v>3.777114842933596e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>330.2816585081744</v>
+        <v>330.2817179678846</v>
       </c>
       <c r="F76" t="n">
-        <v>1453.731503785374</v>
+        <v>1453.731503774684</v>
       </c>
       <c r="G76" t="n">
-        <v>1123.449845277199</v>
+        <v>1123.449785806799</v>
       </c>
       <c r="H76" t="n">
-        <v>19630.12585003547</v>
+        <v>19630.12297175378</v>
       </c>
       <c r="I76" t="n">
-        <v>1691.349536429517</v>
+        <v>1694.776553706855</v>
       </c>
       <c r="J76" t="n">
-        <v>39.78059792361245</v>
+        <v>39.7804478982471</v>
       </c>
       <c r="K76" t="n">
-        <v>6.426438861028926</v>
+        <v>6.264303806469123</v>
       </c>
       <c r="L76" t="n">
-        <v>3.769940419883049e-05</v>
+        <v>3.777114842933596e-05</v>
       </c>
       <c r="M76" t="n">
-        <v>0.6369969941519676</v>
+        <v>0.6369966563067221</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="n">
         <v>0.00258</v>
       </c>
       <c r="P76" t="n">
-        <v>0.3711117192359829</v>
+        <v>0.3711120569976177</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.6457295496560322</v>
+        <v>0.6454381136706245</v>
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
-        <v>0.01218119466374267</v>
+        <v>0.01220541739746058</v>
       </c>
       <c r="T76" t="n">
-        <v>0.3817151471887288</v>
+        <v>0.3868812180566973</v>
       </c>
       <c r="U76" t="n">
-        <v>1.000548642470777</v>
+        <v>1.000548388976251</v>
       </c>
       <c r="V76" t="n">
-        <v>1.000638081003081</v>
+        <v>1.000637974242588</v>
       </c>
       <c r="W76" t="n">
-        <v>46.20703678464138</v>
+        <v>46.04475170471623</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -9620,63 +9620,63 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.000649237611617</v>
+        <v>1.000649256759849</v>
       </c>
       <c r="D77" t="n">
-        <v>3.825742689638612e-05</v>
+        <v>3.832675777826191e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>330.2632150456916</v>
+        <v>330.2632087258382</v>
       </c>
       <c r="F77" t="n">
-        <v>1453.733395229364</v>
+        <v>1453.733395253101</v>
       </c>
       <c r="G77" t="n">
-        <v>1123.470180183673</v>
+        <v>1123.470186527263</v>
       </c>
       <c r="H77" t="n">
-        <v>19420.49045876294</v>
+        <v>19420.49008796712</v>
       </c>
       <c r="I77" t="n">
-        <v>1649.445241515206</v>
+        <v>1651.509903500095</v>
       </c>
       <c r="J77" t="n">
-        <v>38.31934225894891</v>
+        <v>38.31936611161676</v>
       </c>
       <c r="K77" t="n">
-        <v>6.073877333985569</v>
+        <v>6.013561643418337</v>
       </c>
       <c r="L77" t="n">
-        <v>3.825742689638612e-05</v>
+        <v>3.832675777826191e-05</v>
       </c>
       <c r="M77" t="n">
-        <v>0.6357709219003721</v>
+        <v>0.6357704260930466</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="n">
         <v>0.00244</v>
       </c>
       <c r="P77" t="n">
-        <v>0.3667358610889269</v>
+        <v>0.3667369100902871</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.6396511176263719</v>
+        <v>0.6394411133805511</v>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
-        <v>0.0123971831789524</v>
+        <v>0.01242051883753762</v>
       </c>
       <c r="T77" t="n">
-        <v>0.3829670463336919</v>
+        <v>0.3861095602016217</v>
       </c>
       <c r="U77" t="n">
-        <v>1.000604285136161</v>
+        <v>1.000604233585395</v>
       </c>
       <c r="V77" t="n">
-        <v>1.000694194126264</v>
+        <v>1.000694283986209</v>
       </c>
       <c r="W77" t="n">
-        <v>44.39321959293448</v>
+        <v>44.33292775503509</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -9740,63 +9740,63 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.000585953629435</v>
+        <v>1.000585922250823</v>
       </c>
       <c r="D78" t="n">
-        <v>4.072277881835949e-05</v>
+        <v>4.080111380281048e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>330.2841031776313</v>
+        <v>330.284113535419</v>
       </c>
       <c r="F78" t="n">
-        <v>1453.741118640672</v>
+        <v>1453.741118670436</v>
       </c>
       <c r="G78" t="n">
-        <v>1123.457015463041</v>
+        <v>1123.457005135017</v>
       </c>
       <c r="H78" t="n">
-        <v>19094.77935420485</v>
+        <v>19094.77883137715</v>
       </c>
       <c r="I78" t="n">
-        <v>1543.008401112956</v>
+        <v>1546.005302025074</v>
       </c>
       <c r="J78" t="n">
-        <v>37.126223175076</v>
+        <v>37.1262503028178</v>
       </c>
       <c r="K78" t="n">
-        <v>6.790033568116073</v>
+        <v>6.830414141296353</v>
       </c>
       <c r="L78" t="n">
-        <v>4.072277881835949e-05</v>
+        <v>4.080111380281049e-05</v>
       </c>
       <c r="M78" t="n">
-        <v>0.6363482129184378</v>
+        <v>0.6363477461383973</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="n">
         <v>0.00233</v>
       </c>
       <c r="P78" t="n">
-        <v>0.3639160851870722</v>
+        <v>0.3639170430248886</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6328563905573292</v>
+        <v>0.6324382984624978</v>
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>0.01324673266674862</v>
+        <v>0.01327300229539509</v>
       </c>
       <c r="T78" t="n">
-        <v>0.4168976992234583</v>
+        <v>0.4222777282490709</v>
       </c>
       <c r="U78" t="n">
-        <v>1.000538766602447</v>
+        <v>1.000538655651247</v>
       </c>
       <c r="V78" t="n">
-        <v>1.000633145107465</v>
+        <v>1.000633193316467</v>
       </c>
       <c r="W78" t="n">
-        <v>43.91625674319207</v>
+        <v>43.95666444411415</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
